--- a/excel/finished/能介/三四柜区运行记录表.xlsx
+++ b/excel/finished/能介/三四柜区运行记录表.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9330" windowHeight="5720"/>
   </bookViews>
   <sheets>
     <sheet name="Area_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_Area3_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_Area4_day_hour" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -969,7 +974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,12 +1019,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2025,7 +2024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2125,18 +2124,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="8" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2242,9 +2229,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2284,9 +2268,6 @@
     <xf numFmtId="20" fontId="2" fillId="6" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2332,12 +2313,6 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2383,25 +2358,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="56" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="58" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="58" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,14 +2418,14 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="21" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="65" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,16 +2434,16 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="40" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2486,122 +2461,329 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="27" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="68" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="57" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="27" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="68" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="70" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="72" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="73" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="60" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="74" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="74" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="75" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="66" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="65" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="65" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="51" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="65" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="66" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="60" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2637,313 +2819,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="60" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="65" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="51" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="66" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="65" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="27" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="68" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="57" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="27" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="68" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="70" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2953,25 +2831,121 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="71" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="72" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="73" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="60" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="74" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="65" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="66" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="74" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="75" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3009,12 +2983,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3056,7 +3033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3091,7 +3068,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3302,505 +3279,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="5.25"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="10" width="5.25"/>
-    <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="13" width="5.25"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="19" width="5.25"/>
-    <col min="20" max="20" width="5.5" customWidth="1"/>
-    <col min="21" max="21" width="5.25"/>
-    <col min="22" max="22" width="7.875" customWidth="1"/>
-    <col min="23" max="23" width="18.25" customWidth="1"/>
-    <col min="24" max="24" width="11.875" customWidth="1"/>
-    <col min="25" max="25" width="8.875" customWidth="1"/>
-    <col min="26" max="26" width="18.25" customWidth="1"/>
-    <col min="27" max="27" width="21.125" customWidth="1"/>
-    <col min="28" max="28" width="7.75" customWidth="1"/>
-    <col min="29" max="41" width="5.25"/>
-    <col min="44" max="50" width="5.25"/>
-    <col min="51" max="51" width="7.875" customWidth="1"/>
-    <col min="54" max="54" width="72.75" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="10" width="5.26953125"/>
+    <col min="11" max="11" width="5.453125" customWidth="1"/>
+    <col min="12" max="13" width="5.26953125"/>
+    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="19" width="5.26953125"/>
+    <col min="20" max="20" width="5.453125" customWidth="1"/>
+    <col min="21" max="21" width="5.26953125"/>
+    <col min="22" max="22" width="7.90625" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" customWidth="1"/>
+    <col min="24" max="24" width="11.90625" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" customWidth="1"/>
+    <col min="26" max="26" width="18.26953125" customWidth="1"/>
+    <col min="27" max="27" width="21.08984375" customWidth="1"/>
+    <col min="28" max="28" width="7.7265625" customWidth="1"/>
+    <col min="29" max="41" width="5.26953125"/>
+    <col min="44" max="50" width="5.26953125"/>
+    <col min="51" max="51" width="7.90625" customWidth="1"/>
+    <col min="54" max="54" width="72.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:54" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="157"/>
-      <c r="AK1" s="157"/>
-      <c r="AL1" s="157"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="157"/>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="157"/>
-      <c r="AT1" s="157"/>
-      <c r="AU1" s="121"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="121"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="292"/>
-      <c r="AZ1" s="292"/>
-      <c r="BA1" s="293"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
+      <c r="P1" s="295"/>
+      <c r="Q1" s="295"/>
+      <c r="R1" s="295"/>
+      <c r="S1" s="295"/>
+      <c r="T1" s="295"/>
+      <c r="U1" s="295"/>
+      <c r="V1" s="295"/>
+      <c r="W1" s="295"/>
+      <c r="X1" s="295"/>
+      <c r="Y1" s="295"/>
+      <c r="Z1" s="295"/>
+      <c r="AA1" s="295"/>
+      <c r="AB1" s="295"/>
+      <c r="AC1" s="295"/>
+      <c r="AD1" s="295"/>
+      <c r="AE1" s="295"/>
+      <c r="AF1" s="295"/>
+      <c r="AG1" s="295"/>
+      <c r="AH1" s="295"/>
+      <c r="AI1" s="295"/>
+      <c r="AJ1" s="295"/>
+      <c r="AK1" s="295"/>
+      <c r="AL1" s="295"/>
+      <c r="AM1" s="295"/>
+      <c r="AN1" s="295"/>
+      <c r="AO1" s="295"/>
+      <c r="AP1" s="295"/>
+      <c r="AQ1" s="295"/>
+      <c r="AR1" s="295"/>
+      <c r="AS1" s="295"/>
+      <c r="AT1" s="295"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="203"/>
+      <c r="AY1" s="204"/>
+      <c r="AZ1" s="204"/>
+      <c r="BA1" s="205"/>
     </row>
-    <row r="2" spans="1:54" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:54" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="159"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="294"/>
-      <c r="AY2" s="295"/>
-      <c r="AZ2" s="295"/>
-      <c r="BA2" s="296"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="297"/>
+      <c r="R2" s="297"/>
+      <c r="S2" s="297"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="297"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="297"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="297"/>
+      <c r="AN2" s="297"/>
+      <c r="AO2" s="297"/>
+      <c r="AP2" s="297"/>
+      <c r="AQ2" s="297"/>
+      <c r="AR2" s="297"/>
+      <c r="AS2" s="297"/>
+      <c r="AT2" s="297"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="114"/>
+      <c r="AW2" s="114"/>
+      <c r="AX2" s="206"/>
+      <c r="AY2" s="207"/>
+      <c r="AZ2" s="207"/>
+      <c r="BA2" s="208"/>
       <c r="BB2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="202"/>
-      <c r="B3" s="160" t="s">
+    <row r="3" spans="1:54" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="265"/>
+      <c r="B3" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="299"/>
+      <c r="T3" s="299"/>
+      <c r="U3" s="299"/>
+      <c r="V3" s="299"/>
+      <c r="W3" s="299"/>
+      <c r="X3" s="299"/>
+      <c r="Y3" s="299"/>
+      <c r="Z3" s="299"/>
+      <c r="AA3" s="299"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="299"/>
+      <c r="AD3" s="299"/>
+      <c r="AE3" s="300"/>
+      <c r="AF3" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="164"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="164"/>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="123" t="s">
+      <c r="AG3" s="302"/>
+      <c r="AH3" s="302"/>
+      <c r="AI3" s="302"/>
+      <c r="AJ3" s="302"/>
+      <c r="AK3" s="302"/>
+      <c r="AL3" s="302"/>
+      <c r="AM3" s="302"/>
+      <c r="AN3" s="302"/>
+      <c r="AO3" s="302"/>
+      <c r="AP3" s="302"/>
+      <c r="AQ3" s="302"/>
+      <c r="AR3" s="302"/>
+      <c r="AS3" s="302"/>
+      <c r="AT3" s="302"/>
+      <c r="AU3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="141"/>
-      <c r="AX3" s="262" t="s">
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="133"/>
+      <c r="AX3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="AY3" s="263"/>
-      <c r="AZ3" s="263"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="142" t="s">
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="173"/>
+      <c r="BB3" s="134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="203"/>
-      <c r="B4" s="165" t="s">
+    <row r="4" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="266"/>
+      <c r="B4" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="168" t="s">
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="305"/>
+      <c r="L4" s="306" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="169" t="s">
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="304"/>
+      <c r="P4" s="304"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="305"/>
+      <c r="V4" s="307" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="171"/>
-      <c r="AB4" s="95" t="s">
+      <c r="W4" s="308"/>
+      <c r="X4" s="308"/>
+      <c r="Y4" s="308"/>
+      <c r="Z4" s="308"/>
+      <c r="AA4" s="309"/>
+      <c r="AB4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="172" t="s">
+      <c r="AC4" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="174" t="s">
+      <c r="AD4" s="311"/>
+      <c r="AE4" s="311"/>
+      <c r="AF4" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="220" t="s">
+      <c r="AG4" s="313"/>
+      <c r="AH4" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="AI4" s="220" t="s">
+      <c r="AI4" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" s="220" t="s">
+      <c r="AJ4" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="169" t="s">
+      <c r="AK4" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="170"/>
-      <c r="AN4" s="170"/>
-      <c r="AO4" s="170"/>
-      <c r="AP4" s="170"/>
-      <c r="AQ4" s="171"/>
-      <c r="AR4" s="169" t="s">
+      <c r="AL4" s="308"/>
+      <c r="AM4" s="308"/>
+      <c r="AN4" s="308"/>
+      <c r="AO4" s="308"/>
+      <c r="AP4" s="308"/>
+      <c r="AQ4" s="309"/>
+      <c r="AR4" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="125" t="s">
+      <c r="AS4" s="308"/>
+      <c r="AT4" s="314"/>
+      <c r="AU4" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="AV4" s="125" t="s">
+      <c r="AV4" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AW4" s="143" t="s">
+      <c r="AW4" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AX4" s="265"/>
-      <c r="AY4" s="266"/>
-      <c r="AZ4" s="266"/>
-      <c r="BA4" s="267"/>
+      <c r="AX4" s="174"/>
+      <c r="AY4" s="175"/>
+      <c r="AZ4" s="175"/>
+      <c r="BA4" s="176"/>
     </row>
-    <row r="5" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="203"/>
-      <c r="B5" s="207" t="s">
+    <row r="5" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="266"/>
+      <c r="B5" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="214" t="s">
+      <c r="E5" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="214" t="s">
+      <c r="F5" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="214" t="s">
+      <c r="G5" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="214" t="s">
+      <c r="H5" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="214" t="s">
+      <c r="I5" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="214" t="s">
+      <c r="J5" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="214" t="s">
+      <c r="K5" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="214" t="s">
+      <c r="L5" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="212" t="s">
+      <c r="M5" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="214" t="s">
+      <c r="N5" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="214" t="s">
+      <c r="O5" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="214" t="s">
+      <c r="P5" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="214" t="s">
+      <c r="Q5" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="214" t="s">
+      <c r="R5" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="214" t="s">
+      <c r="S5" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="214" t="s">
+      <c r="T5" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="214" t="s">
+      <c r="U5" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="214" t="s">
+      <c r="V5" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="214" t="s">
+      <c r="W5" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="214" t="s">
+      <c r="X5" s="244" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="215" t="s">
+      <c r="Y5" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="215" t="s">
+      <c r="Z5" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="215" t="s">
+      <c r="AA5" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="212" t="s">
+      <c r="AB5" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="214" t="s">
+      <c r="AC5" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="214" t="s">
+      <c r="AD5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="217" t="s">
+      <c r="AE5" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="AF5" s="218" t="s">
+      <c r="AF5" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="214" t="s">
+      <c r="AG5" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="221"/>
-      <c r="AI5" s="221"/>
-      <c r="AJ5" s="221"/>
-      <c r="AK5" s="214" t="s">
+      <c r="AH5" s="257"/>
+      <c r="AI5" s="257"/>
+      <c r="AJ5" s="257"/>
+      <c r="AK5" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="AL5" s="214" t="s">
+      <c r="AL5" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="AM5" s="212" t="s">
+      <c r="AM5" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="212" t="s">
+      <c r="AN5" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="212" t="s">
+      <c r="AO5" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="212" t="s">
+      <c r="AP5" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="212" t="s">
+      <c r="AQ5" s="240" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="214" t="s">
+      <c r="AR5" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="AS5" s="214" t="s">
+      <c r="AS5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="AT5" s="226" t="s">
+      <c r="AT5" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="AU5" s="227"/>
-      <c r="AV5" s="227"/>
-      <c r="AW5" s="126"/>
-      <c r="AX5" s="265"/>
-      <c r="AY5" s="266"/>
-      <c r="AZ5" s="266"/>
-      <c r="BA5" s="267"/>
+      <c r="AU5" s="246"/>
+      <c r="AV5" s="246"/>
+      <c r="AW5" s="118"/>
+      <c r="AX5" s="174"/>
+      <c r="AY5" s="175"/>
+      <c r="AZ5" s="175"/>
+      <c r="BA5" s="176"/>
       <c r="BB5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="203"/>
-      <c r="B6" s="207"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="214"/>
-      <c r="O6" s="214"/>
-      <c r="P6" s="214"/>
-      <c r="Q6" s="214"/>
-      <c r="R6" s="214"/>
-      <c r="S6" s="214"/>
-      <c r="T6" s="214"/>
-      <c r="U6" s="214"/>
-      <c r="V6" s="214"/>
-      <c r="W6" s="214"/>
-      <c r="X6" s="214"/>
-      <c r="Y6" s="216"/>
-      <c r="Z6" s="216"/>
-      <c r="AA6" s="216"/>
-      <c r="AB6" s="213"/>
-      <c r="AC6" s="214"/>
-      <c r="AD6" s="214"/>
-      <c r="AE6" s="217"/>
-      <c r="AF6" s="219"/>
-      <c r="AG6" s="214"/>
-      <c r="AH6" s="213"/>
-      <c r="AI6" s="213"/>
-      <c r="AJ6" s="213"/>
-      <c r="AK6" s="214"/>
-      <c r="AL6" s="214"/>
-      <c r="AM6" s="213"/>
-      <c r="AN6" s="213"/>
-      <c r="AO6" s="213"/>
-      <c r="AP6" s="213"/>
-      <c r="AQ6" s="213"/>
-      <c r="AR6" s="214"/>
-      <c r="AS6" s="214"/>
-      <c r="AT6" s="226"/>
-      <c r="AU6" s="228"/>
-      <c r="AV6" s="228"/>
-      <c r="AW6" s="127"/>
-      <c r="AX6" s="259"/>
-      <c r="AY6" s="268"/>
-      <c r="AZ6" s="268"/>
-      <c r="BA6" s="239"/>
+    <row r="6" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="266"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="244"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="244"/>
+      <c r="U6" s="244"/>
+      <c r="V6" s="244"/>
+      <c r="W6" s="244"/>
+      <c r="X6" s="244"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="244"/>
+      <c r="AD6" s="244"/>
+      <c r="AE6" s="253"/>
+      <c r="AF6" s="255"/>
+      <c r="AG6" s="244"/>
+      <c r="AH6" s="241"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="241"/>
+      <c r="AK6" s="244"/>
+      <c r="AL6" s="244"/>
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="241"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="241"/>
+      <c r="AQ6" s="241"/>
+      <c r="AR6" s="244"/>
+      <c r="AS6" s="244"/>
+      <c r="AT6" s="245"/>
+      <c r="AU6" s="247"/>
+      <c r="AV6" s="247"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="177"/>
+      <c r="AY6" s="178"/>
+      <c r="AZ6" s="178"/>
+      <c r="BA6" s="179"/>
       <c r="BB6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="204"/>
+    <row r="7" spans="1:54" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="267"/>
       <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
@@ -3870,13 +3847,13 @@
       <c r="X7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="97" t="s">
+      <c r="Y7" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" s="97" t="s">
+      <c r="Z7" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="97" t="s">
+      <c r="AA7" s="91" t="s">
         <v>51</v>
       </c>
       <c r="AB7" s="7" t="s">
@@ -3888,382 +3865,382 @@
       <c r="AD7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AE7" s="97" t="s">
+      <c r="AE7" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="AF7" s="98" t="s">
+      <c r="AF7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AG7" s="118" t="s">
+      <c r="AG7" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="118" t="s">
+      <c r="AH7" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="118" t="s">
+      <c r="AI7" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="118" t="s">
+      <c r="AJ7" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="AK7" s="118" t="s">
+      <c r="AK7" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="118" t="s">
+      <c r="AL7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="AM7" s="96" t="s">
+      <c r="AM7" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="AN7" s="96" t="s">
+      <c r="AN7" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AO7" s="96" t="s">
+      <c r="AO7" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AP7" s="222" t="s">
+      <c r="AP7" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="AQ7" s="224" t="s">
+      <c r="AQ7" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="AR7" s="118" t="s">
+      <c r="AR7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="AS7" s="118" t="s">
+      <c r="AS7" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="AT7" s="128" t="s">
+      <c r="AT7" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="AU7" s="229" t="s">
+      <c r="AU7" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="AV7" s="230" t="s">
+      <c r="AV7" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="AW7" s="232" t="s">
+      <c r="AW7" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="AX7" s="269" t="s">
+      <c r="AX7" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="AY7" s="270"/>
-      <c r="AZ7" s="273" t="s">
+      <c r="AY7" s="181"/>
+      <c r="AZ7" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="BA7" s="236"/>
+      <c r="BA7" s="185"/>
       <c r="BB7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:54" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="298" t="s">
+      <c r="B8" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="298" t="s">
+      <c r="C8" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="298" t="s">
+      <c r="D8" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="298" t="s">
+      <c r="E8" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="298" t="s">
+      <c r="F8" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="298" t="s">
+      <c r="G8" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="298" t="s">
+      <c r="H8" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="298" t="s">
+      <c r="I8" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="298" t="s">
+      <c r="J8" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="298" t="s">
+      <c r="K8" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="298" t="s">
+      <c r="L8" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="298" t="s">
+      <c r="M8" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="298" t="s">
+      <c r="N8" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="298" t="s">
+      <c r="O8" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="298" t="s">
+      <c r="P8" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="298" t="s">
+      <c r="Q8" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="298" t="s">
+      <c r="R8" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="298" t="s">
+      <c r="S8" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="T8" s="298" t="s">
+      <c r="T8" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="298" t="s">
+      <c r="U8" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="V8" s="298" t="s">
+      <c r="V8" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="298" t="s">
+      <c r="W8" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="Y8" s="298" t="s">
+      <c r="Y8" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="Z8" s="298" t="s">
+      <c r="Z8" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="AA8" s="298" t="s">
+      <c r="AA8" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="298" t="s">
+      <c r="AC8" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="AD8" s="298" t="s">
+      <c r="AD8" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="AE8" s="298" t="s">
+      <c r="AE8" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="AF8" s="298"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="120"/>
-      <c r="AO8" s="120"/>
-      <c r="AP8" s="223"/>
-      <c r="AQ8" s="225"/>
-      <c r="AR8" s="119"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="228"/>
-      <c r="AV8" s="231"/>
-      <c r="AW8" s="233"/>
-      <c r="AX8" s="271"/>
-      <c r="AY8" s="272"/>
-      <c r="AZ8" s="274"/>
-      <c r="BA8" s="275"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="239"/>
+      <c r="AQ8" s="243"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="250"/>
+      <c r="AW8" s="237"/>
+      <c r="AX8" s="182"/>
+      <c r="AY8" s="183"/>
+      <c r="AZ8" s="186"/>
+      <c r="BA8" s="187"/>
     </row>
-    <row r="9" spans="1:54" s="301" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="299">
+    <row r="9" spans="1:54" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="150">
         <v>0</v>
       </c>
-      <c r="B9" s="300" t="str">
+      <c r="B9" s="8" t="str">
         <f>IF(_Area3_day_hour!A2="","",_Area3_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C9" s="300" t="str">
+      <c r="C9" s="9" t="str">
         <f>IF(_Area3_day_hour!B2="","",_Area3_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="D9" s="300" t="str">
+      <c r="D9" s="9" t="str">
         <f>IF(_Area3_day_hour!C2="","",_Area3_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="E9" s="300" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(_Area3_day_hour!D2="","",_Area3_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="F9" s="300" t="str">
+      <c r="F9" s="9" t="str">
         <f>IF(_Area3_day_hour!E2="","",_Area3_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="G9" s="300" t="str">
+      <c r="G9" s="9" t="str">
         <f>IF(_Area3_day_hour!F2="","",_Area3_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="H9" s="300" t="str">
+      <c r="H9" s="9" t="str">
         <f>IF(_Area3_day_hour!G2="","",_Area3_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="I9" s="300" t="str">
+      <c r="I9" s="9" t="str">
         <f>IF(_Area3_day_hour!H2="","",_Area3_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="J9" s="300" t="str">
+      <c r="J9" s="9" t="str">
         <f>IF(_Area3_day_hour!I2="","",_Area3_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="K9" s="300" t="str">
+      <c r="K9" s="9" t="str">
         <f>IF(_Area3_day_hour!J2="","",_Area3_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="L9" s="300" t="str">
+      <c r="L9" s="9" t="str">
         <f>IF(_Area3_day_hour!K2="","",_Area3_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="M9" s="300" t="str">
+      <c r="M9" s="9" t="str">
         <f>IF(_Area3_day_hour!L2="","",_Area3_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="N9" s="300" t="str">
+      <c r="N9" s="9" t="str">
         <f>IF(_Area3_day_hour!M2="","",_Area3_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="O9" s="300" t="str">
+      <c r="O9" s="9" t="str">
         <f>IF(_Area3_day_hour!N2="","",_Area3_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="P9" s="300" t="str">
+      <c r="P9" s="9" t="str">
         <f>IF(_Area3_day_hour!O2="","",_Area3_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="Q9" s="300" t="str">
+      <c r="Q9" s="9" t="str">
         <f>IF(_Area3_day_hour!P2="","",_Area3_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="R9" s="300" t="str">
+      <c r="R9" s="9" t="str">
         <f>IF(_Area3_day_hour!Q2="","",_Area3_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="S9" s="300" t="str">
+      <c r="S9" s="9" t="str">
         <f>IF(_Area3_day_hour!R2="","",_Area3_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="T9" s="300" t="str">
+      <c r="T9" s="9" t="str">
         <f>IF(_Area3_day_hour!S2="","",_Area3_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="U9" s="300" t="str">
+      <c r="U9" s="9" t="str">
         <f>IF(_Area3_day_hour!T2="","",_Area3_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="V9" s="300" t="str">
+      <c r="V9" s="9" t="str">
         <f>IF(_Area3_day_hour!U2="","",_Area3_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="W9" s="300" t="str">
+      <c r="W9" s="9" t="str">
         <f>IF(_Area3_day_hour!V2="","",_Area3_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="X9" s="301" t="str">
+      <c r="X9" s="9" t="str">
         <f>IF(_Area3_day_hour!AC2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD2&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y9" s="300" t="str">
+      <c r="Y9" s="9" t="str">
         <f>IF(_Area3_day_hour!W2="","",_Area3_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z9" s="300" t="str">
+      <c r="Z9" s="9" t="str">
         <f>IF(_Area3_day_hour!X2="","",_Area3_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA9" s="300" t="str">
+      <c r="AA9" s="9" t="str">
         <f>IF(_Area3_day_hour!Y2="","",_Area3_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB9" s="301" t="str">
+      <c r="AB9" s="9" t="str">
         <f>IF(_Area3_day_hour!AE2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF2&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC9" s="301" t="str">
+      <c r="AC9" s="9" t="str">
         <f>IF(_Area3_day_hour!Z2="","",_Area3_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AD9" s="301" t="str">
+      <c r="AD9" s="9" t="str">
         <f>IF(_Area3_day_hour!AA2="","",_Area3_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AE9" s="301" t="str">
+      <c r="AE9" s="9" t="str">
         <f>IF(_Area3_day_hour!AB2="","",_Area3_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AF9" s="301" t="str">
+      <c r="AF9" s="9" t="str">
         <f>IF(_Area4_day_hour!I2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG9" s="301" t="str">
+      <c r="AG9" s="9" t="str">
         <f>IF(_Area4_day_hour!A2="","",_Area4_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="AH9" s="301" t="str">
+      <c r="AH9" s="9" t="str">
         <f>IF(_Area4_day_hour!L2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI9" s="301" t="str">
+      <c r="AI9" s="9" t="str">
         <f>IF(_Area4_day_hour!N2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ9" s="301" t="str">
+      <c r="AJ9" s="9" t="str">
         <f>IF(_Area4_day_hour!P2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK9" s="300" t="str">
+      <c r="AK9" s="9" t="str">
         <f>IF(_Area4_day_hour!B2="","",_Area4_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="AL9" s="300" t="str">
+      <c r="AL9" s="9" t="str">
         <f>IF(_Area4_day_hour!C2="","",_Area4_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="AM9" s="301" t="str">
+      <c r="AM9" s="9" t="str">
         <f>IF(_Area4_day_hour!T2&gt;0, "1 ","")&amp;IF(_Area4_day_hour!U2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AN9" s="301" t="str">
+      <c r="AN9" s="9" t="str">
         <f>IF(_Area4_day_hour!D2="","",_Area4_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="AO9" s="300" t="str">
+      <c r="AO9" s="9" t="str">
         <f>IF(_Area4_day_hour!E2="","",_Area4_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="AP9" s="300" t="str">
+      <c r="AP9" s="9" t="str">
         <f>IF(_Area4_day_hour!AP2="","",_Area4_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AQ9" s="300" t="str">
+      <c r="AQ9" s="9" t="str">
         <f>IF(_Area4_day_hour!AQ2="","",_Area4_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AR9" s="301" t="str">
+      <c r="AR9" s="9" t="str">
         <f>IF(_Area4_day_hour!F2="","",_Area4_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="AS9" s="301" t="str">
+      <c r="AS9" s="9" t="str">
         <f>IF(_Area4_day_hour!G2="","",_Area4_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="AT9" s="301" t="str">
+      <c r="AT9" s="9" t="str">
         <f>IF(_Area4_day_hour!H2="","",_Area4_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="AU9" s="129"/>
-      <c r="AV9" s="129"/>
-      <c r="AW9" s="145"/>
-      <c r="AX9" s="234" t="s">
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="229" t="s">
         <v>86</v>
       </c>
-      <c r="AY9" s="246"/>
-      <c r="AZ9" s="256" t="s">
+      <c r="AY9" s="218"/>
+      <c r="AZ9" s="227" t="s">
         <v>87</v>
       </c>
-      <c r="BA9" s="246"/>
+      <c r="BA9" s="218"/>
     </row>
-    <row r="10" spans="1:54" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="302">
+    <row r="10" spans="1:54" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="152">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B10" s="8" t="str">
@@ -4382,7 +4359,7 @@
         <f>IF(_Area3_day_hour!AA3="","",_Area3_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AE10" s="99" t="str">
+      <c r="AE10" s="93" t="str">
         <f>IF(_Area3_day_hour!AB3="","",_Area3_day_hour!AB3)</f>
         <v/>
       </c>
@@ -4446,16 +4423,16 @@
         <f>IF(_Area4_day_hour!H3="","",_Area4_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="146"/>
-      <c r="AX10" s="235"/>
-      <c r="AY10" s="247"/>
-      <c r="AZ10" s="257"/>
-      <c r="BA10" s="247"/>
+      <c r="AU10" s="122"/>
+      <c r="AV10" s="122"/>
+      <c r="AW10" s="138"/>
+      <c r="AX10" s="230"/>
+      <c r="AY10" s="219"/>
+      <c r="AZ10" s="228"/>
+      <c r="BA10" s="219"/>
     </row>
-    <row r="11" spans="1:54" s="303" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="302">
+    <row r="11" spans="1:54" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="152">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B11" s="8" t="str">
@@ -4574,7 +4551,7 @@
         <f>IF(_Area3_day_hour!AA4="","",_Area3_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AE11" s="99" t="str">
+      <c r="AE11" s="93" t="str">
         <f>IF(_Area3_day_hour!AB4="","",_Area3_day_hour!AB4)</f>
         <v/>
       </c>
@@ -4638,20 +4615,20 @@
         <f>IF(_Area4_day_hour!H4="","",_Area4_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="AU11" s="130"/>
-      <c r="AV11" s="130"/>
-      <c r="AW11" s="145"/>
-      <c r="AX11" s="234" t="s">
+      <c r="AU11" s="122"/>
+      <c r="AV11" s="122"/>
+      <c r="AW11" s="137"/>
+      <c r="AX11" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="AY11" s="246"/>
-      <c r="AZ11" s="256" t="s">
+      <c r="AY11" s="218"/>
+      <c r="AZ11" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="BA11" s="246"/>
+      <c r="BA11" s="218"/>
     </row>
-    <row r="12" spans="1:54" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="302">
+    <row r="12" spans="1:54" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="152">
         <v>0.125</v>
       </c>
       <c r="B12" s="8" t="str">
@@ -4770,7 +4747,7 @@
         <f>IF(_Area3_day_hour!AA5="","",_Area3_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AE12" s="99" t="str">
+      <c r="AE12" s="93" t="str">
         <f>IF(_Area3_day_hour!AB5="","",_Area3_day_hour!AB5)</f>
         <v/>
       </c>
@@ -4834,16 +4811,16 @@
         <f>IF(_Area4_day_hour!H5="","",_Area4_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="AU12" s="130"/>
-      <c r="AV12" s="130"/>
-      <c r="AW12" s="146"/>
-      <c r="AX12" s="235"/>
-      <c r="AY12" s="247"/>
-      <c r="AZ12" s="257"/>
-      <c r="BA12" s="247"/>
+      <c r="AU12" s="122"/>
+      <c r="AV12" s="122"/>
+      <c r="AW12" s="138"/>
+      <c r="AX12" s="230"/>
+      <c r="AY12" s="219"/>
+      <c r="AZ12" s="228"/>
+      <c r="BA12" s="219"/>
     </row>
-    <row r="13" spans="1:54" s="303" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="302">
+    <row r="13" spans="1:54" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="152">
         <v>0.16666666666666699</v>
       </c>
       <c r="B13" s="8" t="str">
@@ -4962,7 +4939,7 @@
         <f>IF(_Area3_day_hour!AA6="","",_Area3_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AE13" s="99" t="str">
+      <c r="AE13" s="93" t="str">
         <f>IF(_Area3_day_hour!AB6="","",_Area3_day_hour!AB6)</f>
         <v/>
       </c>
@@ -5026,18 +5003,18 @@
         <f>IF(_Area4_day_hour!H6="","",_Area4_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="AU13" s="130"/>
-      <c r="AV13" s="130"/>
-      <c r="AW13" s="145"/>
-      <c r="AX13" s="234" t="s">
+      <c r="AU13" s="122"/>
+      <c r="AV13" s="122"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="AY13" s="246"/>
-      <c r="AZ13" s="256"/>
-      <c r="BA13" s="246"/>
+      <c r="AY13" s="218"/>
+      <c r="AZ13" s="227"/>
+      <c r="BA13" s="218"/>
     </row>
-    <row r="14" spans="1:54" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="302">
+    <row r="14" spans="1:54" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="152">
         <v>0.20833333333333301</v>
       </c>
       <c r="B14" s="8" t="str">
@@ -5156,7 +5133,7 @@
         <f>IF(_Area3_day_hour!AA7="","",_Area3_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AE14" s="99" t="str">
+      <c r="AE14" s="93" t="str">
         <f>IF(_Area3_day_hour!AB7="","",_Area3_day_hour!AB7)</f>
         <v/>
       </c>
@@ -5220,16 +5197,16 @@
         <f>IF(_Area4_day_hour!H7="","",_Area4_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="AU14" s="130"/>
-      <c r="AV14" s="130"/>
-      <c r="AW14" s="146"/>
-      <c r="AX14" s="235"/>
-      <c r="AY14" s="248"/>
-      <c r="AZ14" s="257"/>
-      <c r="BA14" s="248"/>
+      <c r="AU14" s="122"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="138"/>
+      <c r="AX14" s="230"/>
+      <c r="AY14" s="220"/>
+      <c r="AZ14" s="228"/>
+      <c r="BA14" s="220"/>
     </row>
-    <row r="15" spans="1:54" s="303" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="302">
+    <row r="15" spans="1:54" s="153" customFormat="1" ht="60.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="152">
         <v>0.25</v>
       </c>
       <c r="B15" s="8" t="str">
@@ -5348,7 +5325,7 @@
         <f>IF(_Area3_day_hour!AA8="","",_Area3_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AE15" s="99" t="str">
+      <c r="AE15" s="93" t="str">
         <f>IF(_Area3_day_hour!AB8="","",_Area3_day_hour!AB8)</f>
         <v/>
       </c>
@@ -5412,23 +5389,23 @@
         <f>IF(_Area4_day_hour!H8="","",_Area4_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="AU15" s="130"/>
-      <c r="AV15" s="130"/>
-      <c r="AW15" s="145"/>
-      <c r="AX15" s="147" t="s">
+      <c r="AU15" s="122"/>
+      <c r="AV15" s="122"/>
+      <c r="AW15" s="137"/>
+      <c r="AX15" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="AY15" s="148"/>
-      <c r="AZ15" s="149" t="s">
+      <c r="AY15" s="140"/>
+      <c r="AZ15" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="BA15" s="148"/>
+      <c r="BA15" s="140"/>
     </row>
-    <row r="16" spans="1:54" s="297" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="304">
+    <row r="16" spans="1:54" s="148" customFormat="1" ht="60.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="154">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B16" s="305" t="str">
+      <c r="B16" s="155" t="str">
         <f>IF(_Area3_day_hour!A9="","",_Area3_day_hour!A9)</f>
         <v/>
       </c>
@@ -5436,192 +5413,192 @@
         <f>IF(_Area3_day_hour!B9="","",_Area3_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="D16" s="67" t="str">
+      <c r="D16" s="63" t="str">
         <f>IF(_Area3_day_hour!C9="","",_Area3_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="E16" s="67" t="str">
+      <c r="E16" s="63" t="str">
         <f>IF(_Area3_day_hour!D9="","",_Area3_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="F16" s="67" t="str">
+      <c r="F16" s="63" t="str">
         <f>IF(_Area3_day_hour!E9="","",_Area3_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="G16" s="67" t="str">
+      <c r="G16" s="63" t="str">
         <f>IF(_Area3_day_hour!F9="","",_Area3_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="H16" s="102" t="str">
+      <c r="H16" s="96" t="str">
         <f>IF(_Area3_day_hour!G9="","",_Area3_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="I16" s="102" t="str">
+      <c r="I16" s="96" t="str">
         <f>IF(_Area3_day_hour!H9="","",_Area3_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="J16" s="102" t="str">
+      <c r="J16" s="96" t="str">
         <f>IF(_Area3_day_hour!I9="","",_Area3_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="K16" s="102" t="str">
+      <c r="K16" s="96" t="str">
         <f>IF(_Area3_day_hour!J9="","",_Area3_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="L16" s="102" t="str">
+      <c r="L16" s="96" t="str">
         <f>IF(_Area3_day_hour!K9="","",_Area3_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="M16" s="102" t="str">
+      <c r="M16" s="96" t="str">
         <f>IF(_Area3_day_hour!L9="","",_Area3_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="N16" s="102" t="str">
+      <c r="N16" s="96" t="str">
         <f>IF(_Area3_day_hour!M9="","",_Area3_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="O16" s="102" t="str">
+      <c r="O16" s="96" t="str">
         <f>IF(_Area3_day_hour!N9="","",_Area3_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="P16" s="102" t="str">
+      <c r="P16" s="96" t="str">
         <f>IF(_Area3_day_hour!O9="","",_Area3_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="Q16" s="102" t="str">
+      <c r="Q16" s="96" t="str">
         <f>IF(_Area3_day_hour!P9="","",_Area3_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="R16" s="102" t="str">
+      <c r="R16" s="96" t="str">
         <f>IF(_Area3_day_hour!Q9="","",_Area3_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="S16" s="102" t="str">
+      <c r="S16" s="96" t="str">
         <f>IF(_Area3_day_hour!R9="","",_Area3_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="T16" s="102" t="str">
+      <c r="T16" s="96" t="str">
         <f>IF(_Area3_day_hour!S9="","",_Area3_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="U16" s="102" t="str">
+      <c r="U16" s="96" t="str">
         <f>IF(_Area3_day_hour!T9="","",_Area3_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="V16" s="102" t="str">
+      <c r="V16" s="96" t="str">
         <f>IF(_Area3_day_hour!U9="","",_Area3_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="W16" s="102" t="str">
+      <c r="W16" s="96" t="str">
         <f>IF(_Area3_day_hour!V9="","",_Area3_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="X16" s="102" t="str">
+      <c r="X16" s="96" t="str">
         <f>IF(_Area3_day_hour!AC9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD9&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y16" s="102" t="str">
+      <c r="Y16" s="96" t="str">
         <f>IF(_Area3_day_hour!W9="","",_Area3_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z16" s="102" t="str">
+      <c r="Z16" s="96" t="str">
         <f>IF(_Area3_day_hour!X9="","",_Area3_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA16" s="102" t="str">
+      <c r="AA16" s="96" t="str">
         <f>IF(_Area3_day_hour!Y9="","",_Area3_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB16" s="102" t="str">
+      <c r="AB16" s="96" t="str">
         <f>IF(_Area3_day_hour!AE9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF9&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC16" s="102" t="str">
+      <c r="AC16" s="96" t="str">
         <f>IF(_Area3_day_hour!Z9="","",_Area3_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AD16" s="102" t="str">
+      <c r="AD16" s="96" t="str">
         <f>IF(_Area3_day_hour!AA9="","",_Area3_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AE16" s="306" t="str">
+      <c r="AE16" s="156" t="str">
         <f>IF(_Area3_day_hour!AB9="","",_Area3_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AF16" s="102" t="str">
+      <c r="AF16" s="96" t="str">
         <f>IF(_Area4_day_hour!I9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG16" s="102" t="str">
+      <c r="AG16" s="96" t="str">
         <f>IF(_Area4_day_hour!A9="","",_Area4_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="AH16" s="102" t="str">
+      <c r="AH16" s="96" t="str">
         <f>IF(_Area4_day_hour!L9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI16" s="102" t="str">
+      <c r="AI16" s="96" t="str">
         <f>IF(_Area4_day_hour!N9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ16" s="102" t="str">
+      <c r="AJ16" s="96" t="str">
         <f>IF(_Area4_day_hour!P9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK16" s="102" t="str">
+      <c r="AK16" s="96" t="str">
         <f>IF(_Area4_day_hour!B9="","",_Area4_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="AL16" s="102" t="str">
+      <c r="AL16" s="96" t="str">
         <f>IF(_Area4_day_hour!C9="","",_Area4_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="AM16" s="102" t="str">
+      <c r="AM16" s="96" t="str">
         <f>IF(_Area4_day_hour!T9&gt;0, "1 ","")&amp;IF(_Area4_day_hour!U9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AN16" s="102" t="str">
+      <c r="AN16" s="96" t="str">
         <f>IF(_Area4_day_hour!D9="","",_Area4_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="AO16" s="102" t="str">
+      <c r="AO16" s="96" t="str">
         <f>IF(_Area4_day_hour!E9="","",_Area4_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="AP16" s="102" t="str">
+      <c r="AP16" s="96" t="str">
         <f>IF(_Area4_day_hour!AP9="","",_Area4_day_hour!AP9)</f>
         <v/>
       </c>
-      <c r="AQ16" s="102" t="str">
+      <c r="AQ16" s="96" t="str">
         <f>IF(_Area4_day_hour!AQ9="","",_Area4_day_hour!AQ9)</f>
         <v/>
       </c>
-      <c r="AR16" s="102" t="str">
+      <c r="AR16" s="96" t="str">
         <f>IF(_Area4_day_hour!F9="","",_Area4_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="AS16" s="102" t="str">
+      <c r="AS16" s="96" t="str">
         <f>IF(_Area4_day_hour!G9="","",_Area4_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="AT16" s="102" t="str">
+      <c r="AT16" s="96" t="str">
         <f>IF(_Area4_day_hour!H9="","",_Area4_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="AU16" s="131"/>
-      <c r="AV16" s="131"/>
-      <c r="AW16" s="307"/>
-      <c r="AX16" s="144" t="s">
+      <c r="AU16" s="123"/>
+      <c r="AV16" s="123"/>
+      <c r="AW16" s="157"/>
+      <c r="AX16" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="AY16" s="148"/>
-      <c r="AZ16" s="150" t="s">
+      <c r="AY16" s="140"/>
+      <c r="AZ16" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="BA16" s="148"/>
+      <c r="BA16" s="140"/>
     </row>
-    <row r="17" spans="1:53" s="301" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="299">
+    <row r="17" spans="1:53" s="151" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="150">
         <v>0.33333333333333298</v>
       </c>
       <c r="B17" s="12" t="str">
@@ -5664,7 +5641,7 @@
         <f>IF(_Area3_day_hour!J10="","",_Area3_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="L17" s="66" t="str">
+      <c r="L17" s="62" t="str">
         <f>IF(_Area3_day_hour!K10="","",_Area3_day_hour!K10)</f>
         <v/>
       </c>
@@ -5704,7 +5681,7 @@
         <f>IF(_Area3_day_hour!T10="","",_Area3_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="V17" s="82" t="str">
+      <c r="V17" s="77" t="str">
         <f>IF(_Area3_day_hour!U10="","",_Area3_day_hour!U10)</f>
         <v/>
       </c>
@@ -5732,15 +5709,15 @@
         <f>IF(_Area3_day_hour!AE10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF10&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC17" s="82" t="str">
+      <c r="AC17" s="77" t="str">
         <f>IF(_Area3_day_hour!Z10="","",_Area3_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AD17" s="82" t="str">
+      <c r="AD17" s="77" t="str">
         <f>IF(_Area3_day_hour!AA10="","",_Area3_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AE17" s="100" t="str">
+      <c r="AE17" s="94" t="str">
         <f>IF(_Area3_day_hour!AB10="","",_Area3_day_hour!AB10)</f>
         <v/>
       </c>
@@ -5764,7 +5741,7 @@
         <f>IF(_Area4_day_hour!P10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK17" s="82" t="str">
+      <c r="AK17" s="77" t="str">
         <f>IF(_Area4_day_hour!B10="","",_Area4_day_hour!B10)</f>
         <v/>
       </c>
@@ -5792,32 +5769,32 @@
         <f>IF(_Area4_day_hour!AQ10="","",_Area4_day_hour!AQ10)</f>
         <v/>
       </c>
-      <c r="AR17" s="82" t="str">
+      <c r="AR17" s="77" t="str">
         <f>IF(_Area4_day_hour!F10="","",_Area4_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="AS17" s="82" t="str">
+      <c r="AS17" s="77" t="str">
         <f>IF(_Area4_day_hour!G10="","",_Area4_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="AT17" s="135" t="str">
+      <c r="AT17" s="127" t="str">
         <f>IF(_Area4_day_hour!H10="","",_Area4_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="AU17" s="308"/>
-      <c r="AV17" s="308"/>
-      <c r="AW17" s="151"/>
-      <c r="AX17" s="234" t="s">
+      <c r="AU17" s="158"/>
+      <c r="AV17" s="158"/>
+      <c r="AW17" s="143"/>
+      <c r="AX17" s="229" t="s">
         <v>86</v>
       </c>
-      <c r="AY17" s="246"/>
-      <c r="AZ17" s="256" t="s">
+      <c r="AY17" s="218"/>
+      <c r="AZ17" s="227" t="s">
         <v>87</v>
       </c>
-      <c r="BA17" s="246"/>
+      <c r="BA17" s="218"/>
     </row>
-    <row r="18" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="302">
+    <row r="18" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="152">
         <v>0.375</v>
       </c>
       <c r="B18" s="15" t="str">
@@ -5936,7 +5913,7 @@
         <f>IF(_Area3_day_hour!AA11="","",_Area3_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AE18" s="101" t="str">
+      <c r="AE18" s="95" t="str">
         <f>IF(_Area3_day_hour!AB11="","",_Area3_day_hour!AB11)</f>
         <v/>
       </c>
@@ -5996,20 +5973,20 @@
         <f>IF(_Area4_day_hour!G11="","",_Area4_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="AT18" s="132" t="str">
+      <c r="AT18" s="124" t="str">
         <f>IF(_Area4_day_hour!H11="","",_Area4_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="AU18" s="133"/>
-      <c r="AV18" s="133"/>
-      <c r="AW18" s="151"/>
-      <c r="AX18" s="235"/>
-      <c r="AY18" s="247"/>
-      <c r="AZ18" s="257"/>
-      <c r="BA18" s="247"/>
+      <c r="AU18" s="125"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="143"/>
+      <c r="AX18" s="230"/>
+      <c r="AY18" s="219"/>
+      <c r="AZ18" s="228"/>
+      <c r="BA18" s="219"/>
     </row>
-    <row r="19" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="309">
+    <row r="19" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="159">
         <v>0.41666666666666702</v>
       </c>
       <c r="B19" s="15" t="str">
@@ -6128,7 +6105,7 @@
         <f>IF(_Area3_day_hour!AA12="","",_Area3_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AE19" s="101" t="str">
+      <c r="AE19" s="95" t="str">
         <f>IF(_Area3_day_hour!AB12="","",_Area3_day_hour!AB12)</f>
         <v/>
       </c>
@@ -6188,24 +6165,24 @@
         <f>IF(_Area4_day_hour!G12="","",_Area4_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="AT19" s="132" t="str">
+      <c r="AT19" s="124" t="str">
         <f>IF(_Area4_day_hour!H12="","",_Area4_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="AU19" s="133"/>
-      <c r="AV19" s="133"/>
-      <c r="AW19" s="151"/>
-      <c r="AX19" s="234" t="s">
+      <c r="AU19" s="125"/>
+      <c r="AV19" s="125"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="AY19" s="246"/>
-      <c r="AZ19" s="256" t="s">
+      <c r="AY19" s="218"/>
+      <c r="AZ19" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="BA19" s="246"/>
+      <c r="BA19" s="218"/>
     </row>
-    <row r="20" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="309">
+    <row r="20" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="159">
         <v>0.45833333333333298</v>
       </c>
       <c r="B20" s="16" t="str">
@@ -6324,7 +6301,7 @@
         <f>IF(_Area3_day_hour!AA13="","",_Area3_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AE20" s="101" t="str">
+      <c r="AE20" s="95" t="str">
         <f>IF(_Area3_day_hour!AB13="","",_Area3_day_hour!AB13)</f>
         <v/>
       </c>
@@ -6384,20 +6361,20 @@
         <f>IF(_Area4_day_hour!G13="","",_Area4_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="AT20" s="132" t="str">
+      <c r="AT20" s="124" t="str">
         <f>IF(_Area4_day_hour!H13="","",_Area4_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="AU20" s="133"/>
-      <c r="AV20" s="134"/>
-      <c r="AW20" s="151"/>
-      <c r="AX20" s="235"/>
-      <c r="AY20" s="247"/>
-      <c r="AZ20" s="257"/>
-      <c r="BA20" s="247"/>
+      <c r="AU20" s="125"/>
+      <c r="AV20" s="126"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="230"/>
+      <c r="AY20" s="219"/>
+      <c r="AZ20" s="228"/>
+      <c r="BA20" s="219"/>
     </row>
-    <row r="21" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="309">
+    <row r="21" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="159">
         <v>0.5</v>
       </c>
       <c r="B21" s="16" t="str">
@@ -6516,7 +6493,7 @@
         <f>IF(_Area3_day_hour!AA14="","",_Area3_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AE21" s="101" t="str">
+      <c r="AE21" s="95" t="str">
         <f>IF(_Area3_day_hour!AB14="","",_Area3_day_hour!AB14)</f>
         <v/>
       </c>
@@ -6576,22 +6553,22 @@
         <f>IF(_Area4_day_hour!G14="","",_Area4_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="AT21" s="132" t="str">
+      <c r="AT21" s="124" t="str">
         <f>IF(_Area4_day_hour!H14="","",_Area4_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="AU21" s="133"/>
-      <c r="AV21" s="134"/>
-      <c r="AW21" s="151"/>
-      <c r="AX21" s="234" t="s">
+      <c r="AU21" s="125"/>
+      <c r="AV21" s="126"/>
+      <c r="AW21" s="143"/>
+      <c r="AX21" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="AY21" s="246"/>
-      <c r="AZ21" s="256"/>
-      <c r="BA21" s="246"/>
+      <c r="AY21" s="218"/>
+      <c r="AZ21" s="227"/>
+      <c r="BA21" s="218"/>
     </row>
-    <row r="22" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="309">
+    <row r="22" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="159">
         <v>0.54166666666666696</v>
       </c>
       <c r="B22" s="16" t="str">
@@ -6710,7 +6687,7 @@
         <f>IF(_Area3_day_hour!AA15="","",_Area3_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AE22" s="101" t="str">
+      <c r="AE22" s="95" t="str">
         <f>IF(_Area3_day_hour!AB15="","",_Area3_day_hour!AB15)</f>
         <v/>
       </c>
@@ -6770,20 +6747,20 @@
         <f>IF(_Area4_day_hour!G15="","",_Area4_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="AT22" s="132" t="str">
+      <c r="AT22" s="124" t="str">
         <f>IF(_Area4_day_hour!H15="","",_Area4_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="AU22" s="133"/>
-      <c r="AV22" s="134"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="235"/>
-      <c r="AY22" s="248"/>
-      <c r="AZ22" s="257"/>
-      <c r="BA22" s="248"/>
+      <c r="AU22" s="125"/>
+      <c r="AV22" s="126"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="230"/>
+      <c r="AY22" s="220"/>
+      <c r="AZ22" s="228"/>
+      <c r="BA22" s="220"/>
     </row>
-    <row r="23" spans="1:53" s="303" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="309">
+    <row r="23" spans="1:53" s="153" customFormat="1" ht="60.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="159">
         <v>0.58333333333333304</v>
       </c>
       <c r="B23" s="16" t="str">
@@ -6902,7 +6879,7 @@
         <f>IF(_Area3_day_hour!AA16="","",_Area3_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AE23" s="101" t="str">
+      <c r="AE23" s="95" t="str">
         <f>IF(_Area3_day_hour!AB16="","",_Area3_day_hour!AB16)</f>
         <v/>
       </c>
@@ -6962,24 +6939,24 @@
         <f>IF(_Area4_day_hour!G16="","",_Area4_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="AT23" s="132" t="str">
+      <c r="AT23" s="124" t="str">
         <f>IF(_Area4_day_hour!H16="","",_Area4_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="AU23" s="133"/>
-      <c r="AV23" s="133"/>
-      <c r="AW23" s="151"/>
-      <c r="AX23" s="147" t="s">
+      <c r="AU23" s="125"/>
+      <c r="AV23" s="125"/>
+      <c r="AW23" s="143"/>
+      <c r="AX23" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="AY23" s="148"/>
-      <c r="AZ23" s="149" t="s">
+      <c r="AY23" s="140"/>
+      <c r="AZ23" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="BA23" s="148"/>
+      <c r="BA23" s="140"/>
     </row>
-    <row r="24" spans="1:53" s="297" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="310">
+    <row r="24" spans="1:53" s="148" customFormat="1" ht="60.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="160">
         <v>0.625</v>
       </c>
       <c r="B24" s="19" t="str">
@@ -7022,7 +6999,7 @@
         <f>IF(_Area3_day_hour!J17="","",_Area3_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="L24" s="67" t="str">
+      <c r="L24" s="63" t="str">
         <f>IF(_Area3_day_hour!K17="","",_Area3_day_hour!K17)</f>
         <v/>
       </c>
@@ -7070,7 +7047,7 @@
         <f>IF(_Area3_day_hour!V17="","",_Area3_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="X24" s="102" t="str">
+      <c r="X24" s="96" t="str">
         <f>IF(_Area3_day_hour!AC17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD17&gt;0," 2 ","")</f>
         <v/>
       </c>
@@ -7086,7 +7063,7 @@
         <f>IF(_Area3_day_hour!Y17="","",_Area3_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB24" s="102" t="str">
+      <c r="AB24" s="96" t="str">
         <f>IF(_Area3_day_hour!AE17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF17&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7098,11 +7075,11 @@
         <f>IF(_Area3_day_hour!AA17="","",_Area3_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AE24" s="103" t="str">
+      <c r="AE24" s="97" t="str">
         <f>IF(_Area3_day_hour!AB17="","",_Area3_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AF24" s="102" t="str">
+      <c r="AF24" s="96" t="str">
         <f>IF(_Area4_day_hour!I17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7110,15 +7087,15 @@
         <f>IF(_Area4_day_hour!A17="","",_Area4_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="AH24" s="102" t="str">
+      <c r="AH24" s="96" t="str">
         <f>IF(_Area4_day_hour!L17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI24" s="102" t="str">
+      <c r="AI24" s="96" t="str">
         <f>IF(_Area4_day_hour!N17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="102" t="str">
+      <c r="AJ24" s="96" t="str">
         <f>IF(_Area4_day_hour!P17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7130,23 +7107,23 @@
         <f>IF(_Area4_day_hour!C17="","",_Area4_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="AM24" s="102" t="str">
+      <c r="AM24" s="96" t="str">
         <f>IF(_Area4_day_hour!T17&gt;0, "1 ","")&amp;IF(_Area4_day_hour!U17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AN24" s="102" t="str">
+      <c r="AN24" s="96" t="str">
         <f>IF(_Area4_day_hour!D17="","",_Area4_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="AO24" s="102" t="str">
+      <c r="AO24" s="96" t="str">
         <f>IF(_Area4_day_hour!E17="","",_Area4_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="AP24" s="102" t="str">
+      <c r="AP24" s="96" t="str">
         <f>IF(_Area4_day_hour!AP17="","",_Area4_day_hour!AP17)</f>
         <v/>
       </c>
-      <c r="AQ24" s="102" t="str">
+      <c r="AQ24" s="96" t="str">
         <f>IF(_Area4_day_hour!AQ17="","",_Area4_day_hour!AQ17)</f>
         <v/>
       </c>
@@ -7158,111 +7135,111 @@
         <f>IF(_Area4_day_hour!G17="","",_Area4_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="AT24" s="138" t="str">
+      <c r="AT24" s="130" t="str">
         <f>IF(_Area4_day_hour!H17="","",_Area4_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="AU24" s="311"/>
-      <c r="AV24" s="311"/>
-      <c r="AW24" s="312"/>
-      <c r="AX24" s="144" t="s">
+      <c r="AU24" s="161"/>
+      <c r="AV24" s="161"/>
+      <c r="AW24" s="162"/>
+      <c r="AX24" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="AY24" s="148"/>
-      <c r="AZ24" s="150" t="s">
+      <c r="AY24" s="140"/>
+      <c r="AZ24" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="BA24" s="148"/>
+      <c r="BA24" s="140"/>
     </row>
-    <row r="25" spans="1:53" s="301" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="318">
+    <row r="25" spans="1:53" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+      <c r="A25" s="165">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B25" s="319" t="str">
+      <c r="B25" s="166" t="str">
         <f>IF(_Area3_day_hour!A18="","",_Area3_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="C25" s="320" t="str">
+      <c r="C25" s="167" t="str">
         <f>IF(_Area3_day_hour!B18="","",_Area3_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="D25" s="66" t="str">
+      <c r="D25" s="62" t="str">
         <f>IF(_Area3_day_hour!C18="","",_Area3_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="E25" s="66" t="str">
+      <c r="E25" s="62" t="str">
         <f>IF(_Area3_day_hour!D18="","",_Area3_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="F25" s="66" t="str">
+      <c r="F25" s="62" t="str">
         <f>IF(_Area3_day_hour!E18="","",_Area3_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="G25" s="66" t="str">
+      <c r="G25" s="62" t="str">
         <f>IF(_Area3_day_hour!F18="","",_Area3_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="H25" s="82" t="str">
+      <c r="H25" s="77" t="str">
         <f>IF(_Area3_day_hour!G18="","",_Area3_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="I25" s="82" t="str">
+      <c r="I25" s="77" t="str">
         <f>IF(_Area3_day_hour!H18="","",_Area3_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="J25" s="82" t="str">
+      <c r="J25" s="77" t="str">
         <f>IF(_Area3_day_hour!I18="","",_Area3_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="K25" s="82" t="str">
+      <c r="K25" s="77" t="str">
         <f>IF(_Area3_day_hour!J18="","",_Area3_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="L25" s="66" t="str">
+      <c r="L25" s="62" t="str">
         <f>IF(_Area3_day_hour!K18="","",_Area3_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="M25" s="82" t="str">
+      <c r="M25" s="77" t="str">
         <f>IF(_Area3_day_hour!L18="","",_Area3_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="N25" s="82" t="str">
+      <c r="N25" s="77" t="str">
         <f>IF(_Area3_day_hour!M18="","",_Area3_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="O25" s="82" t="str">
+      <c r="O25" s="77" t="str">
         <f>IF(_Area3_day_hour!N18="","",_Area3_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="P25" s="82" t="str">
+      <c r="P25" s="77" t="str">
         <f>IF(_Area3_day_hour!O18="","",_Area3_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="Q25" s="82" t="str">
+      <c r="Q25" s="77" t="str">
         <f>IF(_Area3_day_hour!P18="","",_Area3_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="R25" s="82" t="str">
+      <c r="R25" s="77" t="str">
         <f>IF(_Area3_day_hour!Q18="","",_Area3_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="S25" s="82" t="str">
+      <c r="S25" s="77" t="str">
         <f>IF(_Area3_day_hour!R18="","",_Area3_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="T25" s="82" t="str">
+      <c r="T25" s="77" t="str">
         <f>IF(_Area3_day_hour!S18="","",_Area3_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="U25" s="82" t="str">
+      <c r="U25" s="77" t="str">
         <f>IF(_Area3_day_hour!T18="","",_Area3_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="V25" s="82" t="str">
+      <c r="V25" s="77" t="str">
         <f>IF(_Area3_day_hour!U18="","",_Area3_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="W25" s="82" t="str">
+      <c r="W25" s="77" t="str">
         <f>IF(_Area3_day_hour!V18="","",_Area3_day_hour!V18)</f>
         <v/>
       </c>
@@ -7270,15 +7247,15 @@
         <f>IF(_Area3_day_hour!AC18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD18&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y25" s="82" t="str">
+      <c r="Y25" s="77" t="str">
         <f>IF(_Area3_day_hour!W18="","",_Area3_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z25" s="82" t="str">
+      <c r="Z25" s="77" t="str">
         <f>IF(_Area3_day_hour!X18="","",_Area3_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA25" s="82" t="str">
+      <c r="AA25" s="77" t="str">
         <f>IF(_Area3_day_hour!Y18="","",_Area3_day_hour!Y18)</f>
         <v/>
       </c>
@@ -7286,15 +7263,15 @@
         <f>IF(_Area3_day_hour!AE18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF18&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC25" s="82" t="str">
+      <c r="AC25" s="77" t="str">
         <f>IF(_Area3_day_hour!Z18="","",_Area3_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AD25" s="82" t="str">
+      <c r="AD25" s="77" t="str">
         <f>IF(_Area3_day_hour!AA18="","",_Area3_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AE25" s="100" t="str">
+      <c r="AE25" s="94" t="str">
         <f>IF(_Area3_day_hour!AB18="","",_Area3_day_hour!AB18)</f>
         <v/>
       </c>
@@ -7302,7 +7279,7 @@
         <f>IF(_Area4_day_hour!I18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG25" s="82" t="str">
+      <c r="AG25" s="77" t="str">
         <f>IF(_Area4_day_hour!A18="","",_Area4_day_hour!A18)</f>
         <v/>
       </c>
@@ -7318,11 +7295,11 @@
         <f>IF(_Area4_day_hour!P18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK25" s="82" t="str">
+      <c r="AK25" s="77" t="str">
         <f>IF(_Area4_day_hour!B18="","",_Area4_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="AL25" s="82" t="str">
+      <c r="AL25" s="77" t="str">
         <f>IF(_Area4_day_hour!C18="","",_Area4_day_hour!C18)</f>
         <v/>
       </c>
@@ -7346,32 +7323,32 @@
         <f>IF(_Area4_day_hour!AQ18="","",_Area4_day_hour!AQ18)</f>
         <v/>
       </c>
-      <c r="AR25" s="82" t="str">
+      <c r="AR25" s="77" t="str">
         <f>IF(_Area4_day_hour!F18="","",_Area4_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="AS25" s="82" t="str">
+      <c r="AS25" s="77" t="str">
         <f>IF(_Area4_day_hour!G18="","",_Area4_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="AT25" s="135" t="str">
+      <c r="AT25" s="127" t="str">
         <f>IF(_Area4_day_hour!H18="","",_Area4_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="AU25" s="136"/>
-      <c r="AV25" s="136"/>
-      <c r="AW25" s="151"/>
-      <c r="AX25" s="234" t="s">
+      <c r="AU25" s="128"/>
+      <c r="AV25" s="128"/>
+      <c r="AW25" s="143"/>
+      <c r="AX25" s="229" t="s">
         <v>86</v>
       </c>
-      <c r="AY25" s="246"/>
-      <c r="AZ25" s="256" t="s">
+      <c r="AY25" s="218"/>
+      <c r="AZ25" s="227" t="s">
         <v>87</v>
       </c>
-      <c r="BA25" s="246"/>
+      <c r="BA25" s="218"/>
     </row>
-    <row r="26" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="321">
+    <row r="26" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="168">
         <v>0.70833333333333304</v>
       </c>
       <c r="B26" s="23" t="str">
@@ -7490,7 +7467,7 @@
         <f>IF(_Area3_day_hour!AA19="","",_Area3_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AE26" s="101" t="str">
+      <c r="AE26" s="95" t="str">
         <f>IF(_Area3_day_hour!AB19="","",_Area3_day_hour!AB19)</f>
         <v/>
       </c>
@@ -7550,20 +7527,20 @@
         <f>IF(_Area4_day_hour!G19="","",_Area4_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="AT26" s="132" t="str">
+      <c r="AT26" s="124" t="str">
         <f>IF(_Area4_day_hour!H19="","",_Area4_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="AU26" s="137"/>
-      <c r="AV26" s="134"/>
-      <c r="AW26" s="152"/>
-      <c r="AX26" s="235"/>
-      <c r="AY26" s="247"/>
-      <c r="AZ26" s="257"/>
-      <c r="BA26" s="247"/>
+      <c r="AU26" s="129"/>
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="144"/>
+      <c r="AX26" s="230"/>
+      <c r="AY26" s="219"/>
+      <c r="AZ26" s="228"/>
+      <c r="BA26" s="219"/>
     </row>
-    <row r="27" spans="1:53" s="303" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="322">
+    <row r="27" spans="1:53" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+      <c r="A27" s="169">
         <v>0.75</v>
       </c>
       <c r="B27" s="11" t="str">
@@ -7682,7 +7659,7 @@
         <f>IF(_Area3_day_hour!AA20="","",_Area3_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AE27" s="101" t="str">
+      <c r="AE27" s="95" t="str">
         <f>IF(_Area3_day_hour!AB20="","",_Area3_day_hour!AB20)</f>
         <v/>
       </c>
@@ -7742,24 +7719,24 @@
         <f>IF(_Area4_day_hour!G20="","",_Area4_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="AT27" s="132" t="str">
+      <c r="AT27" s="124" t="str">
         <f>IF(_Area4_day_hour!H20="","",_Area4_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="AU27" s="137"/>
-      <c r="AV27" s="134"/>
-      <c r="AW27" s="152"/>
-      <c r="AX27" s="234" t="s">
+      <c r="AU27" s="129"/>
+      <c r="AV27" s="126"/>
+      <c r="AW27" s="144"/>
+      <c r="AX27" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="AY27" s="246"/>
-      <c r="AZ27" s="256" t="s">
+      <c r="AY27" s="218"/>
+      <c r="AZ27" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="BA27" s="246"/>
+      <c r="BA27" s="218"/>
     </row>
-    <row r="28" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="322">
+    <row r="28" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="169">
         <v>0.79166666666666696</v>
       </c>
       <c r="B28" s="11" t="str">
@@ -7878,7 +7855,7 @@
         <f>IF(_Area3_day_hour!AA21="","",_Area3_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AE28" s="101" t="str">
+      <c r="AE28" s="95" t="str">
         <f>IF(_Area3_day_hour!AB21="","",_Area3_day_hour!AB21)</f>
         <v/>
       </c>
@@ -7938,20 +7915,20 @@
         <f>IF(_Area4_day_hour!G21="","",_Area4_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="AT28" s="132" t="str">
+      <c r="AT28" s="124" t="str">
         <f>IF(_Area4_day_hour!H21="","",_Area4_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="134"/>
-      <c r="AW28" s="152"/>
-      <c r="AX28" s="235"/>
-      <c r="AY28" s="247"/>
-      <c r="AZ28" s="257"/>
-      <c r="BA28" s="247"/>
+      <c r="AU28" s="129"/>
+      <c r="AV28" s="126"/>
+      <c r="AW28" s="144"/>
+      <c r="AX28" s="230"/>
+      <c r="AY28" s="219"/>
+      <c r="AZ28" s="228"/>
+      <c r="BA28" s="219"/>
     </row>
-    <row r="29" spans="1:53" s="303" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="322">
+    <row r="29" spans="1:53" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+      <c r="A29" s="169">
         <v>0.83333333333333304</v>
       </c>
       <c r="B29" s="11" t="str">
@@ -8070,7 +8047,7 @@
         <f>IF(_Area3_day_hour!AA22="","",_Area3_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AE29" s="101" t="str">
+      <c r="AE29" s="95" t="str">
         <f>IF(_Area3_day_hour!AB22="","",_Area3_day_hour!AB22)</f>
         <v/>
       </c>
@@ -8130,22 +8107,22 @@
         <f>IF(_Area4_day_hour!G22="","",_Area4_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="AT29" s="132" t="str">
+      <c r="AT29" s="124" t="str">
         <f>IF(_Area4_day_hour!H22="","",_Area4_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="AU29" s="137"/>
-      <c r="AV29" s="134"/>
-      <c r="AW29" s="152"/>
-      <c r="AX29" s="234" t="s">
+      <c r="AU29" s="129"/>
+      <c r="AV29" s="126"/>
+      <c r="AW29" s="144"/>
+      <c r="AX29" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="AY29" s="246"/>
-      <c r="AZ29" s="256"/>
-      <c r="BA29" s="246"/>
+      <c r="AY29" s="218"/>
+      <c r="AZ29" s="227"/>
+      <c r="BA29" s="218"/>
     </row>
-    <row r="30" spans="1:53" s="303" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="322">
+    <row r="30" spans="1:53" s="153" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="169">
         <v>0.875</v>
       </c>
       <c r="B30" s="24" t="str">
@@ -8264,7 +8241,7 @@
         <f>IF(_Area3_day_hour!AA23="","",_Area3_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AE30" s="101" t="str">
+      <c r="AE30" s="95" t="str">
         <f>IF(_Area3_day_hour!AB23="","",_Area3_day_hour!AB23)</f>
         <v/>
       </c>
@@ -8324,20 +8301,20 @@
         <f>IF(_Area4_day_hour!G23="","",_Area4_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="AT30" s="132" t="str">
+      <c r="AT30" s="124" t="str">
         <f>IF(_Area4_day_hour!H23="","",_Area4_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="AU30" s="137"/>
-      <c r="AV30" s="134"/>
-      <c r="AW30" s="152"/>
-      <c r="AX30" s="235"/>
-      <c r="AY30" s="248"/>
-      <c r="AZ30" s="257"/>
-      <c r="BA30" s="248"/>
+      <c r="AU30" s="129"/>
+      <c r="AV30" s="126"/>
+      <c r="AW30" s="144"/>
+      <c r="AX30" s="230"/>
+      <c r="AY30" s="220"/>
+      <c r="AZ30" s="228"/>
+      <c r="BA30" s="220"/>
     </row>
-    <row r="31" spans="1:53" s="303" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="322">
+    <row r="31" spans="1:53" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+      <c r="A31" s="169">
         <v>0.91666666666666696</v>
       </c>
       <c r="B31" s="24" t="str">
@@ -8456,7 +8433,7 @@
         <f>IF(_Area3_day_hour!AA24="","",_Area3_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AE31" s="101" t="str">
+      <c r="AE31" s="95" t="str">
         <f>IF(_Area3_day_hour!AB24="","",_Area3_day_hour!AB24)</f>
         <v/>
       </c>
@@ -8516,47 +8493,47 @@
         <f>IF(_Area4_day_hour!G24="","",_Area4_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="AT31" s="132" t="str">
+      <c r="AT31" s="124" t="str">
         <f>IF(_Area4_day_hour!H24="","",_Area4_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="AU31" s="137"/>
-      <c r="AV31" s="134"/>
-      <c r="AW31" s="152"/>
-      <c r="AX31" s="236" t="s">
+      <c r="AU31" s="129"/>
+      <c r="AV31" s="126"/>
+      <c r="AW31" s="144"/>
+      <c r="AX31" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="AY31" s="246"/>
-      <c r="AZ31" s="258" t="s">
+      <c r="AY31" s="218"/>
+      <c r="AZ31" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="BA31" s="246"/>
+      <c r="BA31" s="218"/>
     </row>
-    <row r="32" spans="1:53" s="297" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="323">
+    <row r="32" spans="1:53" s="148" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="170">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B32" s="305" t="str">
+      <c r="B32" s="155" t="str">
         <f>IF(_Area3_day_hour!A25="","",_Area3_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="C32" s="67" t="str">
+      <c r="C32" s="63" t="str">
         <f>IF(_Area3_day_hour!B25="","",_Area3_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="D32" s="67" t="str">
+      <c r="D32" s="63" t="str">
         <f>IF(_Area3_day_hour!C25="","",_Area3_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="E32" s="67" t="str">
+      <c r="E32" s="63" t="str">
         <f>IF(_Area3_day_hour!D25="","",_Area3_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="F32" s="67" t="str">
+      <c r="F32" s="63" t="str">
         <f>IF(_Area3_day_hour!E25="","",_Area3_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="G32" s="67" t="str">
+      <c r="G32" s="63" t="str">
         <f>IF(_Area3_day_hour!F25="","",_Area3_day_hour!F25)</f>
         <v/>
       </c>
@@ -8624,7 +8601,7 @@
         <f>IF(_Area3_day_hour!V25="","",_Area3_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="X32" s="102" t="str">
+      <c r="X32" s="96" t="str">
         <f>IF(_Area3_day_hour!AC25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD25&gt;0," 2 ","")</f>
         <v/>
       </c>
@@ -8640,7 +8617,7 @@
         <f>IF(_Area3_day_hour!Y25="","",_Area3_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB32" s="102" t="str">
+      <c r="AB32" s="96" t="str">
         <f>IF(_Area3_day_hour!AE25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF25&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8652,11 +8629,11 @@
         <f>IF(_Area3_day_hour!AA25="","",_Area3_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AE32" s="103" t="str">
+      <c r="AE32" s="97" t="str">
         <f>IF(_Area3_day_hour!AB25="","",_Area3_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AF32" s="102" t="str">
+      <c r="AF32" s="96" t="str">
         <f>IF(_Area4_day_hour!I25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8664,15 +8641,15 @@
         <f>IF(_Area4_day_hour!A25="","",_Area4_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="AH32" s="102" t="str">
+      <c r="AH32" s="96" t="str">
         <f>IF(_Area4_day_hour!L25&gt;0,"1#","")&amp;IF(_Area4_day_hour!M25&gt;0,"2#","")&amp;IF(_Area4_day_hour!R25&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI32" s="102" t="str">
+      <c r="AI32" s="96" t="str">
         <f>IF(_Area4_day_hour!N25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ32" s="102" t="str">
+      <c r="AJ32" s="96" t="str">
         <f>IF(_Area4_day_hour!P25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8688,19 +8665,19 @@
         <f>IF(_Area4_day_hour!T25&gt;0,"1#","")&amp;IF(_Area4_day_hour!U25&gt;0,"2#","")&amp;IF(_Area4_day_hour!V25&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AN32" s="102" t="str">
+      <c r="AN32" s="96" t="str">
         <f>IF(_Area4_day_hour!D25="","",_Area4_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="AO32" s="102" t="str">
+      <c r="AO32" s="96" t="str">
         <f>IF(_Area4_day_hour!E25="","",_Area4_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="AP32" s="102" t="str">
+      <c r="AP32" s="96" t="str">
         <f>IF(_Area4_day_hour!AP25="","",_Area4_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AQ32" s="102" t="str">
+      <c r="AQ32" s="96" t="str">
         <f>IF(_Area4_day_hour!AQ25="","",_Area4_day_hour!AQ25)</f>
         <v/>
       </c>
@@ -8712,84 +8689,84 @@
         <f>IF(_Area4_day_hour!G25="","",_Area4_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="AT32" s="138" t="str">
+      <c r="AT32" s="130" t="str">
         <f>IF(_Area4_day_hour!H25="","",_Area4_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="AU32" s="139"/>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="153"/>
-      <c r="AX32" s="237"/>
-      <c r="AY32" s="247"/>
-      <c r="AZ32" s="259"/>
-      <c r="BA32" s="249"/>
+      <c r="AU32" s="131"/>
+      <c r="AV32" s="132"/>
+      <c r="AW32" s="145"/>
+      <c r="AX32" s="231"/>
+      <c r="AY32" s="219"/>
+      <c r="AZ32" s="177"/>
+      <c r="BA32" s="211"/>
     </row>
-    <row r="33" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="313"/>
-      <c r="B33" s="314" t="s">
+    <row r="33" spans="1:58" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="163"/>
+      <c r="B33" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="315"/>
-      <c r="D33" s="315"/>
-      <c r="E33" s="315"/>
-      <c r="F33" s="315"/>
-      <c r="G33" s="315"/>
-      <c r="H33" s="315"/>
-      <c r="I33" s="316"/>
-      <c r="J33" s="68" t="s">
+      <c r="C33" s="274"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="274"/>
+      <c r="G33" s="274"/>
+      <c r="H33" s="274"/>
+      <c r="I33" s="275"/>
+      <c r="J33" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="177" t="s">
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="276" t="s">
         <v>95</v>
       </c>
-      <c r="V33" s="178"/>
-      <c r="W33" s="178"/>
-      <c r="X33" s="178"/>
-      <c r="Y33" s="178"/>
-      <c r="Z33" s="178"/>
-      <c r="AA33" s="178"/>
-      <c r="AB33" s="178"/>
-      <c r="AC33" s="178"/>
-      <c r="AD33" s="178"/>
-      <c r="AE33" s="178"/>
-      <c r="AF33" s="317"/>
-      <c r="AG33" s="317"/>
-      <c r="AH33" s="317"/>
-      <c r="AI33" s="317"/>
-      <c r="AJ33" s="317"/>
-      <c r="AK33" s="317"/>
-      <c r="AL33" s="317"/>
-      <c r="AM33" s="317"/>
-      <c r="AN33" s="317"/>
-      <c r="AO33" s="317"/>
-      <c r="AP33" s="317"/>
-      <c r="AQ33" s="317"/>
-      <c r="AR33" s="317"/>
-      <c r="AS33" s="317"/>
-      <c r="AT33" s="317"/>
-      <c r="AU33" s="317"/>
-      <c r="AV33" s="317"/>
-      <c r="AW33" s="317"/>
-      <c r="AX33" s="238" t="s">
+      <c r="V33" s="277"/>
+      <c r="W33" s="277"/>
+      <c r="X33" s="277"/>
+      <c r="Y33" s="277"/>
+      <c r="Z33" s="277"/>
+      <c r="AA33" s="277"/>
+      <c r="AB33" s="277"/>
+      <c r="AC33" s="277"/>
+      <c r="AD33" s="277"/>
+      <c r="AE33" s="277"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="164"/>
+      <c r="AH33" s="164"/>
+      <c r="AI33" s="164"/>
+      <c r="AJ33" s="164"/>
+      <c r="AK33" s="164"/>
+      <c r="AL33" s="164"/>
+      <c r="AM33" s="164"/>
+      <c r="AN33" s="164"/>
+      <c r="AO33" s="164"/>
+      <c r="AP33" s="164"/>
+      <c r="AQ33" s="164"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="164"/>
+      <c r="AT33" s="164"/>
+      <c r="AU33" s="164"/>
+      <c r="AV33" s="164"/>
+      <c r="AW33" s="164"/>
+      <c r="AX33" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="AY33" s="246"/>
-      <c r="AZ33" s="238" t="s">
+      <c r="AY33" s="218"/>
+      <c r="AZ33" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="BA33" s="246"/>
+      <c r="BA33" s="218"/>
     </row>
-    <row r="34" spans="1:58" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:58" ht="30.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>96</v>
       </c>
@@ -8800,209 +8777,209 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="86"/>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="86"/>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="86"/>
-      <c r="AH34" s="86"/>
-      <c r="AI34" s="86"/>
-      <c r="AJ34" s="86"/>
-      <c r="AK34" s="86"/>
-      <c r="AL34" s="86"/>
-      <c r="AM34" s="86"/>
-      <c r="AN34" s="86"/>
-      <c r="AO34" s="86"/>
-      <c r="AP34" s="86"/>
-      <c r="AQ34" s="86"/>
-      <c r="AR34" s="86"/>
-      <c r="AS34" s="86"/>
-      <c r="AT34" s="86"/>
-      <c r="AU34" s="86"/>
-      <c r="AV34" s="86"/>
-      <c r="AW34" s="86"/>
-      <c r="AX34" s="239"/>
-      <c r="AY34" s="249"/>
-      <c r="AZ34" s="249"/>
-      <c r="BA34" s="249"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="81"/>
+      <c r="AP34" s="81"/>
+      <c r="AQ34" s="81"/>
+      <c r="AR34" s="81"/>
+      <c r="AS34" s="81"/>
+      <c r="AT34" s="81"/>
+      <c r="AU34" s="81"/>
+      <c r="AV34" s="81"/>
+      <c r="AW34" s="81"/>
+      <c r="AX34" s="179"/>
+      <c r="AY34" s="211"/>
+      <c r="AZ34" s="211"/>
+      <c r="BA34" s="211"/>
     </row>
-    <row r="35" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="179" t="s">
+    <row r="35" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="182" t="s">
+      <c r="B35" s="279"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="280"/>
+      <c r="I35" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="180"/>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="180"/>
-      <c r="S35" s="180"/>
-      <c r="T35" s="180"/>
-      <c r="U35" s="180"/>
-      <c r="V35" s="180"/>
-      <c r="W35" s="180"/>
-      <c r="X35" s="180"/>
-      <c r="Y35" s="180"/>
-      <c r="Z35" s="181"/>
-      <c r="AA35" s="183" t="s">
+      <c r="J35" s="279"/>
+      <c r="K35" s="279"/>
+      <c r="L35" s="279"/>
+      <c r="M35" s="279"/>
+      <c r="N35" s="279"/>
+      <c r="O35" s="279"/>
+      <c r="P35" s="279"/>
+      <c r="Q35" s="279"/>
+      <c r="R35" s="279"/>
+      <c r="S35" s="279"/>
+      <c r="T35" s="279"/>
+      <c r="U35" s="279"/>
+      <c r="V35" s="279"/>
+      <c r="W35" s="279"/>
+      <c r="X35" s="279"/>
+      <c r="Y35" s="279"/>
+      <c r="Z35" s="280"/>
+      <c r="AA35" s="282" t="s">
         <v>99</v>
       </c>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
-      <c r="AD35" s="184"/>
-      <c r="AE35" s="184"/>
-      <c r="AF35" s="184"/>
-      <c r="AG35" s="184"/>
-      <c r="AH35" s="184"/>
-      <c r="AI35" s="184"/>
-      <c r="AJ35" s="184"/>
-      <c r="AK35" s="184"/>
-      <c r="AL35" s="184"/>
-      <c r="AM35" s="184"/>
-      <c r="AN35" s="184"/>
-      <c r="AO35" s="184"/>
-      <c r="AP35" s="184"/>
-      <c r="AQ35" s="184"/>
-      <c r="AR35" s="184"/>
-      <c r="AS35" s="184"/>
-      <c r="AT35" s="184"/>
-      <c r="AU35" s="184"/>
-      <c r="AV35" s="184"/>
-      <c r="AW35" s="185"/>
-      <c r="AX35" s="285" t="s">
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
+      <c r="AT35" s="283"/>
+      <c r="AU35" s="283"/>
+      <c r="AV35" s="283"/>
+      <c r="AW35" s="284"/>
+      <c r="AX35" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="AY35" s="263"/>
-      <c r="AZ35" s="263"/>
-      <c r="BA35" s="264"/>
-      <c r="BB35" s="154"/>
-      <c r="BC35" s="154"/>
-      <c r="BD35" s="154"/>
-      <c r="BE35" s="154"/>
+      <c r="AY35" s="172"/>
+      <c r="AZ35" s="172"/>
+      <c r="BA35" s="173"/>
+      <c r="BB35" s="146"/>
+      <c r="BC35" s="146"/>
+      <c r="BD35" s="146"/>
+      <c r="BE35" s="146"/>
     </row>
-    <row r="36" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="205" t="s">
+    <row r="36" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="268" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="186" t="s">
+      <c r="C36" s="285" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="187"/>
-      <c r="E36" s="186" t="s">
+      <c r="D36" s="286"/>
+      <c r="E36" s="285" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="188"/>
-      <c r="G36" s="186" t="s">
+      <c r="F36" s="287"/>
+      <c r="G36" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189" t="s">
+      <c r="H36" s="287"/>
+      <c r="I36" s="288" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="190"/>
-      <c r="K36" s="189" t="s">
+      <c r="J36" s="289"/>
+      <c r="K36" s="288" t="s">
         <v>104</v>
       </c>
-      <c r="L36" s="191"/>
-      <c r="M36" s="189" t="s">
+      <c r="L36" s="290"/>
+      <c r="M36" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="N36" s="191"/>
-      <c r="O36" s="189" t="s">
+      <c r="N36" s="290"/>
+      <c r="O36" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="P36" s="191"/>
-      <c r="Q36" s="189" t="s">
+      <c r="P36" s="290"/>
+      <c r="Q36" s="288" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="191"/>
-      <c r="S36" s="189" t="s">
+      <c r="R36" s="290"/>
+      <c r="S36" s="288" t="s">
         <v>108</v>
       </c>
-      <c r="T36" s="191"/>
-      <c r="U36" s="189" t="s">
+      <c r="T36" s="290"/>
+      <c r="U36" s="288" t="s">
         <v>109</v>
       </c>
-      <c r="V36" s="191"/>
-      <c r="W36" s="189" t="s">
+      <c r="V36" s="290"/>
+      <c r="W36" s="288" t="s">
         <v>110</v>
       </c>
-      <c r="X36" s="190"/>
-      <c r="Y36" s="189" t="s">
+      <c r="X36" s="289"/>
+      <c r="Y36" s="288" t="s">
         <v>111</v>
       </c>
-      <c r="Z36" s="190"/>
-      <c r="AA36" s="192"/>
-      <c r="AB36" s="193"/>
-      <c r="AC36" s="193"/>
-      <c r="AD36" s="193"/>
-      <c r="AE36" s="193"/>
-      <c r="AF36" s="193"/>
-      <c r="AG36" s="193"/>
-      <c r="AH36" s="193"/>
-      <c r="AI36" s="193"/>
-      <c r="AJ36" s="193"/>
-      <c r="AK36" s="193"/>
-      <c r="AL36" s="193"/>
-      <c r="AM36" s="193"/>
-      <c r="AN36" s="193"/>
-      <c r="AO36" s="193"/>
-      <c r="AP36" s="193"/>
-      <c r="AQ36" s="193"/>
-      <c r="AR36" s="193"/>
-      <c r="AS36" s="193"/>
-      <c r="AT36" s="193"/>
-      <c r="AU36" s="193"/>
-      <c r="AV36" s="193"/>
-      <c r="AW36" s="194"/>
-      <c r="AX36" s="259"/>
-      <c r="AY36" s="268"/>
-      <c r="AZ36" s="268"/>
-      <c r="BA36" s="239"/>
+      <c r="Z36" s="289"/>
+      <c r="AA36" s="291"/>
+      <c r="AB36" s="292"/>
+      <c r="AC36" s="292"/>
+      <c r="AD36" s="292"/>
+      <c r="AE36" s="292"/>
+      <c r="AF36" s="292"/>
+      <c r="AG36" s="292"/>
+      <c r="AH36" s="292"/>
+      <c r="AI36" s="292"/>
+      <c r="AJ36" s="292"/>
+      <c r="AK36" s="292"/>
+      <c r="AL36" s="292"/>
+      <c r="AM36" s="292"/>
+      <c r="AN36" s="292"/>
+      <c r="AO36" s="292"/>
+      <c r="AP36" s="292"/>
+      <c r="AQ36" s="292"/>
+      <c r="AR36" s="292"/>
+      <c r="AS36" s="292"/>
+      <c r="AT36" s="292"/>
+      <c r="AU36" s="292"/>
+      <c r="AV36" s="292"/>
+      <c r="AW36" s="293"/>
+      <c r="AX36" s="177"/>
+      <c r="AY36" s="178"/>
+      <c r="AZ36" s="178"/>
+      <c r="BA36" s="179"/>
       <c r="BB36" s="4"/>
       <c r="BC36" s="4"/>
       <c r="BD36" s="4"/>
       <c r="BE36" s="4"/>
       <c r="BF36" s="4"/>
     </row>
-    <row r="37" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="206"/>
+    <row r="37" spans="1:58" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="269"/>
       <c r="B37" s="29" t="s">
         <v>112</v>
       </c>
@@ -9024,7 +9001,7 @@
       <c r="H37" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="69" t="s">
         <v>113</v>
       </c>
       <c r="J37" s="31" t="s">
@@ -9069,7 +9046,7 @@
       <c r="W37" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="X37" s="87" t="s">
+      <c r="X37" s="82" t="s">
         <v>114</v>
       </c>
       <c r="Y37" s="32" t="s">
@@ -9078,39 +9055,39 @@
       <c r="Z37" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA37" s="279"/>
-      <c r="AB37" s="280"/>
-      <c r="AC37" s="280"/>
-      <c r="AD37" s="280"/>
-      <c r="AE37" s="280"/>
-      <c r="AF37" s="280"/>
-      <c r="AG37" s="280"/>
-      <c r="AH37" s="280"/>
-      <c r="AI37" s="280"/>
-      <c r="AJ37" s="280"/>
-      <c r="AK37" s="280"/>
-      <c r="AL37" s="280"/>
-      <c r="AM37" s="280"/>
-      <c r="AN37" s="280"/>
-      <c r="AO37" s="280"/>
-      <c r="AP37" s="280"/>
-      <c r="AQ37" s="280"/>
-      <c r="AR37" s="280"/>
-      <c r="AS37" s="280"/>
-      <c r="AT37" s="280"/>
-      <c r="AU37" s="280"/>
-      <c r="AV37" s="280"/>
-      <c r="AW37" s="281"/>
-      <c r="AX37" s="240" t="s">
+      <c r="AA37" s="191"/>
+      <c r="AB37" s="192"/>
+      <c r="AC37" s="192"/>
+      <c r="AD37" s="192"/>
+      <c r="AE37" s="192"/>
+      <c r="AF37" s="192"/>
+      <c r="AG37" s="192"/>
+      <c r="AH37" s="192"/>
+      <c r="AI37" s="192"/>
+      <c r="AJ37" s="192"/>
+      <c r="AK37" s="192"/>
+      <c r="AL37" s="192"/>
+      <c r="AM37" s="192"/>
+      <c r="AN37" s="192"/>
+      <c r="AO37" s="192"/>
+      <c r="AP37" s="192"/>
+      <c r="AQ37" s="192"/>
+      <c r="AR37" s="192"/>
+      <c r="AS37" s="192"/>
+      <c r="AT37" s="192"/>
+      <c r="AU37" s="192"/>
+      <c r="AV37" s="192"/>
+      <c r="AW37" s="193"/>
+      <c r="AX37" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="AY37" s="250">
+      <c r="AY37" s="221">
         <v>0</v>
       </c>
-      <c r="AZ37" s="240" t="s">
+      <c r="AZ37" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="BA37" s="250">
+      <c r="BA37" s="221">
         <v>0</v>
       </c>
       <c r="BB37" s="4"/>
@@ -9119,14 +9096,14 @@
       <c r="BE37" s="4"/>
       <c r="BF37" s="4"/>
     </row>
-    <row r="38" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>1</v>
       </c>
-      <c r="B38" s="208" t="s">
+      <c r="B38" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="36">
         <f>_Area3_day_hour!AH2</f>
         <v>0</v>
       </c>
@@ -9134,7 +9111,7 @@
         <f>_Area3_day_hour!AK2</f>
         <v>0</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <f>_Area3_day_hour!AI2</f>
         <v>0</v>
       </c>
@@ -9142,19 +9119,19 @@
         <f>_Area3_day_hour!AL2</f>
         <v>0</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <f>_Area3_day_hour!AJ2</f>
         <v>0</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="36">
         <f>_Area3_day_hour!AM2</f>
         <v>0</v>
       </c>
-      <c r="I38" s="74">
+      <c r="I38" s="36">
         <f>_Area4_day_hour!X2</f>
         <v>0</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <f>_Area4_day_hour!AG2</f>
         <v>0</v>
       </c>
@@ -9162,11 +9139,11 @@
         <f>_Area4_day_hour!Y2</f>
         <v>0</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="36">
         <f>_Area4_day_hour!AH2</f>
         <v>0</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="36">
         <f>_Area4_day_hour!Z2</f>
         <v>0</v>
       </c>
@@ -9174,23 +9151,23 @@
         <f>_Area4_day_hour!AI2</f>
         <v>0</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="36">
         <f>_Area4_day_hour!AD2</f>
         <v>0</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="36">
         <f>_Area4_day_hour!AM2</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="36">
         <f>_Area4_day_hour!AE2</f>
         <v>0</v>
       </c>
-      <c r="R38" s="37">
+      <c r="R38" s="36">
         <f>_Area4_day_hour!AN2</f>
         <v>0</v>
       </c>
-      <c r="S38" s="37">
+      <c r="S38" s="36">
         <f>_Area4_day_hour!AF2</f>
         <v>0</v>
       </c>
@@ -9198,501 +9175,501 @@
         <f>_Area4_day_hour!AO2</f>
         <v>0</v>
       </c>
-      <c r="U38" s="37">
+      <c r="U38" s="36">
         <f>_Area4_day_hour!AA2</f>
         <v>0</v>
       </c>
-      <c r="V38" s="37">
+      <c r="V38" s="36">
         <f>_Area4_day_hour!AJ2</f>
         <v>0</v>
       </c>
-      <c r="W38" s="36">
+      <c r="W38" s="37">
         <f>_Area4_day_hour!AB2</f>
         <v>0</v>
       </c>
-      <c r="X38" s="88">
+      <c r="X38" s="83">
         <f>_Area4_day_hour!AK2</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="104">
+      <c r="Y38" s="98">
         <f>_Area4_day_hour!AC2</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="105">
+      <c r="Z38" s="99">
         <f>_Area4_day_hour!AL2</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="276"/>
-      <c r="AB38" s="277"/>
-      <c r="AC38" s="277"/>
-      <c r="AD38" s="277"/>
-      <c r="AE38" s="277"/>
-      <c r="AF38" s="277"/>
-      <c r="AG38" s="277"/>
-      <c r="AH38" s="277"/>
-      <c r="AI38" s="277"/>
-      <c r="AJ38" s="277"/>
-      <c r="AK38" s="277"/>
-      <c r="AL38" s="277"/>
-      <c r="AM38" s="277"/>
-      <c r="AN38" s="277"/>
-      <c r="AO38" s="277"/>
-      <c r="AP38" s="277"/>
-      <c r="AQ38" s="277"/>
-      <c r="AR38" s="277"/>
-      <c r="AS38" s="277"/>
-      <c r="AT38" s="277"/>
-      <c r="AU38" s="277"/>
-      <c r="AV38" s="277"/>
-      <c r="AW38" s="278"/>
-      <c r="AX38" s="241"/>
-      <c r="AY38" s="251"/>
-      <c r="AZ38" s="260"/>
-      <c r="BA38" s="251"/>
+      <c r="AA38" s="188"/>
+      <c r="AB38" s="189"/>
+      <c r="AC38" s="189"/>
+      <c r="AD38" s="189"/>
+      <c r="AE38" s="189"/>
+      <c r="AF38" s="189"/>
+      <c r="AG38" s="189"/>
+      <c r="AH38" s="189"/>
+      <c r="AI38" s="189"/>
+      <c r="AJ38" s="189"/>
+      <c r="AK38" s="189"/>
+      <c r="AL38" s="189"/>
+      <c r="AM38" s="189"/>
+      <c r="AN38" s="189"/>
+      <c r="AO38" s="189"/>
+      <c r="AP38" s="189"/>
+      <c r="AQ38" s="189"/>
+      <c r="AR38" s="189"/>
+      <c r="AS38" s="189"/>
+      <c r="AT38" s="189"/>
+      <c r="AU38" s="189"/>
+      <c r="AV38" s="189"/>
+      <c r="AW38" s="190"/>
+      <c r="AX38" s="232"/>
+      <c r="AY38" s="222"/>
+      <c r="AZ38" s="213"/>
+      <c r="BA38" s="222"/>
       <c r="BB38" s="4"/>
       <c r="BC38" s="4"/>
       <c r="BD38" s="4"/>
       <c r="BE38" s="4"/>
       <c r="BF38" s="4"/>
     </row>
-    <row r="39" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="39">
+    <row r="39" spans="1:58" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="35">
         <v>2</v>
       </c>
-      <c r="B39" s="209"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="276"/>
-      <c r="AB39" s="277"/>
-      <c r="AC39" s="277"/>
-      <c r="AD39" s="277"/>
-      <c r="AE39" s="277"/>
-      <c r="AF39" s="277"/>
-      <c r="AG39" s="277"/>
-      <c r="AH39" s="277"/>
-      <c r="AI39" s="277"/>
-      <c r="AJ39" s="277"/>
-      <c r="AK39" s="277"/>
-      <c r="AL39" s="277"/>
-      <c r="AM39" s="277"/>
-      <c r="AN39" s="277"/>
-      <c r="AO39" s="277"/>
-      <c r="AP39" s="277"/>
-      <c r="AQ39" s="277"/>
-      <c r="AR39" s="277"/>
-      <c r="AS39" s="277"/>
-      <c r="AT39" s="277"/>
-      <c r="AU39" s="277"/>
-      <c r="AV39" s="277"/>
-      <c r="AW39" s="278"/>
-      <c r="AX39" s="241"/>
-      <c r="AY39" s="251"/>
-      <c r="AZ39" s="260"/>
-      <c r="BA39" s="251"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="98"/>
+      <c r="Z39" s="99"/>
+      <c r="AA39" s="188"/>
+      <c r="AB39" s="189"/>
+      <c r="AC39" s="189"/>
+      <c r="AD39" s="189"/>
+      <c r="AE39" s="189"/>
+      <c r="AF39" s="189"/>
+      <c r="AG39" s="189"/>
+      <c r="AH39" s="189"/>
+      <c r="AI39" s="189"/>
+      <c r="AJ39" s="189"/>
+      <c r="AK39" s="189"/>
+      <c r="AL39" s="189"/>
+      <c r="AM39" s="189"/>
+      <c r="AN39" s="189"/>
+      <c r="AO39" s="189"/>
+      <c r="AP39" s="189"/>
+      <c r="AQ39" s="189"/>
+      <c r="AR39" s="189"/>
+      <c r="AS39" s="189"/>
+      <c r="AT39" s="189"/>
+      <c r="AU39" s="189"/>
+      <c r="AV39" s="189"/>
+      <c r="AW39" s="190"/>
+      <c r="AX39" s="232"/>
+      <c r="AY39" s="222"/>
+      <c r="AZ39" s="213"/>
+      <c r="BA39" s="222"/>
       <c r="BB39" s="4"/>
       <c r="BC39" s="4"/>
       <c r="BD39" s="4"/>
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
     </row>
-    <row r="40" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>3</v>
       </c>
-      <c r="B40" s="209"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="276"/>
-      <c r="AB40" s="277"/>
-      <c r="AC40" s="277"/>
-      <c r="AD40" s="277"/>
-      <c r="AE40" s="277"/>
-      <c r="AF40" s="277"/>
-      <c r="AG40" s="277"/>
-      <c r="AH40" s="277"/>
-      <c r="AI40" s="277"/>
-      <c r="AJ40" s="277"/>
-      <c r="AK40" s="277"/>
-      <c r="AL40" s="277"/>
-      <c r="AM40" s="277"/>
-      <c r="AN40" s="277"/>
-      <c r="AO40" s="277"/>
-      <c r="AP40" s="277"/>
-      <c r="AQ40" s="277"/>
-      <c r="AR40" s="277"/>
-      <c r="AS40" s="277"/>
-      <c r="AT40" s="277"/>
-      <c r="AU40" s="277"/>
-      <c r="AV40" s="277"/>
-      <c r="AW40" s="278"/>
-      <c r="AX40" s="241"/>
-      <c r="AY40" s="251"/>
-      <c r="AZ40" s="260"/>
-      <c r="BA40" s="251"/>
+      <c r="B40" s="225"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="188"/>
+      <c r="AB40" s="189"/>
+      <c r="AC40" s="189"/>
+      <c r="AD40" s="189"/>
+      <c r="AE40" s="189"/>
+      <c r="AF40" s="189"/>
+      <c r="AG40" s="189"/>
+      <c r="AH40" s="189"/>
+      <c r="AI40" s="189"/>
+      <c r="AJ40" s="189"/>
+      <c r="AK40" s="189"/>
+      <c r="AL40" s="189"/>
+      <c r="AM40" s="189"/>
+      <c r="AN40" s="189"/>
+      <c r="AO40" s="189"/>
+      <c r="AP40" s="189"/>
+      <c r="AQ40" s="189"/>
+      <c r="AR40" s="189"/>
+      <c r="AS40" s="189"/>
+      <c r="AT40" s="189"/>
+      <c r="AU40" s="189"/>
+      <c r="AV40" s="189"/>
+      <c r="AW40" s="190"/>
+      <c r="AX40" s="232"/>
+      <c r="AY40" s="222"/>
+      <c r="AZ40" s="213"/>
+      <c r="BA40" s="222"/>
       <c r="BB40" s="4"/>
       <c r="BC40" s="4"/>
       <c r="BD40" s="4"/>
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
     </row>
-    <row r="41" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>4</v>
       </c>
-      <c r="B41" s="210"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="282"/>
-      <c r="AB41" s="283"/>
-      <c r="AC41" s="283"/>
-      <c r="AD41" s="283"/>
-      <c r="AE41" s="283"/>
-      <c r="AF41" s="283"/>
-      <c r="AG41" s="283"/>
-      <c r="AH41" s="283"/>
-      <c r="AI41" s="283"/>
-      <c r="AJ41" s="283"/>
-      <c r="AK41" s="283"/>
-      <c r="AL41" s="283"/>
-      <c r="AM41" s="283"/>
-      <c r="AN41" s="283"/>
-      <c r="AO41" s="283"/>
-      <c r="AP41" s="283"/>
-      <c r="AQ41" s="283"/>
-      <c r="AR41" s="283"/>
-      <c r="AS41" s="283"/>
-      <c r="AT41" s="283"/>
-      <c r="AU41" s="283"/>
-      <c r="AV41" s="283"/>
-      <c r="AW41" s="284"/>
-      <c r="AX41" s="241"/>
-      <c r="AY41" s="251"/>
-      <c r="AZ41" s="260"/>
-      <c r="BA41" s="251"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="101"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="195"/>
+      <c r="AC41" s="195"/>
+      <c r="AD41" s="195"/>
+      <c r="AE41" s="195"/>
+      <c r="AF41" s="195"/>
+      <c r="AG41" s="195"/>
+      <c r="AH41" s="195"/>
+      <c r="AI41" s="195"/>
+      <c r="AJ41" s="195"/>
+      <c r="AK41" s="195"/>
+      <c r="AL41" s="195"/>
+      <c r="AM41" s="195"/>
+      <c r="AN41" s="195"/>
+      <c r="AO41" s="195"/>
+      <c r="AP41" s="195"/>
+      <c r="AQ41" s="195"/>
+      <c r="AR41" s="195"/>
+      <c r="AS41" s="195"/>
+      <c r="AT41" s="195"/>
+      <c r="AU41" s="195"/>
+      <c r="AV41" s="195"/>
+      <c r="AW41" s="196"/>
+      <c r="AX41" s="232"/>
+      <c r="AY41" s="222"/>
+      <c r="AZ41" s="213"/>
+      <c r="BA41" s="222"/>
       <c r="BB41" s="4"/>
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
       <c r="BE41" s="4"/>
       <c r="BF41" s="4"/>
     </row>
-    <row r="42" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="39">
+    <row r="42" spans="1:58" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="35">
         <v>5</v>
       </c>
-      <c r="B42" s="211" t="s">
+      <c r="B42" s="272" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="110"/>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="276"/>
-      <c r="AB42" s="277"/>
-      <c r="AC42" s="277"/>
-      <c r="AD42" s="277"/>
-      <c r="AE42" s="277"/>
-      <c r="AF42" s="277"/>
-      <c r="AG42" s="277"/>
-      <c r="AH42" s="277"/>
-      <c r="AI42" s="277"/>
-      <c r="AJ42" s="277"/>
-      <c r="AK42" s="277"/>
-      <c r="AL42" s="277"/>
-      <c r="AM42" s="277"/>
-      <c r="AN42" s="277"/>
-      <c r="AO42" s="277"/>
-      <c r="AP42" s="277"/>
-      <c r="AQ42" s="277"/>
-      <c r="AR42" s="277"/>
-      <c r="AS42" s="277"/>
-      <c r="AT42" s="277"/>
-      <c r="AU42" s="277"/>
-      <c r="AV42" s="277"/>
-      <c r="AW42" s="278"/>
-      <c r="AX42" s="242"/>
-      <c r="AY42" s="252"/>
-      <c r="AZ42" s="261"/>
-      <c r="BA42" s="252"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="102"/>
+      <c r="Z42" s="103"/>
+      <c r="AA42" s="188"/>
+      <c r="AB42" s="189"/>
+      <c r="AC42" s="189"/>
+      <c r="AD42" s="189"/>
+      <c r="AE42" s="189"/>
+      <c r="AF42" s="189"/>
+      <c r="AG42" s="189"/>
+      <c r="AH42" s="189"/>
+      <c r="AI42" s="189"/>
+      <c r="AJ42" s="189"/>
+      <c r="AK42" s="189"/>
+      <c r="AL42" s="189"/>
+      <c r="AM42" s="189"/>
+      <c r="AN42" s="189"/>
+      <c r="AO42" s="189"/>
+      <c r="AP42" s="189"/>
+      <c r="AQ42" s="189"/>
+      <c r="AR42" s="189"/>
+      <c r="AS42" s="189"/>
+      <c r="AT42" s="189"/>
+      <c r="AU42" s="189"/>
+      <c r="AV42" s="189"/>
+      <c r="AW42" s="190"/>
+      <c r="AX42" s="233"/>
+      <c r="AY42" s="223"/>
+      <c r="AZ42" s="214"/>
+      <c r="BA42" s="223"/>
       <c r="BB42" s="4"/>
       <c r="BC42" s="4"/>
       <c r="BD42" s="4"/>
       <c r="BE42" s="4"/>
       <c r="BF42" s="4"/>
     </row>
-    <row r="43" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>6</v>
       </c>
-      <c r="B43" s="209"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="112"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="276"/>
-      <c r="AB43" s="277"/>
-      <c r="AC43" s="277"/>
-      <c r="AD43" s="277"/>
-      <c r="AE43" s="277"/>
-      <c r="AF43" s="277"/>
-      <c r="AG43" s="277"/>
-      <c r="AH43" s="277"/>
-      <c r="AI43" s="277"/>
-      <c r="AJ43" s="277"/>
-      <c r="AK43" s="277"/>
-      <c r="AL43" s="277"/>
-      <c r="AM43" s="277"/>
-      <c r="AN43" s="277"/>
-      <c r="AO43" s="277"/>
-      <c r="AP43" s="277"/>
-      <c r="AQ43" s="277"/>
-      <c r="AR43" s="277"/>
-      <c r="AS43" s="277"/>
-      <c r="AT43" s="277"/>
-      <c r="AU43" s="277"/>
-      <c r="AV43" s="277"/>
-      <c r="AW43" s="278"/>
-      <c r="AX43" s="262" t="s">
+      <c r="B43" s="225"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="105"/>
+      <c r="AA43" s="188"/>
+      <c r="AB43" s="189"/>
+      <c r="AC43" s="189"/>
+      <c r="AD43" s="189"/>
+      <c r="AE43" s="189"/>
+      <c r="AF43" s="189"/>
+      <c r="AG43" s="189"/>
+      <c r="AH43" s="189"/>
+      <c r="AI43" s="189"/>
+      <c r="AJ43" s="189"/>
+      <c r="AK43" s="189"/>
+      <c r="AL43" s="189"/>
+      <c r="AM43" s="189"/>
+      <c r="AN43" s="189"/>
+      <c r="AO43" s="189"/>
+      <c r="AP43" s="189"/>
+      <c r="AQ43" s="189"/>
+      <c r="AR43" s="189"/>
+      <c r="AS43" s="189"/>
+      <c r="AT43" s="189"/>
+      <c r="AU43" s="189"/>
+      <c r="AV43" s="189"/>
+      <c r="AW43" s="190"/>
+      <c r="AX43" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="AY43" s="286"/>
-      <c r="AZ43" s="286"/>
-      <c r="BA43" s="287"/>
+      <c r="AY43" s="198"/>
+      <c r="AZ43" s="198"/>
+      <c r="BA43" s="199"/>
       <c r="BB43" s="4"/>
       <c r="BC43" s="4"/>
       <c r="BD43" s="4"/>
       <c r="BE43" s="4"/>
       <c r="BF43" s="4"/>
     </row>
-    <row r="44" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>7</v>
       </c>
-      <c r="B44" s="209"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="112"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="276"/>
-      <c r="AB44" s="277"/>
-      <c r="AC44" s="277"/>
-      <c r="AD44" s="277"/>
-      <c r="AE44" s="277"/>
-      <c r="AF44" s="277"/>
-      <c r="AG44" s="277"/>
-      <c r="AH44" s="277"/>
-      <c r="AI44" s="277"/>
-      <c r="AJ44" s="277"/>
-      <c r="AK44" s="277"/>
-      <c r="AL44" s="277"/>
-      <c r="AM44" s="277"/>
-      <c r="AN44" s="277"/>
-      <c r="AO44" s="277"/>
-      <c r="AP44" s="277"/>
-      <c r="AQ44" s="277"/>
-      <c r="AR44" s="277"/>
-      <c r="AS44" s="277"/>
-      <c r="AT44" s="277"/>
-      <c r="AU44" s="277"/>
-      <c r="AV44" s="277"/>
-      <c r="AW44" s="278"/>
-      <c r="AX44" s="288"/>
-      <c r="AY44" s="289"/>
-      <c r="AZ44" s="289"/>
-      <c r="BA44" s="290"/>
+      <c r="B44" s="225"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="105"/>
+      <c r="AA44" s="188"/>
+      <c r="AB44" s="189"/>
+      <c r="AC44" s="189"/>
+      <c r="AD44" s="189"/>
+      <c r="AE44" s="189"/>
+      <c r="AF44" s="189"/>
+      <c r="AG44" s="189"/>
+      <c r="AH44" s="189"/>
+      <c r="AI44" s="189"/>
+      <c r="AJ44" s="189"/>
+      <c r="AK44" s="189"/>
+      <c r="AL44" s="189"/>
+      <c r="AM44" s="189"/>
+      <c r="AN44" s="189"/>
+      <c r="AO44" s="189"/>
+      <c r="AP44" s="189"/>
+      <c r="AQ44" s="189"/>
+      <c r="AR44" s="189"/>
+      <c r="AS44" s="189"/>
+      <c r="AT44" s="189"/>
+      <c r="AU44" s="189"/>
+      <c r="AV44" s="189"/>
+      <c r="AW44" s="190"/>
+      <c r="AX44" s="200"/>
+      <c r="AY44" s="201"/>
+      <c r="AZ44" s="201"/>
+      <c r="BA44" s="202"/>
       <c r="BB44" s="4"/>
       <c r="BC44" s="4"/>
       <c r="BD44" s="4"/>
       <c r="BE44" s="4"/>
       <c r="BF44" s="4"/>
     </row>
-    <row r="45" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="39">
+    <row r="45" spans="1:58" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
         <v>8</v>
       </c>
-      <c r="B45" s="210"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="114"/>
-      <c r="Z45" s="115"/>
-      <c r="AA45" s="276"/>
-      <c r="AB45" s="277"/>
-      <c r="AC45" s="277"/>
-      <c r="AD45" s="277"/>
-      <c r="AE45" s="277"/>
-      <c r="AF45" s="277"/>
-      <c r="AG45" s="277"/>
-      <c r="AH45" s="277"/>
-      <c r="AI45" s="277"/>
-      <c r="AJ45" s="277"/>
-      <c r="AK45" s="277"/>
-      <c r="AL45" s="277"/>
-      <c r="AM45" s="277"/>
-      <c r="AN45" s="277"/>
-      <c r="AO45" s="277"/>
-      <c r="AP45" s="277"/>
-      <c r="AQ45" s="277"/>
-      <c r="AR45" s="277"/>
-      <c r="AS45" s="277"/>
-      <c r="AT45" s="277"/>
-      <c r="AU45" s="277"/>
-      <c r="AV45" s="277"/>
-      <c r="AW45" s="278"/>
-      <c r="AX45" s="243" t="s">
+      <c r="B45" s="226"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="106"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="188"/>
+      <c r="AB45" s="189"/>
+      <c r="AC45" s="189"/>
+      <c r="AD45" s="189"/>
+      <c r="AE45" s="189"/>
+      <c r="AF45" s="189"/>
+      <c r="AG45" s="189"/>
+      <c r="AH45" s="189"/>
+      <c r="AI45" s="189"/>
+      <c r="AJ45" s="189"/>
+      <c r="AK45" s="189"/>
+      <c r="AL45" s="189"/>
+      <c r="AM45" s="189"/>
+      <c r="AN45" s="189"/>
+      <c r="AO45" s="189"/>
+      <c r="AP45" s="189"/>
+      <c r="AQ45" s="189"/>
+      <c r="AR45" s="189"/>
+      <c r="AS45" s="189"/>
+      <c r="AT45" s="189"/>
+      <c r="AU45" s="189"/>
+      <c r="AV45" s="189"/>
+      <c r="AW45" s="190"/>
+      <c r="AX45" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="AY45" s="253">
+      <c r="AY45" s="224">
         <v>0</v>
       </c>
-      <c r="AZ45" s="243" t="s">
+      <c r="AZ45" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="BA45" s="253">
+      <c r="BA45" s="224">
         <v>0</v>
       </c>
       <c r="BB45" s="4"/>
@@ -9701,360 +9678,360 @@
       <c r="BE45" s="4"/>
       <c r="BF45" s="4"/>
     </row>
-    <row r="46" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>9</v>
       </c>
-      <c r="B46" s="211" t="s">
+      <c r="B46" s="272" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="117"/>
-      <c r="AA46" s="279"/>
-      <c r="AB46" s="280"/>
-      <c r="AC46" s="280"/>
-      <c r="AD46" s="280"/>
-      <c r="AE46" s="280"/>
-      <c r="AF46" s="280"/>
-      <c r="AG46" s="280"/>
-      <c r="AH46" s="280"/>
-      <c r="AI46" s="280"/>
-      <c r="AJ46" s="280"/>
-      <c r="AK46" s="280"/>
-      <c r="AL46" s="280"/>
-      <c r="AM46" s="280"/>
-      <c r="AN46" s="280"/>
-      <c r="AO46" s="280"/>
-      <c r="AP46" s="280"/>
-      <c r="AQ46" s="280"/>
-      <c r="AR46" s="280"/>
-      <c r="AS46" s="280"/>
-      <c r="AT46" s="280"/>
-      <c r="AU46" s="280"/>
-      <c r="AV46" s="280"/>
-      <c r="AW46" s="281"/>
-      <c r="AX46" s="244"/>
-      <c r="AY46" s="254"/>
-      <c r="AZ46" s="244"/>
-      <c r="BA46" s="209"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="191"/>
+      <c r="AB46" s="192"/>
+      <c r="AC46" s="192"/>
+      <c r="AD46" s="192"/>
+      <c r="AE46" s="192"/>
+      <c r="AF46" s="192"/>
+      <c r="AG46" s="192"/>
+      <c r="AH46" s="192"/>
+      <c r="AI46" s="192"/>
+      <c r="AJ46" s="192"/>
+      <c r="AK46" s="192"/>
+      <c r="AL46" s="192"/>
+      <c r="AM46" s="192"/>
+      <c r="AN46" s="192"/>
+      <c r="AO46" s="192"/>
+      <c r="AP46" s="192"/>
+      <c r="AQ46" s="192"/>
+      <c r="AR46" s="192"/>
+      <c r="AS46" s="192"/>
+      <c r="AT46" s="192"/>
+      <c r="AU46" s="192"/>
+      <c r="AV46" s="192"/>
+      <c r="AW46" s="193"/>
+      <c r="AX46" s="216"/>
+      <c r="AY46" s="234"/>
+      <c r="AZ46" s="216"/>
+      <c r="BA46" s="225"/>
       <c r="BB46" s="4"/>
       <c r="BC46" s="4"/>
       <c r="BD46" s="4"/>
       <c r="BE46" s="4"/>
       <c r="BF46" s="4"/>
     </row>
-    <row r="47" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>10</v>
       </c>
-      <c r="B47" s="209"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="112"/>
-      <c r="Z47" s="113"/>
-      <c r="AA47" s="276"/>
-      <c r="AB47" s="277"/>
-      <c r="AC47" s="277"/>
-      <c r="AD47" s="277"/>
-      <c r="AE47" s="277"/>
-      <c r="AF47" s="277"/>
-      <c r="AG47" s="277"/>
-      <c r="AH47" s="277"/>
-      <c r="AI47" s="277"/>
-      <c r="AJ47" s="277"/>
-      <c r="AK47" s="277"/>
-      <c r="AL47" s="277"/>
-      <c r="AM47" s="277"/>
-      <c r="AN47" s="277"/>
-      <c r="AO47" s="277"/>
-      <c r="AP47" s="277"/>
-      <c r="AQ47" s="277"/>
-      <c r="AR47" s="277"/>
-      <c r="AS47" s="277"/>
-      <c r="AT47" s="277"/>
-      <c r="AU47" s="277"/>
-      <c r="AV47" s="277"/>
-      <c r="AW47" s="278"/>
-      <c r="AX47" s="244"/>
-      <c r="AY47" s="254"/>
-      <c r="AZ47" s="244"/>
-      <c r="BA47" s="209"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="84"/>
+      <c r="Y47" s="104"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="188"/>
+      <c r="AB47" s="189"/>
+      <c r="AC47" s="189"/>
+      <c r="AD47" s="189"/>
+      <c r="AE47" s="189"/>
+      <c r="AF47" s="189"/>
+      <c r="AG47" s="189"/>
+      <c r="AH47" s="189"/>
+      <c r="AI47" s="189"/>
+      <c r="AJ47" s="189"/>
+      <c r="AK47" s="189"/>
+      <c r="AL47" s="189"/>
+      <c r="AM47" s="189"/>
+      <c r="AN47" s="189"/>
+      <c r="AO47" s="189"/>
+      <c r="AP47" s="189"/>
+      <c r="AQ47" s="189"/>
+      <c r="AR47" s="189"/>
+      <c r="AS47" s="189"/>
+      <c r="AT47" s="189"/>
+      <c r="AU47" s="189"/>
+      <c r="AV47" s="189"/>
+      <c r="AW47" s="190"/>
+      <c r="AX47" s="216"/>
+      <c r="AY47" s="234"/>
+      <c r="AZ47" s="216"/>
+      <c r="BA47" s="225"/>
       <c r="BB47" s="4"/>
       <c r="BC47" s="4"/>
       <c r="BD47" s="4"/>
       <c r="BE47" s="4"/>
       <c r="BF47" s="4"/>
     </row>
-    <row r="48" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="39">
+    <row r="48" spans="1:58" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="35">
         <v>11</v>
       </c>
-      <c r="B48" s="209"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="112"/>
-      <c r="Z48" s="113"/>
-      <c r="AA48" s="276"/>
-      <c r="AB48" s="277"/>
-      <c r="AC48" s="277"/>
-      <c r="AD48" s="277"/>
-      <c r="AE48" s="277"/>
-      <c r="AF48" s="277"/>
-      <c r="AG48" s="277"/>
-      <c r="AH48" s="277"/>
-      <c r="AI48" s="277"/>
-      <c r="AJ48" s="277"/>
-      <c r="AK48" s="277"/>
-      <c r="AL48" s="277"/>
-      <c r="AM48" s="277"/>
-      <c r="AN48" s="277"/>
-      <c r="AO48" s="277"/>
-      <c r="AP48" s="277"/>
-      <c r="AQ48" s="277"/>
-      <c r="AR48" s="277"/>
-      <c r="AS48" s="277"/>
-      <c r="AT48" s="277"/>
-      <c r="AU48" s="277"/>
-      <c r="AV48" s="277"/>
-      <c r="AW48" s="278"/>
-      <c r="AX48" s="244"/>
-      <c r="AY48" s="254"/>
-      <c r="AZ48" s="244"/>
-      <c r="BA48" s="209"/>
+      <c r="B48" s="225"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="84"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="188"/>
+      <c r="AB48" s="189"/>
+      <c r="AC48" s="189"/>
+      <c r="AD48" s="189"/>
+      <c r="AE48" s="189"/>
+      <c r="AF48" s="189"/>
+      <c r="AG48" s="189"/>
+      <c r="AH48" s="189"/>
+      <c r="AI48" s="189"/>
+      <c r="AJ48" s="189"/>
+      <c r="AK48" s="189"/>
+      <c r="AL48" s="189"/>
+      <c r="AM48" s="189"/>
+      <c r="AN48" s="189"/>
+      <c r="AO48" s="189"/>
+      <c r="AP48" s="189"/>
+      <c r="AQ48" s="189"/>
+      <c r="AR48" s="189"/>
+      <c r="AS48" s="189"/>
+      <c r="AT48" s="189"/>
+      <c r="AU48" s="189"/>
+      <c r="AV48" s="189"/>
+      <c r="AW48" s="190"/>
+      <c r="AX48" s="216"/>
+      <c r="AY48" s="234"/>
+      <c r="AZ48" s="216"/>
+      <c r="BA48" s="225"/>
       <c r="BB48" s="4"/>
       <c r="BC48" s="4"/>
       <c r="BD48" s="4"/>
       <c r="BE48" s="4"/>
       <c r="BF48" s="4"/>
     </row>
-    <row r="49" spans="1:57" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:57" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>12</v>
       </c>
-      <c r="B49" s="210"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="91"/>
-      <c r="Y49" s="114"/>
-      <c r="Z49" s="115"/>
-      <c r="AA49" s="276"/>
-      <c r="AB49" s="277"/>
-      <c r="AC49" s="277"/>
-      <c r="AD49" s="277"/>
-      <c r="AE49" s="277"/>
-      <c r="AF49" s="277"/>
-      <c r="AG49" s="277"/>
-      <c r="AH49" s="277"/>
-      <c r="AI49" s="277"/>
-      <c r="AJ49" s="277"/>
-      <c r="AK49" s="277"/>
-      <c r="AL49" s="277"/>
-      <c r="AM49" s="277"/>
-      <c r="AN49" s="277"/>
-      <c r="AO49" s="277"/>
-      <c r="AP49" s="277"/>
-      <c r="AQ49" s="277"/>
-      <c r="AR49" s="277"/>
-      <c r="AS49" s="277"/>
-      <c r="AT49" s="277"/>
-      <c r="AU49" s="277"/>
-      <c r="AV49" s="277"/>
-      <c r="AW49" s="278"/>
-      <c r="AX49" s="244"/>
-      <c r="AY49" s="254"/>
-      <c r="AZ49" s="244"/>
-      <c r="BA49" s="209"/>
+      <c r="B49" s="226"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="106"/>
+      <c r="Z49" s="107"/>
+      <c r="AA49" s="188"/>
+      <c r="AB49" s="189"/>
+      <c r="AC49" s="189"/>
+      <c r="AD49" s="189"/>
+      <c r="AE49" s="189"/>
+      <c r="AF49" s="189"/>
+      <c r="AG49" s="189"/>
+      <c r="AH49" s="189"/>
+      <c r="AI49" s="189"/>
+      <c r="AJ49" s="189"/>
+      <c r="AK49" s="189"/>
+      <c r="AL49" s="189"/>
+      <c r="AM49" s="189"/>
+      <c r="AN49" s="189"/>
+      <c r="AO49" s="189"/>
+      <c r="AP49" s="189"/>
+      <c r="AQ49" s="189"/>
+      <c r="AR49" s="189"/>
+      <c r="AS49" s="189"/>
+      <c r="AT49" s="189"/>
+      <c r="AU49" s="189"/>
+      <c r="AV49" s="189"/>
+      <c r="AW49" s="190"/>
+      <c r="AX49" s="216"/>
+      <c r="AY49" s="234"/>
+      <c r="AZ49" s="216"/>
+      <c r="BA49" s="225"/>
       <c r="BB49" s="4"/>
       <c r="BC49" s="4"/>
       <c r="BD49" s="4"/>
-      <c r="BE49" s="155"/>
+      <c r="BE49" s="147"/>
     </row>
-    <row r="50" spans="1:57" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="195" t="s">
+    <row r="50" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="258" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="197"/>
-      <c r="I50" s="198" t="s">
+      <c r="B50" s="259"/>
+      <c r="C50" s="259"/>
+      <c r="D50" s="259"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="259"/>
+      <c r="G50" s="259"/>
+      <c r="H50" s="260"/>
+      <c r="I50" s="261" t="s">
         <v>121</v>
       </c>
-      <c r="J50" s="199"/>
-      <c r="K50" s="199"/>
-      <c r="L50" s="199"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="199"/>
-      <c r="O50" s="199"/>
-      <c r="P50" s="200"/>
-      <c r="Q50" s="201" t="s">
+      <c r="J50" s="262"/>
+      <c r="K50" s="262"/>
+      <c r="L50" s="262"/>
+      <c r="M50" s="262"/>
+      <c r="N50" s="262"/>
+      <c r="O50" s="262"/>
+      <c r="P50" s="263"/>
+      <c r="Q50" s="264" t="s">
         <v>122</v>
       </c>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="196"/>
-      <c r="V50" s="196"/>
-      <c r="W50" s="196"/>
-      <c r="X50" s="196"/>
-      <c r="Y50" s="196"/>
-      <c r="Z50" s="197"/>
-      <c r="AA50" s="282"/>
-      <c r="AB50" s="283"/>
-      <c r="AC50" s="283"/>
-      <c r="AD50" s="283"/>
-      <c r="AE50" s="283"/>
-      <c r="AF50" s="283"/>
-      <c r="AG50" s="283"/>
-      <c r="AH50" s="283"/>
-      <c r="AI50" s="283"/>
-      <c r="AJ50" s="283"/>
-      <c r="AK50" s="283"/>
-      <c r="AL50" s="283"/>
-      <c r="AM50" s="283"/>
-      <c r="AN50" s="283"/>
-      <c r="AO50" s="283"/>
-      <c r="AP50" s="283"/>
-      <c r="AQ50" s="283"/>
-      <c r="AR50" s="283"/>
-      <c r="AS50" s="283"/>
-      <c r="AT50" s="283"/>
-      <c r="AU50" s="283"/>
-      <c r="AV50" s="283"/>
-      <c r="AW50" s="284"/>
-      <c r="AX50" s="245"/>
-      <c r="AY50" s="255"/>
-      <c r="AZ50" s="245"/>
-      <c r="BA50" s="210"/>
+      <c r="R50" s="259"/>
+      <c r="S50" s="259"/>
+      <c r="T50" s="259"/>
+      <c r="U50" s="259"/>
+      <c r="V50" s="259"/>
+      <c r="W50" s="259"/>
+      <c r="X50" s="259"/>
+      <c r="Y50" s="259"/>
+      <c r="Z50" s="260"/>
+      <c r="AA50" s="194"/>
+      <c r="AB50" s="195"/>
+      <c r="AC50" s="195"/>
+      <c r="AD50" s="195"/>
+      <c r="AE50" s="195"/>
+      <c r="AF50" s="195"/>
+      <c r="AG50" s="195"/>
+      <c r="AH50" s="195"/>
+      <c r="AI50" s="195"/>
+      <c r="AJ50" s="195"/>
+      <c r="AK50" s="195"/>
+      <c r="AL50" s="195"/>
+      <c r="AM50" s="195"/>
+      <c r="AN50" s="195"/>
+      <c r="AO50" s="195"/>
+      <c r="AP50" s="195"/>
+      <c r="AQ50" s="195"/>
+      <c r="AR50" s="195"/>
+      <c r="AS50" s="195"/>
+      <c r="AT50" s="195"/>
+      <c r="AU50" s="195"/>
+      <c r="AV50" s="195"/>
+      <c r="AW50" s="196"/>
+      <c r="AX50" s="217"/>
+      <c r="AY50" s="235"/>
+      <c r="AZ50" s="217"/>
+      <c r="BA50" s="226"/>
       <c r="BB50" s="4"/>
       <c r="BC50" s="4"/>
       <c r="BD50" s="4"/>
     </row>
-    <row r="51" spans="1:57" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="65"/>
-      <c r="AE51" s="65"/>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65"/>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="65"/>
-      <c r="AJ51" s="65"/>
-      <c r="AK51" s="65"/>
-      <c r="AL51" s="65"/>
-      <c r="AM51" s="65"/>
-      <c r="AN51" s="64"/>
+    <row r="51" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="60"/>
       <c r="AT51" s="4"/>
       <c r="AU51" s="4"/>
       <c r="AV51" s="4"/>
@@ -10064,7 +10041,7 @@
       <c r="BC51" s="4"/>
       <c r="BD51" s="4"/>
     </row>
-    <row r="52" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AT52" s="4"/>
       <c r="AU52" s="4"/>
       <c r="AV52" s="4"/>
@@ -10074,9 +10051,135 @@
       <c r="AZ52" s="4"/>
       <c r="BA52" s="4"/>
     </row>
-    <row r="53" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="A2:AT2"/>
+    <mergeCell ref="B3:AE3"/>
+    <mergeCell ref="AF3:AT3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="U33:AE33"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="I35:Z35"/>
+    <mergeCell ref="AA35:AW35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AW36"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="I50:P50"/>
+    <mergeCell ref="Q50:Z50"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="AW7:AW8"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="AX21:AX22"/>
+    <mergeCell ref="AX25:AX26"/>
+    <mergeCell ref="AX27:AX28"/>
+    <mergeCell ref="AX29:AX30"/>
+    <mergeCell ref="AX31:AX32"/>
+    <mergeCell ref="AX33:AX34"/>
+    <mergeCell ref="AX37:AX42"/>
+    <mergeCell ref="AX45:AX50"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AY19:AY20"/>
+    <mergeCell ref="AY21:AY22"/>
+    <mergeCell ref="AY25:AY26"/>
+    <mergeCell ref="AY27:AY28"/>
+    <mergeCell ref="AY29:AY30"/>
+    <mergeCell ref="AY31:AY32"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AY37:AY42"/>
+    <mergeCell ref="AY45:AY50"/>
+    <mergeCell ref="BA37:BA42"/>
+    <mergeCell ref="BA45:BA50"/>
+    <mergeCell ref="AZ9:AZ10"/>
+    <mergeCell ref="AZ11:AZ12"/>
+    <mergeCell ref="AZ13:AZ14"/>
+    <mergeCell ref="AZ17:AZ18"/>
+    <mergeCell ref="AZ19:AZ20"/>
+    <mergeCell ref="AZ21:AZ22"/>
+    <mergeCell ref="AZ25:AZ26"/>
+    <mergeCell ref="AZ27:AZ28"/>
+    <mergeCell ref="AZ29:AZ30"/>
     <mergeCell ref="AX3:BA6"/>
     <mergeCell ref="AX7:AY8"/>
     <mergeCell ref="AZ7:BA8"/>
@@ -10101,132 +10204,6 @@
     <mergeCell ref="BA29:BA30"/>
     <mergeCell ref="BA31:BA32"/>
     <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="BA37:BA42"/>
-    <mergeCell ref="BA45:BA50"/>
-    <mergeCell ref="AZ9:AZ10"/>
-    <mergeCell ref="AZ11:AZ12"/>
-    <mergeCell ref="AZ13:AZ14"/>
-    <mergeCell ref="AZ17:AZ18"/>
-    <mergeCell ref="AZ19:AZ20"/>
-    <mergeCell ref="AZ21:AZ22"/>
-    <mergeCell ref="AZ25:AZ26"/>
-    <mergeCell ref="AZ27:AZ28"/>
-    <mergeCell ref="AZ29:AZ30"/>
-    <mergeCell ref="AX29:AX30"/>
-    <mergeCell ref="AX31:AX32"/>
-    <mergeCell ref="AX33:AX34"/>
-    <mergeCell ref="AX37:AX42"/>
-    <mergeCell ref="AX45:AX50"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AY19:AY20"/>
-    <mergeCell ref="AY21:AY22"/>
-    <mergeCell ref="AY25:AY26"/>
-    <mergeCell ref="AY27:AY28"/>
-    <mergeCell ref="AY29:AY30"/>
-    <mergeCell ref="AY31:AY32"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AY37:AY42"/>
-    <mergeCell ref="AY45:AY50"/>
-    <mergeCell ref="AW7:AW8"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="AX21:AX22"/>
-    <mergeCell ref="AX25:AX26"/>
-    <mergeCell ref="AX27:AX28"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AU7:AU8"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AV7:AV8"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="I50:P50"/>
-    <mergeCell ref="Q50:Z50"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="U33:AE33"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="I35:Z35"/>
-    <mergeCell ref="AA35:AW35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AW36"/>
-    <mergeCell ref="A1:AT1"/>
-    <mergeCell ref="A2:AT2"/>
-    <mergeCell ref="B3:AE3"/>
-    <mergeCell ref="AF3:AT3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -10245,28 +10222,28 @@
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="6" width="31.625" customWidth="1"/>
-    <col min="7" max="10" width="38.25" customWidth="1"/>
-    <col min="11" max="11" width="31.625" customWidth="1"/>
-    <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="16" width="31.625" customWidth="1"/>
-    <col min="17" max="20" width="38.25" customWidth="1"/>
-    <col min="21" max="21" width="31.625" customWidth="1"/>
-    <col min="22" max="22" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="6" width="31.6328125" customWidth="1"/>
+    <col min="7" max="10" width="38.26953125" customWidth="1"/>
+    <col min="11" max="11" width="31.6328125" customWidth="1"/>
+    <col min="12" max="12" width="32.7265625" customWidth="1"/>
+    <col min="13" max="16" width="31.6328125" customWidth="1"/>
+    <col min="17" max="20" width="38.26953125" customWidth="1"/>
+    <col min="21" max="21" width="31.6328125" customWidth="1"/>
+    <col min="22" max="22" width="32.7265625" customWidth="1"/>
     <col min="23" max="23" width="45" customWidth="1"/>
-    <col min="24" max="24" width="36.125" customWidth="1"/>
-    <col min="25" max="25" width="37.125" customWidth="1"/>
-    <col min="26" max="28" width="33.875" customWidth="1"/>
-    <col min="29" max="33" width="36.125" customWidth="1"/>
-    <col min="34" max="36" width="43.875" customWidth="1"/>
-    <col min="37" max="39" width="42.75" customWidth="1"/>
+    <col min="24" max="24" width="36.08984375" customWidth="1"/>
+    <col min="25" max="25" width="37.08984375" customWidth="1"/>
+    <col min="26" max="28" width="33.90625" customWidth="1"/>
+    <col min="29" max="33" width="36.08984375" customWidth="1"/>
+    <col min="34" max="36" width="43.90625" customWidth="1"/>
+    <col min="37" max="39" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
@@ -10398,22 +10375,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.75" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="48.26953125" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="6" max="11" width="35" customWidth="1"/>
-    <col min="12" max="23" width="36.125" customWidth="1"/>
-    <col min="24" max="32" width="43.875" customWidth="1"/>
-    <col min="33" max="41" width="42.75" customWidth="1"/>
-    <col min="42" max="42" width="37.125" customWidth="1"/>
-    <col min="43" max="43" width="38.25" customWidth="1"/>
+    <col min="12" max="23" width="36.08984375" customWidth="1"/>
+    <col min="24" max="32" width="43.90625" customWidth="1"/>
+    <col min="33" max="41" width="42.7265625" customWidth="1"/>
+    <col min="42" max="42" width="37.08984375" customWidth="1"/>
+    <col min="43" max="43" width="38.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -10544,7 +10521,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
   </sheetData>

--- a/excel/finished/能介/三四柜区运行记录表.xlsx
+++ b/excel/finished/能介/三四柜区运行记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25680" windowHeight="11040" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Area_Main" sheetId="1" r:id="rId1"/>
@@ -881,17 +881,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm;@"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,11 +936,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="楷体"/>
@@ -955,28 +951,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,22 +981,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1015,35 +989,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1069,7 +1020,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,8 +1056,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,13 +1143,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,25 +1191,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,25 +1221,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,19 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,13 +1287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,13 +1305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,50 +1327,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="81">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1936,17 +1932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1958,34 +1943,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1994,62 +1951,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2165,12 +2066,36 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2229,20 +2154,60 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2262,6 +2227,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2273,15 +2271,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2303,6 +2292,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2311,186 +2309,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="75" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2529,7 +2512,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2547,10 +2530,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,91 +2581,91 @@
     <xf numFmtId="20" fontId="4" fillId="4" borderId="17" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="14" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="14" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="29" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="29" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="32" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2754,74 +2737,20 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="31" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="48" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="50" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="51" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="27" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="53" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="54" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="12" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="55" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="26" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="24" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="25" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="56" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2837,126 +2766,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="14" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="58" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="23" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="19" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="57" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="14" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="64" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="65" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="6" borderId="67" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="49" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="46" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="68" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="64" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="41" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="61" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,7 +2873,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2989,67 +2885,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="62" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="63" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="64" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="65" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="64" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="57" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3073,61 +2969,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="11" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="51" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="15" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="53" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="25" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="56" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="11" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="51" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="15" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="53" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="12" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="55" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="65" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3139,7 +2999,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="61" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3154,7 +3014,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3193,13 +3053,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="65" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="64" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="57" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3208,134 +3068,134 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="46" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="63" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="57" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="67" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="66" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="66" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="67" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="68" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="64" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="54" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="72" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="63" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="71" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="71" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="72" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="72" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="56" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="71" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="66" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3344,19 +3204,19 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="51" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3368,37 +3228,37 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="53" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="70" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="56" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="56" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="51" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="53" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="70" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="55" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="71" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3407,7 +3267,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="66" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3416,10 +3276,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="72" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="67" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="66" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3428,7 +3288,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="72" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="67" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="14" applyBorder="1" applyAlignment="1">
@@ -3440,16 +3300,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3458,7 +3318,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="14" applyBorder="1" applyAlignment="1">
@@ -3467,7 +3327,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3482,10 +3342,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="49" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="49" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3548,15 +3408,15 @@
     <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 3 2 4" xfId="55"/>
-    <cellStyle name="常规 14" xfId="56"/>
+    <cellStyle name="常规 14" xfId="55"/>
+    <cellStyle name="常规 3 2 4" xfId="56"/>
     <cellStyle name="常规 2" xfId="57"/>
     <cellStyle name="常规 3" xfId="58"/>
     <cellStyle name="常规 3 2 3" xfId="59"/>
-    <cellStyle name="常规 3 5" xfId="60"/>
-    <cellStyle name="常规 3 3 2" xfId="61"/>
-    <cellStyle name="常规 3 6" xfId="62"/>
-    <cellStyle name="常规 3 3 3" xfId="63"/>
+    <cellStyle name="常规 3 3 2" xfId="60"/>
+    <cellStyle name="常规 3 5" xfId="61"/>
+    <cellStyle name="常规 3 3 3" xfId="62"/>
+    <cellStyle name="常规 3 6" xfId="63"/>
     <cellStyle name="常规 3 4 2" xfId="64"/>
     <cellStyle name="常规 4" xfId="65"/>
     <cellStyle name="常规 5" xfId="66"/>
@@ -3864,8 +3724,8 @@
   <sheetPr/>
   <dimension ref="A1:BF53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.45" defaultRowHeight="13.5"/>
@@ -3919,13 +3779,13 @@
       <c r="AR1" s="10"/>
       <c r="AS1" s="10"/>
       <c r="AT1" s="10"/>
-      <c r="AU1" s="212"/>
-      <c r="AV1" s="212"/>
-      <c r="AW1" s="212"/>
-      <c r="AX1" s="248"/>
-      <c r="AY1" s="249"/>
-      <c r="AZ1" s="249"/>
-      <c r="BA1" s="250"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="207"/>
+      <c r="AY1" s="208"/>
+      <c r="AZ1" s="208"/>
+      <c r="BA1" s="209"/>
     </row>
     <row r="2" ht="15" spans="1:54">
       <c r="A2" s="11" t="str">
@@ -3977,13 +3837,13 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
       <c r="AT2" s="12"/>
-      <c r="AU2" s="213"/>
-      <c r="AV2" s="213"/>
-      <c r="AW2" s="213"/>
-      <c r="AX2" s="251"/>
-      <c r="AY2" s="252"/>
-      <c r="AZ2" s="252"/>
-      <c r="BA2" s="253"/>
+      <c r="AU2" s="172"/>
+      <c r="AV2" s="172"/>
+      <c r="AW2" s="172"/>
+      <c r="AX2" s="210"/>
+      <c r="AY2" s="211"/>
+      <c r="AZ2" s="211"/>
+      <c r="BA2" s="212"/>
       <c r="BB2" t="s">
         <v>1</v>
       </c>
@@ -4022,35 +3882,35 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="152" t="s">
+      <c r="AF3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="205"/>
-      <c r="AJ3" s="205"/>
-      <c r="AK3" s="205"/>
-      <c r="AL3" s="205"/>
-      <c r="AM3" s="205"/>
-      <c r="AN3" s="205"/>
-      <c r="AO3" s="205"/>
-      <c r="AP3" s="205"/>
-      <c r="AQ3" s="205"/>
-      <c r="AR3" s="205"/>
-      <c r="AS3" s="205"/>
-      <c r="AT3" s="205"/>
-      <c r="AU3" s="214" t="s">
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="164"/>
+      <c r="AK3" s="164"/>
+      <c r="AL3" s="164"/>
+      <c r="AM3" s="164"/>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="164"/>
+      <c r="AP3" s="164"/>
+      <c r="AQ3" s="164"/>
+      <c r="AR3" s="164"/>
+      <c r="AS3" s="164"/>
+      <c r="AT3" s="164"/>
+      <c r="AU3" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AV3" s="215"/>
-      <c r="AW3" s="254"/>
-      <c r="AX3" s="255" t="s">
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="213"/>
+      <c r="AX3" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="AY3" s="256"/>
-      <c r="AZ3" s="256"/>
-      <c r="BA3" s="257"/>
-      <c r="BB3" s="258" t="s">
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="216"/>
+      <c r="BB3" s="217" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4067,8 +3927,8 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="92" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="18"/>
@@ -4079,63 +3939,63 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="131" t="s">
+      <c r="U4" s="91"/>
+      <c r="V4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="154" t="s">
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="154" t="s">
+      <c r="AC4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="155"/>
-      <c r="AF4" s="156" t="s">
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="207" t="s">
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="207" t="s">
+      <c r="AI4" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="207" t="s">
+      <c r="AJ4" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="131" t="s">
+      <c r="AK4" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="153"/>
-      <c r="AR4" s="131" t="s">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="216"/>
-      <c r="AU4" s="217" t="s">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="175"/>
+      <c r="AU4" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="AV4" s="218" t="s">
+      <c r="AV4" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="AW4" s="259" t="s">
+      <c r="AW4" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="AX4" s="260"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="262"/>
+      <c r="AX4" s="219"/>
+      <c r="AY4" s="220"/>
+      <c r="AZ4" s="220"/>
+      <c r="BA4" s="221"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:54">
       <c r="A5" s="16"/>
@@ -4208,13 +4068,13 @@
       <c r="X5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="157" t="s">
+      <c r="Y5" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="157" t="s">
+      <c r="Z5" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="157" t="s">
+      <c r="AA5" s="128" t="s">
         <v>35</v>
       </c>
       <c r="AB5" s="20" t="s">
@@ -4226,18 +4086,18 @@
       <c r="AD5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="158" t="s">
+      <c r="AE5" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="159" t="s">
+      <c r="AF5" s="130" t="s">
         <v>36</v>
       </c>
       <c r="AG5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AH5" s="208"/>
-      <c r="AI5" s="208"/>
-      <c r="AJ5" s="208"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
       <c r="AK5" s="21" t="s">
         <v>21</v>
       </c>
@@ -4265,16 +4125,16 @@
       <c r="AS5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AT5" s="158" t="s">
+      <c r="AT5" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AU5" s="219"/>
-      <c r="AV5" s="220"/>
-      <c r="AW5" s="263"/>
-      <c r="AX5" s="260"/>
-      <c r="AY5" s="261"/>
-      <c r="AZ5" s="261"/>
-      <c r="BA5" s="262"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="222"/>
+      <c r="AX5" s="219"/>
+      <c r="AY5" s="220"/>
+      <c r="AZ5" s="220"/>
+      <c r="BA5" s="221"/>
       <c r="BB5" t="s">
         <v>42</v>
       </c>
@@ -4304,14 +4164,14 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
       <c r="AB6" s="22"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="161"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="132"/>
       <c r="AG6" s="21"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
@@ -4325,14 +4185,14 @@
       <c r="AQ6" s="22"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
-      <c r="AT6" s="158"/>
-      <c r="AU6" s="221"/>
-      <c r="AV6" s="222"/>
-      <c r="AW6" s="264"/>
-      <c r="AX6" s="265"/>
-      <c r="AY6" s="265"/>
-      <c r="AZ6" s="265"/>
-      <c r="BA6" s="266"/>
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="180"/>
+      <c r="AV6" s="181"/>
+      <c r="AW6" s="223"/>
+      <c r="AX6" s="224"/>
+      <c r="AY6" s="224"/>
+      <c r="AZ6" s="224"/>
+      <c r="BA6" s="225"/>
       <c r="BB6" t="s">
         <v>43</v>
       </c>
@@ -4408,13 +4268,13 @@
       <c r="X7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="162" t="s">
+      <c r="Y7" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="162" t="s">
+      <c r="Z7" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="AA7" s="162" t="s">
+      <c r="AA7" s="133" t="s">
         <v>50</v>
       </c>
       <c r="AB7" s="25" t="s">
@@ -4426,71 +4286,71 @@
       <c r="AD7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AE7" s="162" t="s">
+      <c r="AE7" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="AF7" s="163" t="s">
+      <c r="AF7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="AG7" s="209" t="s">
+      <c r="AG7" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="AH7" s="209" t="s">
+      <c r="AH7" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="209" t="s">
+      <c r="AI7" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="AJ7" s="209" t="s">
+      <c r="AJ7" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="AK7" s="209" t="s">
+      <c r="AK7" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="AL7" s="209" t="s">
+      <c r="AL7" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="AM7" s="157" t="s">
+      <c r="AM7" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="AN7" s="157" t="s">
+      <c r="AN7" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="AO7" s="157" t="s">
+      <c r="AO7" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="AP7" s="209" t="s">
+      <c r="AP7" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="AQ7" s="223" t="s">
+      <c r="AQ7" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="AR7" s="209" t="s">
+      <c r="AR7" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="AS7" s="209" t="s">
+      <c r="AS7" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="AT7" s="157" t="s">
+      <c r="AT7" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="AU7" s="224" t="s">
+      <c r="AU7" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="225" t="s">
+      <c r="AV7" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="AW7" s="267" t="s">
+      <c r="AW7" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="AX7" s="268" t="s">
+      <c r="AX7" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="AY7" s="269"/>
-      <c r="AZ7" s="270" t="s">
+      <c r="AY7" s="228"/>
+      <c r="AZ7" s="229" t="s">
         <v>55</v>
       </c>
-      <c r="BA7" s="271"/>
+      <c r="BA7" s="230"/>
       <c r="BB7" t="s">
         <v>56</v>
       </c>
@@ -4578,31 +4438,31 @@
       <c r="AD8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="164" t="s">
+      <c r="AE8" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="210"/>
-      <c r="AI8" s="210"/>
-      <c r="AJ8" s="210"/>
-      <c r="AK8" s="210"/>
-      <c r="AL8" s="210"/>
-      <c r="AM8" s="211"/>
-      <c r="AN8" s="211"/>
-      <c r="AO8" s="211"/>
-      <c r="AP8" s="210"/>
-      <c r="AQ8" s="226"/>
-      <c r="AR8" s="210"/>
-      <c r="AS8" s="210"/>
-      <c r="AT8" s="211"/>
-      <c r="AU8" s="227"/>
-      <c r="AV8" s="228"/>
-      <c r="AW8" s="272"/>
-      <c r="AX8" s="273"/>
-      <c r="AY8" s="273"/>
-      <c r="AZ8" s="274"/>
-      <c r="BA8" s="275"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="169"/>
+      <c r="AJ8" s="169"/>
+      <c r="AK8" s="169"/>
+      <c r="AL8" s="169"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="169"/>
+      <c r="AQ8" s="185"/>
+      <c r="AR8" s="169"/>
+      <c r="AS8" s="169"/>
+      <c r="AT8" s="170"/>
+      <c r="AU8" s="186"/>
+      <c r="AV8" s="187"/>
+      <c r="AW8" s="231"/>
+      <c r="AX8" s="232"/>
+      <c r="AY8" s="232"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="234"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:53">
       <c r="A9" s="27">
@@ -4696,55 +4556,55 @@
         <f>IF(_Area3_day_hour!V2="","",_Area3_day_hour!V2/1000)</f>
         <v/>
       </c>
-      <c r="X9" s="133" t="str">
+      <c r="X9" s="110" t="str">
         <f>IF(_Area3_day_hour!AC2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD2&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y9" s="166" t="str">
+      <c r="Y9" s="137" t="str">
         <f>IF(_Area3_day_hour!W2="","",_Area3_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z9" s="166" t="str">
+      <c r="Z9" s="137" t="str">
         <f>IF(_Area3_day_hour!X2="","",_Area3_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA9" s="166" t="str">
+      <c r="AA9" s="137" t="str">
         <f>IF(_Area3_day_hour!Y2="","",_Area3_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB9" s="136" t="str">
+      <c r="AB9" s="113" t="str">
         <f>IF(_Area3_day_hour!AE2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF2&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC9" s="166" t="str">
+      <c r="AC9" s="137" t="str">
         <f>IF(_Area3_day_hour!Z2="","",_Area3_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AD9" s="166" t="str">
+      <c r="AD9" s="137" t="str">
         <f>IF(_Area3_day_hour!AA2="","",_Area3_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AE9" s="167" t="str">
+      <c r="AE9" s="138" t="str">
         <f>IF(_Area3_day_hour!AB2="","",_Area3_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AF9" s="168" t="str">
+      <c r="AF9" s="139" t="str">
         <f>IF(_Area4_day_hour!I2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG9" s="166" t="str">
+      <c r="AG9" s="137" t="str">
         <f>IF(_Area4_day_hour!A2="","",_Area4_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="AH9" s="133" t="str">
+      <c r="AH9" s="110" t="str">
         <f>IF(_Area4_day_hour!L2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI9" s="133" t="str">
+      <c r="AI9" s="110" t="str">
         <f>IF(_Area4_day_hour!N2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ9" s="133" t="str">
+      <c r="AJ9" s="110" t="str">
         <f>IF(_Area4_day_hour!P2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4784,21 +4644,21 @@
         <f>IF(_Area4_day_hour!G2="","",_Area4_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="AT9" s="229" t="str">
+      <c r="AT9" s="188" t="str">
         <f>IF(_Area4_day_hour!H2="","",_Area4_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="AU9" s="168"/>
-      <c r="AV9" s="230"/>
-      <c r="AW9" s="276"/>
-      <c r="AX9" s="277" t="s">
+      <c r="AU9" s="139"/>
+      <c r="AV9" s="189"/>
+      <c r="AW9" s="235"/>
+      <c r="AX9" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="AY9" s="278"/>
-      <c r="AZ9" s="279" t="s">
+      <c r="AY9" s="237"/>
+      <c r="AZ9" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="BA9" s="278"/>
+      <c r="BA9" s="237"/>
     </row>
     <row r="10" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A10" s="30">
@@ -4892,55 +4752,55 @@
         <f>IF(_Area3_day_hour!V3="","",_Area3_day_hour!V3/1000)</f>
         <v/>
       </c>
-      <c r="X10" s="134" t="str">
+      <c r="X10" s="111" t="str">
         <f>IF(_Area3_day_hour!AC3&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD3&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y10" s="169" t="str">
+      <c r="Y10" s="140" t="str">
         <f>IF(_Area3_day_hour!W3="","",_Area3_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z10" s="169" t="str">
+      <c r="Z10" s="140" t="str">
         <f>IF(_Area3_day_hour!X3="","",_Area3_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA10" s="169" t="str">
+      <c r="AA10" s="140" t="str">
         <f>IF(_Area3_day_hour!Y3="","",_Area3_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB10" s="134" t="str">
+      <c r="AB10" s="111" t="str">
         <f>IF(_Area3_day_hour!AE3&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF3&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC10" s="169" t="str">
+      <c r="AC10" s="140" t="str">
         <f>IF(_Area3_day_hour!Z3="","",_Area3_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AD10" s="169" t="str">
+      <c r="AD10" s="140" t="str">
         <f>IF(_Area3_day_hour!AA3="","",_Area3_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AE10" s="170" t="str">
+      <c r="AE10" s="141" t="str">
         <f>IF(_Area3_day_hour!AB3="","",_Area3_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AF10" s="171" t="str">
+      <c r="AF10" s="142" t="str">
         <f>IF(_Area4_day_hour!I3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG10" s="169" t="str">
+      <c r="AG10" s="140" t="str">
         <f>IF(_Area4_day_hour!A3="","",_Area4_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="AH10" s="134" t="str">
+      <c r="AH10" s="111" t="str">
         <f>IF(_Area4_day_hour!L3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI10" s="134" t="str">
+      <c r="AI10" s="111" t="str">
         <f>IF(_Area4_day_hour!N3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ10" s="134" t="str">
+      <c r="AJ10" s="111" t="str">
         <f>IF(_Area4_day_hour!P3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4980,17 +4840,17 @@
         <f>IF(_Area4_day_hour!G3="","",_Area4_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="AT10" s="231" t="str">
+      <c r="AT10" s="190" t="str">
         <f>IF(_Area4_day_hour!H3="","",_Area4_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="AU10" s="232"/>
-      <c r="AV10" s="233"/>
-      <c r="AW10" s="280"/>
-      <c r="AX10" s="281"/>
-      <c r="AY10" s="282"/>
-      <c r="AZ10" s="283"/>
-      <c r="BA10" s="282"/>
+      <c r="AU10" s="191"/>
+      <c r="AV10" s="192"/>
+      <c r="AW10" s="239"/>
+      <c r="AX10" s="240"/>
+      <c r="AY10" s="241"/>
+      <c r="AZ10" s="242"/>
+      <c r="BA10" s="241"/>
     </row>
     <row r="11" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A11" s="30">
@@ -5084,55 +4944,55 @@
         <f>IF(_Area3_day_hour!V4="","",_Area3_day_hour!V4/1000)</f>
         <v/>
       </c>
-      <c r="X11" s="134" t="str">
+      <c r="X11" s="111" t="str">
         <f>IF(_Area3_day_hour!AC4&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD4&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y11" s="169" t="str">
+      <c r="Y11" s="140" t="str">
         <f>IF(_Area3_day_hour!W4="","",_Area3_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z11" s="169" t="str">
+      <c r="Z11" s="140" t="str">
         <f>IF(_Area3_day_hour!X4="","",_Area3_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA11" s="169" t="str">
+      <c r="AA11" s="140" t="str">
         <f>IF(_Area3_day_hour!Y4="","",_Area3_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB11" s="134" t="str">
+      <c r="AB11" s="111" t="str">
         <f>IF(_Area3_day_hour!AE4&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF4&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC11" s="169" t="str">
+      <c r="AC11" s="140" t="str">
         <f>IF(_Area3_day_hour!Z4="","",_Area3_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AD11" s="169" t="str">
+      <c r="AD11" s="140" t="str">
         <f>IF(_Area3_day_hour!AA4="","",_Area3_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AE11" s="170" t="str">
+      <c r="AE11" s="141" t="str">
         <f>IF(_Area3_day_hour!AB4="","",_Area3_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AF11" s="171" t="str">
+      <c r="AF11" s="142" t="str">
         <f>IF(_Area4_day_hour!I4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG11" s="169" t="str">
+      <c r="AG11" s="140" t="str">
         <f>IF(_Area4_day_hour!A4="","",_Area4_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="AH11" s="134" t="str">
+      <c r="AH11" s="111" t="str">
         <f>IF(_Area4_day_hour!L4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI11" s="134" t="str">
+      <c r="AI11" s="111" t="str">
         <f>IF(_Area4_day_hour!N4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ11" s="134" t="str">
+      <c r="AJ11" s="111" t="str">
         <f>IF(_Area4_day_hour!P4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5172,21 +5032,21 @@
         <f>IF(_Area4_day_hour!G4="","",_Area4_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="AT11" s="231" t="str">
+      <c r="AT11" s="190" t="str">
         <f>IF(_Area4_day_hour!H4="","",_Area4_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="AU11" s="232"/>
-      <c r="AV11" s="233"/>
-      <c r="AW11" s="280"/>
-      <c r="AX11" s="277" t="s">
+      <c r="AU11" s="191"/>
+      <c r="AV11" s="192"/>
+      <c r="AW11" s="239"/>
+      <c r="AX11" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="AY11" s="278"/>
-      <c r="AZ11" s="279" t="s">
+      <c r="AY11" s="237"/>
+      <c r="AZ11" s="238" t="s">
         <v>88</v>
       </c>
-      <c r="BA11" s="278"/>
+      <c r="BA11" s="237"/>
     </row>
     <row r="12" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A12" s="30">
@@ -5277,55 +5137,55 @@
         <f>IF(_Area3_day_hour!V5="","",_Area3_day_hour!V5/1000)</f>
         <v/>
       </c>
-      <c r="X12" s="134" t="str">
+      <c r="X12" s="111" t="str">
         <f>IF(_Area3_day_hour!AC5&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD5&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y12" s="169" t="str">
+      <c r="Y12" s="140" t="str">
         <f>IF(_Area3_day_hour!W5="","",_Area3_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z12" s="169" t="str">
+      <c r="Z12" s="140" t="str">
         <f>IF(_Area3_day_hour!X5="","",_Area3_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA12" s="169" t="str">
+      <c r="AA12" s="140" t="str">
         <f>IF(_Area3_day_hour!Y5="","",_Area3_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB12" s="134" t="str">
+      <c r="AB12" s="111" t="str">
         <f>IF(_Area3_day_hour!AE5&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF5&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC12" s="169" t="str">
+      <c r="AC12" s="140" t="str">
         <f>IF(_Area3_day_hour!Z5="","",_Area3_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AD12" s="169" t="str">
+      <c r="AD12" s="140" t="str">
         <f>IF(_Area3_day_hour!AA5="","",_Area3_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AE12" s="170" t="str">
+      <c r="AE12" s="141" t="str">
         <f>IF(_Area3_day_hour!AB5="","",_Area3_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AF12" s="171" t="str">
+      <c r="AF12" s="142" t="str">
         <f>IF(_Area4_day_hour!I5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG12" s="178" t="str">
+      <c r="AG12" s="149" t="str">
         <f>IF(_Area4_day_hour!A5="","",_Area4_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="AH12" s="134" t="str">
+      <c r="AH12" s="111" t="str">
         <f>IF(_Area4_day_hour!L5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI12" s="134" t="str">
+      <c r="AI12" s="111" t="str">
         <f>IF(_Area4_day_hour!N5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ12" s="134" t="str">
+      <c r="AJ12" s="111" t="str">
         <f>IF(_Area4_day_hour!P5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5365,17 +5225,17 @@
         <f>IF(_Area4_day_hour!G5="","",_Area4_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="AT12" s="231" t="str">
+      <c r="AT12" s="190" t="str">
         <f>IF(_Area4_day_hour!H5="","",_Area4_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="AU12" s="232"/>
-      <c r="AV12" s="233"/>
-      <c r="AW12" s="280"/>
-      <c r="AX12" s="281"/>
-      <c r="AY12" s="282"/>
-      <c r="AZ12" s="283"/>
-      <c r="BA12" s="282"/>
+      <c r="AU12" s="191"/>
+      <c r="AV12" s="192"/>
+      <c r="AW12" s="239"/>
+      <c r="AX12" s="240"/>
+      <c r="AY12" s="241"/>
+      <c r="AZ12" s="242"/>
+      <c r="BA12" s="241"/>
     </row>
     <row r="13" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A13" s="30">
@@ -5469,55 +5329,55 @@
         <f>IF(_Area3_day_hour!V6="","",_Area3_day_hour!V6/1000)</f>
         <v/>
       </c>
-      <c r="X13" s="134" t="str">
+      <c r="X13" s="111" t="str">
         <f>IF(_Area3_day_hour!AC6&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD6&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y13" s="169" t="str">
+      <c r="Y13" s="140" t="str">
         <f>IF(_Area3_day_hour!W6="","",_Area3_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z13" s="169" t="str">
+      <c r="Z13" s="140" t="str">
         <f>IF(_Area3_day_hour!X6="","",_Area3_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA13" s="169" t="str">
+      <c r="AA13" s="140" t="str">
         <f>IF(_Area3_day_hour!Y6="","",_Area3_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB13" s="134" t="str">
+      <c r="AB13" s="111" t="str">
         <f>IF(_Area3_day_hour!AE6&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF6&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC13" s="169" t="str">
+      <c r="AC13" s="140" t="str">
         <f>IF(_Area3_day_hour!Z6="","",_Area3_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AD13" s="169" t="str">
+      <c r="AD13" s="140" t="str">
         <f>IF(_Area3_day_hour!AA6="","",_Area3_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AE13" s="170" t="str">
+      <c r="AE13" s="141" t="str">
         <f>IF(_Area3_day_hour!AB6="","",_Area3_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AF13" s="171" t="str">
+      <c r="AF13" s="142" t="str">
         <f>IF(_Area4_day_hour!I6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG13" s="169" t="str">
+      <c r="AG13" s="140" t="str">
         <f>IF(_Area4_day_hour!A6="","",_Area4_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="AH13" s="134" t="str">
+      <c r="AH13" s="111" t="str">
         <f>IF(_Area4_day_hour!L6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI13" s="134" t="str">
+      <c r="AI13" s="111" t="str">
         <f>IF(_Area4_day_hour!N6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ13" s="134" t="str">
+      <c r="AJ13" s="111" t="str">
         <f>IF(_Area4_day_hour!P6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5557,19 +5417,19 @@
         <f>IF(_Area4_day_hour!G6="","",_Area4_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="AT13" s="231" t="str">
+      <c r="AT13" s="190" t="str">
         <f>IF(_Area4_day_hour!H6="","",_Area4_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="AU13" s="232"/>
-      <c r="AV13" s="233"/>
-      <c r="AW13" s="280"/>
-      <c r="AX13" s="277" t="s">
+      <c r="AU13" s="191"/>
+      <c r="AV13" s="192"/>
+      <c r="AW13" s="239"/>
+      <c r="AX13" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="AY13" s="278"/>
-      <c r="AZ13" s="279"/>
-      <c r="BA13" s="278"/>
+      <c r="AY13" s="237"/>
+      <c r="AZ13" s="238"/>
+      <c r="BA13" s="237"/>
     </row>
     <row r="14" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A14" s="30">
@@ -5663,55 +5523,55 @@
         <f>IF(_Area3_day_hour!V7="","",_Area3_day_hour!V7/1000)</f>
         <v/>
       </c>
-      <c r="X14" s="134" t="str">
+      <c r="X14" s="111" t="str">
         <f>IF(_Area3_day_hour!AC7&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD7&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y14" s="169" t="str">
+      <c r="Y14" s="140" t="str">
         <f>IF(_Area3_day_hour!W7="","",_Area3_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z14" s="169" t="str">
+      <c r="Z14" s="140" t="str">
         <f>IF(_Area3_day_hour!X7="","",_Area3_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA14" s="169" t="str">
+      <c r="AA14" s="140" t="str">
         <f>IF(_Area3_day_hour!Y7="","",_Area3_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB14" s="134" t="str">
+      <c r="AB14" s="111" t="str">
         <f>IF(_Area3_day_hour!AE7&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF7&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC14" s="169" t="str">
+      <c r="AC14" s="140" t="str">
         <f>IF(_Area3_day_hour!Z7="","",_Area3_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AD14" s="169" t="str">
+      <c r="AD14" s="140" t="str">
         <f>IF(_Area3_day_hour!AA7="","",_Area3_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AE14" s="170" t="str">
+      <c r="AE14" s="141" t="str">
         <f>IF(_Area3_day_hour!AB7="","",_Area3_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AF14" s="171" t="str">
+      <c r="AF14" s="142" t="str">
         <f>IF(_Area4_day_hour!I7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG14" s="169" t="str">
+      <c r="AG14" s="140" t="str">
         <f>IF(_Area4_day_hour!A7="","",_Area4_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="AH14" s="134" t="str">
+      <c r="AH14" s="111" t="str">
         <f>IF(_Area4_day_hour!L7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI14" s="134" t="str">
+      <c r="AI14" s="111" t="str">
         <f>IF(_Area4_day_hour!N7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ14" s="134" t="str">
+      <c r="AJ14" s="111" t="str">
         <f>IF(_Area4_day_hour!P7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5751,17 +5611,17 @@
         <f>IF(_Area4_day_hour!G7="","",_Area4_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="AT14" s="231" t="str">
+      <c r="AT14" s="190" t="str">
         <f>IF(_Area4_day_hour!H7="","",_Area4_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="AU14" s="232"/>
-      <c r="AV14" s="233"/>
-      <c r="AW14" s="280"/>
-      <c r="AX14" s="281"/>
-      <c r="AY14" s="284"/>
-      <c r="AZ14" s="283"/>
-      <c r="BA14" s="284"/>
+      <c r="AU14" s="191"/>
+      <c r="AV14" s="192"/>
+      <c r="AW14" s="239"/>
+      <c r="AX14" s="240"/>
+      <c r="AY14" s="243"/>
+      <c r="AZ14" s="242"/>
+      <c r="BA14" s="243"/>
     </row>
     <row r="15" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A15" s="30">
@@ -5855,55 +5715,55 @@
         <f>IF(_Area3_day_hour!V8="","",_Area3_day_hour!V8/1000)</f>
         <v/>
       </c>
-      <c r="X15" s="134" t="str">
+      <c r="X15" s="111" t="str">
         <f>IF(_Area3_day_hour!AC8&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD8&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y15" s="169" t="str">
+      <c r="Y15" s="140" t="str">
         <f>IF(_Area3_day_hour!W8="","",_Area3_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z15" s="169" t="str">
+      <c r="Z15" s="140" t="str">
         <f>IF(_Area3_day_hour!X8="","",_Area3_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA15" s="169" t="str">
+      <c r="AA15" s="140" t="str">
         <f>IF(_Area3_day_hour!Y8="","",_Area3_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB15" s="134" t="str">
+      <c r="AB15" s="111" t="str">
         <f>IF(_Area3_day_hour!AE8&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF8&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC15" s="169" t="str">
+      <c r="AC15" s="140" t="str">
         <f>IF(_Area3_day_hour!Z8="","",_Area3_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AD15" s="169" t="str">
+      <c r="AD15" s="140" t="str">
         <f>IF(_Area3_day_hour!AA8="","",_Area3_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AE15" s="170" t="str">
+      <c r="AE15" s="141" t="str">
         <f>IF(_Area3_day_hour!AB8="","",_Area3_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AF15" s="171" t="str">
+      <c r="AF15" s="142" t="str">
         <f>IF(_Area4_day_hour!I8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG15" s="169" t="str">
+      <c r="AG15" s="140" t="str">
         <f>IF(_Area4_day_hour!A8="","",_Area4_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="AH15" s="134" t="str">
+      <c r="AH15" s="111" t="str">
         <f>IF(_Area4_day_hour!L8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI15" s="134" t="str">
+      <c r="AI15" s="111" t="str">
         <f>IF(_Area4_day_hour!N8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ15" s="134" t="str">
+      <c r="AJ15" s="111" t="str">
         <f>IF(_Area4_day_hour!P8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5943,21 +5803,21 @@
         <f>IF(_Area4_day_hour!G8="","",_Area4_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="AT15" s="231" t="str">
+      <c r="AT15" s="190" t="str">
         <f>IF(_Area4_day_hour!H8="","",_Area4_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="AU15" s="232"/>
-      <c r="AV15" s="233"/>
-      <c r="AW15" s="280"/>
-      <c r="AX15" s="285" t="s">
+      <c r="AU15" s="191"/>
+      <c r="AV15" s="192"/>
+      <c r="AW15" s="239"/>
+      <c r="AX15" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="AY15" s="286"/>
-      <c r="AZ15" s="287" t="s">
+      <c r="AY15" s="245"/>
+      <c r="AZ15" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="BA15" s="286"/>
+      <c r="BA15" s="245"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="18" spans="1:53">
       <c r="A16" s="34">
@@ -6051,55 +5911,55 @@
         <f>IF(_Area3_day_hour!V9="","",_Area3_day_hour!V9/1000)</f>
         <v/>
       </c>
-      <c r="X16" s="135" t="str">
+      <c r="X16" s="112" t="str">
         <f>IF(_Area3_day_hour!AC9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD9&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y16" s="172" t="str">
+      <c r="Y16" s="143" t="str">
         <f>IF(_Area3_day_hour!W9="","",_Area3_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z16" s="172" t="str">
+      <c r="Z16" s="143" t="str">
         <f>IF(_Area3_day_hour!X9="","",_Area3_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA16" s="172" t="str">
+      <c r="AA16" s="143" t="str">
         <f>IF(_Area3_day_hour!Y9="","",_Area3_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB16" s="135" t="str">
+      <c r="AB16" s="112" t="str">
         <f>IF(_Area3_day_hour!AE9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF9&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC16" s="172" t="str">
+      <c r="AC16" s="143" t="str">
         <f>IF(_Area3_day_hour!Z9="","",_Area3_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AD16" s="172" t="str">
+      <c r="AD16" s="143" t="str">
         <f>IF(_Area3_day_hour!AA9="","",_Area3_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AE16" s="173" t="str">
+      <c r="AE16" s="144" t="str">
         <f>IF(_Area3_day_hour!AB9="","",_Area3_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AF16" s="174" t="str">
+      <c r="AF16" s="145" t="str">
         <f>IF(_Area4_day_hour!I9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG16" s="172" t="str">
+      <c r="AG16" s="143" t="str">
         <f>IF(_Area4_day_hour!A9="","",_Area4_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="AH16" s="135" t="str">
+      <c r="AH16" s="112" t="str">
         <f>IF(_Area4_day_hour!L9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI16" s="135" t="str">
+      <c r="AI16" s="112" t="str">
         <f>IF(_Area4_day_hour!N9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ16" s="135" t="str">
+      <c r="AJ16" s="112" t="str">
         <f>IF(_Area4_day_hour!P9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6139,21 +5999,21 @@
         <f>IF(_Area4_day_hour!G9="","",_Area4_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="AT16" s="234" t="str">
+      <c r="AT16" s="193" t="str">
         <f>IF(_Area4_day_hour!H9="","",_Area4_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="AU16" s="235"/>
-      <c r="AV16" s="236"/>
-      <c r="AW16" s="288"/>
-      <c r="AX16" s="289" t="s">
+      <c r="AU16" s="194"/>
+      <c r="AV16" s="195"/>
+      <c r="AW16" s="247"/>
+      <c r="AX16" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="AY16" s="286"/>
-      <c r="AZ16" s="290" t="s">
+      <c r="AY16" s="245"/>
+      <c r="AZ16" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="BA16" s="286"/>
+      <c r="BA16" s="245"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" spans="1:53">
       <c r="A17" s="27">
@@ -6247,55 +6107,55 @@
         <f>IF(_Area3_day_hour!V10="","",_Area3_day_hour!V10/1000)</f>
         <v/>
       </c>
-      <c r="X17" s="136" t="str">
+      <c r="X17" s="113" t="str">
         <f>IF(_Area3_day_hour!AC10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD10&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y17" s="175" t="str">
+      <c r="Y17" s="146" t="str">
         <f>IF(_Area3_day_hour!W10="","",_Area3_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z17" s="175" t="str">
+      <c r="Z17" s="146" t="str">
         <f>IF(_Area3_day_hour!X10="","",_Area3_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA17" s="175" t="str">
+      <c r="AA17" s="146" t="str">
         <f>IF(_Area3_day_hour!Y10="","",_Area3_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB17" s="136" t="str">
+      <c r="AB17" s="113" t="str">
         <f>IF(_Area3_day_hour!AE10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF10&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC17" s="176" t="str">
+      <c r="AC17" s="147" t="str">
         <f>IF(_Area3_day_hour!Z10="","",_Area3_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AD17" s="176" t="str">
+      <c r="AD17" s="147" t="str">
         <f>IF(_Area3_day_hour!AA10="","",_Area3_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AE17" s="177" t="str">
+      <c r="AE17" s="148" t="str">
         <f>IF(_Area3_day_hour!AB10="","",_Area3_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AF17" s="168" t="str">
+      <c r="AF17" s="139" t="str">
         <f>IF(_Area4_day_hour!I10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG17" s="175" t="str">
+      <c r="AG17" s="146" t="str">
         <f>IF(_Area4_day_hour!A10="","",_Area4_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="AH17" s="136" t="str">
+      <c r="AH17" s="113" t="str">
         <f>IF(_Area4_day_hour!L10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI17" s="136" t="str">
+      <c r="AI17" s="113" t="str">
         <f>IF(_Area4_day_hour!N10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ17" s="136" t="str">
+      <c r="AJ17" s="113" t="str">
         <f>IF(_Area4_day_hour!P10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6335,21 +6195,21 @@
         <f>IF(_Area4_day_hour!G10="","",_Area4_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="AT17" s="237" t="str">
+      <c r="AT17" s="196" t="str">
         <f>IF(_Area4_day_hour!H10="","",_Area4_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="AU17" s="238"/>
-      <c r="AV17" s="239"/>
-      <c r="AW17" s="291"/>
-      <c r="AX17" s="277" t="s">
+      <c r="AU17" s="197"/>
+      <c r="AV17" s="198"/>
+      <c r="AW17" s="250"/>
+      <c r="AX17" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="AY17" s="278"/>
-      <c r="AZ17" s="279" t="s">
+      <c r="AY17" s="237"/>
+      <c r="AZ17" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="BA17" s="278"/>
+      <c r="BA17" s="237"/>
     </row>
     <row r="18" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A18" s="30">
@@ -6443,55 +6303,55 @@
         <f>IF(_Area3_day_hour!V11="","",_Area3_day_hour!V11/1000)</f>
         <v/>
       </c>
-      <c r="X18" s="134" t="str">
+      <c r="X18" s="111" t="str">
         <f>IF(_Area3_day_hour!AC11&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD11&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y18" s="169" t="str">
+      <c r="Y18" s="140" t="str">
         <f>IF(_Area3_day_hour!W11="","",_Area3_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z18" s="169" t="str">
+      <c r="Z18" s="140" t="str">
         <f>IF(_Area3_day_hour!X11="","",_Area3_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA18" s="169" t="str">
+      <c r="AA18" s="140" t="str">
         <f>IF(_Area3_day_hour!Y11="","",_Area3_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB18" s="134" t="str">
+      <c r="AB18" s="111" t="str">
         <f>IF(_Area3_day_hour!AE11&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF11&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC18" s="178" t="str">
+      <c r="AC18" s="149" t="str">
         <f>IF(_Area3_day_hour!Z11="","",_Area3_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AD18" s="178" t="str">
+      <c r="AD18" s="149" t="str">
         <f>IF(_Area3_day_hour!AA11="","",_Area3_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AE18" s="179" t="str">
+      <c r="AE18" s="150" t="str">
         <f>IF(_Area3_day_hour!AB11="","",_Area3_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AF18" s="171" t="str">
+      <c r="AF18" s="142" t="str">
         <f>IF(_Area4_day_hour!I11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG18" s="169" t="str">
+      <c r="AG18" s="140" t="str">
         <f>IF(_Area4_day_hour!A11="","",_Area4_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="AH18" s="134" t="str">
+      <c r="AH18" s="111" t="str">
         <f>IF(_Area4_day_hour!L11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI18" s="134" t="str">
+      <c r="AI18" s="111" t="str">
         <f>IF(_Area4_day_hour!N11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ18" s="134" t="str">
+      <c r="AJ18" s="111" t="str">
         <f>IF(_Area4_day_hour!P11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6531,17 +6391,17 @@
         <f>IF(_Area4_day_hour!G11="","",_Area4_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="AT18" s="240" t="str">
+      <c r="AT18" s="199" t="str">
         <f>IF(_Area4_day_hour!H11="","",_Area4_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="AU18" s="241"/>
-      <c r="AV18" s="242"/>
-      <c r="AW18" s="292"/>
-      <c r="AX18" s="281"/>
-      <c r="AY18" s="282"/>
-      <c r="AZ18" s="283"/>
-      <c r="BA18" s="282"/>
+      <c r="AU18" s="200"/>
+      <c r="AV18" s="201"/>
+      <c r="AW18" s="251"/>
+      <c r="AX18" s="240"/>
+      <c r="AY18" s="241"/>
+      <c r="AZ18" s="242"/>
+      <c r="BA18" s="241"/>
     </row>
     <row r="19" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A19" s="42">
@@ -6635,55 +6495,55 @@
         <f>IF(_Area3_day_hour!V12="","",_Area3_day_hour!V12/1000)</f>
         <v/>
       </c>
-      <c r="X19" s="134" t="str">
+      <c r="X19" s="111" t="str">
         <f>IF(_Area3_day_hour!AC12&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD12&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y19" s="169" t="str">
+      <c r="Y19" s="140" t="str">
         <f>IF(_Area3_day_hour!W12="","",_Area3_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z19" s="169" t="str">
+      <c r="Z19" s="140" t="str">
         <f>IF(_Area3_day_hour!X12="","",_Area3_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA19" s="169" t="str">
+      <c r="AA19" s="140" t="str">
         <f>IF(_Area3_day_hour!Y12="","",_Area3_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB19" s="134" t="str">
+      <c r="AB19" s="111" t="str">
         <f>IF(_Area3_day_hour!AE12&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF12&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC19" s="178" t="str">
+      <c r="AC19" s="149" t="str">
         <f>IF(_Area3_day_hour!Z12="","",_Area3_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AD19" s="178" t="str">
+      <c r="AD19" s="149" t="str">
         <f>IF(_Area3_day_hour!AA12="","",_Area3_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AE19" s="179" t="str">
+      <c r="AE19" s="150" t="str">
         <f>IF(_Area3_day_hour!AB12="","",_Area3_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AF19" s="171" t="str">
+      <c r="AF19" s="142" t="str">
         <f>IF(_Area4_day_hour!I12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG19" s="169" t="str">
+      <c r="AG19" s="140" t="str">
         <f>IF(_Area4_day_hour!A12="","",_Area4_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="AH19" s="134" t="str">
+      <c r="AH19" s="111" t="str">
         <f>IF(_Area4_day_hour!L12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI19" s="134" t="str">
+      <c r="AI19" s="111" t="str">
         <f>IF(_Area4_day_hour!N12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ19" s="134" t="str">
+      <c r="AJ19" s="111" t="str">
         <f>IF(_Area4_day_hour!P12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6723,21 +6583,21 @@
         <f>IF(_Area4_day_hour!G12="","",_Area4_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="AT19" s="240" t="str">
+      <c r="AT19" s="199" t="str">
         <f>IF(_Area4_day_hour!H12="","",_Area4_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="AU19" s="241"/>
-      <c r="AV19" s="242"/>
-      <c r="AW19" s="292"/>
-      <c r="AX19" s="277" t="s">
+      <c r="AU19" s="200"/>
+      <c r="AV19" s="201"/>
+      <c r="AW19" s="251"/>
+      <c r="AX19" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="AY19" s="278"/>
-      <c r="AZ19" s="279" t="s">
+      <c r="AY19" s="237"/>
+      <c r="AZ19" s="238" t="s">
         <v>88</v>
       </c>
-      <c r="BA19" s="278"/>
+      <c r="BA19" s="237"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A20" s="42">
@@ -6831,55 +6691,55 @@
         <f>IF(_Area3_day_hour!V13="","",_Area3_day_hour!V13/1000)</f>
         <v/>
       </c>
-      <c r="X20" s="134" t="str">
+      <c r="X20" s="111" t="str">
         <f>IF(_Area3_day_hour!AC13&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD13&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y20" s="178" t="str">
+      <c r="Y20" s="149" t="str">
         <f>IF(_Area3_day_hour!W13="","",_Area3_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z20" s="178" t="str">
+      <c r="Z20" s="149" t="str">
         <f>IF(_Area3_day_hour!X13="","",_Area3_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA20" s="178" t="str">
+      <c r="AA20" s="149" t="str">
         <f>IF(_Area3_day_hour!Y13="","",_Area3_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB20" s="134" t="str">
+      <c r="AB20" s="111" t="str">
         <f>IF(_Area3_day_hour!AE13&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF13&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC20" s="178" t="str">
+      <c r="AC20" s="149" t="str">
         <f>IF(_Area3_day_hour!Z13="","",_Area3_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AD20" s="178" t="str">
+      <c r="AD20" s="149" t="str">
         <f>IF(_Area3_day_hour!AA13="","",_Area3_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AE20" s="179" t="str">
+      <c r="AE20" s="150" t="str">
         <f>IF(_Area3_day_hour!AB13="","",_Area3_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AF20" s="171" t="str">
+      <c r="AF20" s="142" t="str">
         <f>IF(_Area4_day_hour!I13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG20" s="178" t="str">
+      <c r="AG20" s="149" t="str">
         <f>IF(_Area4_day_hour!A13="","",_Area4_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="AH20" s="134" t="str">
+      <c r="AH20" s="111" t="str">
         <f>IF(_Area4_day_hour!L13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI20" s="134" t="str">
+      <c r="AI20" s="111" t="str">
         <f>IF(_Area4_day_hour!N13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ20" s="134" t="str">
+      <c r="AJ20" s="111" t="str">
         <f>IF(_Area4_day_hour!P13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6919,17 +6779,17 @@
         <f>IF(_Area4_day_hour!G13="","",_Area4_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="AT20" s="240" t="str">
+      <c r="AT20" s="199" t="str">
         <f>IF(_Area4_day_hour!H13="","",_Area4_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="AU20" s="241"/>
-      <c r="AV20" s="242"/>
-      <c r="AW20" s="292"/>
-      <c r="AX20" s="281"/>
-      <c r="AY20" s="282"/>
-      <c r="AZ20" s="283"/>
-      <c r="BA20" s="282"/>
+      <c r="AU20" s="200"/>
+      <c r="AV20" s="201"/>
+      <c r="AW20" s="251"/>
+      <c r="AX20" s="240"/>
+      <c r="AY20" s="241"/>
+      <c r="AZ20" s="242"/>
+      <c r="BA20" s="241"/>
     </row>
     <row r="21" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A21" s="42">
@@ -7023,55 +6883,55 @@
         <f>IF(_Area3_day_hour!V14="","",_Area3_day_hour!V14/1000)</f>
         <v/>
       </c>
-      <c r="X21" s="134" t="str">
+      <c r="X21" s="111" t="str">
         <f>IF(_Area3_day_hour!AC14&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD14&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y21" s="178" t="str">
+      <c r="Y21" s="149" t="str">
         <f>IF(_Area3_day_hour!W14="","",_Area3_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z21" s="178" t="str">
+      <c r="Z21" s="149" t="str">
         <f>IF(_Area3_day_hour!X14="","",_Area3_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA21" s="178" t="str">
+      <c r="AA21" s="149" t="str">
         <f>IF(_Area3_day_hour!Y14="","",_Area3_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB21" s="134" t="str">
+      <c r="AB21" s="111" t="str">
         <f>IF(_Area3_day_hour!AE14&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF14&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC21" s="178" t="str">
+      <c r="AC21" s="149" t="str">
         <f>IF(_Area3_day_hour!Z14="","",_Area3_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AD21" s="178" t="str">
+      <c r="AD21" s="149" t="str">
         <f>IF(_Area3_day_hour!AA14="","",_Area3_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AE21" s="179" t="str">
+      <c r="AE21" s="150" t="str">
         <f>IF(_Area3_day_hour!AB14="","",_Area3_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AF21" s="171" t="str">
+      <c r="AF21" s="142" t="str">
         <f>IF(_Area4_day_hour!I14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG21" s="178" t="str">
+      <c r="AG21" s="149" t="str">
         <f>IF(_Area4_day_hour!A14="","",_Area4_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="AH21" s="134" t="str">
+      <c r="AH21" s="111" t="str">
         <f>IF(_Area4_day_hour!L14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI21" s="134" t="str">
+      <c r="AI21" s="111" t="str">
         <f>IF(_Area4_day_hour!N14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ21" s="134" t="str">
+      <c r="AJ21" s="111" t="str">
         <f>IF(_Area4_day_hour!P14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7111,19 +6971,19 @@
         <f>IF(_Area4_day_hour!G14="","",_Area4_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="AT21" s="240" t="str">
+      <c r="AT21" s="199" t="str">
         <f>IF(_Area4_day_hour!H14="","",_Area4_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="AU21" s="241"/>
-      <c r="AV21" s="242"/>
-      <c r="AW21" s="292"/>
-      <c r="AX21" s="277" t="s">
+      <c r="AU21" s="200"/>
+      <c r="AV21" s="201"/>
+      <c r="AW21" s="251"/>
+      <c r="AX21" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="AY21" s="278"/>
-      <c r="AZ21" s="279"/>
-      <c r="BA21" s="278"/>
+      <c r="AY21" s="237"/>
+      <c r="AZ21" s="238"/>
+      <c r="BA21" s="237"/>
     </row>
     <row r="22" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A22" s="42">
@@ -7217,55 +7077,55 @@
         <f>IF(_Area3_day_hour!V15="","",_Area3_day_hour!V15/1000)</f>
         <v/>
       </c>
-      <c r="X22" s="134" t="str">
+      <c r="X22" s="111" t="str">
         <f>IF(_Area3_day_hour!AC15&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD15&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y22" s="178" t="str">
+      <c r="Y22" s="149" t="str">
         <f>IF(_Area3_day_hour!W15="","",_Area3_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z22" s="178" t="str">
+      <c r="Z22" s="149" t="str">
         <f>IF(_Area3_day_hour!X15="","",_Area3_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA22" s="178" t="str">
+      <c r="AA22" s="149" t="str">
         <f>IF(_Area3_day_hour!Y15="","",_Area3_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB22" s="134" t="str">
+      <c r="AB22" s="111" t="str">
         <f>IF(_Area3_day_hour!AE15&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF15&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC22" s="178" t="str">
+      <c r="AC22" s="149" t="str">
         <f>IF(_Area3_day_hour!Z15="","",_Area3_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AD22" s="178" t="str">
+      <c r="AD22" s="149" t="str">
         <f>IF(_Area3_day_hour!AA15="","",_Area3_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AE22" s="179" t="str">
+      <c r="AE22" s="150" t="str">
         <f>IF(_Area3_day_hour!AB15="","",_Area3_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AF22" s="171" t="str">
+      <c r="AF22" s="142" t="str">
         <f>IF(_Area4_day_hour!I15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG22" s="178" t="str">
+      <c r="AG22" s="149" t="str">
         <f>IF(_Area4_day_hour!A15="","",_Area4_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="AH22" s="134" t="str">
+      <c r="AH22" s="111" t="str">
         <f>IF(_Area4_day_hour!L15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI22" s="134" t="str">
+      <c r="AI22" s="111" t="str">
         <f>IF(_Area4_day_hour!N15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ22" s="134" t="str">
+      <c r="AJ22" s="111" t="str">
         <f>IF(_Area4_day_hour!P15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7305,17 +7165,17 @@
         <f>IF(_Area4_day_hour!G15="","",_Area4_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="AT22" s="240" t="str">
+      <c r="AT22" s="199" t="str">
         <f>IF(_Area4_day_hour!H15="","",_Area4_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="AU22" s="241"/>
-      <c r="AV22" s="242"/>
-      <c r="AW22" s="292"/>
-      <c r="AX22" s="281"/>
-      <c r="AY22" s="284"/>
-      <c r="AZ22" s="283"/>
-      <c r="BA22" s="284"/>
+      <c r="AU22" s="200"/>
+      <c r="AV22" s="201"/>
+      <c r="AW22" s="251"/>
+      <c r="AX22" s="240"/>
+      <c r="AY22" s="243"/>
+      <c r="AZ22" s="242"/>
+      <c r="BA22" s="243"/>
     </row>
     <row r="23" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A23" s="42">
@@ -7409,55 +7269,55 @@
         <f>IF(_Area3_day_hour!V16="","",_Area3_day_hour!V16/1000)</f>
         <v/>
       </c>
-      <c r="X23" s="134" t="str">
+      <c r="X23" s="111" t="str">
         <f>IF(_Area3_day_hour!AC16&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD16&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y23" s="178" t="str">
+      <c r="Y23" s="149" t="str">
         <f>IF(_Area3_day_hour!W16="","",_Area3_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z23" s="178" t="str">
+      <c r="Z23" s="149" t="str">
         <f>IF(_Area3_day_hour!X16="","",_Area3_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA23" s="178" t="str">
+      <c r="AA23" s="149" t="str">
         <f>IF(_Area3_day_hour!Y16="","",_Area3_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB23" s="134" t="str">
+      <c r="AB23" s="111" t="str">
         <f>IF(_Area3_day_hour!AE16&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF16&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC23" s="178" t="str">
+      <c r="AC23" s="149" t="str">
         <f>IF(_Area3_day_hour!Z16="","",_Area3_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AD23" s="178" t="str">
+      <c r="AD23" s="149" t="str">
         <f>IF(_Area3_day_hour!AA16="","",_Area3_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AE23" s="179" t="str">
+      <c r="AE23" s="150" t="str">
         <f>IF(_Area3_day_hour!AB16="","",_Area3_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AF23" s="171" t="str">
+      <c r="AF23" s="142" t="str">
         <f>IF(_Area4_day_hour!I16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG23" s="178" t="str">
+      <c r="AG23" s="149" t="str">
         <f>IF(_Area4_day_hour!A16="","",_Area4_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="AH23" s="134" t="str">
+      <c r="AH23" s="111" t="str">
         <f>IF(_Area4_day_hour!L16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI23" s="134" t="str">
+      <c r="AI23" s="111" t="str">
         <f>IF(_Area4_day_hour!N16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ23" s="134" t="str">
+      <c r="AJ23" s="111" t="str">
         <f>IF(_Area4_day_hour!P16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7497,21 +7357,21 @@
         <f>IF(_Area4_day_hour!G16="","",_Area4_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="AT23" s="240" t="str">
+      <c r="AT23" s="199" t="str">
         <f>IF(_Area4_day_hour!H16="","",_Area4_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="AU23" s="241"/>
-      <c r="AV23" s="242"/>
-      <c r="AW23" s="292"/>
-      <c r="AX23" s="285" t="s">
+      <c r="AU23" s="200"/>
+      <c r="AV23" s="201"/>
+      <c r="AW23" s="251"/>
+      <c r="AX23" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="AY23" s="286"/>
-      <c r="AZ23" s="287" t="s">
+      <c r="AY23" s="245"/>
+      <c r="AZ23" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="BA23" s="286"/>
+      <c r="BA23" s="245"/>
     </row>
     <row r="24" s="8" customFormat="1" ht="18" spans="1:53">
       <c r="A24" s="46">
@@ -7605,55 +7465,55 @@
         <f>IF(_Area3_day_hour!V17="","",_Area3_day_hour!V17/1000)</f>
         <v/>
       </c>
-      <c r="X24" s="135" t="str">
+      <c r="X24" s="112" t="str">
         <f>IF(_Area3_day_hour!AC17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD17&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y24" s="180" t="str">
+      <c r="Y24" s="151" t="str">
         <f>IF(_Area3_day_hour!W17="","",_Area3_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z24" s="180" t="str">
+      <c r="Z24" s="151" t="str">
         <f>IF(_Area3_day_hour!X17="","",_Area3_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA24" s="180" t="str">
+      <c r="AA24" s="151" t="str">
         <f>IF(_Area3_day_hour!Y17="","",_Area3_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB24" s="135" t="str">
+      <c r="AB24" s="112" t="str">
         <f>IF(_Area3_day_hour!AE17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF17&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC24" s="180" t="str">
+      <c r="AC24" s="151" t="str">
         <f>IF(_Area3_day_hour!Z17="","",_Area3_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AD24" s="180" t="str">
+      <c r="AD24" s="151" t="str">
         <f>IF(_Area3_day_hour!AA17="","",_Area3_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AE24" s="181" t="str">
+      <c r="AE24" s="152" t="str">
         <f>IF(_Area3_day_hour!AB17="","",_Area3_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AF24" s="174" t="str">
+      <c r="AF24" s="145" t="str">
         <f>IF(_Area4_day_hour!I17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG24" s="180" t="str">
+      <c r="AG24" s="151" t="str">
         <f>IF(_Area4_day_hour!A17="","",_Area4_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="AH24" s="135" t="str">
+      <c r="AH24" s="112" t="str">
         <f>IF(_Area4_day_hour!L17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI24" s="135" t="str">
+      <c r="AI24" s="112" t="str">
         <f>IF(_Area4_day_hour!N17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="135" t="str">
+      <c r="AJ24" s="112" t="str">
         <f>IF(_Area4_day_hour!P17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7693,21 +7553,21 @@
         <f>IF(_Area4_day_hour!G17="","",_Area4_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="AT24" s="243" t="str">
+      <c r="AT24" s="202" t="str">
         <f>IF(_Area4_day_hour!H17="","",_Area4_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="AU24" s="244"/>
-      <c r="AV24" s="245"/>
-      <c r="AW24" s="293"/>
-      <c r="AX24" s="289" t="s">
+      <c r="AU24" s="203"/>
+      <c r="AV24" s="204"/>
+      <c r="AW24" s="252"/>
+      <c r="AX24" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="AY24" s="286"/>
-      <c r="AZ24" s="290" t="s">
+      <c r="AY24" s="245"/>
+      <c r="AZ24" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="BA24" s="286"/>
+      <c r="BA24" s="245"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="17.25" spans="1:53">
       <c r="A25" s="49">
@@ -7801,55 +7661,55 @@
         <f>IF(_Area3_day_hour!V18="","",_Area3_day_hour!V18/1000)</f>
         <v/>
       </c>
-      <c r="X25" s="136" t="str">
+      <c r="X25" s="113" t="str">
         <f>IF(_Area3_day_hour!AC18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD18&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y25" s="176" t="str">
+      <c r="Y25" s="147" t="str">
         <f>IF(_Area3_day_hour!W18="","",_Area3_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z25" s="176" t="str">
+      <c r="Z25" s="147" t="str">
         <f>IF(_Area3_day_hour!X18="","",_Area3_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA25" s="176" t="str">
+      <c r="AA25" s="147" t="str">
         <f>IF(_Area3_day_hour!Y18="","",_Area3_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB25" s="136" t="str">
+      <c r="AB25" s="113" t="str">
         <f>IF(_Area3_day_hour!AE18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF18&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC25" s="176" t="str">
+      <c r="AC25" s="147" t="str">
         <f>IF(_Area3_day_hour!Z18="","",_Area3_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AD25" s="176" t="str">
+      <c r="AD25" s="147" t="str">
         <f>IF(_Area3_day_hour!AA18="","",_Area3_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AE25" s="177" t="str">
+      <c r="AE25" s="148" t="str">
         <f>IF(_Area3_day_hour!AB18="","",_Area3_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AF25" s="168" t="str">
+      <c r="AF25" s="139" t="str">
         <f>IF(_Area4_day_hour!I18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG25" s="176" t="str">
+      <c r="AG25" s="147" t="str">
         <f>IF(_Area4_day_hour!A18="","",_Area4_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="AH25" s="136" t="str">
+      <c r="AH25" s="113" t="str">
         <f>IF(_Area4_day_hour!L18&gt;0,"1#","")&amp;IF(_Area4_day_hour!M18&gt;0,"2#","")&amp;IF(_Area4_day_hour!R18&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI25" s="136" t="str">
+      <c r="AI25" s="113" t="str">
         <f>IF(_Area4_day_hour!N18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ25" s="136" t="str">
+      <c r="AJ25" s="113" t="str">
         <f>IF(_Area4_day_hour!P18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7889,21 +7749,21 @@
         <f>IF(_Area4_day_hour!G18="","",_Area4_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="AT25" s="237" t="str">
+      <c r="AT25" s="196" t="str">
         <f>IF(_Area4_day_hour!H18="","",_Area4_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="AU25" s="246"/>
-      <c r="AV25" s="247"/>
-      <c r="AW25" s="294"/>
-      <c r="AX25" s="277" t="s">
+      <c r="AU25" s="205"/>
+      <c r="AV25" s="206"/>
+      <c r="AW25" s="253"/>
+      <c r="AX25" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="AY25" s="278"/>
-      <c r="AZ25" s="279" t="s">
+      <c r="AY25" s="237"/>
+      <c r="AZ25" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="BA25" s="278"/>
+      <c r="BA25" s="237"/>
     </row>
     <row r="26" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A26" s="53">
@@ -7997,55 +7857,55 @@
         <f>IF(_Area3_day_hour!V19="","",_Area3_day_hour!V19/1000)</f>
         <v/>
       </c>
-      <c r="X26" s="134" t="str">
+      <c r="X26" s="111" t="str">
         <f>IF(_Area3_day_hour!AC19&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD19&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y26" s="178" t="str">
+      <c r="Y26" s="149" t="str">
         <f>IF(_Area3_day_hour!W19="","",_Area3_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z26" s="178" t="str">
+      <c r="Z26" s="149" t="str">
         <f>IF(_Area3_day_hour!X19="","",_Area3_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA26" s="178" t="str">
+      <c r="AA26" s="149" t="str">
         <f>IF(_Area3_day_hour!Y19="","",_Area3_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB26" s="134" t="str">
+      <c r="AB26" s="111" t="str">
         <f>IF(_Area3_day_hour!AE19&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF19&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC26" s="178" t="str">
+      <c r="AC26" s="149" t="str">
         <f>IF(_Area3_day_hour!Z19="","",_Area3_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AD26" s="178" t="str">
+      <c r="AD26" s="149" t="str">
         <f>IF(_Area3_day_hour!AA19="","",_Area3_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AE26" s="179" t="str">
+      <c r="AE26" s="150" t="str">
         <f>IF(_Area3_day_hour!AB19="","",_Area3_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AF26" s="171" t="str">
+      <c r="AF26" s="142" t="str">
         <f>IF(_Area4_day_hour!I19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG26" s="178" t="str">
+      <c r="AG26" s="149" t="str">
         <f>IF(_Area4_day_hour!A19="","",_Area4_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="AH26" s="134" t="str">
+      <c r="AH26" s="111" t="str">
         <f>IF(_Area4_day_hour!L19&gt;0,"1#","")&amp;IF(_Area4_day_hour!M19&gt;0,"2#","")&amp;IF(_Area4_day_hour!R19&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI26" s="134" t="str">
+      <c r="AI26" s="111" t="str">
         <f>IF(_Area4_day_hour!N19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ26" s="134" t="str">
+      <c r="AJ26" s="111" t="str">
         <f>IF(_Area4_day_hour!P19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8085,17 +7945,17 @@
         <f>IF(_Area4_day_hour!G19="","",_Area4_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="AT26" s="240" t="str">
+      <c r="AT26" s="199" t="str">
         <f>IF(_Area4_day_hour!H19="","",_Area4_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="AU26" s="241"/>
-      <c r="AV26" s="242"/>
-      <c r="AW26" s="292"/>
-      <c r="AX26" s="281"/>
-      <c r="AY26" s="282"/>
-      <c r="AZ26" s="283"/>
-      <c r="BA26" s="282"/>
+      <c r="AU26" s="200"/>
+      <c r="AV26" s="201"/>
+      <c r="AW26" s="251"/>
+      <c r="AX26" s="240"/>
+      <c r="AY26" s="241"/>
+      <c r="AZ26" s="242"/>
+      <c r="BA26" s="241"/>
     </row>
     <row r="27" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A27" s="54">
@@ -8181,7 +8041,7 @@
         <f>IF(_Area3_day_hour!T20="","",_Area3_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="V27" s="137" t="str">
+      <c r="V27" s="114" t="str">
         <f>IF(_Area3_day_hour!U20="","",_Area3_day_hour!U20)</f>
         <v/>
       </c>
@@ -8189,55 +8049,55 @@
         <f>IF(_Area3_day_hour!V20="","",_Area3_day_hour!V20/1000)</f>
         <v/>
       </c>
-      <c r="X27" s="134" t="str">
+      <c r="X27" s="111" t="str">
         <f>IF(_Area3_day_hour!AC20&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD20&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y27" s="178" t="str">
+      <c r="Y27" s="149" t="str">
         <f>IF(_Area3_day_hour!W20="","",_Area3_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z27" s="178" t="str">
+      <c r="Z27" s="149" t="str">
         <f>IF(_Area3_day_hour!X20="","",_Area3_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA27" s="178" t="str">
+      <c r="AA27" s="149" t="str">
         <f>IF(_Area3_day_hour!Y20="","",_Area3_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB27" s="134" t="str">
+      <c r="AB27" s="111" t="str">
         <f>IF(_Area3_day_hour!AE20&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF20&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC27" s="178" t="str">
+      <c r="AC27" s="149" t="str">
         <f>IF(_Area3_day_hour!Z20="","",_Area3_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AD27" s="178" t="str">
+      <c r="AD27" s="149" t="str">
         <f>IF(_Area3_day_hour!AA20="","",_Area3_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AE27" s="179" t="str">
+      <c r="AE27" s="150" t="str">
         <f>IF(_Area3_day_hour!AB20="","",_Area3_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AF27" s="171" t="str">
+      <c r="AF27" s="142" t="str">
         <f>IF(_Area4_day_hour!I20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG27" s="178" t="str">
+      <c r="AG27" s="149" t="str">
         <f>IF(_Area4_day_hour!A20="","",_Area4_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="AH27" s="134" t="str">
+      <c r="AH27" s="111" t="str">
         <f>IF(_Area4_day_hour!L20&gt;0,"1#","")&amp;IF(_Area4_day_hour!M20&gt;0,"2#","")&amp;IF(_Area4_day_hour!R20&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI27" s="134" t="str">
+      <c r="AI27" s="111" t="str">
         <f>IF(_Area4_day_hour!N20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ27" s="134" t="str">
+      <c r="AJ27" s="111" t="str">
         <f>IF(_Area4_day_hour!P20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8277,21 +8137,21 @@
         <f>IF(_Area4_day_hour!G20="","",_Area4_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="AT27" s="240" t="str">
+      <c r="AT27" s="199" t="str">
         <f>IF(_Area4_day_hour!H20="","",_Area4_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="AU27" s="241"/>
-      <c r="AV27" s="242"/>
-      <c r="AW27" s="292"/>
-      <c r="AX27" s="277" t="s">
+      <c r="AU27" s="200"/>
+      <c r="AV27" s="201"/>
+      <c r="AW27" s="251"/>
+      <c r="AX27" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="AY27" s="278"/>
-      <c r="AZ27" s="279" t="s">
+      <c r="AY27" s="237"/>
+      <c r="AZ27" s="238" t="s">
         <v>88</v>
       </c>
-      <c r="BA27" s="278"/>
+      <c r="BA27" s="237"/>
     </row>
     <row r="28" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A28" s="54">
@@ -8385,55 +8245,55 @@
         <f>IF(_Area3_day_hour!V21="","",_Area3_day_hour!V21/1000)</f>
         <v/>
       </c>
-      <c r="X28" s="134" t="str">
+      <c r="X28" s="111" t="str">
         <f>IF(_Area3_day_hour!AC21&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD21&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y28" s="178" t="str">
+      <c r="Y28" s="149" t="str">
         <f>IF(_Area3_day_hour!W21="","",_Area3_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z28" s="178" t="str">
+      <c r="Z28" s="149" t="str">
         <f>IF(_Area3_day_hour!X21="","",_Area3_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA28" s="178" t="str">
+      <c r="AA28" s="149" t="str">
         <f>IF(_Area3_day_hour!Y21="","",_Area3_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB28" s="134" t="str">
+      <c r="AB28" s="111" t="str">
         <f>IF(_Area3_day_hour!AE21&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF21&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC28" s="178" t="str">
+      <c r="AC28" s="149" t="str">
         <f>IF(_Area3_day_hour!Z21="","",_Area3_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AD28" s="178" t="str">
+      <c r="AD28" s="149" t="str">
         <f>IF(_Area3_day_hour!AA21="","",_Area3_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AE28" s="179" t="str">
+      <c r="AE28" s="150" t="str">
         <f>IF(_Area3_day_hour!AB21="","",_Area3_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AF28" s="171" t="str">
+      <c r="AF28" s="142" t="str">
         <f>IF(_Area4_day_hour!I21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG28" s="178" t="str">
+      <c r="AG28" s="149" t="str">
         <f>IF(_Area4_day_hour!A21="","",_Area4_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="AH28" s="134" t="str">
+      <c r="AH28" s="111" t="str">
         <f>IF(_Area4_day_hour!L21&gt;0,"1#","")&amp;IF(_Area4_day_hour!M21&gt;0,"2#","")&amp;IF(_Area4_day_hour!R21&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI28" s="134" t="str">
+      <c r="AI28" s="111" t="str">
         <f>IF(_Area4_day_hour!N21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ28" s="134" t="str">
+      <c r="AJ28" s="111" t="str">
         <f>IF(_Area4_day_hour!P21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8473,17 +8333,17 @@
         <f>IF(_Area4_day_hour!G21="","",_Area4_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="AT28" s="240" t="str">
+      <c r="AT28" s="199" t="str">
         <f>IF(_Area4_day_hour!H21="","",_Area4_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="AU28" s="241"/>
-      <c r="AV28" s="242"/>
-      <c r="AW28" s="292"/>
-      <c r="AX28" s="281"/>
-      <c r="AY28" s="282"/>
-      <c r="AZ28" s="283"/>
-      <c r="BA28" s="282"/>
+      <c r="AU28" s="200"/>
+      <c r="AV28" s="201"/>
+      <c r="AW28" s="251"/>
+      <c r="AX28" s="240"/>
+      <c r="AY28" s="241"/>
+      <c r="AZ28" s="242"/>
+      <c r="BA28" s="241"/>
     </row>
     <row r="29" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A29" s="54">
@@ -8577,55 +8437,55 @@
         <f>IF(_Area3_day_hour!V22="","",_Area3_day_hour!V22/1000)</f>
         <v/>
       </c>
-      <c r="X29" s="134" t="str">
+      <c r="X29" s="111" t="str">
         <f>IF(_Area3_day_hour!AC22&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD22&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y29" s="178" t="str">
+      <c r="Y29" s="149" t="str">
         <f>IF(_Area3_day_hour!W22="","",_Area3_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z29" s="178" t="str">
+      <c r="Z29" s="149" t="str">
         <f>IF(_Area3_day_hour!X22="","",_Area3_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA29" s="178" t="str">
+      <c r="AA29" s="149" t="str">
         <f>IF(_Area3_day_hour!Y22="","",_Area3_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB29" s="134" t="str">
+      <c r="AB29" s="111" t="str">
         <f>IF(_Area3_day_hour!AE22&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF22&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC29" s="178" t="str">
+      <c r="AC29" s="149" t="str">
         <f>IF(_Area3_day_hour!Z22="","",_Area3_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AD29" s="178" t="str">
+      <c r="AD29" s="149" t="str">
         <f>IF(_Area3_day_hour!AA22="","",_Area3_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AE29" s="179" t="str">
+      <c r="AE29" s="150" t="str">
         <f>IF(_Area3_day_hour!AB22="","",_Area3_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AF29" s="171" t="str">
+      <c r="AF29" s="142" t="str">
         <f>IF(_Area4_day_hour!I22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG29" s="178" t="str">
+      <c r="AG29" s="149" t="str">
         <f>IF(_Area4_day_hour!A22="","",_Area4_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="AH29" s="134" t="str">
+      <c r="AH29" s="111" t="str">
         <f>IF(_Area4_day_hour!L22&gt;0,"1#","")&amp;IF(_Area4_day_hour!M22&gt;0,"2#","")&amp;IF(_Area4_day_hour!R22&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI29" s="134" t="str">
+      <c r="AI29" s="111" t="str">
         <f>IF(_Area4_day_hour!N22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ29" s="134" t="str">
+      <c r="AJ29" s="111" t="str">
         <f>IF(_Area4_day_hour!P22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8665,19 +8525,19 @@
         <f>IF(_Area4_day_hour!G22="","",_Area4_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="AT29" s="240" t="str">
+      <c r="AT29" s="199" t="str">
         <f>IF(_Area4_day_hour!H22="","",_Area4_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="AU29" s="241"/>
-      <c r="AV29" s="242"/>
-      <c r="AW29" s="292"/>
-      <c r="AX29" s="277" t="s">
+      <c r="AU29" s="200"/>
+      <c r="AV29" s="201"/>
+      <c r="AW29" s="251"/>
+      <c r="AX29" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="AY29" s="278"/>
-      <c r="AZ29" s="279"/>
-      <c r="BA29" s="278"/>
+      <c r="AY29" s="237"/>
+      <c r="AZ29" s="238"/>
+      <c r="BA29" s="237"/>
     </row>
     <row r="30" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A30" s="54">
@@ -8771,55 +8631,55 @@
         <f>IF(_Area3_day_hour!V23="","",_Area3_day_hour!V23/1000)</f>
         <v/>
       </c>
-      <c r="X30" s="134" t="str">
+      <c r="X30" s="111" t="str">
         <f>IF(_Area3_day_hour!AC23&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD23&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y30" s="178" t="str">
+      <c r="Y30" s="149" t="str">
         <f>IF(_Area3_day_hour!W23="","",_Area3_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z30" s="178" t="str">
+      <c r="Z30" s="149" t="str">
         <f>IF(_Area3_day_hour!X23="","",_Area3_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA30" s="178" t="str">
+      <c r="AA30" s="149" t="str">
         <f>IF(_Area3_day_hour!Y23="","",_Area3_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB30" s="134" t="str">
+      <c r="AB30" s="111" t="str">
         <f>IF(_Area3_day_hour!AE23&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF23&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC30" s="178" t="str">
+      <c r="AC30" s="149" t="str">
         <f>IF(_Area3_day_hour!Z23="","",_Area3_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AD30" s="178" t="str">
+      <c r="AD30" s="149" t="str">
         <f>IF(_Area3_day_hour!AA23="","",_Area3_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AE30" s="179" t="str">
+      <c r="AE30" s="150" t="str">
         <f>IF(_Area3_day_hour!AB23="","",_Area3_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AF30" s="171" t="str">
+      <c r="AF30" s="142" t="str">
         <f>IF(_Area4_day_hour!I23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG30" s="178" t="str">
+      <c r="AG30" s="149" t="str">
         <f>IF(_Area4_day_hour!A23="","",_Area4_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="AH30" s="134" t="str">
+      <c r="AH30" s="111" t="str">
         <f>IF(_Area4_day_hour!L23&gt;0,"1#","")&amp;IF(_Area4_day_hour!M23&gt;0,"2#","")&amp;IF(_Area4_day_hour!R23&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI30" s="134" t="str">
+      <c r="AI30" s="111" t="str">
         <f>IF(_Area4_day_hour!N23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ30" s="134" t="str">
+      <c r="AJ30" s="111" t="str">
         <f>IF(_Area4_day_hour!P23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8859,17 +8719,17 @@
         <f>IF(_Area4_day_hour!G23="","",_Area4_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="AT30" s="240" t="str">
+      <c r="AT30" s="199" t="str">
         <f>IF(_Area4_day_hour!H23="","",_Area4_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="AU30" s="241"/>
-      <c r="AV30" s="242"/>
-      <c r="AW30" s="292"/>
-      <c r="AX30" s="281"/>
-      <c r="AY30" s="284"/>
-      <c r="AZ30" s="283"/>
-      <c r="BA30" s="284"/>
+      <c r="AU30" s="200"/>
+      <c r="AV30" s="201"/>
+      <c r="AW30" s="251"/>
+      <c r="AX30" s="240"/>
+      <c r="AY30" s="243"/>
+      <c r="AZ30" s="242"/>
+      <c r="BA30" s="243"/>
     </row>
     <row r="31" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A31" s="54">
@@ -8963,55 +8823,55 @@
         <f>IF(_Area3_day_hour!V24="","",_Area3_day_hour!V24/1000)</f>
         <v/>
       </c>
-      <c r="X31" s="134" t="str">
+      <c r="X31" s="111" t="str">
         <f>IF(_Area3_day_hour!AC24&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD24&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y31" s="178" t="str">
+      <c r="Y31" s="149" t="str">
         <f>IF(_Area3_day_hour!W24="","",_Area3_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z31" s="178" t="str">
+      <c r="Z31" s="149" t="str">
         <f>IF(_Area3_day_hour!X24="","",_Area3_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA31" s="178" t="str">
+      <c r="AA31" s="149" t="str">
         <f>IF(_Area3_day_hour!Y24="","",_Area3_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB31" s="134" t="str">
+      <c r="AB31" s="111" t="str">
         <f>IF(_Area3_day_hour!AE24&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF24&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC31" s="178" t="str">
+      <c r="AC31" s="149" t="str">
         <f>IF(_Area3_day_hour!Z24="","",_Area3_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AD31" s="178" t="str">
+      <c r="AD31" s="149" t="str">
         <f>IF(_Area3_day_hour!AA24="","",_Area3_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AE31" s="179" t="str">
+      <c r="AE31" s="150" t="str">
         <f>IF(_Area3_day_hour!AB24="","",_Area3_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AF31" s="171" t="str">
+      <c r="AF31" s="142" t="str">
         <f>IF(_Area4_day_hour!I24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG31" s="178" t="str">
+      <c r="AG31" s="149" t="str">
         <f>IF(_Area4_day_hour!A24="","",_Area4_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="AH31" s="134" t="str">
+      <c r="AH31" s="111" t="str">
         <f>IF(_Area4_day_hour!L24&gt;0,"1#","")&amp;IF(_Area4_day_hour!M24&gt;0,"2#","")&amp;IF(_Area4_day_hour!R24&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI31" s="134" t="str">
+      <c r="AI31" s="111" t="str">
         <f>IF(_Area4_day_hour!N24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ31" s="134" t="str">
+      <c r="AJ31" s="111" t="str">
         <f>IF(_Area4_day_hour!P24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9051,21 +8911,21 @@
         <f>IF(_Area4_day_hour!G24="","",_Area4_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="AT31" s="240" t="str">
+      <c r="AT31" s="199" t="str">
         <f>IF(_Area4_day_hour!H24="","",_Area4_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="AU31" s="241"/>
-      <c r="AV31" s="242"/>
-      <c r="AW31" s="292"/>
-      <c r="AX31" s="271" t="s">
+      <c r="AU31" s="200"/>
+      <c r="AV31" s="201"/>
+      <c r="AW31" s="251"/>
+      <c r="AX31" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="AY31" s="278"/>
-      <c r="AZ31" s="295" t="s">
+      <c r="AY31" s="237"/>
+      <c r="AZ31" s="254" t="s">
         <v>90</v>
       </c>
-      <c r="BA31" s="278"/>
+      <c r="BA31" s="237"/>
     </row>
     <row r="32" s="8" customFormat="1" ht="18" spans="1:53">
       <c r="A32" s="57">
@@ -9159,55 +9019,55 @@
         <f>IF(_Area3_day_hour!V25="","",_Area3_day_hour!V25/1000)</f>
         <v/>
       </c>
-      <c r="X32" s="135" t="str">
+      <c r="X32" s="112" t="str">
         <f>IF(_Area3_day_hour!AC25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD25&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y32" s="180" t="str">
+      <c r="Y32" s="151" t="str">
         <f>IF(_Area3_day_hour!W25="","",_Area3_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z32" s="180" t="str">
+      <c r="Z32" s="151" t="str">
         <f>IF(_Area3_day_hour!X25="","",_Area3_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA32" s="180" t="str">
+      <c r="AA32" s="151" t="str">
         <f>IF(_Area3_day_hour!Y25="","",_Area3_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB32" s="135" t="str">
+      <c r="AB32" s="112" t="str">
         <f>IF(_Area3_day_hour!AE25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF25&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC32" s="180" t="str">
+      <c r="AC32" s="151" t="str">
         <f>IF(_Area3_day_hour!Z25="","",_Area3_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AD32" s="180" t="str">
+      <c r="AD32" s="151" t="str">
         <f>IF(_Area3_day_hour!AA25="","",_Area3_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AE32" s="181" t="str">
+      <c r="AE32" s="152" t="str">
         <f>IF(_Area3_day_hour!AB25="","",_Area3_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AF32" s="174" t="str">
+      <c r="AF32" s="145" t="str">
         <f>IF(_Area4_day_hour!I25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG32" s="180" t="str">
+      <c r="AG32" s="151" t="str">
         <f>IF(_Area4_day_hour!A25="","",_Area4_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="AH32" s="135" t="str">
+      <c r="AH32" s="112" t="str">
         <f>IF(_Area4_day_hour!L25&gt;0,"1#","")&amp;IF(_Area4_day_hour!M25&gt;0,"2#","")&amp;IF(_Area4_day_hour!R25&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI32" s="135" t="str">
+      <c r="AI32" s="112" t="str">
         <f>IF(_Area4_day_hour!N25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ32" s="135" t="str">
+      <c r="AJ32" s="112" t="str">
         <f>IF(_Area4_day_hour!P25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9247,17 +9107,17 @@
         <f>IF(_Area4_day_hour!G25="","",_Area4_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="AT32" s="243" t="str">
+      <c r="AT32" s="202" t="str">
         <f>IF(_Area4_day_hour!H25="","",_Area4_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="AU32" s="244"/>
-      <c r="AV32" s="245"/>
-      <c r="AW32" s="293"/>
-      <c r="AX32" s="296"/>
-      <c r="AY32" s="282"/>
-      <c r="AZ32" s="297"/>
-      <c r="BA32" s="298"/>
+      <c r="AU32" s="203"/>
+      <c r="AV32" s="204"/>
+      <c r="AW32" s="252"/>
+      <c r="AX32" s="255"/>
+      <c r="AY32" s="241"/>
+      <c r="AZ32" s="256"/>
+      <c r="BA32" s="257"/>
     </row>
     <row r="33" ht="15" spans="1:53">
       <c r="A33" s="58"/>
@@ -9270,59 +9130,59 @@
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="112" t="s">
+      <c r="I33" s="93"/>
+      <c r="J33" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="139" t="s">
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="V33" s="140"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="140"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="182"/>
-      <c r="AJ33" s="182"/>
-      <c r="AK33" s="182"/>
-      <c r="AL33" s="182"/>
-      <c r="AM33" s="182"/>
-      <c r="AN33" s="182"/>
-      <c r="AO33" s="182"/>
-      <c r="AP33" s="182"/>
-      <c r="AQ33" s="182"/>
-      <c r="AR33" s="182"/>
-      <c r="AS33" s="182"/>
-      <c r="AT33" s="182"/>
-      <c r="AU33" s="182"/>
-      <c r="AV33" s="182"/>
-      <c r="AW33" s="182"/>
-      <c r="AX33" s="299" t="s">
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="153"/>
+      <c r="AH33" s="153"/>
+      <c r="AI33" s="153"/>
+      <c r="AJ33" s="153"/>
+      <c r="AK33" s="153"/>
+      <c r="AL33" s="153"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="153"/>
+      <c r="AP33" s="153"/>
+      <c r="AQ33" s="153"/>
+      <c r="AR33" s="153"/>
+      <c r="AS33" s="153"/>
+      <c r="AT33" s="153"/>
+      <c r="AU33" s="153"/>
+      <c r="AV33" s="153"/>
+      <c r="AW33" s="153"/>
+      <c r="AX33" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="AY33" s="300"/>
-      <c r="AZ33" s="299" t="s">
+      <c r="AY33" s="259"/>
+      <c r="AZ33" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="BA33" s="300"/>
+      <c r="BA33" s="259"/>
     </row>
     <row r="34" ht="44" customHeight="1" spans="1:53">
       <c r="A34" s="61" t="s">
@@ -9335,51 +9195,51 @@
       <c r="F34" s="63"/>
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="141"/>
-      <c r="U34" s="142"/>
-      <c r="V34" s="143"/>
-      <c r="W34" s="143"/>
-      <c r="X34" s="143"/>
-      <c r="Y34" s="143"/>
-      <c r="Z34" s="143"/>
-      <c r="AA34" s="143"/>
-      <c r="AB34" s="143"/>
-      <c r="AC34" s="143"/>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="143"/>
-      <c r="AF34" s="143"/>
-      <c r="AG34" s="143"/>
-      <c r="AH34" s="143"/>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="143"/>
-      <c r="AK34" s="143"/>
-      <c r="AL34" s="143"/>
-      <c r="AM34" s="143"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="143"/>
-      <c r="AP34" s="143"/>
-      <c r="AQ34" s="143"/>
-      <c r="AR34" s="143"/>
-      <c r="AS34" s="143"/>
-      <c r="AT34" s="143"/>
-      <c r="AU34" s="143"/>
-      <c r="AV34" s="143"/>
-      <c r="AW34" s="143"/>
-      <c r="AX34" s="266"/>
-      <c r="AY34" s="298"/>
-      <c r="AZ34" s="298"/>
-      <c r="BA34" s="298"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="120"/>
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
+      <c r="AX34" s="225"/>
+      <c r="AY34" s="257"/>
+      <c r="AZ34" s="257"/>
+      <c r="BA34" s="257"/>
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:57">
       <c r="A35" s="64" t="s">
@@ -9392,7 +9252,7 @@
       <c r="F35" s="65"/>
       <c r="G35" s="65"/>
       <c r="H35" s="66"/>
-      <c r="I35" s="117" t="s">
+      <c r="I35" s="99" t="s">
         <v>97</v>
       </c>
       <c r="J35" s="65"/>
@@ -9412,41 +9272,41 @@
       <c r="X35" s="65"/>
       <c r="Y35" s="65"/>
       <c r="Z35" s="66"/>
-      <c r="AA35" s="183" t="s">
+      <c r="AA35" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
-      <c r="AD35" s="184"/>
-      <c r="AE35" s="184"/>
-      <c r="AF35" s="184"/>
-      <c r="AG35" s="184"/>
-      <c r="AH35" s="184"/>
-      <c r="AI35" s="184"/>
-      <c r="AJ35" s="184"/>
-      <c r="AK35" s="184"/>
-      <c r="AL35" s="184"/>
-      <c r="AM35" s="184"/>
-      <c r="AN35" s="184"/>
-      <c r="AO35" s="184"/>
-      <c r="AP35" s="184"/>
-      <c r="AQ35" s="184"/>
-      <c r="AR35" s="184"/>
-      <c r="AS35" s="184"/>
-      <c r="AT35" s="184"/>
-      <c r="AU35" s="184"/>
-      <c r="AV35" s="184"/>
-      <c r="AW35" s="301"/>
-      <c r="AX35" s="302" t="s">
+      <c r="AB35" s="155"/>
+      <c r="AC35" s="155"/>
+      <c r="AD35" s="155"/>
+      <c r="AE35" s="155"/>
+      <c r="AF35" s="155"/>
+      <c r="AG35" s="155"/>
+      <c r="AH35" s="155"/>
+      <c r="AI35" s="155"/>
+      <c r="AJ35" s="155"/>
+      <c r="AK35" s="155"/>
+      <c r="AL35" s="155"/>
+      <c r="AM35" s="155"/>
+      <c r="AN35" s="155"/>
+      <c r="AO35" s="155"/>
+      <c r="AP35" s="155"/>
+      <c r="AQ35" s="155"/>
+      <c r="AR35" s="155"/>
+      <c r="AS35" s="155"/>
+      <c r="AT35" s="155"/>
+      <c r="AU35" s="155"/>
+      <c r="AV35" s="155"/>
+      <c r="AW35" s="260"/>
+      <c r="AX35" s="261" t="s">
         <v>99</v>
       </c>
-      <c r="AY35" s="256"/>
-      <c r="AZ35" s="256"/>
-      <c r="BA35" s="257"/>
-      <c r="BB35" s="303"/>
-      <c r="BC35" s="303"/>
-      <c r="BD35" s="303"/>
-      <c r="BE35" s="303"/>
+      <c r="AY35" s="215"/>
+      <c r="AZ35" s="215"/>
+      <c r="BA35" s="216"/>
+      <c r="BB35" s="262"/>
+      <c r="BC35" s="262"/>
+      <c r="BD35" s="262"/>
+      <c r="BE35" s="262"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:58">
       <c r="A36" s="67" t="s">
@@ -9467,69 +9327,69 @@
         <v>104</v>
       </c>
       <c r="H36" s="71"/>
-      <c r="I36" s="118" t="s">
+      <c r="I36" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="J36" s="119"/>
-      <c r="K36" s="120" t="s">
+      <c r="J36" s="101"/>
+      <c r="K36" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="121"/>
-      <c r="M36" s="120" t="s">
+      <c r="L36" s="103"/>
+      <c r="M36" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="N36" s="121"/>
-      <c r="O36" s="120" t="s">
+      <c r="N36" s="103"/>
+      <c r="O36" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="120" t="s">
+      <c r="P36" s="103"/>
+      <c r="Q36" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="R36" s="121"/>
-      <c r="S36" s="120" t="s">
+      <c r="R36" s="103"/>
+      <c r="S36" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="T36" s="121"/>
-      <c r="U36" s="120" t="s">
+      <c r="T36" s="103"/>
+      <c r="U36" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="121"/>
-      <c r="W36" s="120" t="s">
+      <c r="V36" s="103"/>
+      <c r="W36" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="X36" s="119"/>
-      <c r="Y36" s="120" t="s">
+      <c r="X36" s="101"/>
+      <c r="Y36" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="Z36" s="119"/>
-      <c r="AA36" s="185"/>
-      <c r="AB36" s="186"/>
-      <c r="AC36" s="186"/>
-      <c r="AD36" s="186"/>
-      <c r="AE36" s="186"/>
-      <c r="AF36" s="186"/>
-      <c r="AG36" s="186"/>
-      <c r="AH36" s="186"/>
-      <c r="AI36" s="186"/>
-      <c r="AJ36" s="186"/>
-      <c r="AK36" s="186"/>
-      <c r="AL36" s="186"/>
-      <c r="AM36" s="186"/>
-      <c r="AN36" s="186"/>
-      <c r="AO36" s="186"/>
-      <c r="AP36" s="186"/>
-      <c r="AQ36" s="186"/>
-      <c r="AR36" s="186"/>
-      <c r="AS36" s="186"/>
-      <c r="AT36" s="186"/>
-      <c r="AU36" s="186"/>
-      <c r="AV36" s="186"/>
-      <c r="AW36" s="304"/>
-      <c r="AX36" s="297"/>
-      <c r="AY36" s="265"/>
-      <c r="AZ36" s="265"/>
-      <c r="BA36" s="266"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="156"/>
+      <c r="AB36" s="157"/>
+      <c r="AC36" s="157"/>
+      <c r="AD36" s="157"/>
+      <c r="AE36" s="157"/>
+      <c r="AF36" s="157"/>
+      <c r="AG36" s="157"/>
+      <c r="AH36" s="157"/>
+      <c r="AI36" s="157"/>
+      <c r="AJ36" s="157"/>
+      <c r="AK36" s="157"/>
+      <c r="AL36" s="157"/>
+      <c r="AM36" s="157"/>
+      <c r="AN36" s="157"/>
+      <c r="AO36" s="157"/>
+      <c r="AP36" s="157"/>
+      <c r="AQ36" s="157"/>
+      <c r="AR36" s="157"/>
+      <c r="AS36" s="157"/>
+      <c r="AT36" s="157"/>
+      <c r="AU36" s="157"/>
+      <c r="AV36" s="157"/>
+      <c r="AW36" s="263"/>
+      <c r="AX36" s="256"/>
+      <c r="AY36" s="224"/>
+      <c r="AZ36" s="224"/>
+      <c r="BA36" s="225"/>
       <c r="BB36" s="10"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
@@ -9559,7 +9419,7 @@
       <c r="H37" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="122" t="s">
+      <c r="I37" s="104" t="s">
         <v>112</v>
       </c>
       <c r="J37" s="75" t="s">
@@ -9604,7 +9464,7 @@
       <c r="W37" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="X37" s="144" t="s">
+      <c r="X37" s="121" t="s">
         <v>113</v>
       </c>
       <c r="Y37" s="76" t="s">
@@ -9613,39 +9473,39 @@
       <c r="Z37" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AA37" s="187"/>
-      <c r="AB37" s="188"/>
-      <c r="AC37" s="188"/>
-      <c r="AD37" s="188"/>
-      <c r="AE37" s="188"/>
-      <c r="AF37" s="188"/>
-      <c r="AG37" s="188"/>
-      <c r="AH37" s="188"/>
-      <c r="AI37" s="188"/>
-      <c r="AJ37" s="188"/>
-      <c r="AK37" s="188"/>
-      <c r="AL37" s="188"/>
-      <c r="AM37" s="188"/>
-      <c r="AN37" s="188"/>
-      <c r="AO37" s="188"/>
-      <c r="AP37" s="188"/>
-      <c r="AQ37" s="188"/>
-      <c r="AR37" s="188"/>
-      <c r="AS37" s="188"/>
-      <c r="AT37" s="188"/>
-      <c r="AU37" s="188"/>
-      <c r="AV37" s="188"/>
-      <c r="AW37" s="305"/>
-      <c r="AX37" s="306" t="s">
+      <c r="AA37" s="158"/>
+      <c r="AB37" s="159"/>
+      <c r="AC37" s="159"/>
+      <c r="AD37" s="159"/>
+      <c r="AE37" s="159"/>
+      <c r="AF37" s="159"/>
+      <c r="AG37" s="159"/>
+      <c r="AH37" s="159"/>
+      <c r="AI37" s="159"/>
+      <c r="AJ37" s="159"/>
+      <c r="AK37" s="159"/>
+      <c r="AL37" s="159"/>
+      <c r="AM37" s="159"/>
+      <c r="AN37" s="159"/>
+      <c r="AO37" s="159"/>
+      <c r="AP37" s="159"/>
+      <c r="AQ37" s="159"/>
+      <c r="AR37" s="159"/>
+      <c r="AS37" s="159"/>
+      <c r="AT37" s="159"/>
+      <c r="AU37" s="159"/>
+      <c r="AV37" s="159"/>
+      <c r="AW37" s="264"/>
+      <c r="AX37" s="265" t="s">
         <v>114</v>
       </c>
-      <c r="AY37" s="307">
+      <c r="AY37" s="266">
         <v>0</v>
       </c>
-      <c r="AZ37" s="306" t="s">
+      <c r="AZ37" s="265" t="s">
         <v>55</v>
       </c>
-      <c r="BA37" s="307">
+      <c r="BA37" s="266">
         <v>0</v>
       </c>
       <c r="BB37" s="10"/>
@@ -9665,125 +9525,125 @@
         <f>IF(_Area34_day_shift!A2="","",_Area34_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D38" s="81" t="str">
+      <c r="D38" s="80" t="str">
         <f>IF(_Area34_day_shift!B2="","",_Area34_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E38" s="81" t="str">
+      <c r="E38" s="80" t="str">
         <f>IF(_Area34_day_shift!C2="","",_Area34_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F38" s="81" t="str">
+      <c r="F38" s="80" t="str">
         <f>IF(_Area34_day_shift!D2="","",_Area34_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="G38" s="81" t="str">
+      <c r="G38" s="80" t="str">
         <f>IF(_Area34_day_shift!E2="","",_Area34_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="H38" s="82" t="str">
+      <c r="H38" s="80" t="str">
         <f>IF(_Area34_day_shift!F2="","",_Area34_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="I38" s="81" t="str">
+      <c r="I38" s="80" t="str">
         <f>IF(_Area34_day_shift!G2="","",_Area34_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="J38" s="81" t="str">
+      <c r="J38" s="80" t="str">
         <f>IF(_Area34_day_shift!H2="","",_Area34_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="K38" s="81" t="str">
+      <c r="K38" s="80" t="str">
         <f>IF(_Area34_day_shift!I2="","",_Area34_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="L38" s="81" t="str">
+      <c r="L38" s="80" t="str">
         <f>IF(_Area34_day_shift!J2="","",_Area34_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="M38" s="81" t="str">
+      <c r="M38" s="80" t="str">
         <f>IF(_Area34_day_shift!K2="","",_Area34_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="N38" s="81" t="str">
+      <c r="N38" s="80" t="str">
         <f>IF(_Area34_day_shift!L2="","",_Area34_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="O38" s="81" t="str">
+      <c r="O38" s="80" t="str">
         <f>IF(_Area34_day_shift!M2="","",_Area34_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="P38" s="81" t="str">
+      <c r="P38" s="80" t="str">
         <f>IF(_Area34_day_shift!N2="","",_Area34_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="Q38" s="81" t="str">
+      <c r="Q38" s="80" t="str">
         <f>IF(_Area34_day_shift!O2="","",_Area34_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R38" s="81" t="str">
+      <c r="R38" s="80" t="str">
         <f>IF(_Area34_day_shift!P2="","",_Area34_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="S38" s="81" t="str">
+      <c r="S38" s="80" t="str">
         <f>IF(_Area34_day_shift!Q2="","",_Area34_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="T38" s="81" t="str">
+      <c r="T38" s="80" t="str">
         <f>IF(_Area34_day_shift!R2="","",_Area34_day_shift!R2)</f>
         <v/>
       </c>
-      <c r="U38" s="81" t="str">
+      <c r="U38" s="80" t="str">
         <f>IF(_Area34_day_shift!S2="","",_Area34_day_shift!S2)</f>
         <v/>
       </c>
-      <c r="V38" s="81" t="str">
+      <c r="V38" s="80" t="str">
         <f>IF(_Area34_day_shift!T2="","",_Area34_day_shift!T2)</f>
         <v/>
       </c>
-      <c r="W38" s="85" t="str">
+      <c r="W38" s="80" t="str">
         <f>IF(_Area34_day_shift!U2="","",_Area34_day_shift!U2)</f>
         <v/>
       </c>
-      <c r="X38" s="145" t="str">
+      <c r="X38" s="80" t="str">
         <f>IF(_Area34_day_shift!V2="","",_Area34_day_shift!V2)</f>
         <v/>
       </c>
-      <c r="Y38" s="189" t="str">
+      <c r="Y38" s="80" t="str">
         <f>IF(_Area34_day_shift!W2="","",_Area34_day_shift!W2)</f>
         <v/>
       </c>
-      <c r="Z38" s="190" t="str">
+      <c r="Z38" s="80" t="str">
         <f>IF(_Area34_day_shift!X2="","",_Area34_day_shift!X2)</f>
         <v/>
       </c>
-      <c r="AA38" s="191"/>
-      <c r="AB38" s="192"/>
-      <c r="AC38" s="192"/>
-      <c r="AD38" s="192"/>
-      <c r="AE38" s="192"/>
-      <c r="AF38" s="192"/>
-      <c r="AG38" s="192"/>
-      <c r="AH38" s="192"/>
-      <c r="AI38" s="192"/>
-      <c r="AJ38" s="192"/>
-      <c r="AK38" s="192"/>
-      <c r="AL38" s="192"/>
-      <c r="AM38" s="192"/>
-      <c r="AN38" s="192"/>
-      <c r="AO38" s="192"/>
-      <c r="AP38" s="192"/>
-      <c r="AQ38" s="192"/>
-      <c r="AR38" s="192"/>
-      <c r="AS38" s="192"/>
-      <c r="AT38" s="192"/>
-      <c r="AU38" s="192"/>
-      <c r="AV38" s="192"/>
-      <c r="AW38" s="308"/>
-      <c r="AX38" s="309"/>
-      <c r="AY38" s="310"/>
-      <c r="AZ38" s="311"/>
-      <c r="BA38" s="310"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="161"/>
+      <c r="AE38" s="161"/>
+      <c r="AF38" s="161"/>
+      <c r="AG38" s="161"/>
+      <c r="AH38" s="161"/>
+      <c r="AI38" s="161"/>
+      <c r="AJ38" s="161"/>
+      <c r="AK38" s="161"/>
+      <c r="AL38" s="161"/>
+      <c r="AM38" s="161"/>
+      <c r="AN38" s="161"/>
+      <c r="AO38" s="161"/>
+      <c r="AP38" s="161"/>
+      <c r="AQ38" s="161"/>
+      <c r="AR38" s="161"/>
+      <c r="AS38" s="161"/>
+      <c r="AT38" s="161"/>
+      <c r="AU38" s="161"/>
+      <c r="AV38" s="161"/>
+      <c r="AW38" s="267"/>
+      <c r="AX38" s="268"/>
+      <c r="AY38" s="269"/>
+      <c r="AZ38" s="270"/>
+      <c r="BA38" s="269"/>
       <c r="BB38" s="10"/>
       <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
@@ -9791,133 +9651,133 @@
       <c r="BF38" s="10"/>
     </row>
     <row r="39" ht="14.25" spans="1:58">
-      <c r="A39" s="83">
+      <c r="A39" s="81">
         <v>2</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="80" t="str">
         <f>IF(_Area34_day_shift!A3="","",_Area34_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="D39" s="85" t="str">
+      <c r="D39" s="80" t="str">
         <f>IF(_Area34_day_shift!B3="","",_Area34_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="E39" s="85" t="str">
+      <c r="E39" s="80" t="str">
         <f>IF(_Area34_day_shift!C3="","",_Area34_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="F39" s="85" t="str">
+      <c r="F39" s="80" t="str">
         <f>IF(_Area34_day_shift!D3="","",_Area34_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="G39" s="85" t="str">
+      <c r="G39" s="80" t="str">
         <f>IF(_Area34_day_shift!E3="","",_Area34_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="H39" s="86" t="str">
+      <c r="H39" s="80" t="str">
         <f>IF(_Area34_day_shift!F3="","",_Area34_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="I39" s="81" t="str">
+      <c r="I39" s="80" t="str">
         <f>IF(_Area34_day_shift!G3="","",_Area34_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="J39" s="85" t="str">
+      <c r="J39" s="80" t="str">
         <f>IF(_Area34_day_shift!H3="","",_Area34_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="K39" s="85" t="str">
+      <c r="K39" s="80" t="str">
         <f>IF(_Area34_day_shift!I3="","",_Area34_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="L39" s="85" t="str">
+      <c r="L39" s="80" t="str">
         <f>IF(_Area34_day_shift!J3="","",_Area34_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="M39" s="85" t="str">
+      <c r="M39" s="80" t="str">
         <f>IF(_Area34_day_shift!K3="","",_Area34_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="N39" s="85" t="str">
+      <c r="N39" s="80" t="str">
         <f>IF(_Area34_day_shift!L3="","",_Area34_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="O39" s="85" t="str">
+      <c r="O39" s="80" t="str">
         <f>IF(_Area34_day_shift!M3="","",_Area34_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="P39" s="85" t="str">
+      <c r="P39" s="80" t="str">
         <f>IF(_Area34_day_shift!N3="","",_Area34_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="Q39" s="85" t="str">
+      <c r="Q39" s="80" t="str">
         <f>IF(_Area34_day_shift!O3="","",_Area34_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="R39" s="85" t="str">
+      <c r="R39" s="80" t="str">
         <f>IF(_Area34_day_shift!P3="","",_Area34_day_shift!P3)</f>
         <v/>
       </c>
-      <c r="S39" s="85" t="str">
+      <c r="S39" s="80" t="str">
         <f>IF(_Area34_day_shift!Q3="","",_Area34_day_shift!Q3)</f>
         <v/>
       </c>
-      <c r="T39" s="85" t="str">
+      <c r="T39" s="80" t="str">
         <f>IF(_Area34_day_shift!R3="","",_Area34_day_shift!R3)</f>
         <v/>
       </c>
-      <c r="U39" s="85" t="str">
+      <c r="U39" s="80" t="str">
         <f>IF(_Area34_day_shift!S3="","",_Area34_day_shift!S3)</f>
         <v/>
       </c>
-      <c r="V39" s="85" t="str">
+      <c r="V39" s="80" t="str">
         <f>IF(_Area34_day_shift!T3="","",_Area34_day_shift!T3)</f>
         <v/>
       </c>
-      <c r="W39" s="85" t="str">
+      <c r="W39" s="80" t="str">
         <f>IF(_Area34_day_shift!U3="","",_Area34_day_shift!U3)</f>
         <v/>
       </c>
-      <c r="X39" s="145" t="str">
+      <c r="X39" s="80" t="str">
         <f>IF(_Area34_day_shift!V3="","",_Area34_day_shift!V3)</f>
         <v/>
       </c>
-      <c r="Y39" s="189" t="str">
+      <c r="Y39" s="80" t="str">
         <f>IF(_Area34_day_shift!W3="","",_Area34_day_shift!W3)</f>
         <v/>
       </c>
-      <c r="Z39" s="190" t="str">
+      <c r="Z39" s="80" t="str">
         <f>IF(_Area34_day_shift!X3="","",_Area34_day_shift!X3)</f>
         <v/>
       </c>
-      <c r="AA39" s="191"/>
-      <c r="AB39" s="192"/>
-      <c r="AC39" s="192"/>
-      <c r="AD39" s="192"/>
-      <c r="AE39" s="192"/>
-      <c r="AF39" s="192"/>
-      <c r="AG39" s="192"/>
-      <c r="AH39" s="192"/>
-      <c r="AI39" s="192"/>
-      <c r="AJ39" s="192"/>
-      <c r="AK39" s="192"/>
-      <c r="AL39" s="192"/>
-      <c r="AM39" s="192"/>
-      <c r="AN39" s="192"/>
-      <c r="AO39" s="192"/>
-      <c r="AP39" s="192"/>
-      <c r="AQ39" s="192"/>
-      <c r="AR39" s="192"/>
-      <c r="AS39" s="192"/>
-      <c r="AT39" s="192"/>
-      <c r="AU39" s="192"/>
-      <c r="AV39" s="192"/>
-      <c r="AW39" s="308"/>
-      <c r="AX39" s="309"/>
-      <c r="AY39" s="310"/>
-      <c r="AZ39" s="311"/>
-      <c r="BA39" s="310"/>
+      <c r="AA39" s="160"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
+      <c r="AD39" s="161"/>
+      <c r="AE39" s="161"/>
+      <c r="AF39" s="161"/>
+      <c r="AG39" s="161"/>
+      <c r="AH39" s="161"/>
+      <c r="AI39" s="161"/>
+      <c r="AJ39" s="161"/>
+      <c r="AK39" s="161"/>
+      <c r="AL39" s="161"/>
+      <c r="AM39" s="161"/>
+      <c r="AN39" s="161"/>
+      <c r="AO39" s="161"/>
+      <c r="AP39" s="161"/>
+      <c r="AQ39" s="161"/>
+      <c r="AR39" s="161"/>
+      <c r="AS39" s="161"/>
+      <c r="AT39" s="161"/>
+      <c r="AU39" s="161"/>
+      <c r="AV39" s="161"/>
+      <c r="AW39" s="267"/>
+      <c r="AX39" s="268"/>
+      <c r="AY39" s="269"/>
+      <c r="AZ39" s="270"/>
+      <c r="BA39" s="269"/>
       <c r="BB39" s="10"/>
       <c r="BC39" s="10"/>
       <c r="BD39" s="10"/>
@@ -9928,130 +9788,130 @@
       <c r="A40" s="78">
         <v>3</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="87" t="str">
+      <c r="B40" s="82"/>
+      <c r="C40" s="80" t="str">
         <f>IF(_Area34_day_shift!A4="","",_Area34_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D40" s="88" t="str">
+      <c r="D40" s="80" t="str">
         <f>IF(_Area34_day_shift!B4="","",_Area34_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E40" s="88" t="str">
+      <c r="E40" s="80" t="str">
         <f>IF(_Area34_day_shift!C4="","",_Area34_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="F40" s="88" t="str">
+      <c r="F40" s="80" t="str">
         <f>IF(_Area34_day_shift!D4="","",_Area34_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="G40" s="88" t="str">
+      <c r="G40" s="80" t="str">
         <f>IF(_Area34_day_shift!E4="","",_Area34_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="H40" s="89" t="str">
+      <c r="H40" s="80" t="str">
         <f>IF(_Area34_day_shift!F4="","",_Area34_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="I40" s="123" t="str">
+      <c r="I40" s="80" t="str">
         <f>IF(_Area34_day_shift!G4="","",_Area34_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="J40" s="88" t="str">
+      <c r="J40" s="80" t="str">
         <f>IF(_Area34_day_shift!H4="","",_Area34_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="K40" s="124" t="str">
+      <c r="K40" s="80" t="str">
         <f>IF(_Area34_day_shift!I4="","",_Area34_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="L40" s="88" t="str">
+      <c r="L40" s="80" t="str">
         <f>IF(_Area34_day_shift!J4="","",_Area34_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="M40" s="88" t="str">
+      <c r="M40" s="80" t="str">
         <f>IF(_Area34_day_shift!K4="","",_Area34_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="N40" s="88" t="str">
+      <c r="N40" s="80" t="str">
         <f>IF(_Area34_day_shift!L4="","",_Area34_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="O40" s="88" t="str">
+      <c r="O40" s="80" t="str">
         <f>IF(_Area34_day_shift!M4="","",_Area34_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="P40" s="88" t="str">
+      <c r="P40" s="80" t="str">
         <f>IF(_Area34_day_shift!N4="","",_Area34_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="Q40" s="88" t="str">
+      <c r="Q40" s="80" t="str">
         <f>IF(_Area34_day_shift!O4="","",_Area34_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="R40" s="88" t="str">
+      <c r="R40" s="80" t="str">
         <f>IF(_Area34_day_shift!P4="","",_Area34_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="S40" s="88" t="str">
+      <c r="S40" s="80" t="str">
         <f>IF(_Area34_day_shift!Q4="","",_Area34_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="T40" s="88" t="str">
+      <c r="T40" s="80" t="str">
         <f>IF(_Area34_day_shift!R4="","",_Area34_day_shift!R4)</f>
         <v/>
       </c>
-      <c r="U40" s="88" t="str">
+      <c r="U40" s="80" t="str">
         <f>IF(_Area34_day_shift!S4="","",_Area34_day_shift!S4)</f>
         <v/>
       </c>
-      <c r="V40" s="124" t="str">
+      <c r="V40" s="80" t="str">
         <f>IF(_Area34_day_shift!T4="","",_Area34_day_shift!T4)</f>
         <v/>
       </c>
-      <c r="W40" s="88" t="str">
+      <c r="W40" s="80" t="str">
         <f>IF(_Area34_day_shift!U4="","",_Area34_day_shift!U4)</f>
         <v/>
       </c>
-      <c r="X40" s="146" t="str">
+      <c r="X40" s="80" t="str">
         <f>IF(_Area34_day_shift!V4="","",_Area34_day_shift!V4)</f>
         <v/>
       </c>
-      <c r="Y40" s="189" t="str">
+      <c r="Y40" s="80" t="str">
         <f>IF(_Area34_day_shift!W4="","",_Area34_day_shift!W4)</f>
         <v/>
       </c>
-      <c r="Z40" s="190" t="str">
+      <c r="Z40" s="80" t="str">
         <f>IF(_Area34_day_shift!X4="","",_Area34_day_shift!X4)</f>
         <v/>
       </c>
-      <c r="AA40" s="191"/>
-      <c r="AB40" s="192"/>
-      <c r="AC40" s="192"/>
-      <c r="AD40" s="192"/>
-      <c r="AE40" s="192"/>
-      <c r="AF40" s="192"/>
-      <c r="AG40" s="192"/>
-      <c r="AH40" s="192"/>
-      <c r="AI40" s="192"/>
-      <c r="AJ40" s="192"/>
-      <c r="AK40" s="192"/>
-      <c r="AL40" s="192"/>
-      <c r="AM40" s="192"/>
-      <c r="AN40" s="192"/>
-      <c r="AO40" s="192"/>
-      <c r="AP40" s="192"/>
-      <c r="AQ40" s="192"/>
-      <c r="AR40" s="192"/>
-      <c r="AS40" s="192"/>
-      <c r="AT40" s="192"/>
-      <c r="AU40" s="192"/>
-      <c r="AV40" s="192"/>
-      <c r="AW40" s="308"/>
-      <c r="AX40" s="309"/>
-      <c r="AY40" s="310"/>
-      <c r="AZ40" s="311"/>
-      <c r="BA40" s="310"/>
+      <c r="AA40" s="160"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161"/>
+      <c r="AD40" s="161"/>
+      <c r="AE40" s="161"/>
+      <c r="AF40" s="161"/>
+      <c r="AG40" s="161"/>
+      <c r="AH40" s="161"/>
+      <c r="AI40" s="161"/>
+      <c r="AJ40" s="161"/>
+      <c r="AK40" s="161"/>
+      <c r="AL40" s="161"/>
+      <c r="AM40" s="161"/>
+      <c r="AN40" s="161"/>
+      <c r="AO40" s="161"/>
+      <c r="AP40" s="161"/>
+      <c r="AQ40" s="161"/>
+      <c r="AR40" s="161"/>
+      <c r="AS40" s="161"/>
+      <c r="AT40" s="161"/>
+      <c r="AU40" s="161"/>
+      <c r="AV40" s="161"/>
+      <c r="AW40" s="267"/>
+      <c r="AX40" s="268"/>
+      <c r="AY40" s="269"/>
+      <c r="AZ40" s="270"/>
+      <c r="BA40" s="269"/>
       <c r="BB40" s="10"/>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
@@ -10062,130 +9922,130 @@
       <c r="A41" s="78">
         <v>4</v>
       </c>
-      <c r="B41" s="90"/>
-      <c r="C41" s="91" t="str">
+      <c r="B41" s="83"/>
+      <c r="C41" s="80" t="str">
         <f>IF(_Area34_day_shift!A5="","",_Area34_day_shift!A5)</f>
         <v/>
       </c>
-      <c r="D41" s="92" t="str">
+      <c r="D41" s="80" t="str">
         <f>IF(_Area34_day_shift!B5="","",_Area34_day_shift!B5)</f>
         <v/>
       </c>
-      <c r="E41" s="92" t="str">
+      <c r="E41" s="80" t="str">
         <f>IF(_Area34_day_shift!C5="","",_Area34_day_shift!C5)</f>
         <v/>
       </c>
-      <c r="F41" s="92" t="str">
+      <c r="F41" s="80" t="str">
         <f>IF(_Area34_day_shift!D5="","",_Area34_day_shift!D5)</f>
         <v/>
       </c>
-      <c r="G41" s="92" t="str">
+      <c r="G41" s="80" t="str">
         <f>IF(_Area34_day_shift!E5="","",_Area34_day_shift!E5)</f>
         <v/>
       </c>
-      <c r="H41" s="93" t="str">
+      <c r="H41" s="80" t="str">
         <f>IF(_Area34_day_shift!F5="","",_Area34_day_shift!F5)</f>
         <v/>
       </c>
-      <c r="I41" s="125" t="str">
+      <c r="I41" s="80" t="str">
         <f>IF(_Area34_day_shift!G5="","",_Area34_day_shift!G5)</f>
         <v/>
       </c>
-      <c r="J41" s="92" t="str">
+      <c r="J41" s="80" t="str">
         <f>IF(_Area34_day_shift!H5="","",_Area34_day_shift!H5)</f>
         <v/>
       </c>
-      <c r="K41" s="92" t="str">
+      <c r="K41" s="80" t="str">
         <f>IF(_Area34_day_shift!I5="","",_Area34_day_shift!I5)</f>
         <v/>
       </c>
-      <c r="L41" s="92" t="str">
+      <c r="L41" s="80" t="str">
         <f>IF(_Area34_day_shift!J5="","",_Area34_day_shift!J5)</f>
         <v/>
       </c>
-      <c r="M41" s="92" t="str">
+      <c r="M41" s="80" t="str">
         <f>IF(_Area34_day_shift!K5="","",_Area34_day_shift!K5)</f>
         <v/>
       </c>
-      <c r="N41" s="92" t="str">
+      <c r="N41" s="80" t="str">
         <f>IF(_Area34_day_shift!L5="","",_Area34_day_shift!L5)</f>
         <v/>
       </c>
-      <c r="O41" s="92" t="str">
+      <c r="O41" s="80" t="str">
         <f>IF(_Area34_day_shift!M5="","",_Area34_day_shift!M5)</f>
         <v/>
       </c>
-      <c r="P41" s="92" t="str">
+      <c r="P41" s="80" t="str">
         <f>IF(_Area34_day_shift!N5="","",_Area34_day_shift!N5)</f>
         <v/>
       </c>
-      <c r="Q41" s="92" t="str">
+      <c r="Q41" s="80" t="str">
         <f>IF(_Area34_day_shift!O5="","",_Area34_day_shift!O5)</f>
         <v/>
       </c>
-      <c r="R41" s="92" t="str">
+      <c r="R41" s="80" t="str">
         <f>IF(_Area34_day_shift!P5="","",_Area34_day_shift!P5)</f>
         <v/>
       </c>
-      <c r="S41" s="92" t="str">
+      <c r="S41" s="80" t="str">
         <f>IF(_Area34_day_shift!Q5="","",_Area34_day_shift!Q5)</f>
         <v/>
       </c>
-      <c r="T41" s="92" t="str">
+      <c r="T41" s="80" t="str">
         <f>IF(_Area34_day_shift!R5="","",_Area34_day_shift!R5)</f>
         <v/>
       </c>
-      <c r="U41" s="92" t="str">
+      <c r="U41" s="80" t="str">
         <f>IF(_Area34_day_shift!S5="","",_Area34_day_shift!S5)</f>
         <v/>
       </c>
-      <c r="V41" s="92" t="str">
+      <c r="V41" s="80" t="str">
         <f>IF(_Area34_day_shift!T5="","",_Area34_day_shift!T5)</f>
         <v/>
       </c>
-      <c r="W41" s="92" t="str">
+      <c r="W41" s="80" t="str">
         <f>IF(_Area34_day_shift!U5="","",_Area34_day_shift!U5)</f>
         <v/>
       </c>
-      <c r="X41" s="147" t="str">
+      <c r="X41" s="80" t="str">
         <f>IF(_Area34_day_shift!V5="","",_Area34_day_shift!V5)</f>
         <v/>
       </c>
-      <c r="Y41" s="193" t="str">
+      <c r="Y41" s="80" t="str">
         <f>IF(_Area34_day_shift!W5="","",_Area34_day_shift!W5)</f>
         <v/>
       </c>
-      <c r="Z41" s="194" t="str">
+      <c r="Z41" s="80" t="str">
         <f>IF(_Area34_day_shift!X5="","",_Area34_day_shift!X5)</f>
         <v/>
       </c>
-      <c r="AA41" s="195"/>
-      <c r="AB41" s="196"/>
-      <c r="AC41" s="196"/>
-      <c r="AD41" s="196"/>
-      <c r="AE41" s="196"/>
-      <c r="AF41" s="196"/>
-      <c r="AG41" s="196"/>
-      <c r="AH41" s="196"/>
-      <c r="AI41" s="196"/>
-      <c r="AJ41" s="196"/>
-      <c r="AK41" s="196"/>
-      <c r="AL41" s="196"/>
-      <c r="AM41" s="196"/>
-      <c r="AN41" s="196"/>
-      <c r="AO41" s="196"/>
-      <c r="AP41" s="196"/>
-      <c r="AQ41" s="196"/>
-      <c r="AR41" s="196"/>
-      <c r="AS41" s="196"/>
-      <c r="AT41" s="196"/>
-      <c r="AU41" s="196"/>
-      <c r="AV41" s="196"/>
-      <c r="AW41" s="312"/>
-      <c r="AX41" s="309"/>
-      <c r="AY41" s="310"/>
-      <c r="AZ41" s="311"/>
-      <c r="BA41" s="310"/>
+      <c r="AA41" s="162"/>
+      <c r="AB41" s="163"/>
+      <c r="AC41" s="163"/>
+      <c r="AD41" s="163"/>
+      <c r="AE41" s="163"/>
+      <c r="AF41" s="163"/>
+      <c r="AG41" s="163"/>
+      <c r="AH41" s="163"/>
+      <c r="AI41" s="163"/>
+      <c r="AJ41" s="163"/>
+      <c r="AK41" s="163"/>
+      <c r="AL41" s="163"/>
+      <c r="AM41" s="163"/>
+      <c r="AN41" s="163"/>
+      <c r="AO41" s="163"/>
+      <c r="AP41" s="163"/>
+      <c r="AQ41" s="163"/>
+      <c r="AR41" s="163"/>
+      <c r="AS41" s="163"/>
+      <c r="AT41" s="163"/>
+      <c r="AU41" s="163"/>
+      <c r="AV41" s="163"/>
+      <c r="AW41" s="271"/>
+      <c r="AX41" s="268"/>
+      <c r="AY41" s="269"/>
+      <c r="AZ41" s="270"/>
+      <c r="BA41" s="269"/>
       <c r="BB41" s="10"/>
       <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
@@ -10193,135 +10053,135 @@
       <c r="BF41" s="10"/>
     </row>
     <row r="42" ht="15" spans="1:58">
-      <c r="A42" s="83">
+      <c r="A42" s="81">
         <v>5</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="95" t="str">
+      <c r="C42" s="80" t="str">
         <f>IF(_Area34_day_shift!A6="","",_Area34_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="D42" s="96" t="str">
+      <c r="D42" s="80" t="str">
         <f>IF(_Area34_day_shift!B6="","",_Area34_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="E42" s="96" t="str">
+      <c r="E42" s="80" t="str">
         <f>IF(_Area34_day_shift!C6="","",_Area34_day_shift!C6)</f>
         <v/>
       </c>
-      <c r="F42" s="96" t="str">
+      <c r="F42" s="80" t="str">
         <f>IF(_Area34_day_shift!D6="","",_Area34_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="G42" s="96" t="str">
+      <c r="G42" s="80" t="str">
         <f>IF(_Area34_day_shift!E6="","",_Area34_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="H42" s="97" t="str">
+      <c r="H42" s="80" t="str">
         <f>IF(_Area34_day_shift!F6="","",_Area34_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="I42" s="126" t="str">
+      <c r="I42" s="80" t="str">
         <f>IF(_Area34_day_shift!G6="","",_Area34_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="J42" s="101" t="str">
+      <c r="J42" s="80" t="str">
         <f>IF(_Area34_day_shift!H6="","",_Area34_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="K42" s="101" t="str">
+      <c r="K42" s="80" t="str">
         <f>IF(_Area34_day_shift!I6="","",_Area34_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="L42" s="101" t="str">
+      <c r="L42" s="80" t="str">
         <f>IF(_Area34_day_shift!J6="","",_Area34_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="M42" s="101" t="str">
+      <c r="M42" s="80" t="str">
         <f>IF(_Area34_day_shift!K6="","",_Area34_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="N42" s="101" t="str">
+      <c r="N42" s="80" t="str">
         <f>IF(_Area34_day_shift!L6="","",_Area34_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="O42" s="101" t="str">
+      <c r="O42" s="80" t="str">
         <f>IF(_Area34_day_shift!M6="","",_Area34_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="P42" s="101" t="str">
+      <c r="P42" s="80" t="str">
         <f>IF(_Area34_day_shift!N6="","",_Area34_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="Q42" s="101" t="str">
+      <c r="Q42" s="80" t="str">
         <f>IF(_Area34_day_shift!O6="","",_Area34_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="R42" s="101" t="str">
+      <c r="R42" s="80" t="str">
         <f>IF(_Area34_day_shift!P6="","",_Area34_day_shift!P6)</f>
         <v/>
       </c>
-      <c r="S42" s="101" t="str">
+      <c r="S42" s="80" t="str">
         <f>IF(_Area34_day_shift!Q6="","",_Area34_day_shift!Q6)</f>
         <v/>
       </c>
-      <c r="T42" s="101" t="str">
+      <c r="T42" s="80" t="str">
         <f>IF(_Area34_day_shift!R6="","",_Area34_day_shift!R6)</f>
         <v/>
       </c>
-      <c r="U42" s="101" t="str">
+      <c r="U42" s="80" t="str">
         <f>IF(_Area34_day_shift!S6="","",_Area34_day_shift!S6)</f>
         <v/>
       </c>
-      <c r="V42" s="101" t="str">
+      <c r="V42" s="80" t="str">
         <f>IF(_Area34_day_shift!T6="","",_Area34_day_shift!T6)</f>
         <v/>
       </c>
-      <c r="W42" s="101" t="str">
+      <c r="W42" s="80" t="str">
         <f>IF(_Area34_day_shift!U6="","",_Area34_day_shift!U6)</f>
         <v/>
       </c>
-      <c r="X42" s="148" t="str">
+      <c r="X42" s="80" t="str">
         <f>IF(_Area34_day_shift!V6="","",_Area34_day_shift!V6)</f>
         <v/>
       </c>
-      <c r="Y42" s="197" t="str">
+      <c r="Y42" s="80" t="str">
         <f>IF(_Area34_day_shift!W6="","",_Area34_day_shift!W6)</f>
         <v/>
       </c>
-      <c r="Z42" s="198" t="str">
+      <c r="Z42" s="80" t="str">
         <f>IF(_Area34_day_shift!X6="","",_Area34_day_shift!X6)</f>
         <v/>
       </c>
-      <c r="AA42" s="191"/>
-      <c r="AB42" s="192"/>
-      <c r="AC42" s="192"/>
-      <c r="AD42" s="192"/>
-      <c r="AE42" s="192"/>
-      <c r="AF42" s="192"/>
-      <c r="AG42" s="192"/>
-      <c r="AH42" s="192"/>
-      <c r="AI42" s="192"/>
-      <c r="AJ42" s="192"/>
-      <c r="AK42" s="192"/>
-      <c r="AL42" s="192"/>
-      <c r="AM42" s="192"/>
-      <c r="AN42" s="192"/>
-      <c r="AO42" s="192"/>
-      <c r="AP42" s="192"/>
-      <c r="AQ42" s="192"/>
-      <c r="AR42" s="192"/>
-      <c r="AS42" s="192"/>
-      <c r="AT42" s="192"/>
-      <c r="AU42" s="192"/>
-      <c r="AV42" s="192"/>
-      <c r="AW42" s="308"/>
-      <c r="AX42" s="313"/>
-      <c r="AY42" s="314"/>
-      <c r="AZ42" s="315"/>
-      <c r="BA42" s="314"/>
+      <c r="AA42" s="160"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
+      <c r="AD42" s="161"/>
+      <c r="AE42" s="161"/>
+      <c r="AF42" s="161"/>
+      <c r="AG42" s="161"/>
+      <c r="AH42" s="161"/>
+      <c r="AI42" s="161"/>
+      <c r="AJ42" s="161"/>
+      <c r="AK42" s="161"/>
+      <c r="AL42" s="161"/>
+      <c r="AM42" s="161"/>
+      <c r="AN42" s="161"/>
+      <c r="AO42" s="161"/>
+      <c r="AP42" s="161"/>
+      <c r="AQ42" s="161"/>
+      <c r="AR42" s="161"/>
+      <c r="AS42" s="161"/>
+      <c r="AT42" s="161"/>
+      <c r="AU42" s="161"/>
+      <c r="AV42" s="161"/>
+      <c r="AW42" s="267"/>
+      <c r="AX42" s="272"/>
+      <c r="AY42" s="273"/>
+      <c r="AZ42" s="274"/>
+      <c r="BA42" s="273"/>
       <c r="BB42" s="10"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
@@ -10332,132 +10192,132 @@
       <c r="A43" s="78">
         <v>6</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="98" t="str">
+      <c r="B43" s="82"/>
+      <c r="C43" s="80" t="str">
         <f>IF(_Area34_day_shift!A7="","",_Area34_day_shift!A7)</f>
         <v/>
       </c>
-      <c r="D43" s="99" t="str">
+      <c r="D43" s="80" t="str">
         <f>IF(_Area34_day_shift!B7="","",_Area34_day_shift!B7)</f>
         <v/>
       </c>
-      <c r="E43" s="88" t="str">
+      <c r="E43" s="80" t="str">
         <f>IF(_Area34_day_shift!C7="","",_Area34_day_shift!C7)</f>
         <v/>
       </c>
-      <c r="F43" s="88" t="str">
+      <c r="F43" s="80" t="str">
         <f>IF(_Area34_day_shift!D7="","",_Area34_day_shift!D7)</f>
         <v/>
       </c>
-      <c r="G43" s="88" t="str">
+      <c r="G43" s="80" t="str">
         <f>IF(_Area34_day_shift!E7="","",_Area34_day_shift!E7)</f>
         <v/>
       </c>
-      <c r="H43" s="89" t="str">
+      <c r="H43" s="80" t="str">
         <f>IF(_Area34_day_shift!F7="","",_Area34_day_shift!F7)</f>
         <v/>
       </c>
-      <c r="I43" s="123" t="str">
+      <c r="I43" s="80" t="str">
         <f>IF(_Area34_day_shift!G7="","",_Area34_day_shift!G7)</f>
         <v/>
       </c>
-      <c r="J43" s="88" t="str">
+      <c r="J43" s="80" t="str">
         <f>IF(_Area34_day_shift!H7="","",_Area34_day_shift!H7)</f>
         <v/>
       </c>
-      <c r="K43" s="88" t="str">
+      <c r="K43" s="80" t="str">
         <f>IF(_Area34_day_shift!I7="","",_Area34_day_shift!I7)</f>
         <v/>
       </c>
-      <c r="L43" s="88" t="str">
+      <c r="L43" s="80" t="str">
         <f>IF(_Area34_day_shift!J7="","",_Area34_day_shift!J7)</f>
         <v/>
       </c>
-      <c r="M43" s="88" t="str">
+      <c r="M43" s="80" t="str">
         <f>IF(_Area34_day_shift!K7="","",_Area34_day_shift!K7)</f>
         <v/>
       </c>
-      <c r="N43" s="88" t="str">
+      <c r="N43" s="80" t="str">
         <f>IF(_Area34_day_shift!L7="","",_Area34_day_shift!L7)</f>
         <v/>
       </c>
-      <c r="O43" s="88" t="str">
+      <c r="O43" s="80" t="str">
         <f>IF(_Area34_day_shift!M7="","",_Area34_day_shift!M7)</f>
         <v/>
       </c>
-      <c r="P43" s="88" t="str">
+      <c r="P43" s="80" t="str">
         <f>IF(_Area34_day_shift!N7="","",_Area34_day_shift!N7)</f>
         <v/>
       </c>
-      <c r="Q43" s="88" t="str">
+      <c r="Q43" s="80" t="str">
         <f>IF(_Area34_day_shift!O7="","",_Area34_day_shift!O7)</f>
         <v/>
       </c>
-      <c r="R43" s="88" t="str">
+      <c r="R43" s="80" t="str">
         <f>IF(_Area34_day_shift!P7="","",_Area34_day_shift!P7)</f>
         <v/>
       </c>
-      <c r="S43" s="88" t="str">
+      <c r="S43" s="80" t="str">
         <f>IF(_Area34_day_shift!Q7="","",_Area34_day_shift!Q7)</f>
         <v/>
       </c>
-      <c r="T43" s="88" t="str">
+      <c r="T43" s="80" t="str">
         <f>IF(_Area34_day_shift!R7="","",_Area34_day_shift!R7)</f>
         <v/>
       </c>
-      <c r="U43" s="88" t="str">
+      <c r="U43" s="80" t="str">
         <f>IF(_Area34_day_shift!S7="","",_Area34_day_shift!S7)</f>
         <v/>
       </c>
-      <c r="V43" s="88" t="str">
+      <c r="V43" s="80" t="str">
         <f>IF(_Area34_day_shift!T7="","",_Area34_day_shift!T7)</f>
         <v/>
       </c>
-      <c r="W43" s="88" t="str">
+      <c r="W43" s="80" t="str">
         <f>IF(_Area34_day_shift!U7="","",_Area34_day_shift!U7)</f>
         <v/>
       </c>
-      <c r="X43" s="146" t="str">
+      <c r="X43" s="80" t="str">
         <f>IF(_Area34_day_shift!V7="","",_Area34_day_shift!V7)</f>
         <v/>
       </c>
-      <c r="Y43" s="199" t="str">
+      <c r="Y43" s="80" t="str">
         <f>IF(_Area34_day_shift!W7="","",_Area34_day_shift!W7)</f>
         <v/>
       </c>
-      <c r="Z43" s="200" t="str">
+      <c r="Z43" s="80" t="str">
         <f>IF(_Area34_day_shift!X7="","",_Area34_day_shift!X7)</f>
         <v/>
       </c>
-      <c r="AA43" s="191"/>
-      <c r="AB43" s="192"/>
-      <c r="AC43" s="192"/>
-      <c r="AD43" s="192"/>
-      <c r="AE43" s="192"/>
-      <c r="AF43" s="192"/>
-      <c r="AG43" s="192"/>
-      <c r="AH43" s="192"/>
-      <c r="AI43" s="192"/>
-      <c r="AJ43" s="192"/>
-      <c r="AK43" s="192"/>
-      <c r="AL43" s="192"/>
-      <c r="AM43" s="192"/>
-      <c r="AN43" s="192"/>
-      <c r="AO43" s="192"/>
-      <c r="AP43" s="192"/>
-      <c r="AQ43" s="192"/>
-      <c r="AR43" s="192"/>
-      <c r="AS43" s="192"/>
-      <c r="AT43" s="192"/>
-      <c r="AU43" s="192"/>
-      <c r="AV43" s="192"/>
-      <c r="AW43" s="308"/>
-      <c r="AX43" s="316" t="s">
+      <c r="AA43" s="160"/>
+      <c r="AB43" s="161"/>
+      <c r="AC43" s="161"/>
+      <c r="AD43" s="161"/>
+      <c r="AE43" s="161"/>
+      <c r="AF43" s="161"/>
+      <c r="AG43" s="161"/>
+      <c r="AH43" s="161"/>
+      <c r="AI43" s="161"/>
+      <c r="AJ43" s="161"/>
+      <c r="AK43" s="161"/>
+      <c r="AL43" s="161"/>
+      <c r="AM43" s="161"/>
+      <c r="AN43" s="161"/>
+      <c r="AO43" s="161"/>
+      <c r="AP43" s="161"/>
+      <c r="AQ43" s="161"/>
+      <c r="AR43" s="161"/>
+      <c r="AS43" s="161"/>
+      <c r="AT43" s="161"/>
+      <c r="AU43" s="161"/>
+      <c r="AV43" s="161"/>
+      <c r="AW43" s="267"/>
+      <c r="AX43" s="275" t="s">
         <v>117</v>
       </c>
-      <c r="AY43" s="317"/>
-      <c r="AZ43" s="317"/>
-      <c r="BA43" s="318"/>
+      <c r="AY43" s="276"/>
+      <c r="AZ43" s="276"/>
+      <c r="BA43" s="277"/>
       <c r="BB43" s="10"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
@@ -10468,130 +10328,130 @@
       <c r="A44" s="78">
         <v>7</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="98" t="str">
+      <c r="B44" s="82"/>
+      <c r="C44" s="80" t="str">
         <f>IF(_Area34_day_shift!A8="","",_Area34_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="D44" s="88" t="str">
+      <c r="D44" s="80" t="str">
         <f>IF(_Area34_day_shift!B8="","",_Area34_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="E44" s="88" t="str">
+      <c r="E44" s="80" t="str">
         <f>IF(_Area34_day_shift!C8="","",_Area34_day_shift!C8)</f>
         <v/>
       </c>
-      <c r="F44" s="88" t="str">
+      <c r="F44" s="80" t="str">
         <f>IF(_Area34_day_shift!D8="","",_Area34_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="G44" s="88" t="str">
+      <c r="G44" s="80" t="str">
         <f>IF(_Area34_day_shift!E8="","",_Area34_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="H44" s="89" t="str">
+      <c r="H44" s="80" t="str">
         <f>IF(_Area34_day_shift!F8="","",_Area34_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="I44" s="123" t="str">
+      <c r="I44" s="80" t="str">
         <f>IF(_Area34_day_shift!G8="","",_Area34_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="J44" s="88" t="str">
+      <c r="J44" s="80" t="str">
         <f>IF(_Area34_day_shift!H8="","",_Area34_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="K44" s="88" t="str">
+      <c r="K44" s="80" t="str">
         <f>IF(_Area34_day_shift!I8="","",_Area34_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="L44" s="88" t="str">
+      <c r="L44" s="80" t="str">
         <f>IF(_Area34_day_shift!J8="","",_Area34_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="M44" s="88" t="str">
+      <c r="M44" s="80" t="str">
         <f>IF(_Area34_day_shift!K8="","",_Area34_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="N44" s="88" t="str">
+      <c r="N44" s="80" t="str">
         <f>IF(_Area34_day_shift!L8="","",_Area34_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="O44" s="88" t="str">
+      <c r="O44" s="80" t="str">
         <f>IF(_Area34_day_shift!M8="","",_Area34_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="P44" s="88" t="str">
+      <c r="P44" s="80" t="str">
         <f>IF(_Area34_day_shift!N8="","",_Area34_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="Q44" s="88" t="str">
+      <c r="Q44" s="80" t="str">
         <f>IF(_Area34_day_shift!O8="","",_Area34_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="R44" s="88" t="str">
+      <c r="R44" s="80" t="str">
         <f>IF(_Area34_day_shift!P8="","",_Area34_day_shift!P8)</f>
         <v/>
       </c>
-      <c r="S44" s="88" t="str">
+      <c r="S44" s="80" t="str">
         <f>IF(_Area34_day_shift!Q8="","",_Area34_day_shift!Q8)</f>
         <v/>
       </c>
-      <c r="T44" s="88" t="str">
+      <c r="T44" s="80" t="str">
         <f>IF(_Area34_day_shift!R8="","",_Area34_day_shift!R8)</f>
         <v/>
       </c>
-      <c r="U44" s="88" t="str">
+      <c r="U44" s="80" t="str">
         <f>IF(_Area34_day_shift!S8="","",_Area34_day_shift!S8)</f>
         <v/>
       </c>
-      <c r="V44" s="88" t="str">
+      <c r="V44" s="80" t="str">
         <f>IF(_Area34_day_shift!T8="","",_Area34_day_shift!T8)</f>
         <v/>
       </c>
-      <c r="W44" s="88" t="str">
+      <c r="W44" s="80" t="str">
         <f>IF(_Area34_day_shift!U8="","",_Area34_day_shift!U8)</f>
         <v/>
       </c>
-      <c r="X44" s="146" t="str">
+      <c r="X44" s="80" t="str">
         <f>IF(_Area34_day_shift!V8="","",_Area34_day_shift!V8)</f>
         <v/>
       </c>
-      <c r="Y44" s="199" t="str">
+      <c r="Y44" s="80" t="str">
         <f>IF(_Area34_day_shift!W8="","",_Area34_day_shift!W8)</f>
         <v/>
       </c>
-      <c r="Z44" s="200" t="str">
+      <c r="Z44" s="80" t="str">
         <f>IF(_Area34_day_shift!X8="","",_Area34_day_shift!X8)</f>
         <v/>
       </c>
-      <c r="AA44" s="191"/>
-      <c r="AB44" s="192"/>
-      <c r="AC44" s="192"/>
-      <c r="AD44" s="192"/>
-      <c r="AE44" s="192"/>
-      <c r="AF44" s="192"/>
-      <c r="AG44" s="192"/>
-      <c r="AH44" s="192"/>
-      <c r="AI44" s="192"/>
-      <c r="AJ44" s="192"/>
-      <c r="AK44" s="192"/>
-      <c r="AL44" s="192"/>
-      <c r="AM44" s="192"/>
-      <c r="AN44" s="192"/>
-      <c r="AO44" s="192"/>
-      <c r="AP44" s="192"/>
-      <c r="AQ44" s="192"/>
-      <c r="AR44" s="192"/>
-      <c r="AS44" s="192"/>
-      <c r="AT44" s="192"/>
-      <c r="AU44" s="192"/>
-      <c r="AV44" s="192"/>
-      <c r="AW44" s="308"/>
-      <c r="AX44" s="319"/>
-      <c r="AY44" s="320"/>
-      <c r="AZ44" s="320"/>
-      <c r="BA44" s="321"/>
+      <c r="AA44" s="160"/>
+      <c r="AB44" s="161"/>
+      <c r="AC44" s="161"/>
+      <c r="AD44" s="161"/>
+      <c r="AE44" s="161"/>
+      <c r="AF44" s="161"/>
+      <c r="AG44" s="161"/>
+      <c r="AH44" s="161"/>
+      <c r="AI44" s="161"/>
+      <c r="AJ44" s="161"/>
+      <c r="AK44" s="161"/>
+      <c r="AL44" s="161"/>
+      <c r="AM44" s="161"/>
+      <c r="AN44" s="161"/>
+      <c r="AO44" s="161"/>
+      <c r="AP44" s="161"/>
+      <c r="AQ44" s="161"/>
+      <c r="AR44" s="161"/>
+      <c r="AS44" s="161"/>
+      <c r="AT44" s="161"/>
+      <c r="AU44" s="161"/>
+      <c r="AV44" s="161"/>
+      <c r="AW44" s="267"/>
+      <c r="AX44" s="278"/>
+      <c r="AY44" s="279"/>
+      <c r="AZ44" s="279"/>
+      <c r="BA44" s="280"/>
       <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
@@ -10599,139 +10459,139 @@
       <c r="BF44" s="10"/>
     </row>
     <row r="45" ht="15" spans="1:58">
-      <c r="A45" s="83">
+      <c r="A45" s="81">
         <v>8</v>
       </c>
-      <c r="B45" s="90"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="80" t="str">
         <f>IF(_Area34_day_shift!A9="","",_Area34_day_shift!A9)</f>
         <v/>
       </c>
-      <c r="D45" s="85" t="str">
+      <c r="D45" s="80" t="str">
         <f>IF(_Area34_day_shift!B9="","",_Area34_day_shift!B9)</f>
         <v/>
       </c>
-      <c r="E45" s="85" t="str">
+      <c r="E45" s="80" t="str">
         <f>IF(_Area34_day_shift!C9="","",_Area34_day_shift!C9)</f>
         <v/>
       </c>
-      <c r="F45" s="85" t="str">
+      <c r="F45" s="80" t="str">
         <f>IF(_Area34_day_shift!D9="","",_Area34_day_shift!D9)</f>
         <v/>
       </c>
-      <c r="G45" s="85" t="str">
+      <c r="G45" s="80" t="str">
         <f>IF(_Area34_day_shift!E9="","",_Area34_day_shift!E9)</f>
         <v/>
       </c>
-      <c r="H45" s="86" t="str">
+      <c r="H45" s="80" t="str">
         <f>IF(_Area34_day_shift!F9="","",_Area34_day_shift!F9)</f>
         <v/>
       </c>
-      <c r="I45" s="125" t="str">
+      <c r="I45" s="80" t="str">
         <f>IF(_Area34_day_shift!G9="","",_Area34_day_shift!G9)</f>
         <v/>
       </c>
-      <c r="J45" s="92" t="str">
+      <c r="J45" s="80" t="str">
         <f>IF(_Area34_day_shift!H9="","",_Area34_day_shift!H9)</f>
         <v/>
       </c>
-      <c r="K45" s="92" t="str">
+      <c r="K45" s="80" t="str">
         <f>IF(_Area34_day_shift!I9="","",_Area34_day_shift!I9)</f>
         <v/>
       </c>
-      <c r="L45" s="92" t="str">
+      <c r="L45" s="80" t="str">
         <f>IF(_Area34_day_shift!J9="","",_Area34_day_shift!J9)</f>
         <v/>
       </c>
-      <c r="M45" s="92" t="str">
+      <c r="M45" s="80" t="str">
         <f>IF(_Area34_day_shift!K9="","",_Area34_day_shift!K9)</f>
         <v/>
       </c>
-      <c r="N45" s="92" t="str">
+      <c r="N45" s="80" t="str">
         <f>IF(_Area34_day_shift!L9="","",_Area34_day_shift!L9)</f>
         <v/>
       </c>
-      <c r="O45" s="92" t="str">
+      <c r="O45" s="80" t="str">
         <f>IF(_Area34_day_shift!M9="","",_Area34_day_shift!M9)</f>
         <v/>
       </c>
-      <c r="P45" s="92" t="str">
+      <c r="P45" s="80" t="str">
         <f>IF(_Area34_day_shift!N9="","",_Area34_day_shift!N9)</f>
         <v/>
       </c>
-      <c r="Q45" s="92" t="str">
+      <c r="Q45" s="80" t="str">
         <f>IF(_Area34_day_shift!O9="","",_Area34_day_shift!O9)</f>
         <v/>
       </c>
-      <c r="R45" s="92" t="str">
+      <c r="R45" s="80" t="str">
         <f>IF(_Area34_day_shift!P9="","",_Area34_day_shift!P9)</f>
         <v/>
       </c>
-      <c r="S45" s="92" t="str">
+      <c r="S45" s="80" t="str">
         <f>IF(_Area34_day_shift!Q9="","",_Area34_day_shift!Q9)</f>
         <v/>
       </c>
-      <c r="T45" s="92" t="str">
+      <c r="T45" s="80" t="str">
         <f>IF(_Area34_day_shift!R9="","",_Area34_day_shift!R9)</f>
         <v/>
       </c>
-      <c r="U45" s="92" t="str">
+      <c r="U45" s="80" t="str">
         <f>IF(_Area34_day_shift!S9="","",_Area34_day_shift!S9)</f>
         <v/>
       </c>
-      <c r="V45" s="92" t="str">
+      <c r="V45" s="80" t="str">
         <f>IF(_Area34_day_shift!T9="","",_Area34_day_shift!T9)</f>
         <v/>
       </c>
-      <c r="W45" s="92" t="str">
+      <c r="W45" s="80" t="str">
         <f>IF(_Area34_day_shift!U9="","",_Area34_day_shift!U9)</f>
         <v/>
       </c>
-      <c r="X45" s="147" t="str">
+      <c r="X45" s="80" t="str">
         <f>IF(_Area34_day_shift!V9="","",_Area34_day_shift!V9)</f>
         <v/>
       </c>
-      <c r="Y45" s="201" t="str">
+      <c r="Y45" s="80" t="str">
         <f>IF(_Area34_day_shift!W9="","",_Area34_day_shift!W9)</f>
         <v/>
       </c>
-      <c r="Z45" s="202" t="str">
+      <c r="Z45" s="80" t="str">
         <f>IF(_Area34_day_shift!X9="","",_Area34_day_shift!X9)</f>
         <v/>
       </c>
-      <c r="AA45" s="191"/>
-      <c r="AB45" s="192"/>
-      <c r="AC45" s="192"/>
-      <c r="AD45" s="192"/>
-      <c r="AE45" s="192"/>
-      <c r="AF45" s="192"/>
-      <c r="AG45" s="192"/>
-      <c r="AH45" s="192"/>
-      <c r="AI45" s="192"/>
-      <c r="AJ45" s="192"/>
-      <c r="AK45" s="192"/>
-      <c r="AL45" s="192"/>
-      <c r="AM45" s="192"/>
-      <c r="AN45" s="192"/>
-      <c r="AO45" s="192"/>
-      <c r="AP45" s="192"/>
-      <c r="AQ45" s="192"/>
-      <c r="AR45" s="192"/>
-      <c r="AS45" s="192"/>
-      <c r="AT45" s="192"/>
-      <c r="AU45" s="192"/>
-      <c r="AV45" s="192"/>
-      <c r="AW45" s="308"/>
-      <c r="AX45" s="322" t="s">
+      <c r="AA45" s="160"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="161"/>
+      <c r="AD45" s="161"/>
+      <c r="AE45" s="161"/>
+      <c r="AF45" s="161"/>
+      <c r="AG45" s="161"/>
+      <c r="AH45" s="161"/>
+      <c r="AI45" s="161"/>
+      <c r="AJ45" s="161"/>
+      <c r="AK45" s="161"/>
+      <c r="AL45" s="161"/>
+      <c r="AM45" s="161"/>
+      <c r="AN45" s="161"/>
+      <c r="AO45" s="161"/>
+      <c r="AP45" s="161"/>
+      <c r="AQ45" s="161"/>
+      <c r="AR45" s="161"/>
+      <c r="AS45" s="161"/>
+      <c r="AT45" s="161"/>
+      <c r="AU45" s="161"/>
+      <c r="AV45" s="161"/>
+      <c r="AW45" s="267"/>
+      <c r="AX45" s="281" t="s">
         <v>90</v>
       </c>
-      <c r="AY45" s="323">
+      <c r="AY45" s="282">
         <v>0</v>
       </c>
-      <c r="AZ45" s="322" t="s">
+      <c r="AZ45" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="BA45" s="323">
+      <c r="BA45" s="282">
         <v>0</v>
       </c>
       <c r="BB45" s="10"/>
@@ -10744,132 +10604,132 @@
       <c r="A46" s="78">
         <v>9</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="100" t="str">
+      <c r="C46" s="80" t="str">
         <f>IF(_Area34_day_shift!A10="","",_Area34_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="D46" s="101" t="str">
+      <c r="D46" s="80" t="str">
         <f>IF(_Area34_day_shift!B10="","",_Area34_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="E46" s="101" t="str">
+      <c r="E46" s="80" t="str">
         <f>IF(_Area34_day_shift!C10="","",_Area34_day_shift!C10)</f>
         <v/>
       </c>
-      <c r="F46" s="101" t="str">
+      <c r="F46" s="80" t="str">
         <f>IF(_Area34_day_shift!D10="","",_Area34_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="G46" s="101" t="str">
+      <c r="G46" s="80" t="str">
         <f>IF(_Area34_day_shift!E10="","",_Area34_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="H46" s="102" t="str">
+      <c r="H46" s="80" t="str">
         <f>IF(_Area34_day_shift!F10="","",_Area34_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="I46" s="127" t="str">
+      <c r="I46" s="80" t="str">
         <f>IF(_Area34_day_shift!G10="","",_Area34_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="J46" s="96" t="str">
+      <c r="J46" s="80" t="str">
         <f>IF(_Area34_day_shift!H10="","",_Area34_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="K46" s="96" t="str">
+      <c r="K46" s="80" t="str">
         <f>IF(_Area34_day_shift!I10="","",_Area34_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="L46" s="96" t="str">
+      <c r="L46" s="80" t="str">
         <f>IF(_Area34_day_shift!J10="","",_Area34_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="M46" s="96" t="str">
+      <c r="M46" s="80" t="str">
         <f>IF(_Area34_day_shift!K10="","",_Area34_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="N46" s="96" t="str">
+      <c r="N46" s="80" t="str">
         <f>IF(_Area34_day_shift!L10="","",_Area34_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="O46" s="96" t="str">
+      <c r="O46" s="80" t="str">
         <f>IF(_Area34_day_shift!M10="","",_Area34_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="P46" s="96" t="str">
+      <c r="P46" s="80" t="str">
         <f>IF(_Area34_day_shift!N10="","",_Area34_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="Q46" s="96" t="str">
+      <c r="Q46" s="80" t="str">
         <f>IF(_Area34_day_shift!O10="","",_Area34_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="R46" s="96" t="str">
+      <c r="R46" s="80" t="str">
         <f>IF(_Area34_day_shift!P10="","",_Area34_day_shift!P10)</f>
         <v/>
       </c>
-      <c r="S46" s="96" t="str">
+      <c r="S46" s="80" t="str">
         <f>IF(_Area34_day_shift!Q10="","",_Area34_day_shift!Q10)</f>
         <v/>
       </c>
-      <c r="T46" s="96" t="str">
+      <c r="T46" s="80" t="str">
         <f>IF(_Area34_day_shift!R10="","",_Area34_day_shift!R10)</f>
         <v/>
       </c>
-      <c r="U46" s="96" t="str">
+      <c r="U46" s="80" t="str">
         <f>IF(_Area34_day_shift!S10="","",_Area34_day_shift!S10)</f>
         <v/>
       </c>
-      <c r="V46" s="96" t="str">
+      <c r="V46" s="80" t="str">
         <f>IF(_Area34_day_shift!T10="","",_Area34_day_shift!T10)</f>
         <v/>
       </c>
-      <c r="W46" s="96" t="str">
+      <c r="W46" s="80" t="str">
         <f>IF(_Area34_day_shift!U10="","",_Area34_day_shift!U10)</f>
         <v/>
       </c>
-      <c r="X46" s="149" t="str">
+      <c r="X46" s="80" t="str">
         <f>IF(_Area34_day_shift!V10="","",_Area34_day_shift!V10)</f>
         <v/>
       </c>
-      <c r="Y46" s="203" t="str">
+      <c r="Y46" s="80" t="str">
         <f>IF(_Area34_day_shift!W10="","",_Area34_day_shift!W10)</f>
         <v/>
       </c>
-      <c r="Z46" s="204" t="str">
+      <c r="Z46" s="80" t="str">
         <f>IF(_Area34_day_shift!X10="","",_Area34_day_shift!X10)</f>
         <v/>
       </c>
-      <c r="AA46" s="187"/>
-      <c r="AB46" s="188"/>
-      <c r="AC46" s="188"/>
-      <c r="AD46" s="188"/>
-      <c r="AE46" s="188"/>
-      <c r="AF46" s="188"/>
-      <c r="AG46" s="188"/>
-      <c r="AH46" s="188"/>
-      <c r="AI46" s="188"/>
-      <c r="AJ46" s="188"/>
-      <c r="AK46" s="188"/>
-      <c r="AL46" s="188"/>
-      <c r="AM46" s="188"/>
-      <c r="AN46" s="188"/>
-      <c r="AO46" s="188"/>
-      <c r="AP46" s="188"/>
-      <c r="AQ46" s="188"/>
-      <c r="AR46" s="188"/>
-      <c r="AS46" s="188"/>
-      <c r="AT46" s="188"/>
-      <c r="AU46" s="188"/>
-      <c r="AV46" s="188"/>
-      <c r="AW46" s="305"/>
-      <c r="AX46" s="324"/>
-      <c r="AY46" s="325"/>
-      <c r="AZ46" s="324"/>
-      <c r="BA46" s="84"/>
+      <c r="AA46" s="158"/>
+      <c r="AB46" s="159"/>
+      <c r="AC46" s="159"/>
+      <c r="AD46" s="159"/>
+      <c r="AE46" s="159"/>
+      <c r="AF46" s="159"/>
+      <c r="AG46" s="159"/>
+      <c r="AH46" s="159"/>
+      <c r="AI46" s="159"/>
+      <c r="AJ46" s="159"/>
+      <c r="AK46" s="159"/>
+      <c r="AL46" s="159"/>
+      <c r="AM46" s="159"/>
+      <c r="AN46" s="159"/>
+      <c r="AO46" s="159"/>
+      <c r="AP46" s="159"/>
+      <c r="AQ46" s="159"/>
+      <c r="AR46" s="159"/>
+      <c r="AS46" s="159"/>
+      <c r="AT46" s="159"/>
+      <c r="AU46" s="159"/>
+      <c r="AV46" s="159"/>
+      <c r="AW46" s="264"/>
+      <c r="AX46" s="283"/>
+      <c r="AY46" s="284"/>
+      <c r="AZ46" s="283"/>
+      <c r="BA46" s="82"/>
       <c r="BB46" s="10"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10"/>
@@ -10880,130 +10740,130 @@
       <c r="A47" s="78">
         <v>10</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="98" t="str">
+      <c r="B47" s="82"/>
+      <c r="C47" s="80" t="str">
         <f>IF(_Area34_day_shift!A11="","",_Area34_day_shift!A11)</f>
         <v/>
       </c>
-      <c r="D47" s="88" t="str">
+      <c r="D47" s="80" t="str">
         <f>IF(_Area34_day_shift!B11="","",_Area34_day_shift!B11)</f>
         <v/>
       </c>
-      <c r="E47" s="88" t="str">
+      <c r="E47" s="80" t="str">
         <f>IF(_Area34_day_shift!C11="","",_Area34_day_shift!C11)</f>
         <v/>
       </c>
-      <c r="F47" s="88" t="str">
+      <c r="F47" s="80" t="str">
         <f>IF(_Area34_day_shift!D11="","",_Area34_day_shift!D11)</f>
         <v/>
       </c>
-      <c r="G47" s="88" t="str">
+      <c r="G47" s="80" t="str">
         <f>IF(_Area34_day_shift!E11="","",_Area34_day_shift!E11)</f>
         <v/>
       </c>
-      <c r="H47" s="89" t="str">
+      <c r="H47" s="80" t="str">
         <f>IF(_Area34_day_shift!F11="","",_Area34_day_shift!F11)</f>
         <v/>
       </c>
-      <c r="I47" s="123" t="str">
+      <c r="I47" s="80" t="str">
         <f>IF(_Area34_day_shift!G11="","",_Area34_day_shift!G11)</f>
         <v/>
       </c>
-      <c r="J47" s="88" t="str">
+      <c r="J47" s="80" t="str">
         <f>IF(_Area34_day_shift!H11="","",_Area34_day_shift!H11)</f>
         <v/>
       </c>
-      <c r="K47" s="88" t="str">
+      <c r="K47" s="80" t="str">
         <f>IF(_Area34_day_shift!I11="","",_Area34_day_shift!I11)</f>
         <v/>
       </c>
-      <c r="L47" s="88" t="str">
+      <c r="L47" s="80" t="str">
         <f>IF(_Area34_day_shift!J11="","",_Area34_day_shift!J11)</f>
         <v/>
       </c>
-      <c r="M47" s="88" t="str">
+      <c r="M47" s="80" t="str">
         <f>IF(_Area34_day_shift!K11="","",_Area34_day_shift!K11)</f>
         <v/>
       </c>
-      <c r="N47" s="88" t="str">
+      <c r="N47" s="80" t="str">
         <f>IF(_Area34_day_shift!L11="","",_Area34_day_shift!L11)</f>
         <v/>
       </c>
-      <c r="O47" s="88" t="str">
+      <c r="O47" s="80" t="str">
         <f>IF(_Area34_day_shift!M11="","",_Area34_day_shift!M11)</f>
         <v/>
       </c>
-      <c r="P47" s="88" t="str">
+      <c r="P47" s="80" t="str">
         <f>IF(_Area34_day_shift!N11="","",_Area34_day_shift!N11)</f>
         <v/>
       </c>
-      <c r="Q47" s="88" t="str">
+      <c r="Q47" s="80" t="str">
         <f>IF(_Area34_day_shift!O11="","",_Area34_day_shift!O11)</f>
         <v/>
       </c>
-      <c r="R47" s="88" t="str">
+      <c r="R47" s="80" t="str">
         <f>IF(_Area34_day_shift!P11="","",_Area34_day_shift!P11)</f>
         <v/>
       </c>
-      <c r="S47" s="88" t="str">
+      <c r="S47" s="80" t="str">
         <f>IF(_Area34_day_shift!Q11="","",_Area34_day_shift!Q11)</f>
         <v/>
       </c>
-      <c r="T47" s="88" t="str">
+      <c r="T47" s="80" t="str">
         <f>IF(_Area34_day_shift!R11="","",_Area34_day_shift!R11)</f>
         <v/>
       </c>
-      <c r="U47" s="88" t="str">
+      <c r="U47" s="80" t="str">
         <f>IF(_Area34_day_shift!S11="","",_Area34_day_shift!S11)</f>
         <v/>
       </c>
-      <c r="V47" s="88" t="str">
+      <c r="V47" s="80" t="str">
         <f>IF(_Area34_day_shift!T11="","",_Area34_day_shift!T11)</f>
         <v/>
       </c>
-      <c r="W47" s="88" t="str">
+      <c r="W47" s="80" t="str">
         <f>IF(_Area34_day_shift!U11="","",_Area34_day_shift!U11)</f>
         <v/>
       </c>
-      <c r="X47" s="146" t="str">
+      <c r="X47" s="80" t="str">
         <f>IF(_Area34_day_shift!V11="","",_Area34_day_shift!V11)</f>
         <v/>
       </c>
-      <c r="Y47" s="199" t="str">
+      <c r="Y47" s="80" t="str">
         <f>IF(_Area34_day_shift!W11="","",_Area34_day_shift!W11)</f>
         <v/>
       </c>
-      <c r="Z47" s="200" t="str">
+      <c r="Z47" s="80" t="str">
         <f>IF(_Area34_day_shift!X11="","",_Area34_day_shift!X11)</f>
         <v/>
       </c>
-      <c r="AA47" s="191"/>
-      <c r="AB47" s="192"/>
-      <c r="AC47" s="192"/>
-      <c r="AD47" s="192"/>
-      <c r="AE47" s="192"/>
-      <c r="AF47" s="192"/>
-      <c r="AG47" s="192"/>
-      <c r="AH47" s="192"/>
-      <c r="AI47" s="192"/>
-      <c r="AJ47" s="192"/>
-      <c r="AK47" s="192"/>
-      <c r="AL47" s="192"/>
-      <c r="AM47" s="192"/>
-      <c r="AN47" s="192"/>
-      <c r="AO47" s="192"/>
-      <c r="AP47" s="192"/>
-      <c r="AQ47" s="192"/>
-      <c r="AR47" s="192"/>
-      <c r="AS47" s="192"/>
-      <c r="AT47" s="192"/>
-      <c r="AU47" s="192"/>
-      <c r="AV47" s="192"/>
-      <c r="AW47" s="308"/>
-      <c r="AX47" s="324"/>
-      <c r="AY47" s="325"/>
-      <c r="AZ47" s="324"/>
-      <c r="BA47" s="84"/>
+      <c r="AA47" s="160"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="161"/>
+      <c r="AD47" s="161"/>
+      <c r="AE47" s="161"/>
+      <c r="AF47" s="161"/>
+      <c r="AG47" s="161"/>
+      <c r="AH47" s="161"/>
+      <c r="AI47" s="161"/>
+      <c r="AJ47" s="161"/>
+      <c r="AK47" s="161"/>
+      <c r="AL47" s="161"/>
+      <c r="AM47" s="161"/>
+      <c r="AN47" s="161"/>
+      <c r="AO47" s="161"/>
+      <c r="AP47" s="161"/>
+      <c r="AQ47" s="161"/>
+      <c r="AR47" s="161"/>
+      <c r="AS47" s="161"/>
+      <c r="AT47" s="161"/>
+      <c r="AU47" s="161"/>
+      <c r="AV47" s="161"/>
+      <c r="AW47" s="267"/>
+      <c r="AX47" s="283"/>
+      <c r="AY47" s="284"/>
+      <c r="AZ47" s="283"/>
+      <c r="BA47" s="82"/>
       <c r="BB47" s="10"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
@@ -11011,133 +10871,133 @@
       <c r="BF47" s="10"/>
     </row>
     <row r="48" ht="14.25" spans="1:58">
-      <c r="A48" s="83">
+      <c r="A48" s="81">
         <v>11</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="98" t="str">
+      <c r="B48" s="82"/>
+      <c r="C48" s="80" t="str">
         <f>IF(_Area34_day_shift!A12="","",_Area34_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="D48" s="88" t="str">
+      <c r="D48" s="80" t="str">
         <f>IF(_Area34_day_shift!B12="","",_Area34_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="E48" s="88" t="str">
+      <c r="E48" s="80" t="str">
         <f>IF(_Area34_day_shift!C12="","",_Area34_day_shift!C12)</f>
         <v/>
       </c>
-      <c r="F48" s="88" t="str">
+      <c r="F48" s="80" t="str">
         <f>IF(_Area34_day_shift!D12="","",_Area34_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="G48" s="88" t="str">
+      <c r="G48" s="80" t="str">
         <f>IF(_Area34_day_shift!E12="","",_Area34_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="H48" s="89" t="str">
+      <c r="H48" s="80" t="str">
         <f>IF(_Area34_day_shift!F12="","",_Area34_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="I48" s="123" t="str">
+      <c r="I48" s="80" t="str">
         <f>IF(_Area34_day_shift!G12="","",_Area34_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="J48" s="88" t="str">
+      <c r="J48" s="80" t="str">
         <f>IF(_Area34_day_shift!H12="","",_Area34_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="K48" s="88" t="str">
+      <c r="K48" s="80" t="str">
         <f>IF(_Area34_day_shift!I12="","",_Area34_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="L48" s="88" t="str">
+      <c r="L48" s="80" t="str">
         <f>IF(_Area34_day_shift!J12="","",_Area34_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="M48" s="88" t="str">
+      <c r="M48" s="80" t="str">
         <f>IF(_Area34_day_shift!K12="","",_Area34_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="N48" s="88" t="str">
+      <c r="N48" s="80" t="str">
         <f>IF(_Area34_day_shift!L12="","",_Area34_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="O48" s="88" t="str">
+      <c r="O48" s="80" t="str">
         <f>IF(_Area34_day_shift!M12="","",_Area34_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="P48" s="88" t="str">
+      <c r="P48" s="80" t="str">
         <f>IF(_Area34_day_shift!N12="","",_Area34_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="Q48" s="88" t="str">
+      <c r="Q48" s="80" t="str">
         <f>IF(_Area34_day_shift!O12="","",_Area34_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="R48" s="88" t="str">
+      <c r="R48" s="80" t="str">
         <f>IF(_Area34_day_shift!P12="","",_Area34_day_shift!P12)</f>
         <v/>
       </c>
-      <c r="S48" s="88" t="str">
+      <c r="S48" s="80" t="str">
         <f>IF(_Area34_day_shift!Q12="","",_Area34_day_shift!Q12)</f>
         <v/>
       </c>
-      <c r="T48" s="88" t="str">
+      <c r="T48" s="80" t="str">
         <f>IF(_Area34_day_shift!R12="","",_Area34_day_shift!R12)</f>
         <v/>
       </c>
-      <c r="U48" s="88" t="str">
+      <c r="U48" s="80" t="str">
         <f>IF(_Area34_day_shift!S12="","",_Area34_day_shift!S12)</f>
         <v/>
       </c>
-      <c r="V48" s="88" t="str">
+      <c r="V48" s="80" t="str">
         <f>IF(_Area34_day_shift!T12="","",_Area34_day_shift!T12)</f>
         <v/>
       </c>
-      <c r="W48" s="88" t="str">
+      <c r="W48" s="80" t="str">
         <f>IF(_Area34_day_shift!U12="","",_Area34_day_shift!U12)</f>
         <v/>
       </c>
-      <c r="X48" s="146" t="str">
+      <c r="X48" s="80" t="str">
         <f>IF(_Area34_day_shift!V12="","",_Area34_day_shift!V12)</f>
         <v/>
       </c>
-      <c r="Y48" s="199" t="str">
+      <c r="Y48" s="80" t="str">
         <f>IF(_Area34_day_shift!W12="","",_Area34_day_shift!W12)</f>
         <v/>
       </c>
-      <c r="Z48" s="200" t="str">
+      <c r="Z48" s="80" t="str">
         <f>IF(_Area34_day_shift!X12="","",_Area34_day_shift!X12)</f>
         <v/>
       </c>
-      <c r="AA48" s="191"/>
-      <c r="AB48" s="192"/>
-      <c r="AC48" s="192"/>
-      <c r="AD48" s="192"/>
-      <c r="AE48" s="192"/>
-      <c r="AF48" s="192"/>
-      <c r="AG48" s="192"/>
-      <c r="AH48" s="192"/>
-      <c r="AI48" s="192"/>
-      <c r="AJ48" s="192"/>
-      <c r="AK48" s="192"/>
-      <c r="AL48" s="192"/>
-      <c r="AM48" s="192"/>
-      <c r="AN48" s="192"/>
-      <c r="AO48" s="192"/>
-      <c r="AP48" s="192"/>
-      <c r="AQ48" s="192"/>
-      <c r="AR48" s="192"/>
-      <c r="AS48" s="192"/>
-      <c r="AT48" s="192"/>
-      <c r="AU48" s="192"/>
-      <c r="AV48" s="192"/>
-      <c r="AW48" s="308"/>
-      <c r="AX48" s="324"/>
-      <c r="AY48" s="325"/>
-      <c r="AZ48" s="324"/>
-      <c r="BA48" s="84"/>
+      <c r="AA48" s="160"/>
+      <c r="AB48" s="161"/>
+      <c r="AC48" s="161"/>
+      <c r="AD48" s="161"/>
+      <c r="AE48" s="161"/>
+      <c r="AF48" s="161"/>
+      <c r="AG48" s="161"/>
+      <c r="AH48" s="161"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="161"/>
+      <c r="AK48" s="161"/>
+      <c r="AL48" s="161"/>
+      <c r="AM48" s="161"/>
+      <c r="AN48" s="161"/>
+      <c r="AO48" s="161"/>
+      <c r="AP48" s="161"/>
+      <c r="AQ48" s="161"/>
+      <c r="AR48" s="161"/>
+      <c r="AS48" s="161"/>
+      <c r="AT48" s="161"/>
+      <c r="AU48" s="161"/>
+      <c r="AV48" s="161"/>
+      <c r="AW48" s="267"/>
+      <c r="AX48" s="283"/>
+      <c r="AY48" s="284"/>
+      <c r="AZ48" s="283"/>
+      <c r="BA48" s="82"/>
       <c r="BB48" s="10"/>
       <c r="BC48" s="10"/>
       <c r="BD48" s="10"/>
@@ -11148,240 +11008,240 @@
       <c r="A49" s="78">
         <v>12</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="91" t="str">
+      <c r="B49" s="83"/>
+      <c r="C49" s="80" t="str">
         <f>IF(_Area34_day_shift!A13="","",_Area34_day_shift!A13)</f>
         <v/>
       </c>
-      <c r="D49" s="92" t="str">
+      <c r="D49" s="80" t="str">
         <f>IF(_Area34_day_shift!B13="","",_Area34_day_shift!B13)</f>
         <v/>
       </c>
-      <c r="E49" s="92" t="str">
+      <c r="E49" s="80" t="str">
         <f>IF(_Area34_day_shift!C13="","",_Area34_day_shift!C13)</f>
         <v/>
       </c>
-      <c r="F49" s="92" t="str">
+      <c r="F49" s="80" t="str">
         <f>IF(_Area34_day_shift!D13="","",_Area34_day_shift!D13)</f>
         <v/>
       </c>
-      <c r="G49" s="92" t="str">
+      <c r="G49" s="80" t="str">
         <f>IF(_Area34_day_shift!E13="","",_Area34_day_shift!E13)</f>
         <v/>
       </c>
-      <c r="H49" s="93" t="str">
+      <c r="H49" s="80" t="str">
         <f>IF(_Area34_day_shift!F13="","",_Area34_day_shift!F13)</f>
         <v/>
       </c>
-      <c r="I49" s="125" t="str">
+      <c r="I49" s="80" t="str">
         <f>IF(_Area34_day_shift!G13="","",_Area34_day_shift!G13)</f>
         <v/>
       </c>
-      <c r="J49" s="92" t="str">
+      <c r="J49" s="80" t="str">
         <f>IF(_Area34_day_shift!H13="","",_Area34_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="K49" s="92" t="str">
+      <c r="K49" s="80" t="str">
         <f>IF(_Area34_day_shift!I13="","",_Area34_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="L49" s="92" t="str">
+      <c r="L49" s="80" t="str">
         <f>IF(_Area34_day_shift!J13="","",_Area34_day_shift!J13)</f>
         <v/>
       </c>
-      <c r="M49" s="92" t="str">
+      <c r="M49" s="80" t="str">
         <f>IF(_Area34_day_shift!K13="","",_Area34_day_shift!K13)</f>
         <v/>
       </c>
-      <c r="N49" s="92" t="str">
+      <c r="N49" s="80" t="str">
         <f>IF(_Area34_day_shift!L13="","",_Area34_day_shift!L13)</f>
         <v/>
       </c>
-      <c r="O49" s="92" t="str">
+      <c r="O49" s="80" t="str">
         <f>IF(_Area34_day_shift!M13="","",_Area34_day_shift!M13)</f>
         <v/>
       </c>
-      <c r="P49" s="92" t="str">
+      <c r="P49" s="80" t="str">
         <f>IF(_Area34_day_shift!N13="","",_Area34_day_shift!N13)</f>
         <v/>
       </c>
-      <c r="Q49" s="92" t="str">
+      <c r="Q49" s="80" t="str">
         <f>IF(_Area34_day_shift!O13="","",_Area34_day_shift!O13)</f>
         <v/>
       </c>
-      <c r="R49" s="92" t="str">
+      <c r="R49" s="80" t="str">
         <f>IF(_Area34_day_shift!P13="","",_Area34_day_shift!P13)</f>
         <v/>
       </c>
-      <c r="S49" s="92" t="str">
+      <c r="S49" s="80" t="str">
         <f>IF(_Area34_day_shift!Q13="","",_Area34_day_shift!Q13)</f>
         <v/>
       </c>
-      <c r="T49" s="92" t="str">
+      <c r="T49" s="80" t="str">
         <f>IF(_Area34_day_shift!R13="","",_Area34_day_shift!R13)</f>
         <v/>
       </c>
-      <c r="U49" s="92" t="str">
+      <c r="U49" s="80" t="str">
         <f>IF(_Area34_day_shift!S13="","",_Area34_day_shift!S13)</f>
         <v/>
       </c>
-      <c r="V49" s="150" t="str">
+      <c r="V49" s="80" t="str">
         <f>IF(_Area34_day_shift!T13="","",_Area34_day_shift!T13)</f>
         <v/>
       </c>
-      <c r="W49" s="92" t="str">
+      <c r="W49" s="80" t="str">
         <f>IF(_Area34_day_shift!U13="","",_Area34_day_shift!U13)</f>
         <v/>
       </c>
-      <c r="X49" s="147" t="str">
+      <c r="X49" s="80" t="str">
         <f>IF(_Area34_day_shift!V13="","",_Area34_day_shift!V13)</f>
         <v/>
       </c>
-      <c r="Y49" s="201" t="str">
+      <c r="Y49" s="80" t="str">
         <f>IF(_Area34_day_shift!W13="","",_Area34_day_shift!W13)</f>
         <v/>
       </c>
-      <c r="Z49" s="202" t="str">
+      <c r="Z49" s="80" t="str">
         <f>IF(_Area34_day_shift!X13="","",_Area34_day_shift!X13)</f>
         <v/>
       </c>
-      <c r="AA49" s="191"/>
-      <c r="AB49" s="192"/>
-      <c r="AC49" s="192"/>
-      <c r="AD49" s="192"/>
-      <c r="AE49" s="192"/>
-      <c r="AF49" s="192"/>
-      <c r="AG49" s="192"/>
-      <c r="AH49" s="192"/>
-      <c r="AI49" s="192"/>
-      <c r="AJ49" s="192"/>
-      <c r="AK49" s="192"/>
-      <c r="AL49" s="192"/>
-      <c r="AM49" s="192"/>
-      <c r="AN49" s="192"/>
-      <c r="AO49" s="192"/>
-      <c r="AP49" s="192"/>
-      <c r="AQ49" s="192"/>
-      <c r="AR49" s="192"/>
-      <c r="AS49" s="192"/>
-      <c r="AT49" s="192"/>
-      <c r="AU49" s="192"/>
-      <c r="AV49" s="192"/>
-      <c r="AW49" s="308"/>
-      <c r="AX49" s="324"/>
-      <c r="AY49" s="325"/>
-      <c r="AZ49" s="324"/>
-      <c r="BA49" s="84"/>
+      <c r="AA49" s="160"/>
+      <c r="AB49" s="161"/>
+      <c r="AC49" s="161"/>
+      <c r="AD49" s="161"/>
+      <c r="AE49" s="161"/>
+      <c r="AF49" s="161"/>
+      <c r="AG49" s="161"/>
+      <c r="AH49" s="161"/>
+      <c r="AI49" s="161"/>
+      <c r="AJ49" s="161"/>
+      <c r="AK49" s="161"/>
+      <c r="AL49" s="161"/>
+      <c r="AM49" s="161"/>
+      <c r="AN49" s="161"/>
+      <c r="AO49" s="161"/>
+      <c r="AP49" s="161"/>
+      <c r="AQ49" s="161"/>
+      <c r="AR49" s="161"/>
+      <c r="AS49" s="161"/>
+      <c r="AT49" s="161"/>
+      <c r="AU49" s="161"/>
+      <c r="AV49" s="161"/>
+      <c r="AW49" s="267"/>
+      <c r="AX49" s="283"/>
+      <c r="AY49" s="284"/>
+      <c r="AZ49" s="283"/>
+      <c r="BA49" s="82"/>
       <c r="BB49" s="10"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
-      <c r="BE49" s="328"/>
+      <c r="BE49" s="287"/>
     </row>
     <row r="50" ht="15" spans="1:56">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="128" t="s">
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="J50" s="129"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="129"/>
-      <c r="P50" s="130"/>
-      <c r="Q50" s="151" t="s">
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="107"/>
+      <c r="Q50" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="104"/>
-      <c r="U50" s="104"/>
-      <c r="V50" s="104"/>
-      <c r="W50" s="104"/>
-      <c r="X50" s="104"/>
-      <c r="Y50" s="104"/>
-      <c r="Z50" s="105"/>
-      <c r="AA50" s="195"/>
-      <c r="AB50" s="196"/>
-      <c r="AC50" s="196"/>
-      <c r="AD50" s="196"/>
-      <c r="AE50" s="196"/>
-      <c r="AF50" s="196"/>
-      <c r="AG50" s="196"/>
-      <c r="AH50" s="196"/>
-      <c r="AI50" s="196"/>
-      <c r="AJ50" s="196"/>
-      <c r="AK50" s="196"/>
-      <c r="AL50" s="196"/>
-      <c r="AM50" s="196"/>
-      <c r="AN50" s="196"/>
-      <c r="AO50" s="196"/>
-      <c r="AP50" s="196"/>
-      <c r="AQ50" s="196"/>
-      <c r="AR50" s="196"/>
-      <c r="AS50" s="196"/>
-      <c r="AT50" s="196"/>
-      <c r="AU50" s="196"/>
-      <c r="AV50" s="196"/>
-      <c r="AW50" s="312"/>
-      <c r="AX50" s="326"/>
-      <c r="AY50" s="327"/>
-      <c r="AZ50" s="326"/>
-      <c r="BA50" s="90"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="86"/>
+      <c r="Y50" s="86"/>
+      <c r="Z50" s="87"/>
+      <c r="AA50" s="162"/>
+      <c r="AB50" s="163"/>
+      <c r="AC50" s="163"/>
+      <c r="AD50" s="163"/>
+      <c r="AE50" s="163"/>
+      <c r="AF50" s="163"/>
+      <c r="AG50" s="163"/>
+      <c r="AH50" s="163"/>
+      <c r="AI50" s="163"/>
+      <c r="AJ50" s="163"/>
+      <c r="AK50" s="163"/>
+      <c r="AL50" s="163"/>
+      <c r="AM50" s="163"/>
+      <c r="AN50" s="163"/>
+      <c r="AO50" s="163"/>
+      <c r="AP50" s="163"/>
+      <c r="AQ50" s="163"/>
+      <c r="AR50" s="163"/>
+      <c r="AS50" s="163"/>
+      <c r="AT50" s="163"/>
+      <c r="AU50" s="163"/>
+      <c r="AV50" s="163"/>
+      <c r="AW50" s="271"/>
+      <c r="AX50" s="285"/>
+      <c r="AY50" s="286"/>
+      <c r="AZ50" s="285"/>
+      <c r="BA50" s="83"/>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>
       <c r="BD50" s="10"/>
     </row>
     <row r="51" ht="14.25" spans="1:56">
-      <c r="A51" s="106"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="107"/>
-      <c r="T51" s="107"/>
-      <c r="U51" s="107"/>
-      <c r="V51" s="108"/>
-      <c r="W51" s="108"/>
-      <c r="X51" s="108"/>
-      <c r="Y51" s="108"/>
-      <c r="Z51" s="108"/>
-      <c r="AA51" s="108"/>
-      <c r="AB51" s="108"/>
-      <c r="AC51" s="107"/>
-      <c r="AD51" s="108"/>
-      <c r="AE51" s="108"/>
-      <c r="AF51" s="108"/>
-      <c r="AG51" s="108"/>
-      <c r="AH51" s="108"/>
-      <c r="AI51" s="108"/>
-      <c r="AJ51" s="108"/>
-      <c r="AK51" s="108"/>
-      <c r="AL51" s="108"/>
-      <c r="AM51" s="108"/>
-      <c r="AN51" s="107"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="90"/>
+      <c r="X51" s="90"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="90"/>
+      <c r="AA51" s="90"/>
+      <c r="AB51" s="90"/>
+      <c r="AC51" s="89"/>
+      <c r="AD51" s="90"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90"/>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90"/>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90"/>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="89"/>
       <c r="AT51" s="10"/>
       <c r="AU51" s="10"/>
       <c r="AV51" s="10"/>
@@ -11891,8 +11751,8 @@
   <sheetPr/>
   <dimension ref="A1:X357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/三四柜区运行记录表.xlsx
+++ b/excel/finished/能介/三四柜区运行记录表.xlsx
@@ -881,16 +881,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="h:mm;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -951,6 +950,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -958,7 +971,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,7 +994,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,6 +1009,21 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -989,12 +1039,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1020,52 +1071,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,14 +1079,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,7 +1142,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1232,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,109 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,49 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,6 +2211,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2227,50 +2259,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2292,15 +2285,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2309,16 +2293,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2327,153 +2326,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="75" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2512,7 +2511,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2530,10 +2529,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,91 +2580,91 @@
     <xf numFmtId="20" fontId="4" fillId="4" borderId="17" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="14" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="14" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="29" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="29" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="32" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2737,7 +2736,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2808,6 +2807,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="27" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2831,7 +2833,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2900,52 +2902,31 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="43" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="57" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="57" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3002,6 +2983,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="61" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3053,61 +3049,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="57" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="57" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="46" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="22" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="46" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="63" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="63" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="57" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="46" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,7 +3152,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="67" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="68" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="68" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="66" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3204,7 +3164,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="69" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3228,7 +3188,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="70" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="70" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="56" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3237,16 +3197,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="70" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="70" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="71" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="71" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3408,15 +3368,15 @@
     <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 14" xfId="55"/>
-    <cellStyle name="常规 3 2 4" xfId="56"/>
+    <cellStyle name="常规 3 2 4" xfId="55"/>
+    <cellStyle name="常规 14" xfId="56"/>
     <cellStyle name="常规 2" xfId="57"/>
     <cellStyle name="常规 3" xfId="58"/>
     <cellStyle name="常规 3 2 3" xfId="59"/>
-    <cellStyle name="常规 3 3 2" xfId="60"/>
-    <cellStyle name="常规 3 5" xfId="61"/>
-    <cellStyle name="常规 3 3 3" xfId="62"/>
-    <cellStyle name="常规 3 6" xfId="63"/>
+    <cellStyle name="常规 3 5" xfId="60"/>
+    <cellStyle name="常规 3 3 2" xfId="61"/>
+    <cellStyle name="常规 3 6" xfId="62"/>
+    <cellStyle name="常规 3 3 3" xfId="63"/>
     <cellStyle name="常规 3 4 2" xfId="64"/>
     <cellStyle name="常规 4" xfId="65"/>
     <cellStyle name="常规 5" xfId="66"/>
@@ -3724,8 +3684,8 @@
   <sheetPr/>
   <dimension ref="A1:BF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:Z49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.45" defaultRowHeight="13.5"/>
@@ -3779,13 +3739,13 @@
       <c r="AR1" s="10"/>
       <c r="AS1" s="10"/>
       <c r="AT1" s="10"/>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="207"/>
-      <c r="AY1" s="208"/>
-      <c r="AZ1" s="208"/>
-      <c r="BA1" s="209"/>
+      <c r="AU1" s="170"/>
+      <c r="AV1" s="170"/>
+      <c r="AW1" s="170"/>
+      <c r="AX1" s="194"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="195"/>
+      <c r="BA1" s="196"/>
     </row>
     <row r="2" ht="15" spans="1:54">
       <c r="A2" s="11" t="str">
@@ -3837,13 +3797,13 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
       <c r="AT2" s="12"/>
-      <c r="AU2" s="172"/>
-      <c r="AV2" s="172"/>
-      <c r="AW2" s="172"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="211"/>
-      <c r="AZ2" s="211"/>
-      <c r="BA2" s="212"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="171"/>
+      <c r="AW2" s="171"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="198"/>
+      <c r="AZ2" s="198"/>
+      <c r="BA2" s="199"/>
       <c r="BB2" t="s">
         <v>1</v>
       </c>
@@ -3882,35 +3842,35 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="123" t="s">
+      <c r="AF3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="164"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="164"/>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="173" t="s">
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="158"/>
+      <c r="AK3" s="158"/>
+      <c r="AL3" s="158"/>
+      <c r="AM3" s="158"/>
+      <c r="AN3" s="158"/>
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="158"/>
+      <c r="AQ3" s="158"/>
+      <c r="AR3" s="158"/>
+      <c r="AS3" s="158"/>
+      <c r="AT3" s="158"/>
+      <c r="AU3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AV3" s="174"/>
-      <c r="AW3" s="213"/>
-      <c r="AX3" s="214" t="s">
+      <c r="AV3" s="173"/>
+      <c r="AW3" s="200"/>
+      <c r="AX3" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="AY3" s="215"/>
-      <c r="AZ3" s="215"/>
-      <c r="BA3" s="216"/>
-      <c r="BB3" s="217" t="s">
+      <c r="AY3" s="202"/>
+      <c r="AZ3" s="202"/>
+      <c r="BA3" s="203"/>
+      <c r="BB3" s="204" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3940,62 +3900,62 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="91"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="125" t="s">
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="125" t="s">
+      <c r="AC4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="127" t="s">
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="166" t="s">
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="166" t="s">
+      <c r="AI4" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="166" t="s">
+      <c r="AJ4" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="108" t="s">
+      <c r="AK4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="108" t="s">
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="175"/>
-      <c r="AU4" s="176" t="s">
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="AV4" s="177" t="s">
+      <c r="AV4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="AW4" s="218" t="s">
+      <c r="AW4" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="AX4" s="219"/>
-      <c r="AY4" s="220"/>
-      <c r="AZ4" s="220"/>
-      <c r="BA4" s="221"/>
+      <c r="AX4" s="206"/>
+      <c r="AY4" s="207"/>
+      <c r="AZ4" s="207"/>
+      <c r="BA4" s="208"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:54">
       <c r="A5" s="16"/>
@@ -4068,13 +4028,13 @@
       <c r="X5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="128" t="s">
+      <c r="Y5" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="128" t="s">
+      <c r="Z5" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="128" t="s">
+      <c r="AA5" s="129" t="s">
         <v>35</v>
       </c>
       <c r="AB5" s="20" t="s">
@@ -4086,18 +4046,18 @@
       <c r="AD5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="129" t="s">
+      <c r="AE5" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="130" t="s">
+      <c r="AF5" s="131" t="s">
         <v>36</v>
       </c>
       <c r="AG5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="161"/>
       <c r="AK5" s="21" t="s">
         <v>21</v>
       </c>
@@ -4125,16 +4085,16 @@
       <c r="AS5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AT5" s="129" t="s">
+      <c r="AT5" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="AU5" s="178"/>
-      <c r="AV5" s="179"/>
-      <c r="AW5" s="222"/>
-      <c r="AX5" s="219"/>
-      <c r="AY5" s="220"/>
-      <c r="AZ5" s="220"/>
-      <c r="BA5" s="221"/>
+      <c r="AU5" s="177"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="209"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="207"/>
+      <c r="AZ5" s="207"/>
+      <c r="BA5" s="208"/>
       <c r="BB5" t="s">
         <v>42</v>
       </c>
@@ -4164,14 +4124,14 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
       <c r="AB6" s="22"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="132"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="133"/>
       <c r="AG6" s="21"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
@@ -4185,14 +4145,14 @@
       <c r="AQ6" s="22"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
-      <c r="AT6" s="129"/>
-      <c r="AU6" s="180"/>
-      <c r="AV6" s="181"/>
-      <c r="AW6" s="223"/>
-      <c r="AX6" s="224"/>
-      <c r="AY6" s="224"/>
-      <c r="AZ6" s="224"/>
-      <c r="BA6" s="225"/>
+      <c r="AT6" s="130"/>
+      <c r="AU6" s="179"/>
+      <c r="AV6" s="180"/>
+      <c r="AW6" s="210"/>
+      <c r="AX6" s="211"/>
+      <c r="AY6" s="211"/>
+      <c r="AZ6" s="211"/>
+      <c r="BA6" s="212"/>
       <c r="BB6" t="s">
         <v>43</v>
       </c>
@@ -4268,13 +4228,13 @@
       <c r="X7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="133" t="s">
+      <c r="Y7" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="133" t="s">
+      <c r="Z7" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="AA7" s="133" t="s">
+      <c r="AA7" s="134" t="s">
         <v>50</v>
       </c>
       <c r="AB7" s="25" t="s">
@@ -4286,71 +4246,71 @@
       <c r="AD7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AE7" s="133" t="s">
+      <c r="AE7" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="AF7" s="134" t="s">
+      <c r="AF7" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="AG7" s="168" t="s">
+      <c r="AG7" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="AH7" s="168" t="s">
+      <c r="AH7" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="168" t="s">
+      <c r="AI7" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="AJ7" s="168" t="s">
+      <c r="AJ7" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="AK7" s="168" t="s">
+      <c r="AK7" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="AL7" s="168" t="s">
+      <c r="AL7" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="AM7" s="128" t="s">
+      <c r="AM7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="AN7" s="128" t="s">
+      <c r="AN7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="AO7" s="128" t="s">
+      <c r="AO7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="AP7" s="168" t="s">
+      <c r="AP7" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="AQ7" s="182" t="s">
+      <c r="AQ7" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="AR7" s="168" t="s">
+      <c r="AR7" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="AS7" s="168" t="s">
+      <c r="AS7" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="AT7" s="128" t="s">
+      <c r="AT7" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AU7" s="183" t="s">
+      <c r="AU7" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="184" t="s">
+      <c r="AV7" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="AW7" s="226" t="s">
+      <c r="AW7" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AX7" s="227" t="s">
+      <c r="AX7" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="AY7" s="228"/>
-      <c r="AZ7" s="229" t="s">
+      <c r="AY7" s="215"/>
+      <c r="AZ7" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BA7" s="230"/>
+      <c r="BA7" s="217"/>
       <c r="BB7" t="s">
         <v>56</v>
       </c>
@@ -4438,31 +4398,31 @@
       <c r="AD8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="135" t="s">
+      <c r="AE8" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="169"/>
-      <c r="AJ8" s="169"/>
-      <c r="AK8" s="169"/>
-      <c r="AL8" s="169"/>
-      <c r="AM8" s="170"/>
-      <c r="AN8" s="170"/>
-      <c r="AO8" s="170"/>
-      <c r="AP8" s="169"/>
-      <c r="AQ8" s="185"/>
-      <c r="AR8" s="169"/>
-      <c r="AS8" s="169"/>
-      <c r="AT8" s="170"/>
-      <c r="AU8" s="186"/>
-      <c r="AV8" s="187"/>
-      <c r="AW8" s="231"/>
-      <c r="AX8" s="232"/>
-      <c r="AY8" s="232"/>
-      <c r="AZ8" s="233"/>
-      <c r="BA8" s="234"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="163"/>
+      <c r="AM8" s="164"/>
+      <c r="AN8" s="164"/>
+      <c r="AO8" s="164"/>
+      <c r="AP8" s="163"/>
+      <c r="AQ8" s="184"/>
+      <c r="AR8" s="163"/>
+      <c r="AS8" s="163"/>
+      <c r="AT8" s="164"/>
+      <c r="AU8" s="185"/>
+      <c r="AV8" s="186"/>
+      <c r="AW8" s="218"/>
+      <c r="AX8" s="219"/>
+      <c r="AY8" s="219"/>
+      <c r="AZ8" s="220"/>
+      <c r="BA8" s="221"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:53">
       <c r="A9" s="27">
@@ -4556,31 +4516,31 @@
         <f>IF(_Area3_day_hour!V2="","",_Area3_day_hour!V2/1000)</f>
         <v/>
       </c>
-      <c r="X9" s="110" t="str">
+      <c r="X9" s="111" t="str">
         <f>IF(_Area3_day_hour!AC2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD2&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y9" s="137" t="str">
+      <c r="Y9" s="29" t="str">
         <f>IF(_Area3_day_hour!W2="","",_Area3_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z9" s="137" t="str">
+      <c r="Z9" s="29" t="str">
         <f>IF(_Area3_day_hour!X2="","",_Area3_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA9" s="137" t="str">
+      <c r="AA9" s="29" t="str">
         <f>IF(_Area3_day_hour!Y2="","",_Area3_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB9" s="113" t="str">
+      <c r="AB9" s="114" t="str">
         <f>IF(_Area3_day_hour!AE2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF2&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC9" s="137" t="str">
+      <c r="AC9" s="29" t="str">
         <f>IF(_Area3_day_hour!Z2="","",_Area3_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AD9" s="137" t="str">
+      <c r="AD9" s="29" t="str">
         <f>IF(_Area3_day_hour!AA2="","",_Area3_day_hour!AA2)</f>
         <v/>
       </c>
@@ -4592,19 +4552,19 @@
         <f>IF(_Area4_day_hour!I2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG9" s="137" t="str">
+      <c r="AG9" s="29" t="str">
         <f>IF(_Area4_day_hour!A2="","",_Area4_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="AH9" s="110" t="str">
+      <c r="AH9" s="111" t="str">
         <f>IF(_Area4_day_hour!L2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI9" s="110" t="str">
+      <c r="AI9" s="111" t="str">
         <f>IF(_Area4_day_hour!N2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ9" s="110" t="str">
+      <c r="AJ9" s="111" t="str">
         <f>IF(_Area4_day_hour!P2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4616,7 +4576,7 @@
         <f>IF(_Area4_day_hour!C2="","",_Area4_day_hour!C2/1000)</f>
         <v/>
       </c>
-      <c r="AM9" s="29" t="str">
+      <c r="AM9" s="165" t="str">
         <f>IF(_Area4_day_hour!T2&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4644,21 +4604,21 @@
         <f>IF(_Area4_day_hour!G2="","",_Area4_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="AT9" s="188" t="str">
+      <c r="AT9" s="138" t="str">
         <f>IF(_Area4_day_hour!H2="","",_Area4_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="AU9" s="139"/>
-      <c r="AV9" s="189"/>
-      <c r="AW9" s="235"/>
-      <c r="AX9" s="236" t="s">
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="187"/>
+      <c r="AW9" s="222"/>
+      <c r="AX9" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="AY9" s="237"/>
-      <c r="AZ9" s="238" t="s">
+      <c r="AY9" s="224"/>
+      <c r="AZ9" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="BA9" s="237"/>
+      <c r="BA9" s="224"/>
     </row>
     <row r="10" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A10" s="30">
@@ -4752,55 +4712,55 @@
         <f>IF(_Area3_day_hour!V3="","",_Area3_day_hour!V3/1000)</f>
         <v/>
       </c>
-      <c r="X10" s="111" t="str">
+      <c r="X10" s="112" t="str">
         <f>IF(_Area3_day_hour!AC3&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD3&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y10" s="140" t="str">
+      <c r="Y10" s="33" t="str">
         <f>IF(_Area3_day_hour!W3="","",_Area3_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z10" s="140" t="str">
+      <c r="Z10" s="33" t="str">
         <f>IF(_Area3_day_hour!X3="","",_Area3_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA10" s="140" t="str">
+      <c r="AA10" s="33" t="str">
         <f>IF(_Area3_day_hour!Y3="","",_Area3_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB10" s="111" t="str">
+      <c r="AB10" s="112" t="str">
         <f>IF(_Area3_day_hour!AE3&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF3&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC10" s="140" t="str">
+      <c r="AC10" s="33" t="str">
         <f>IF(_Area3_day_hour!Z3="","",_Area3_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AD10" s="140" t="str">
+      <c r="AD10" s="33" t="str">
         <f>IF(_Area3_day_hour!AA3="","",_Area3_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AE10" s="141" t="str">
+      <c r="AE10" s="140" t="str">
         <f>IF(_Area3_day_hour!AB3="","",_Area3_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AF10" s="142" t="str">
+      <c r="AF10" s="141" t="str">
         <f>IF(_Area4_day_hour!I3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG10" s="140" t="str">
+      <c r="AG10" s="33" t="str">
         <f>IF(_Area4_day_hour!A3="","",_Area4_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="AH10" s="111" t="str">
+      <c r="AH10" s="112" t="str">
         <f>IF(_Area4_day_hour!L3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI10" s="111" t="str">
+      <c r="AI10" s="112" t="str">
         <f>IF(_Area4_day_hour!N3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ10" s="111" t="str">
+      <c r="AJ10" s="112" t="str">
         <f>IF(_Area4_day_hour!P3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4812,7 +4772,7 @@
         <f>IF(_Area4_day_hour!C3="","",_Area4_day_hour!C3/1000)</f>
         <v/>
       </c>
-      <c r="AM10" s="33" t="str">
+      <c r="AM10" s="166" t="str">
         <f>IF(_Area4_day_hour!T3&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4840,17 +4800,17 @@
         <f>IF(_Area4_day_hour!G3="","",_Area4_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="AT10" s="190" t="str">
+      <c r="AT10" s="140" t="str">
         <f>IF(_Area4_day_hour!H3="","",_Area4_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="AU10" s="191"/>
-      <c r="AV10" s="192"/>
-      <c r="AW10" s="239"/>
-      <c r="AX10" s="240"/>
-      <c r="AY10" s="241"/>
-      <c r="AZ10" s="242"/>
-      <c r="BA10" s="241"/>
+      <c r="AU10" s="188"/>
+      <c r="AV10" s="189"/>
+      <c r="AW10" s="226"/>
+      <c r="AX10" s="227"/>
+      <c r="AY10" s="228"/>
+      <c r="AZ10" s="229"/>
+      <c r="BA10" s="228"/>
     </row>
     <row r="11" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A11" s="30">
@@ -4944,55 +4904,55 @@
         <f>IF(_Area3_day_hour!V4="","",_Area3_day_hour!V4/1000)</f>
         <v/>
       </c>
-      <c r="X11" s="111" t="str">
+      <c r="X11" s="112" t="str">
         <f>IF(_Area3_day_hour!AC4&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD4&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y11" s="140" t="str">
+      <c r="Y11" s="33" t="str">
         <f>IF(_Area3_day_hour!W4="","",_Area3_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z11" s="140" t="str">
+      <c r="Z11" s="33" t="str">
         <f>IF(_Area3_day_hour!X4="","",_Area3_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA11" s="140" t="str">
+      <c r="AA11" s="33" t="str">
         <f>IF(_Area3_day_hour!Y4="","",_Area3_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB11" s="111" t="str">
+      <c r="AB11" s="112" t="str">
         <f>IF(_Area3_day_hour!AE4&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF4&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC11" s="140" t="str">
+      <c r="AC11" s="33" t="str">
         <f>IF(_Area3_day_hour!Z4="","",_Area3_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AD11" s="140" t="str">
+      <c r="AD11" s="33" t="str">
         <f>IF(_Area3_day_hour!AA4="","",_Area3_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AE11" s="141" t="str">
+      <c r="AE11" s="140" t="str">
         <f>IF(_Area3_day_hour!AB4="","",_Area3_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AF11" s="142" t="str">
+      <c r="AF11" s="141" t="str">
         <f>IF(_Area4_day_hour!I4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG11" s="140" t="str">
+      <c r="AG11" s="33" t="str">
         <f>IF(_Area4_day_hour!A4="","",_Area4_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="AH11" s="111" t="str">
+      <c r="AH11" s="112" t="str">
         <f>IF(_Area4_day_hour!L4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI11" s="111" t="str">
+      <c r="AI11" s="112" t="str">
         <f>IF(_Area4_day_hour!N4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ11" s="111" t="str">
+      <c r="AJ11" s="112" t="str">
         <f>IF(_Area4_day_hour!P4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5004,7 +4964,7 @@
         <f>IF(_Area4_day_hour!C4="","",_Area4_day_hour!C4/1000)</f>
         <v/>
       </c>
-      <c r="AM11" s="33" t="str">
+      <c r="AM11" s="166" t="str">
         <f>IF(_Area4_day_hour!T4&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5032,21 +4992,21 @@
         <f>IF(_Area4_day_hour!G4="","",_Area4_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="AT11" s="190" t="str">
+      <c r="AT11" s="140" t="str">
         <f>IF(_Area4_day_hour!H4="","",_Area4_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="AU11" s="191"/>
-      <c r="AV11" s="192"/>
-      <c r="AW11" s="239"/>
-      <c r="AX11" s="236" t="s">
+      <c r="AU11" s="188"/>
+      <c r="AV11" s="189"/>
+      <c r="AW11" s="226"/>
+      <c r="AX11" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="AY11" s="237"/>
-      <c r="AZ11" s="238" t="s">
+      <c r="AY11" s="224"/>
+      <c r="AZ11" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="BA11" s="237"/>
+      <c r="BA11" s="224"/>
     </row>
     <row r="12" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A12" s="30">
@@ -5137,55 +5097,55 @@
         <f>IF(_Area3_day_hour!V5="","",_Area3_day_hour!V5/1000)</f>
         <v/>
       </c>
-      <c r="X12" s="111" t="str">
+      <c r="X12" s="112" t="str">
         <f>IF(_Area3_day_hour!AC5&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD5&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y12" s="140" t="str">
+      <c r="Y12" s="33" t="str">
         <f>IF(_Area3_day_hour!W5="","",_Area3_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z12" s="140" t="str">
+      <c r="Z12" s="33" t="str">
         <f>IF(_Area3_day_hour!X5="","",_Area3_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA12" s="140" t="str">
+      <c r="AA12" s="33" t="str">
         <f>IF(_Area3_day_hour!Y5="","",_Area3_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB12" s="111" t="str">
+      <c r="AB12" s="112" t="str">
         <f>IF(_Area3_day_hour!AE5&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF5&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC12" s="140" t="str">
+      <c r="AC12" s="33" t="str">
         <f>IF(_Area3_day_hour!Z5="","",_Area3_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AD12" s="140" t="str">
+      <c r="AD12" s="33" t="str">
         <f>IF(_Area3_day_hour!AA5="","",_Area3_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AE12" s="141" t="str">
+      <c r="AE12" s="140" t="str">
         <f>IF(_Area3_day_hour!AB5="","",_Area3_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AF12" s="142" t="str">
+      <c r="AF12" s="141" t="str">
         <f>IF(_Area4_day_hour!I5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG12" s="149" t="str">
+      <c r="AG12" s="45" t="str">
         <f>IF(_Area4_day_hour!A5="","",_Area4_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="AH12" s="111" t="str">
+      <c r="AH12" s="112" t="str">
         <f>IF(_Area4_day_hour!L5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI12" s="111" t="str">
+      <c r="AI12" s="112" t="str">
         <f>IF(_Area4_day_hour!N5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ12" s="111" t="str">
+      <c r="AJ12" s="112" t="str">
         <f>IF(_Area4_day_hour!P5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5197,7 +5157,7 @@
         <f>IF(_Area4_day_hour!C5="","",_Area4_day_hour!C5/1000)</f>
         <v/>
       </c>
-      <c r="AM12" s="33" t="str">
+      <c r="AM12" s="166" t="str">
         <f>IF(_Area4_day_hour!T5&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5225,17 +5185,17 @@
         <f>IF(_Area4_day_hour!G5="","",_Area4_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="AT12" s="190" t="str">
+      <c r="AT12" s="140" t="str">
         <f>IF(_Area4_day_hour!H5="","",_Area4_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="AU12" s="191"/>
-      <c r="AV12" s="192"/>
-      <c r="AW12" s="239"/>
-      <c r="AX12" s="240"/>
-      <c r="AY12" s="241"/>
-      <c r="AZ12" s="242"/>
-      <c r="BA12" s="241"/>
+      <c r="AU12" s="188"/>
+      <c r="AV12" s="189"/>
+      <c r="AW12" s="226"/>
+      <c r="AX12" s="227"/>
+      <c r="AY12" s="228"/>
+      <c r="AZ12" s="229"/>
+      <c r="BA12" s="228"/>
     </row>
     <row r="13" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A13" s="30">
@@ -5329,55 +5289,55 @@
         <f>IF(_Area3_day_hour!V6="","",_Area3_day_hour!V6/1000)</f>
         <v/>
       </c>
-      <c r="X13" s="111" t="str">
+      <c r="X13" s="112" t="str">
         <f>IF(_Area3_day_hour!AC6&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD6&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y13" s="140" t="str">
+      <c r="Y13" s="33" t="str">
         <f>IF(_Area3_day_hour!W6="","",_Area3_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z13" s="140" t="str">
+      <c r="Z13" s="33" t="str">
         <f>IF(_Area3_day_hour!X6="","",_Area3_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA13" s="140" t="str">
+      <c r="AA13" s="33" t="str">
         <f>IF(_Area3_day_hour!Y6="","",_Area3_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB13" s="111" t="str">
+      <c r="AB13" s="112" t="str">
         <f>IF(_Area3_day_hour!AE6&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF6&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC13" s="140" t="str">
+      <c r="AC13" s="33" t="str">
         <f>IF(_Area3_day_hour!Z6="","",_Area3_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AD13" s="140" t="str">
+      <c r="AD13" s="33" t="str">
         <f>IF(_Area3_day_hour!AA6="","",_Area3_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AE13" s="141" t="str">
+      <c r="AE13" s="140" t="str">
         <f>IF(_Area3_day_hour!AB6="","",_Area3_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AF13" s="142" t="str">
+      <c r="AF13" s="141" t="str">
         <f>IF(_Area4_day_hour!I6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG13" s="140" t="str">
+      <c r="AG13" s="33" t="str">
         <f>IF(_Area4_day_hour!A6="","",_Area4_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="AH13" s="111" t="str">
+      <c r="AH13" s="112" t="str">
         <f>IF(_Area4_day_hour!L6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI13" s="111" t="str">
+      <c r="AI13" s="112" t="str">
         <f>IF(_Area4_day_hour!N6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ13" s="111" t="str">
+      <c r="AJ13" s="112" t="str">
         <f>IF(_Area4_day_hour!P6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5389,7 +5349,7 @@
         <f>IF(_Area4_day_hour!C6="","",_Area4_day_hour!C6/1000)</f>
         <v/>
       </c>
-      <c r="AM13" s="33" t="str">
+      <c r="AM13" s="166" t="str">
         <f>IF(_Area4_day_hour!T6&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5417,19 +5377,19 @@
         <f>IF(_Area4_day_hour!G6="","",_Area4_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="AT13" s="190" t="str">
+      <c r="AT13" s="140" t="str">
         <f>IF(_Area4_day_hour!H6="","",_Area4_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="AU13" s="191"/>
-      <c r="AV13" s="192"/>
-      <c r="AW13" s="239"/>
-      <c r="AX13" s="236" t="s">
+      <c r="AU13" s="188"/>
+      <c r="AV13" s="189"/>
+      <c r="AW13" s="226"/>
+      <c r="AX13" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="AY13" s="237"/>
-      <c r="AZ13" s="238"/>
-      <c r="BA13" s="237"/>
+      <c r="AY13" s="224"/>
+      <c r="AZ13" s="225"/>
+      <c r="BA13" s="224"/>
     </row>
     <row r="14" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A14" s="30">
@@ -5523,55 +5483,55 @@
         <f>IF(_Area3_day_hour!V7="","",_Area3_day_hour!V7/1000)</f>
         <v/>
       </c>
-      <c r="X14" s="111" t="str">
+      <c r="X14" s="112" t="str">
         <f>IF(_Area3_day_hour!AC7&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD7&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y14" s="140" t="str">
+      <c r="Y14" s="33" t="str">
         <f>IF(_Area3_day_hour!W7="","",_Area3_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z14" s="140" t="str">
+      <c r="Z14" s="33" t="str">
         <f>IF(_Area3_day_hour!X7="","",_Area3_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA14" s="140" t="str">
+      <c r="AA14" s="33" t="str">
         <f>IF(_Area3_day_hour!Y7="","",_Area3_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB14" s="111" t="str">
+      <c r="AB14" s="112" t="str">
         <f>IF(_Area3_day_hour!AE7&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF7&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC14" s="140" t="str">
+      <c r="AC14" s="33" t="str">
         <f>IF(_Area3_day_hour!Z7="","",_Area3_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AD14" s="140" t="str">
+      <c r="AD14" s="33" t="str">
         <f>IF(_Area3_day_hour!AA7="","",_Area3_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AE14" s="141" t="str">
+      <c r="AE14" s="140" t="str">
         <f>IF(_Area3_day_hour!AB7="","",_Area3_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AF14" s="142" t="str">
+      <c r="AF14" s="141" t="str">
         <f>IF(_Area4_day_hour!I7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG14" s="140" t="str">
+      <c r="AG14" s="33" t="str">
         <f>IF(_Area4_day_hour!A7="","",_Area4_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="AH14" s="111" t="str">
+      <c r="AH14" s="112" t="str">
         <f>IF(_Area4_day_hour!L7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI14" s="111" t="str">
+      <c r="AI14" s="112" t="str">
         <f>IF(_Area4_day_hour!N7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ14" s="111" t="str">
+      <c r="AJ14" s="112" t="str">
         <f>IF(_Area4_day_hour!P7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5583,7 +5543,7 @@
         <f>IF(_Area4_day_hour!C7="","",_Area4_day_hour!C7/1000)</f>
         <v/>
       </c>
-      <c r="AM14" s="33" t="str">
+      <c r="AM14" s="166" t="str">
         <f>IF(_Area4_day_hour!T7&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5611,17 +5571,17 @@
         <f>IF(_Area4_day_hour!G7="","",_Area4_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="AT14" s="190" t="str">
+      <c r="AT14" s="140" t="str">
         <f>IF(_Area4_day_hour!H7="","",_Area4_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="AU14" s="191"/>
-      <c r="AV14" s="192"/>
-      <c r="AW14" s="239"/>
-      <c r="AX14" s="240"/>
-      <c r="AY14" s="243"/>
-      <c r="AZ14" s="242"/>
-      <c r="BA14" s="243"/>
+      <c r="AU14" s="188"/>
+      <c r="AV14" s="189"/>
+      <c r="AW14" s="226"/>
+      <c r="AX14" s="227"/>
+      <c r="AY14" s="230"/>
+      <c r="AZ14" s="229"/>
+      <c r="BA14" s="230"/>
     </row>
     <row r="15" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A15" s="30">
@@ -5715,55 +5675,55 @@
         <f>IF(_Area3_day_hour!V8="","",_Area3_day_hour!V8/1000)</f>
         <v/>
       </c>
-      <c r="X15" s="111" t="str">
+      <c r="X15" s="112" t="str">
         <f>IF(_Area3_day_hour!AC8&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD8&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y15" s="140" t="str">
+      <c r="Y15" s="33" t="str">
         <f>IF(_Area3_day_hour!W8="","",_Area3_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z15" s="140" t="str">
+      <c r="Z15" s="33" t="str">
         <f>IF(_Area3_day_hour!X8="","",_Area3_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA15" s="140" t="str">
+      <c r="AA15" s="33" t="str">
         <f>IF(_Area3_day_hour!Y8="","",_Area3_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB15" s="111" t="str">
+      <c r="AB15" s="112" t="str">
         <f>IF(_Area3_day_hour!AE8&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF8&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC15" s="140" t="str">
+      <c r="AC15" s="33" t="str">
         <f>IF(_Area3_day_hour!Z8="","",_Area3_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AD15" s="140" t="str">
+      <c r="AD15" s="33" t="str">
         <f>IF(_Area3_day_hour!AA8="","",_Area3_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AE15" s="141" t="str">
+      <c r="AE15" s="140" t="str">
         <f>IF(_Area3_day_hour!AB8="","",_Area3_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AF15" s="142" t="str">
+      <c r="AF15" s="141" t="str">
         <f>IF(_Area4_day_hour!I8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG15" s="140" t="str">
+      <c r="AG15" s="33" t="str">
         <f>IF(_Area4_day_hour!A8="","",_Area4_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="AH15" s="111" t="str">
+      <c r="AH15" s="112" t="str">
         <f>IF(_Area4_day_hour!L8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI15" s="111" t="str">
+      <c r="AI15" s="112" t="str">
         <f>IF(_Area4_day_hour!N8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ15" s="111" t="str">
+      <c r="AJ15" s="112" t="str">
         <f>IF(_Area4_day_hour!P8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5775,7 +5735,7 @@
         <f>IF(_Area4_day_hour!C8="","",_Area4_day_hour!C8/1000)</f>
         <v/>
       </c>
-      <c r="AM15" s="33" t="str">
+      <c r="AM15" s="166" t="str">
         <f>IF(_Area4_day_hour!T8&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5803,21 +5763,21 @@
         <f>IF(_Area4_day_hour!G8="","",_Area4_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="AT15" s="190" t="str">
+      <c r="AT15" s="140" t="str">
         <f>IF(_Area4_day_hour!H8="","",_Area4_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="AU15" s="191"/>
-      <c r="AV15" s="192"/>
-      <c r="AW15" s="239"/>
-      <c r="AX15" s="244" t="s">
+      <c r="AU15" s="188"/>
+      <c r="AV15" s="189"/>
+      <c r="AW15" s="226"/>
+      <c r="AX15" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="AY15" s="245"/>
-      <c r="AZ15" s="246" t="s">
+      <c r="AY15" s="232"/>
+      <c r="AZ15" s="233" t="s">
         <v>90</v>
       </c>
-      <c r="BA15" s="245"/>
+      <c r="BA15" s="232"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="18" spans="1:53">
       <c r="A16" s="34">
@@ -5911,55 +5871,55 @@
         <f>IF(_Area3_day_hour!V9="","",_Area3_day_hour!V9/1000)</f>
         <v/>
       </c>
-      <c r="X16" s="112" t="str">
+      <c r="X16" s="113" t="str">
         <f>IF(_Area3_day_hour!AC9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD9&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y16" s="143" t="str">
+      <c r="Y16" s="38" t="str">
         <f>IF(_Area3_day_hour!W9="","",_Area3_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z16" s="143" t="str">
+      <c r="Z16" s="38" t="str">
         <f>IF(_Area3_day_hour!X9="","",_Area3_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA16" s="143" t="str">
+      <c r="AA16" s="38" t="str">
         <f>IF(_Area3_day_hour!Y9="","",_Area3_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB16" s="112" t="str">
+      <c r="AB16" s="113" t="str">
         <f>IF(_Area3_day_hour!AE9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF9&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC16" s="143" t="str">
+      <c r="AC16" s="38" t="str">
         <f>IF(_Area3_day_hour!Z9="","",_Area3_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AD16" s="143" t="str">
+      <c r="AD16" s="38" t="str">
         <f>IF(_Area3_day_hour!AA9="","",_Area3_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AE16" s="144" t="str">
+      <c r="AE16" s="142" t="str">
         <f>IF(_Area3_day_hour!AB9="","",_Area3_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AF16" s="145" t="str">
+      <c r="AF16" s="143" t="str">
         <f>IF(_Area4_day_hour!I9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG16" s="143" t="str">
+      <c r="AG16" s="38" t="str">
         <f>IF(_Area4_day_hour!A9="","",_Area4_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="AH16" s="112" t="str">
+      <c r="AH16" s="113" t="str">
         <f>IF(_Area4_day_hour!L9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI16" s="112" t="str">
+      <c r="AI16" s="113" t="str">
         <f>IF(_Area4_day_hour!N9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ16" s="112" t="str">
+      <c r="AJ16" s="113" t="str">
         <f>IF(_Area4_day_hour!P9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5971,7 +5931,7 @@
         <f>IF(_Area4_day_hour!C9="","",_Area4_day_hour!C9/1000)</f>
         <v/>
       </c>
-      <c r="AM16" s="38" t="str">
+      <c r="AM16" s="167" t="str">
         <f>IF(_Area4_day_hour!T9&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5999,21 +5959,21 @@
         <f>IF(_Area4_day_hour!G9="","",_Area4_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="AT16" s="193" t="str">
+      <c r="AT16" s="142" t="str">
         <f>IF(_Area4_day_hour!H9="","",_Area4_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="AU16" s="194"/>
-      <c r="AV16" s="195"/>
-      <c r="AW16" s="247"/>
-      <c r="AX16" s="248" t="s">
+      <c r="AU16" s="190"/>
+      <c r="AV16" s="191"/>
+      <c r="AW16" s="234"/>
+      <c r="AX16" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="AY16" s="245"/>
-      <c r="AZ16" s="249" t="s">
+      <c r="AY16" s="232"/>
+      <c r="AZ16" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="BA16" s="245"/>
+      <c r="BA16" s="232"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" spans="1:53">
       <c r="A17" s="27">
@@ -6107,35 +6067,35 @@
         <f>IF(_Area3_day_hour!V10="","",_Area3_day_hour!V10/1000)</f>
         <v/>
       </c>
-      <c r="X17" s="113" t="str">
+      <c r="X17" s="114" t="str">
         <f>IF(_Area3_day_hour!AC10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD10&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y17" s="146" t="str">
+      <c r="Y17" s="40" t="str">
         <f>IF(_Area3_day_hour!W10="","",_Area3_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z17" s="146" t="str">
+      <c r="Z17" s="40" t="str">
         <f>IF(_Area3_day_hour!X10="","",_Area3_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA17" s="146" t="str">
+      <c r="AA17" s="40" t="str">
         <f>IF(_Area3_day_hour!Y10="","",_Area3_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB17" s="113" t="str">
+      <c r="AB17" s="114" t="str">
         <f>IF(_Area3_day_hour!AE10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF10&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC17" s="147" t="str">
+      <c r="AC17" s="52" t="str">
         <f>IF(_Area3_day_hour!Z10="","",_Area3_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AD17" s="147" t="str">
+      <c r="AD17" s="52" t="str">
         <f>IF(_Area3_day_hour!AA10="","",_Area3_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AE17" s="148" t="str">
+      <c r="AE17" s="144" t="str">
         <f>IF(_Area3_day_hour!AB10="","",_Area3_day_hour!AB10)</f>
         <v/>
       </c>
@@ -6143,19 +6103,19 @@
         <f>IF(_Area4_day_hour!I10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG17" s="146" t="str">
+      <c r="AG17" s="40" t="str">
         <f>IF(_Area4_day_hour!A10="","",_Area4_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="AH17" s="113" t="str">
+      <c r="AH17" s="114" t="str">
         <f>IF(_Area4_day_hour!L10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI17" s="113" t="str">
+      <c r="AI17" s="114" t="str">
         <f>IF(_Area4_day_hour!N10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ17" s="113" t="str">
+      <c r="AJ17" s="114" t="str">
         <f>IF(_Area4_day_hour!P10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6167,7 +6127,7 @@
         <f>IF(_Area4_day_hour!C10="","",_Area4_day_hour!C10/1000)</f>
         <v/>
       </c>
-      <c r="AM17" s="40" t="str">
+      <c r="AM17" s="168" t="str">
         <f>IF(_Area4_day_hour!T10&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6195,21 +6155,21 @@
         <f>IF(_Area4_day_hour!G10="","",_Area4_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="AT17" s="196" t="str">
+      <c r="AT17" s="144" t="str">
         <f>IF(_Area4_day_hour!H10="","",_Area4_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="AU17" s="197"/>
-      <c r="AV17" s="198"/>
-      <c r="AW17" s="250"/>
-      <c r="AX17" s="236" t="s">
+      <c r="AU17" s="192"/>
+      <c r="AV17" s="52"/>
+      <c r="AW17" s="237"/>
+      <c r="AX17" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="AY17" s="237"/>
-      <c r="AZ17" s="238" t="s">
+      <c r="AY17" s="224"/>
+      <c r="AZ17" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="BA17" s="237"/>
+      <c r="BA17" s="224"/>
     </row>
     <row r="18" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A18" s="30">
@@ -6303,55 +6263,55 @@
         <f>IF(_Area3_day_hour!V11="","",_Area3_day_hour!V11/1000)</f>
         <v/>
       </c>
-      <c r="X18" s="111" t="str">
+      <c r="X18" s="112" t="str">
         <f>IF(_Area3_day_hour!AC11&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD11&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y18" s="140" t="str">
+      <c r="Y18" s="33" t="str">
         <f>IF(_Area3_day_hour!W11="","",_Area3_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z18" s="140" t="str">
+      <c r="Z18" s="33" t="str">
         <f>IF(_Area3_day_hour!X11="","",_Area3_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA18" s="140" t="str">
+      <c r="AA18" s="33" t="str">
         <f>IF(_Area3_day_hour!Y11="","",_Area3_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB18" s="111" t="str">
+      <c r="AB18" s="112" t="str">
         <f>IF(_Area3_day_hour!AE11&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF11&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC18" s="149" t="str">
+      <c r="AC18" s="45" t="str">
         <f>IF(_Area3_day_hour!Z11="","",_Area3_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AD18" s="149" t="str">
+      <c r="AD18" s="45" t="str">
         <f>IF(_Area3_day_hour!AA11="","",_Area3_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AE18" s="150" t="str">
+      <c r="AE18" s="145" t="str">
         <f>IF(_Area3_day_hour!AB11="","",_Area3_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AF18" s="142" t="str">
+      <c r="AF18" s="141" t="str">
         <f>IF(_Area4_day_hour!I11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG18" s="140" t="str">
+      <c r="AG18" s="33" t="str">
         <f>IF(_Area4_day_hour!A11="","",_Area4_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="AH18" s="111" t="str">
+      <c r="AH18" s="112" t="str">
         <f>IF(_Area4_day_hour!L11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI18" s="111" t="str">
+      <c r="AI18" s="112" t="str">
         <f>IF(_Area4_day_hour!N11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ18" s="111" t="str">
+      <c r="AJ18" s="112" t="str">
         <f>IF(_Area4_day_hour!P11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6363,7 +6323,7 @@
         <f>IF(_Area4_day_hour!C11="","",_Area4_day_hour!C11/1000)</f>
         <v/>
       </c>
-      <c r="AM18" s="33" t="str">
+      <c r="AM18" s="166" t="str">
         <f>IF(_Area4_day_hour!T11&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6391,17 +6351,17 @@
         <f>IF(_Area4_day_hour!G11="","",_Area4_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="AT18" s="199" t="str">
+      <c r="AT18" s="145" t="str">
         <f>IF(_Area4_day_hour!H11="","",_Area4_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="AU18" s="200"/>
-      <c r="AV18" s="201"/>
-      <c r="AW18" s="251"/>
-      <c r="AX18" s="240"/>
-      <c r="AY18" s="241"/>
-      <c r="AZ18" s="242"/>
-      <c r="BA18" s="241"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="238"/>
+      <c r="AX18" s="227"/>
+      <c r="AY18" s="228"/>
+      <c r="AZ18" s="229"/>
+      <c r="BA18" s="228"/>
     </row>
     <row r="19" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A19" s="42">
@@ -6495,55 +6455,55 @@
         <f>IF(_Area3_day_hour!V12="","",_Area3_day_hour!V12/1000)</f>
         <v/>
       </c>
-      <c r="X19" s="111" t="str">
+      <c r="X19" s="112" t="str">
         <f>IF(_Area3_day_hour!AC12&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD12&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y19" s="140" t="str">
+      <c r="Y19" s="33" t="str">
         <f>IF(_Area3_day_hour!W12="","",_Area3_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z19" s="140" t="str">
+      <c r="Z19" s="33" t="str">
         <f>IF(_Area3_day_hour!X12="","",_Area3_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA19" s="140" t="str">
+      <c r="AA19" s="33" t="str">
         <f>IF(_Area3_day_hour!Y12="","",_Area3_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB19" s="111" t="str">
+      <c r="AB19" s="112" t="str">
         <f>IF(_Area3_day_hour!AE12&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF12&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC19" s="149" t="str">
+      <c r="AC19" s="45" t="str">
         <f>IF(_Area3_day_hour!Z12="","",_Area3_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AD19" s="149" t="str">
+      <c r="AD19" s="45" t="str">
         <f>IF(_Area3_day_hour!AA12="","",_Area3_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AE19" s="150" t="str">
+      <c r="AE19" s="145" t="str">
         <f>IF(_Area3_day_hour!AB12="","",_Area3_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AF19" s="142" t="str">
+      <c r="AF19" s="141" t="str">
         <f>IF(_Area4_day_hour!I12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG19" s="140" t="str">
+      <c r="AG19" s="33" t="str">
         <f>IF(_Area4_day_hour!A12="","",_Area4_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="AH19" s="111" t="str">
+      <c r="AH19" s="112" t="str">
         <f>IF(_Area4_day_hour!L12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI19" s="111" t="str">
+      <c r="AI19" s="112" t="str">
         <f>IF(_Area4_day_hour!N12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ19" s="111" t="str">
+      <c r="AJ19" s="112" t="str">
         <f>IF(_Area4_day_hour!P12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6555,7 +6515,7 @@
         <f>IF(_Area4_day_hour!C12="","",_Area4_day_hour!C12/1000)</f>
         <v/>
       </c>
-      <c r="AM19" s="33" t="str">
+      <c r="AM19" s="166" t="str">
         <f>IF(_Area4_day_hour!T12&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6583,21 +6543,21 @@
         <f>IF(_Area4_day_hour!G12="","",_Area4_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="AT19" s="199" t="str">
+      <c r="AT19" s="145" t="str">
         <f>IF(_Area4_day_hour!H12="","",_Area4_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="AU19" s="200"/>
-      <c r="AV19" s="201"/>
-      <c r="AW19" s="251"/>
-      <c r="AX19" s="236" t="s">
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="238"/>
+      <c r="AX19" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="AY19" s="237"/>
-      <c r="AZ19" s="238" t="s">
+      <c r="AY19" s="224"/>
+      <c r="AZ19" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="BA19" s="237"/>
+      <c r="BA19" s="224"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A20" s="42">
@@ -6691,55 +6651,55 @@
         <f>IF(_Area3_day_hour!V13="","",_Area3_day_hour!V13/1000)</f>
         <v/>
       </c>
-      <c r="X20" s="111" t="str">
+      <c r="X20" s="112" t="str">
         <f>IF(_Area3_day_hour!AC13&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD13&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y20" s="149" t="str">
+      <c r="Y20" s="45" t="str">
         <f>IF(_Area3_day_hour!W13="","",_Area3_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z20" s="149" t="str">
+      <c r="Z20" s="45" t="str">
         <f>IF(_Area3_day_hour!X13="","",_Area3_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA20" s="149" t="str">
+      <c r="AA20" s="45" t="str">
         <f>IF(_Area3_day_hour!Y13="","",_Area3_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB20" s="111" t="str">
+      <c r="AB20" s="112" t="str">
         <f>IF(_Area3_day_hour!AE13&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF13&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC20" s="149" t="str">
+      <c r="AC20" s="45" t="str">
         <f>IF(_Area3_day_hour!Z13="","",_Area3_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AD20" s="149" t="str">
+      <c r="AD20" s="45" t="str">
         <f>IF(_Area3_day_hour!AA13="","",_Area3_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AE20" s="150" t="str">
+      <c r="AE20" s="145" t="str">
         <f>IF(_Area3_day_hour!AB13="","",_Area3_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AF20" s="142" t="str">
+      <c r="AF20" s="141" t="str">
         <f>IF(_Area4_day_hour!I13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG20" s="149" t="str">
+      <c r="AG20" s="45" t="str">
         <f>IF(_Area4_day_hour!A13="","",_Area4_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="AH20" s="111" t="str">
+      <c r="AH20" s="112" t="str">
         <f>IF(_Area4_day_hour!L13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI20" s="111" t="str">
+      <c r="AI20" s="112" t="str">
         <f>IF(_Area4_day_hour!N13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ20" s="111" t="str">
+      <c r="AJ20" s="112" t="str">
         <f>IF(_Area4_day_hour!P13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6751,7 +6711,7 @@
         <f>IF(_Area4_day_hour!C13="","",_Area4_day_hour!C13/1000)</f>
         <v/>
       </c>
-      <c r="AM20" s="33" t="str">
+      <c r="AM20" s="166" t="str">
         <f>IF(_Area4_day_hour!T13&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6779,17 +6739,17 @@
         <f>IF(_Area4_day_hour!G13="","",_Area4_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="AT20" s="199" t="str">
+      <c r="AT20" s="145" t="str">
         <f>IF(_Area4_day_hour!H13="","",_Area4_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="AU20" s="200"/>
-      <c r="AV20" s="201"/>
-      <c r="AW20" s="251"/>
-      <c r="AX20" s="240"/>
-      <c r="AY20" s="241"/>
-      <c r="AZ20" s="242"/>
-      <c r="BA20" s="241"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="238"/>
+      <c r="AX20" s="227"/>
+      <c r="AY20" s="228"/>
+      <c r="AZ20" s="229"/>
+      <c r="BA20" s="228"/>
     </row>
     <row r="21" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A21" s="42">
@@ -6883,55 +6843,55 @@
         <f>IF(_Area3_day_hour!V14="","",_Area3_day_hour!V14/1000)</f>
         <v/>
       </c>
-      <c r="X21" s="111" t="str">
+      <c r="X21" s="112" t="str">
         <f>IF(_Area3_day_hour!AC14&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD14&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y21" s="149" t="str">
+      <c r="Y21" s="45" t="str">
         <f>IF(_Area3_day_hour!W14="","",_Area3_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z21" s="149" t="str">
+      <c r="Z21" s="45" t="str">
         <f>IF(_Area3_day_hour!X14="","",_Area3_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA21" s="149" t="str">
+      <c r="AA21" s="45" t="str">
         <f>IF(_Area3_day_hour!Y14="","",_Area3_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB21" s="111" t="str">
+      <c r="AB21" s="112" t="str">
         <f>IF(_Area3_day_hour!AE14&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF14&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC21" s="149" t="str">
+      <c r="AC21" s="45" t="str">
         <f>IF(_Area3_day_hour!Z14="","",_Area3_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AD21" s="149" t="str">
+      <c r="AD21" s="45" t="str">
         <f>IF(_Area3_day_hour!AA14="","",_Area3_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AE21" s="150" t="str">
+      <c r="AE21" s="145" t="str">
         <f>IF(_Area3_day_hour!AB14="","",_Area3_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AF21" s="142" t="str">
+      <c r="AF21" s="141" t="str">
         <f>IF(_Area4_day_hour!I14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG21" s="149" t="str">
+      <c r="AG21" s="45" t="str">
         <f>IF(_Area4_day_hour!A14="","",_Area4_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="AH21" s="111" t="str">
+      <c r="AH21" s="112" t="str">
         <f>IF(_Area4_day_hour!L14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI21" s="111" t="str">
+      <c r="AI21" s="112" t="str">
         <f>IF(_Area4_day_hour!N14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ21" s="111" t="str">
+      <c r="AJ21" s="112" t="str">
         <f>IF(_Area4_day_hour!P14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6943,7 +6903,7 @@
         <f>IF(_Area4_day_hour!C14="","",_Area4_day_hour!C14/1000)</f>
         <v/>
       </c>
-      <c r="AM21" s="33" t="str">
+      <c r="AM21" s="166" t="str">
         <f>IF(_Area4_day_hour!T14&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6971,19 +6931,19 @@
         <f>IF(_Area4_day_hour!G14="","",_Area4_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="AT21" s="199" t="str">
+      <c r="AT21" s="145" t="str">
         <f>IF(_Area4_day_hour!H14="","",_Area4_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="AU21" s="200"/>
-      <c r="AV21" s="201"/>
-      <c r="AW21" s="251"/>
-      <c r="AX21" s="236" t="s">
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="238"/>
+      <c r="AX21" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="AY21" s="237"/>
-      <c r="AZ21" s="238"/>
-      <c r="BA21" s="237"/>
+      <c r="AY21" s="224"/>
+      <c r="AZ21" s="225"/>
+      <c r="BA21" s="224"/>
     </row>
     <row r="22" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A22" s="42">
@@ -7077,55 +7037,55 @@
         <f>IF(_Area3_day_hour!V15="","",_Area3_day_hour!V15/1000)</f>
         <v/>
       </c>
-      <c r="X22" s="111" t="str">
+      <c r="X22" s="112" t="str">
         <f>IF(_Area3_day_hour!AC15&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD15&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y22" s="149" t="str">
+      <c r="Y22" s="45" t="str">
         <f>IF(_Area3_day_hour!W15="","",_Area3_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z22" s="149" t="str">
+      <c r="Z22" s="45" t="str">
         <f>IF(_Area3_day_hour!X15="","",_Area3_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA22" s="149" t="str">
+      <c r="AA22" s="45" t="str">
         <f>IF(_Area3_day_hour!Y15="","",_Area3_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB22" s="111" t="str">
+      <c r="AB22" s="112" t="str">
         <f>IF(_Area3_day_hour!AE15&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF15&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC22" s="149" t="str">
+      <c r="AC22" s="45" t="str">
         <f>IF(_Area3_day_hour!Z15="","",_Area3_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AD22" s="149" t="str">
+      <c r="AD22" s="45" t="str">
         <f>IF(_Area3_day_hour!AA15="","",_Area3_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AE22" s="150" t="str">
+      <c r="AE22" s="145" t="str">
         <f>IF(_Area3_day_hour!AB15="","",_Area3_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AF22" s="142" t="str">
+      <c r="AF22" s="141" t="str">
         <f>IF(_Area4_day_hour!I15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG22" s="149" t="str">
+      <c r="AG22" s="45" t="str">
         <f>IF(_Area4_day_hour!A15="","",_Area4_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="AH22" s="111" t="str">
+      <c r="AH22" s="112" t="str">
         <f>IF(_Area4_day_hour!L15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI22" s="111" t="str">
+      <c r="AI22" s="112" t="str">
         <f>IF(_Area4_day_hour!N15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ22" s="111" t="str">
+      <c r="AJ22" s="112" t="str">
         <f>IF(_Area4_day_hour!P15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7137,7 +7097,7 @@
         <f>IF(_Area4_day_hour!C15="","",_Area4_day_hour!C15/1000)</f>
         <v/>
       </c>
-      <c r="AM22" s="33" t="str">
+      <c r="AM22" s="166" t="str">
         <f>IF(_Area4_day_hour!T15&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7165,17 +7125,17 @@
         <f>IF(_Area4_day_hour!G15="","",_Area4_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="AT22" s="199" t="str">
+      <c r="AT22" s="145" t="str">
         <f>IF(_Area4_day_hour!H15="","",_Area4_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="AU22" s="200"/>
-      <c r="AV22" s="201"/>
-      <c r="AW22" s="251"/>
-      <c r="AX22" s="240"/>
-      <c r="AY22" s="243"/>
-      <c r="AZ22" s="242"/>
-      <c r="BA22" s="243"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="238"/>
+      <c r="AX22" s="227"/>
+      <c r="AY22" s="230"/>
+      <c r="AZ22" s="229"/>
+      <c r="BA22" s="230"/>
     </row>
     <row r="23" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A23" s="42">
@@ -7269,55 +7229,55 @@
         <f>IF(_Area3_day_hour!V16="","",_Area3_day_hour!V16/1000)</f>
         <v/>
       </c>
-      <c r="X23" s="111" t="str">
+      <c r="X23" s="112" t="str">
         <f>IF(_Area3_day_hour!AC16&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD16&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y23" s="149" t="str">
+      <c r="Y23" s="45" t="str">
         <f>IF(_Area3_day_hour!W16="","",_Area3_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z23" s="149" t="str">
+      <c r="Z23" s="45" t="str">
         <f>IF(_Area3_day_hour!X16="","",_Area3_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA23" s="149" t="str">
+      <c r="AA23" s="45" t="str">
         <f>IF(_Area3_day_hour!Y16="","",_Area3_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB23" s="111" t="str">
+      <c r="AB23" s="112" t="str">
         <f>IF(_Area3_day_hour!AE16&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF16&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC23" s="149" t="str">
+      <c r="AC23" s="45" t="str">
         <f>IF(_Area3_day_hour!Z16="","",_Area3_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AD23" s="149" t="str">
+      <c r="AD23" s="45" t="str">
         <f>IF(_Area3_day_hour!AA16="","",_Area3_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AE23" s="150" t="str">
+      <c r="AE23" s="145" t="str">
         <f>IF(_Area3_day_hour!AB16="","",_Area3_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AF23" s="142" t="str">
+      <c r="AF23" s="141" t="str">
         <f>IF(_Area4_day_hour!I16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG23" s="149" t="str">
+      <c r="AG23" s="45" t="str">
         <f>IF(_Area4_day_hour!A16="","",_Area4_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="AH23" s="111" t="str">
+      <c r="AH23" s="112" t="str">
         <f>IF(_Area4_day_hour!L16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI23" s="111" t="str">
+      <c r="AI23" s="112" t="str">
         <f>IF(_Area4_day_hour!N16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ23" s="111" t="str">
+      <c r="AJ23" s="112" t="str">
         <f>IF(_Area4_day_hour!P16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7329,7 +7289,7 @@
         <f>IF(_Area4_day_hour!C16="","",_Area4_day_hour!C16/1000)</f>
         <v/>
       </c>
-      <c r="AM23" s="33" t="str">
+      <c r="AM23" s="166" t="str">
         <f>IF(_Area4_day_hour!T16&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7357,21 +7317,21 @@
         <f>IF(_Area4_day_hour!G16="","",_Area4_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="AT23" s="199" t="str">
+      <c r="AT23" s="145" t="str">
         <f>IF(_Area4_day_hour!H16="","",_Area4_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="AU23" s="200"/>
-      <c r="AV23" s="201"/>
-      <c r="AW23" s="251"/>
-      <c r="AX23" s="244" t="s">
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="238"/>
+      <c r="AX23" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="AY23" s="245"/>
-      <c r="AZ23" s="246" t="s">
+      <c r="AY23" s="232"/>
+      <c r="AZ23" s="233" t="s">
         <v>90</v>
       </c>
-      <c r="BA23" s="245"/>
+      <c r="BA23" s="232"/>
     </row>
     <row r="24" s="8" customFormat="1" ht="18" spans="1:53">
       <c r="A24" s="46">
@@ -7465,55 +7425,55 @@
         <f>IF(_Area3_day_hour!V17="","",_Area3_day_hour!V17/1000)</f>
         <v/>
       </c>
-      <c r="X24" s="112" t="str">
+      <c r="X24" s="113" t="str">
         <f>IF(_Area3_day_hour!AC17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD17&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y24" s="151" t="str">
+      <c r="Y24" s="48" t="str">
         <f>IF(_Area3_day_hour!W17="","",_Area3_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z24" s="151" t="str">
+      <c r="Z24" s="48" t="str">
         <f>IF(_Area3_day_hour!X17="","",_Area3_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA24" s="151" t="str">
+      <c r="AA24" s="48" t="str">
         <f>IF(_Area3_day_hour!Y17="","",_Area3_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB24" s="112" t="str">
+      <c r="AB24" s="113" t="str">
         <f>IF(_Area3_day_hour!AE17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF17&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC24" s="151" t="str">
+      <c r="AC24" s="48" t="str">
         <f>IF(_Area3_day_hour!Z17="","",_Area3_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AD24" s="151" t="str">
+      <c r="AD24" s="48" t="str">
         <f>IF(_Area3_day_hour!AA17="","",_Area3_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AE24" s="152" t="str">
+      <c r="AE24" s="146" t="str">
         <f>IF(_Area3_day_hour!AB17="","",_Area3_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AF24" s="145" t="str">
+      <c r="AF24" s="143" t="str">
         <f>IF(_Area4_day_hour!I17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG24" s="151" t="str">
+      <c r="AG24" s="48" t="str">
         <f>IF(_Area4_day_hour!A17="","",_Area4_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="AH24" s="112" t="str">
+      <c r="AH24" s="113" t="str">
         <f>IF(_Area4_day_hour!L17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AI24" s="112" t="str">
+      <c r="AI24" s="113" t="str">
         <f>IF(_Area4_day_hour!N17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="112" t="str">
+      <c r="AJ24" s="113" t="str">
         <f>IF(_Area4_day_hour!P17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7525,7 +7485,7 @@
         <f>IF(_Area4_day_hour!C17="","",_Area4_day_hour!C17/1000)</f>
         <v/>
       </c>
-      <c r="AM24" s="38" t="str">
+      <c r="AM24" s="167" t="str">
         <f>IF(_Area4_day_hour!T17&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7553,21 +7513,21 @@
         <f>IF(_Area4_day_hour!G17="","",_Area4_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="AT24" s="202" t="str">
+      <c r="AT24" s="146" t="str">
         <f>IF(_Area4_day_hour!H17="","",_Area4_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="AU24" s="203"/>
-      <c r="AV24" s="204"/>
-      <c r="AW24" s="252"/>
-      <c r="AX24" s="248" t="s">
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="239"/>
+      <c r="AX24" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="AY24" s="245"/>
-      <c r="AZ24" s="249" t="s">
+      <c r="AY24" s="232"/>
+      <c r="AZ24" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="BA24" s="245"/>
+      <c r="BA24" s="232"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="17.25" spans="1:53">
       <c r="A25" s="49">
@@ -7661,35 +7621,35 @@
         <f>IF(_Area3_day_hour!V18="","",_Area3_day_hour!V18/1000)</f>
         <v/>
       </c>
-      <c r="X25" s="113" t="str">
+      <c r="X25" s="114" t="str">
         <f>IF(_Area3_day_hour!AC18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD18&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y25" s="147" t="str">
+      <c r="Y25" s="52" t="str">
         <f>IF(_Area3_day_hour!W18="","",_Area3_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z25" s="147" t="str">
+      <c r="Z25" s="52" t="str">
         <f>IF(_Area3_day_hour!X18="","",_Area3_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA25" s="147" t="str">
+      <c r="AA25" s="52" t="str">
         <f>IF(_Area3_day_hour!Y18="","",_Area3_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB25" s="113" t="str">
+      <c r="AB25" s="114" t="str">
         <f>IF(_Area3_day_hour!AE18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF18&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC25" s="147" t="str">
+      <c r="AC25" s="52" t="str">
         <f>IF(_Area3_day_hour!Z18="","",_Area3_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AD25" s="147" t="str">
+      <c r="AD25" s="52" t="str">
         <f>IF(_Area3_day_hour!AA18="","",_Area3_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AE25" s="148" t="str">
+      <c r="AE25" s="144" t="str">
         <f>IF(_Area3_day_hour!AB18="","",_Area3_day_hour!AB18)</f>
         <v/>
       </c>
@@ -7697,19 +7657,19 @@
         <f>IF(_Area4_day_hour!I18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG25" s="147" t="str">
+      <c r="AG25" s="52" t="str">
         <f>IF(_Area4_day_hour!A18="","",_Area4_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="AH25" s="113" t="str">
+      <c r="AH25" s="114" t="str">
         <f>IF(_Area4_day_hour!L18&gt;0,"1#","")&amp;IF(_Area4_day_hour!M18&gt;0,"2#","")&amp;IF(_Area4_day_hour!R18&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI25" s="113" t="str">
+      <c r="AI25" s="114" t="str">
         <f>IF(_Area4_day_hour!N18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ25" s="113" t="str">
+      <c r="AJ25" s="114" t="str">
         <f>IF(_Area4_day_hour!P18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7721,7 +7681,7 @@
         <f>IF(_Area4_day_hour!C18="","",_Area4_day_hour!C18/1000)</f>
         <v/>
       </c>
-      <c r="AM25" s="40" t="str">
+      <c r="AM25" s="168" t="str">
         <f>IF(_Area4_day_hour!T18&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7749,21 +7709,21 @@
         <f>IF(_Area4_day_hour!G18="","",_Area4_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="AT25" s="196" t="str">
+      <c r="AT25" s="144" t="str">
         <f>IF(_Area4_day_hour!H18="","",_Area4_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="AU25" s="205"/>
-      <c r="AV25" s="206"/>
-      <c r="AW25" s="253"/>
-      <c r="AX25" s="236" t="s">
+      <c r="AU25" s="193"/>
+      <c r="AV25" s="115"/>
+      <c r="AW25" s="240"/>
+      <c r="AX25" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="AY25" s="237"/>
-      <c r="AZ25" s="238" t="s">
+      <c r="AY25" s="224"/>
+      <c r="AZ25" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="BA25" s="237"/>
+      <c r="BA25" s="224"/>
     </row>
     <row r="26" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A26" s="53">
@@ -7857,55 +7817,55 @@
         <f>IF(_Area3_day_hour!V19="","",_Area3_day_hour!V19/1000)</f>
         <v/>
       </c>
-      <c r="X26" s="111" t="str">
+      <c r="X26" s="112" t="str">
         <f>IF(_Area3_day_hour!AC19&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD19&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y26" s="149" t="str">
+      <c r="Y26" s="45" t="str">
         <f>IF(_Area3_day_hour!W19="","",_Area3_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z26" s="149" t="str">
+      <c r="Z26" s="45" t="str">
         <f>IF(_Area3_day_hour!X19="","",_Area3_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA26" s="149" t="str">
+      <c r="AA26" s="45" t="str">
         <f>IF(_Area3_day_hour!Y19="","",_Area3_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB26" s="111" t="str">
+      <c r="AB26" s="112" t="str">
         <f>IF(_Area3_day_hour!AE19&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF19&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC26" s="149" t="str">
+      <c r="AC26" s="45" t="str">
         <f>IF(_Area3_day_hour!Z19="","",_Area3_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AD26" s="149" t="str">
+      <c r="AD26" s="45" t="str">
         <f>IF(_Area3_day_hour!AA19="","",_Area3_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AE26" s="150" t="str">
+      <c r="AE26" s="145" t="str">
         <f>IF(_Area3_day_hour!AB19="","",_Area3_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AF26" s="142" t="str">
+      <c r="AF26" s="141" t="str">
         <f>IF(_Area4_day_hour!I19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG26" s="149" t="str">
+      <c r="AG26" s="45" t="str">
         <f>IF(_Area4_day_hour!A19="","",_Area4_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="AH26" s="111" t="str">
+      <c r="AH26" s="112" t="str">
         <f>IF(_Area4_day_hour!L19&gt;0,"1#","")&amp;IF(_Area4_day_hour!M19&gt;0,"2#","")&amp;IF(_Area4_day_hour!R19&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI26" s="111" t="str">
+      <c r="AI26" s="112" t="str">
         <f>IF(_Area4_day_hour!N19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ26" s="111" t="str">
+      <c r="AJ26" s="112" t="str">
         <f>IF(_Area4_day_hour!P19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7917,7 +7877,7 @@
         <f>IF(_Area4_day_hour!C19="","",_Area4_day_hour!C19/1000)</f>
         <v/>
       </c>
-      <c r="AM26" s="33" t="str">
+      <c r="AM26" s="166" t="str">
         <f>IF(_Area4_day_hour!T19&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7945,17 +7905,17 @@
         <f>IF(_Area4_day_hour!G19="","",_Area4_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="AT26" s="199" t="str">
+      <c r="AT26" s="145" t="str">
         <f>IF(_Area4_day_hour!H19="","",_Area4_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="AU26" s="200"/>
-      <c r="AV26" s="201"/>
-      <c r="AW26" s="251"/>
-      <c r="AX26" s="240"/>
-      <c r="AY26" s="241"/>
-      <c r="AZ26" s="242"/>
-      <c r="BA26" s="241"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="238"/>
+      <c r="AX26" s="227"/>
+      <c r="AY26" s="228"/>
+      <c r="AZ26" s="229"/>
+      <c r="BA26" s="228"/>
     </row>
     <row r="27" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A27" s="54">
@@ -8041,7 +8001,7 @@
         <f>IF(_Area3_day_hour!T20="","",_Area3_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="V27" s="114" t="str">
+      <c r="V27" s="115" t="str">
         <f>IF(_Area3_day_hour!U20="","",_Area3_day_hour!U20)</f>
         <v/>
       </c>
@@ -8049,55 +8009,55 @@
         <f>IF(_Area3_day_hour!V20="","",_Area3_day_hour!V20/1000)</f>
         <v/>
       </c>
-      <c r="X27" s="111" t="str">
+      <c r="X27" s="112" t="str">
         <f>IF(_Area3_day_hour!AC20&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD20&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y27" s="149" t="str">
+      <c r="Y27" s="45" t="str">
         <f>IF(_Area3_day_hour!W20="","",_Area3_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z27" s="149" t="str">
+      <c r="Z27" s="45" t="str">
         <f>IF(_Area3_day_hour!X20="","",_Area3_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA27" s="149" t="str">
+      <c r="AA27" s="45" t="str">
         <f>IF(_Area3_day_hour!Y20="","",_Area3_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB27" s="111" t="str">
+      <c r="AB27" s="112" t="str">
         <f>IF(_Area3_day_hour!AE20&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF20&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC27" s="149" t="str">
+      <c r="AC27" s="45" t="str">
         <f>IF(_Area3_day_hour!Z20="","",_Area3_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AD27" s="149" t="str">
+      <c r="AD27" s="45" t="str">
         <f>IF(_Area3_day_hour!AA20="","",_Area3_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AE27" s="150" t="str">
+      <c r="AE27" s="145" t="str">
         <f>IF(_Area3_day_hour!AB20="","",_Area3_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AF27" s="142" t="str">
+      <c r="AF27" s="141" t="str">
         <f>IF(_Area4_day_hour!I20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG27" s="149" t="str">
+      <c r="AG27" s="45" t="str">
         <f>IF(_Area4_day_hour!A20="","",_Area4_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="AH27" s="111" t="str">
+      <c r="AH27" s="112" t="str">
         <f>IF(_Area4_day_hour!L20&gt;0,"1#","")&amp;IF(_Area4_day_hour!M20&gt;0,"2#","")&amp;IF(_Area4_day_hour!R20&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI27" s="111" t="str">
+      <c r="AI27" s="112" t="str">
         <f>IF(_Area4_day_hour!N20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ27" s="111" t="str">
+      <c r="AJ27" s="112" t="str">
         <f>IF(_Area4_day_hour!P20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8109,7 +8069,7 @@
         <f>IF(_Area4_day_hour!C20="","",_Area4_day_hour!C20/1000)</f>
         <v/>
       </c>
-      <c r="AM27" s="33" t="str">
+      <c r="AM27" s="166" t="str">
         <f>IF(_Area4_day_hour!T20&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8137,21 +8097,21 @@
         <f>IF(_Area4_day_hour!G20="","",_Area4_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="AT27" s="199" t="str">
+      <c r="AT27" s="145" t="str">
         <f>IF(_Area4_day_hour!H20="","",_Area4_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="AU27" s="200"/>
-      <c r="AV27" s="201"/>
-      <c r="AW27" s="251"/>
-      <c r="AX27" s="236" t="s">
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="238"/>
+      <c r="AX27" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="AY27" s="237"/>
-      <c r="AZ27" s="238" t="s">
+      <c r="AY27" s="224"/>
+      <c r="AZ27" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="BA27" s="237"/>
+      <c r="BA27" s="224"/>
     </row>
     <row r="28" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A28" s="54">
@@ -8245,55 +8205,55 @@
         <f>IF(_Area3_day_hour!V21="","",_Area3_day_hour!V21/1000)</f>
         <v/>
       </c>
-      <c r="X28" s="111" t="str">
+      <c r="X28" s="112" t="str">
         <f>IF(_Area3_day_hour!AC21&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD21&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y28" s="149" t="str">
+      <c r="Y28" s="45" t="str">
         <f>IF(_Area3_day_hour!W21="","",_Area3_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z28" s="149" t="str">
+      <c r="Z28" s="45" t="str">
         <f>IF(_Area3_day_hour!X21="","",_Area3_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA28" s="149" t="str">
+      <c r="AA28" s="45" t="str">
         <f>IF(_Area3_day_hour!Y21="","",_Area3_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB28" s="111" t="str">
+      <c r="AB28" s="112" t="str">
         <f>IF(_Area3_day_hour!AE21&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF21&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC28" s="149" t="str">
+      <c r="AC28" s="45" t="str">
         <f>IF(_Area3_day_hour!Z21="","",_Area3_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AD28" s="149" t="str">
+      <c r="AD28" s="45" t="str">
         <f>IF(_Area3_day_hour!AA21="","",_Area3_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AE28" s="150" t="str">
+      <c r="AE28" s="145" t="str">
         <f>IF(_Area3_day_hour!AB21="","",_Area3_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AF28" s="142" t="str">
+      <c r="AF28" s="141" t="str">
         <f>IF(_Area4_day_hour!I21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG28" s="149" t="str">
+      <c r="AG28" s="45" t="str">
         <f>IF(_Area4_day_hour!A21="","",_Area4_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="AH28" s="111" t="str">
+      <c r="AH28" s="112" t="str">
         <f>IF(_Area4_day_hour!L21&gt;0,"1#","")&amp;IF(_Area4_day_hour!M21&gt;0,"2#","")&amp;IF(_Area4_day_hour!R21&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI28" s="111" t="str">
+      <c r="AI28" s="112" t="str">
         <f>IF(_Area4_day_hour!N21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ28" s="111" t="str">
+      <c r="AJ28" s="112" t="str">
         <f>IF(_Area4_day_hour!P21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8305,7 +8265,7 @@
         <f>IF(_Area4_day_hour!C21="","",_Area4_day_hour!C21/1000)</f>
         <v/>
       </c>
-      <c r="AM28" s="33" t="str">
+      <c r="AM28" s="166" t="str">
         <f>IF(_Area4_day_hour!T21&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8333,17 +8293,17 @@
         <f>IF(_Area4_day_hour!G21="","",_Area4_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="AT28" s="199" t="str">
+      <c r="AT28" s="145" t="str">
         <f>IF(_Area4_day_hour!H21="","",_Area4_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="AU28" s="200"/>
-      <c r="AV28" s="201"/>
-      <c r="AW28" s="251"/>
-      <c r="AX28" s="240"/>
-      <c r="AY28" s="241"/>
-      <c r="AZ28" s="242"/>
-      <c r="BA28" s="241"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="238"/>
+      <c r="AX28" s="227"/>
+      <c r="AY28" s="228"/>
+      <c r="AZ28" s="229"/>
+      <c r="BA28" s="228"/>
     </row>
     <row r="29" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A29" s="54">
@@ -8437,55 +8397,55 @@
         <f>IF(_Area3_day_hour!V22="","",_Area3_day_hour!V22/1000)</f>
         <v/>
       </c>
-      <c r="X29" s="111" t="str">
+      <c r="X29" s="112" t="str">
         <f>IF(_Area3_day_hour!AC22&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD22&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y29" s="149" t="str">
+      <c r="Y29" s="45" t="str">
         <f>IF(_Area3_day_hour!W22="","",_Area3_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z29" s="149" t="str">
+      <c r="Z29" s="45" t="str">
         <f>IF(_Area3_day_hour!X22="","",_Area3_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA29" s="149" t="str">
+      <c r="AA29" s="45" t="str">
         <f>IF(_Area3_day_hour!Y22="","",_Area3_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB29" s="111" t="str">
+      <c r="AB29" s="112" t="str">
         <f>IF(_Area3_day_hour!AE22&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF22&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC29" s="149" t="str">
+      <c r="AC29" s="45" t="str">
         <f>IF(_Area3_day_hour!Z22="","",_Area3_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AD29" s="149" t="str">
+      <c r="AD29" s="45" t="str">
         <f>IF(_Area3_day_hour!AA22="","",_Area3_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AE29" s="150" t="str">
+      <c r="AE29" s="145" t="str">
         <f>IF(_Area3_day_hour!AB22="","",_Area3_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AF29" s="142" t="str">
+      <c r="AF29" s="141" t="str">
         <f>IF(_Area4_day_hour!I22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG29" s="149" t="str">
+      <c r="AG29" s="45" t="str">
         <f>IF(_Area4_day_hour!A22="","",_Area4_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="AH29" s="111" t="str">
+      <c r="AH29" s="112" t="str">
         <f>IF(_Area4_day_hour!L22&gt;0,"1#","")&amp;IF(_Area4_day_hour!M22&gt;0,"2#","")&amp;IF(_Area4_day_hour!R22&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI29" s="111" t="str">
+      <c r="AI29" s="112" t="str">
         <f>IF(_Area4_day_hour!N22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ29" s="111" t="str">
+      <c r="AJ29" s="112" t="str">
         <f>IF(_Area4_day_hour!P22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8497,7 +8457,7 @@
         <f>IF(_Area4_day_hour!C22="","",_Area4_day_hour!C22/1000)</f>
         <v/>
       </c>
-      <c r="AM29" s="33" t="str">
+      <c r="AM29" s="166" t="str">
         <f>IF(_Area4_day_hour!T22&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8525,19 +8485,19 @@
         <f>IF(_Area4_day_hour!G22="","",_Area4_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="AT29" s="199" t="str">
+      <c r="AT29" s="145" t="str">
         <f>IF(_Area4_day_hour!H22="","",_Area4_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="AU29" s="200"/>
-      <c r="AV29" s="201"/>
-      <c r="AW29" s="251"/>
-      <c r="AX29" s="236" t="s">
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="238"/>
+      <c r="AX29" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="AY29" s="237"/>
-      <c r="AZ29" s="238"/>
-      <c r="BA29" s="237"/>
+      <c r="AY29" s="224"/>
+      <c r="AZ29" s="225"/>
+      <c r="BA29" s="224"/>
     </row>
     <row r="30" s="7" customFormat="1" ht="18" spans="1:53">
       <c r="A30" s="54">
@@ -8631,55 +8591,55 @@
         <f>IF(_Area3_day_hour!V23="","",_Area3_day_hour!V23/1000)</f>
         <v/>
       </c>
-      <c r="X30" s="111" t="str">
+      <c r="X30" s="112" t="str">
         <f>IF(_Area3_day_hour!AC23&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD23&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y30" s="149" t="str">
+      <c r="Y30" s="45" t="str">
         <f>IF(_Area3_day_hour!W23="","",_Area3_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z30" s="149" t="str">
+      <c r="Z30" s="45" t="str">
         <f>IF(_Area3_day_hour!X23="","",_Area3_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA30" s="149" t="str">
+      <c r="AA30" s="45" t="str">
         <f>IF(_Area3_day_hour!Y23="","",_Area3_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB30" s="111" t="str">
+      <c r="AB30" s="112" t="str">
         <f>IF(_Area3_day_hour!AE23&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF23&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC30" s="149" t="str">
+      <c r="AC30" s="45" t="str">
         <f>IF(_Area3_day_hour!Z23="","",_Area3_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AD30" s="149" t="str">
+      <c r="AD30" s="45" t="str">
         <f>IF(_Area3_day_hour!AA23="","",_Area3_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AE30" s="150" t="str">
+      <c r="AE30" s="145" t="str">
         <f>IF(_Area3_day_hour!AB23="","",_Area3_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AF30" s="142" t="str">
+      <c r="AF30" s="141" t="str">
         <f>IF(_Area4_day_hour!I23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG30" s="149" t="str">
+      <c r="AG30" s="45" t="str">
         <f>IF(_Area4_day_hour!A23="","",_Area4_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="AH30" s="111" t="str">
+      <c r="AH30" s="112" t="str">
         <f>IF(_Area4_day_hour!L23&gt;0,"1#","")&amp;IF(_Area4_day_hour!M23&gt;0,"2#","")&amp;IF(_Area4_day_hour!R23&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI30" s="111" t="str">
+      <c r="AI30" s="112" t="str">
         <f>IF(_Area4_day_hour!N23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ30" s="111" t="str">
+      <c r="AJ30" s="112" t="str">
         <f>IF(_Area4_day_hour!P23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8691,7 +8651,7 @@
         <f>IF(_Area4_day_hour!C23="","",_Area4_day_hour!C23/1000)</f>
         <v/>
       </c>
-      <c r="AM30" s="33" t="str">
+      <c r="AM30" s="166" t="str">
         <f>IF(_Area4_day_hour!T23&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8719,17 +8679,17 @@
         <f>IF(_Area4_day_hour!G23="","",_Area4_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="AT30" s="199" t="str">
+      <c r="AT30" s="145" t="str">
         <f>IF(_Area4_day_hour!H23="","",_Area4_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="AU30" s="200"/>
-      <c r="AV30" s="201"/>
-      <c r="AW30" s="251"/>
-      <c r="AX30" s="240"/>
-      <c r="AY30" s="243"/>
-      <c r="AZ30" s="242"/>
-      <c r="BA30" s="243"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="238"/>
+      <c r="AX30" s="227"/>
+      <c r="AY30" s="230"/>
+      <c r="AZ30" s="229"/>
+      <c r="BA30" s="230"/>
     </row>
     <row r="31" s="7" customFormat="1" ht="17.25" spans="1:53">
       <c r="A31" s="54">
@@ -8823,55 +8783,55 @@
         <f>IF(_Area3_day_hour!V24="","",_Area3_day_hour!V24/1000)</f>
         <v/>
       </c>
-      <c r="X31" s="111" t="str">
+      <c r="X31" s="112" t="str">
         <f>IF(_Area3_day_hour!AC24&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD24&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y31" s="149" t="str">
+      <c r="Y31" s="45" t="str">
         <f>IF(_Area3_day_hour!W24="","",_Area3_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z31" s="149" t="str">
+      <c r="Z31" s="45" t="str">
         <f>IF(_Area3_day_hour!X24="","",_Area3_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA31" s="149" t="str">
+      <c r="AA31" s="45" t="str">
         <f>IF(_Area3_day_hour!Y24="","",_Area3_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB31" s="111" t="str">
+      <c r="AB31" s="112" t="str">
         <f>IF(_Area3_day_hour!AE24&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF24&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC31" s="149" t="str">
+      <c r="AC31" s="45" t="str">
         <f>IF(_Area3_day_hour!Z24="","",_Area3_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AD31" s="149" t="str">
+      <c r="AD31" s="45" t="str">
         <f>IF(_Area3_day_hour!AA24="","",_Area3_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AE31" s="150" t="str">
+      <c r="AE31" s="145" t="str">
         <f>IF(_Area3_day_hour!AB24="","",_Area3_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AF31" s="142" t="str">
+      <c r="AF31" s="141" t="str">
         <f>IF(_Area4_day_hour!I24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG31" s="149" t="str">
+      <c r="AG31" s="45" t="str">
         <f>IF(_Area4_day_hour!A24="","",_Area4_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="AH31" s="111" t="str">
+      <c r="AH31" s="112" t="str">
         <f>IF(_Area4_day_hour!L24&gt;0,"1#","")&amp;IF(_Area4_day_hour!M24&gt;0,"2#","")&amp;IF(_Area4_day_hour!R24&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI31" s="111" t="str">
+      <c r="AI31" s="112" t="str">
         <f>IF(_Area4_day_hour!N24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ31" s="111" t="str">
+      <c r="AJ31" s="112" t="str">
         <f>IF(_Area4_day_hour!P24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8883,7 +8843,7 @@
         <f>IF(_Area4_day_hour!C24="","",_Area4_day_hour!C24/1000)</f>
         <v/>
       </c>
-      <c r="AM31" s="33" t="str">
+      <c r="AM31" s="166" t="str">
         <f>IF(_Area4_day_hour!T24&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8911,21 +8871,21 @@
         <f>IF(_Area4_day_hour!G24="","",_Area4_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="AT31" s="199" t="str">
+      <c r="AT31" s="145" t="str">
         <f>IF(_Area4_day_hour!H24="","",_Area4_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="AU31" s="200"/>
-      <c r="AV31" s="201"/>
-      <c r="AW31" s="251"/>
-      <c r="AX31" s="230" t="s">
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="238"/>
+      <c r="AX31" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="AY31" s="237"/>
-      <c r="AZ31" s="254" t="s">
+      <c r="AY31" s="224"/>
+      <c r="AZ31" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="BA31" s="237"/>
+      <c r="BA31" s="224"/>
     </row>
     <row r="32" s="8" customFormat="1" ht="18" spans="1:53">
       <c r="A32" s="57">
@@ -9019,55 +8979,55 @@
         <f>IF(_Area3_day_hour!V25="","",_Area3_day_hour!V25/1000)</f>
         <v/>
       </c>
-      <c r="X32" s="112" t="str">
+      <c r="X32" s="113" t="str">
         <f>IF(_Area3_day_hour!AC25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AD25&gt;0," 2 ","")</f>
         <v/>
       </c>
-      <c r="Y32" s="151" t="str">
+      <c r="Y32" s="48" t="str">
         <f>IF(_Area3_day_hour!W25="","",_Area3_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z32" s="151" t="str">
+      <c r="Z32" s="48" t="str">
         <f>IF(_Area3_day_hour!X25="","",_Area3_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA32" s="151" t="str">
+      <c r="AA32" s="48" t="str">
         <f>IF(_Area3_day_hour!Y25="","",_Area3_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB32" s="112" t="str">
+      <c r="AB32" s="113" t="str">
         <f>IF(_Area3_day_hour!AE25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF25&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AC32" s="151" t="str">
+      <c r="AC32" s="48" t="str">
         <f>IF(_Area3_day_hour!Z25="","",_Area3_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AD32" s="151" t="str">
+      <c r="AD32" s="48" t="str">
         <f>IF(_Area3_day_hour!AA25="","",_Area3_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AE32" s="152" t="str">
+      <c r="AE32" s="146" t="str">
         <f>IF(_Area3_day_hour!AB25="","",_Area3_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AF32" s="145" t="str">
+      <c r="AF32" s="143" t="str">
         <f>IF(_Area4_day_hour!I25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AG32" s="151" t="str">
+      <c r="AG32" s="48" t="str">
         <f>IF(_Area4_day_hour!A25="","",_Area4_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="AH32" s="112" t="str">
+      <c r="AH32" s="113" t="str">
         <f>IF(_Area4_day_hour!L25&gt;0,"1#","")&amp;IF(_Area4_day_hour!M25&gt;0,"2#","")&amp;IF(_Area4_day_hour!R25&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AI32" s="112" t="str">
+      <c r="AI32" s="113" t="str">
         <f>IF(_Area4_day_hour!N25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ32" s="112" t="str">
+      <c r="AJ32" s="113" t="str">
         <f>IF(_Area4_day_hour!P25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9079,7 +9039,7 @@
         <f>IF(_Area4_day_hour!C25="","",_Area4_day_hour!C25/1000)</f>
         <v/>
       </c>
-      <c r="AM32" s="48" t="str">
+      <c r="AM32" s="169" t="str">
         <f>IF(_Area4_day_hour!T25&gt;0,"1#","")&amp;IF(_Area4_day_hour!U25&gt;0,"2#","")&amp;IF(_Area4_day_hour!V25&gt;0,"3#","")</f>
         <v/>
       </c>
@@ -9107,17 +9067,17 @@
         <f>IF(_Area4_day_hour!G25="","",_Area4_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="AT32" s="202" t="str">
+      <c r="AT32" s="146" t="str">
         <f>IF(_Area4_day_hour!H25="","",_Area4_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="AU32" s="203"/>
-      <c r="AV32" s="204"/>
-      <c r="AW32" s="252"/>
-      <c r="AX32" s="255"/>
-      <c r="AY32" s="241"/>
-      <c r="AZ32" s="256"/>
-      <c r="BA32" s="257"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="239"/>
+      <c r="AX32" s="242"/>
+      <c r="AY32" s="228"/>
+      <c r="AZ32" s="243"/>
+      <c r="BA32" s="244"/>
     </row>
     <row r="33" ht="15" spans="1:53">
       <c r="A33" s="58"/>
@@ -9143,46 +9103,46 @@
       <c r="Q33" s="95"/>
       <c r="R33" s="95"/>
       <c r="S33" s="95"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="116" t="s">
+      <c r="T33" s="116"/>
+      <c r="U33" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="153"/>
-      <c r="AI33" s="153"/>
-      <c r="AJ33" s="153"/>
-      <c r="AK33" s="153"/>
-      <c r="AL33" s="153"/>
-      <c r="AM33" s="153"/>
-      <c r="AN33" s="153"/>
-      <c r="AO33" s="153"/>
-      <c r="AP33" s="153"/>
-      <c r="AQ33" s="153"/>
-      <c r="AR33" s="153"/>
-      <c r="AS33" s="153"/>
-      <c r="AT33" s="153"/>
-      <c r="AU33" s="153"/>
-      <c r="AV33" s="153"/>
-      <c r="AW33" s="153"/>
-      <c r="AX33" s="258" t="s">
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="147"/>
+      <c r="AG33" s="147"/>
+      <c r="AH33" s="147"/>
+      <c r="AI33" s="147"/>
+      <c r="AJ33" s="147"/>
+      <c r="AK33" s="147"/>
+      <c r="AL33" s="147"/>
+      <c r="AM33" s="147"/>
+      <c r="AN33" s="147"/>
+      <c r="AO33" s="147"/>
+      <c r="AP33" s="147"/>
+      <c r="AQ33" s="147"/>
+      <c r="AR33" s="147"/>
+      <c r="AS33" s="147"/>
+      <c r="AT33" s="147"/>
+      <c r="AU33" s="147"/>
+      <c r="AV33" s="147"/>
+      <c r="AW33" s="147"/>
+      <c r="AX33" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="AY33" s="259"/>
-      <c r="AZ33" s="258" t="s">
+      <c r="AY33" s="246"/>
+      <c r="AZ33" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="BA33" s="259"/>
+      <c r="BA33" s="246"/>
     </row>
     <row r="34" ht="44" customHeight="1" spans="1:53">
       <c r="A34" s="61" t="s">
@@ -9206,40 +9166,40 @@
       <c r="Q34" s="98"/>
       <c r="R34" s="98"/>
       <c r="S34" s="98"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="119"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="120"/>
-      <c r="AL34" s="120"/>
-      <c r="AM34" s="120"/>
-      <c r="AN34" s="120"/>
-      <c r="AO34" s="120"/>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="120"/>
-      <c r="AS34" s="120"/>
-      <c r="AT34" s="120"/>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="120"/>
-      <c r="AX34" s="225"/>
-      <c r="AY34" s="257"/>
-      <c r="AZ34" s="257"/>
-      <c r="BA34" s="257"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="121"/>
+      <c r="AO34" s="121"/>
+      <c r="AP34" s="121"/>
+      <c r="AQ34" s="121"/>
+      <c r="AR34" s="121"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="121"/>
+      <c r="AU34" s="121"/>
+      <c r="AV34" s="121"/>
+      <c r="AW34" s="121"/>
+      <c r="AX34" s="212"/>
+      <c r="AY34" s="244"/>
+      <c r="AZ34" s="244"/>
+      <c r="BA34" s="244"/>
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:57">
       <c r="A35" s="64" t="s">
@@ -9272,41 +9232,41 @@
       <c r="X35" s="65"/>
       <c r="Y35" s="65"/>
       <c r="Z35" s="66"/>
-      <c r="AA35" s="154" t="s">
+      <c r="AA35" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="AB35" s="155"/>
-      <c r="AC35" s="155"/>
-      <c r="AD35" s="155"/>
-      <c r="AE35" s="155"/>
-      <c r="AF35" s="155"/>
-      <c r="AG35" s="155"/>
-      <c r="AH35" s="155"/>
-      <c r="AI35" s="155"/>
-      <c r="AJ35" s="155"/>
-      <c r="AK35" s="155"/>
-      <c r="AL35" s="155"/>
-      <c r="AM35" s="155"/>
-      <c r="AN35" s="155"/>
-      <c r="AO35" s="155"/>
-      <c r="AP35" s="155"/>
-      <c r="AQ35" s="155"/>
-      <c r="AR35" s="155"/>
-      <c r="AS35" s="155"/>
-      <c r="AT35" s="155"/>
-      <c r="AU35" s="155"/>
-      <c r="AV35" s="155"/>
-      <c r="AW35" s="260"/>
-      <c r="AX35" s="261" t="s">
+      <c r="AB35" s="149"/>
+      <c r="AC35" s="149"/>
+      <c r="AD35" s="149"/>
+      <c r="AE35" s="149"/>
+      <c r="AF35" s="149"/>
+      <c r="AG35" s="149"/>
+      <c r="AH35" s="149"/>
+      <c r="AI35" s="149"/>
+      <c r="AJ35" s="149"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="149"/>
+      <c r="AM35" s="149"/>
+      <c r="AN35" s="149"/>
+      <c r="AO35" s="149"/>
+      <c r="AP35" s="149"/>
+      <c r="AQ35" s="149"/>
+      <c r="AR35" s="149"/>
+      <c r="AS35" s="149"/>
+      <c r="AT35" s="149"/>
+      <c r="AU35" s="149"/>
+      <c r="AV35" s="149"/>
+      <c r="AW35" s="247"/>
+      <c r="AX35" s="248" t="s">
         <v>99</v>
       </c>
-      <c r="AY35" s="215"/>
-      <c r="AZ35" s="215"/>
-      <c r="BA35" s="216"/>
-      <c r="BB35" s="262"/>
-      <c r="BC35" s="262"/>
-      <c r="BD35" s="262"/>
-      <c r="BE35" s="262"/>
+      <c r="AY35" s="202"/>
+      <c r="AZ35" s="202"/>
+      <c r="BA35" s="203"/>
+      <c r="BB35" s="249"/>
+      <c r="BC35" s="249"/>
+      <c r="BD35" s="249"/>
+      <c r="BE35" s="249"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:58">
       <c r="A36" s="67" t="s">
@@ -9363,33 +9323,33 @@
         <v>110</v>
       </c>
       <c r="Z36" s="101"/>
-      <c r="AA36" s="156"/>
-      <c r="AB36" s="157"/>
-      <c r="AC36" s="157"/>
-      <c r="AD36" s="157"/>
-      <c r="AE36" s="157"/>
-      <c r="AF36" s="157"/>
-      <c r="AG36" s="157"/>
-      <c r="AH36" s="157"/>
-      <c r="AI36" s="157"/>
-      <c r="AJ36" s="157"/>
-      <c r="AK36" s="157"/>
-      <c r="AL36" s="157"/>
-      <c r="AM36" s="157"/>
-      <c r="AN36" s="157"/>
-      <c r="AO36" s="157"/>
-      <c r="AP36" s="157"/>
-      <c r="AQ36" s="157"/>
-      <c r="AR36" s="157"/>
-      <c r="AS36" s="157"/>
-      <c r="AT36" s="157"/>
-      <c r="AU36" s="157"/>
-      <c r="AV36" s="157"/>
-      <c r="AW36" s="263"/>
-      <c r="AX36" s="256"/>
-      <c r="AY36" s="224"/>
-      <c r="AZ36" s="224"/>
-      <c r="BA36" s="225"/>
+      <c r="AA36" s="150"/>
+      <c r="AB36" s="151"/>
+      <c r="AC36" s="151"/>
+      <c r="AD36" s="151"/>
+      <c r="AE36" s="151"/>
+      <c r="AF36" s="151"/>
+      <c r="AG36" s="151"/>
+      <c r="AH36" s="151"/>
+      <c r="AI36" s="151"/>
+      <c r="AJ36" s="151"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="151"/>
+      <c r="AM36" s="151"/>
+      <c r="AN36" s="151"/>
+      <c r="AO36" s="151"/>
+      <c r="AP36" s="151"/>
+      <c r="AQ36" s="151"/>
+      <c r="AR36" s="151"/>
+      <c r="AS36" s="151"/>
+      <c r="AT36" s="151"/>
+      <c r="AU36" s="151"/>
+      <c r="AV36" s="151"/>
+      <c r="AW36" s="250"/>
+      <c r="AX36" s="243"/>
+      <c r="AY36" s="211"/>
+      <c r="AZ36" s="211"/>
+      <c r="BA36" s="212"/>
       <c r="BB36" s="10"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
@@ -9464,7 +9424,7 @@
       <c r="W37" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="X37" s="121" t="s">
+      <c r="X37" s="122" t="s">
         <v>113</v>
       </c>
       <c r="Y37" s="76" t="s">
@@ -9473,39 +9433,39 @@
       <c r="Z37" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="159"/>
-      <c r="AC37" s="159"/>
-      <c r="AD37" s="159"/>
-      <c r="AE37" s="159"/>
-      <c r="AF37" s="159"/>
-      <c r="AG37" s="159"/>
-      <c r="AH37" s="159"/>
-      <c r="AI37" s="159"/>
-      <c r="AJ37" s="159"/>
-      <c r="AK37" s="159"/>
-      <c r="AL37" s="159"/>
-      <c r="AM37" s="159"/>
-      <c r="AN37" s="159"/>
-      <c r="AO37" s="159"/>
-      <c r="AP37" s="159"/>
-      <c r="AQ37" s="159"/>
-      <c r="AR37" s="159"/>
-      <c r="AS37" s="159"/>
-      <c r="AT37" s="159"/>
-      <c r="AU37" s="159"/>
-      <c r="AV37" s="159"/>
-      <c r="AW37" s="264"/>
-      <c r="AX37" s="265" t="s">
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="153"/>
+      <c r="AC37" s="153"/>
+      <c r="AD37" s="153"/>
+      <c r="AE37" s="153"/>
+      <c r="AF37" s="153"/>
+      <c r="AG37" s="153"/>
+      <c r="AH37" s="153"/>
+      <c r="AI37" s="153"/>
+      <c r="AJ37" s="153"/>
+      <c r="AK37" s="153"/>
+      <c r="AL37" s="153"/>
+      <c r="AM37" s="153"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="153"/>
+      <c r="AP37" s="153"/>
+      <c r="AQ37" s="153"/>
+      <c r="AR37" s="153"/>
+      <c r="AS37" s="153"/>
+      <c r="AT37" s="153"/>
+      <c r="AU37" s="153"/>
+      <c r="AV37" s="153"/>
+      <c r="AW37" s="251"/>
+      <c r="AX37" s="252" t="s">
         <v>114</v>
       </c>
-      <c r="AY37" s="266">
+      <c r="AY37" s="253">
         <v>0</v>
       </c>
-      <c r="AZ37" s="265" t="s">
+      <c r="AZ37" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="BA37" s="266">
+      <c r="BA37" s="253">
         <v>0</v>
       </c>
       <c r="BB37" s="10"/>
@@ -9617,33 +9577,33 @@
         <f>IF(_Area34_day_shift!X2="","",_Area34_day_shift!X2)</f>
         <v/>
       </c>
-      <c r="AA38" s="160"/>
-      <c r="AB38" s="161"/>
-      <c r="AC38" s="161"/>
-      <c r="AD38" s="161"/>
-      <c r="AE38" s="161"/>
-      <c r="AF38" s="161"/>
-      <c r="AG38" s="161"/>
-      <c r="AH38" s="161"/>
-      <c r="AI38" s="161"/>
-      <c r="AJ38" s="161"/>
-      <c r="AK38" s="161"/>
-      <c r="AL38" s="161"/>
-      <c r="AM38" s="161"/>
-      <c r="AN38" s="161"/>
-      <c r="AO38" s="161"/>
-      <c r="AP38" s="161"/>
-      <c r="AQ38" s="161"/>
-      <c r="AR38" s="161"/>
-      <c r="AS38" s="161"/>
-      <c r="AT38" s="161"/>
-      <c r="AU38" s="161"/>
-      <c r="AV38" s="161"/>
-      <c r="AW38" s="267"/>
-      <c r="AX38" s="268"/>
-      <c r="AY38" s="269"/>
-      <c r="AZ38" s="270"/>
-      <c r="BA38" s="269"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="155"/>
+      <c r="AC38" s="155"/>
+      <c r="AD38" s="155"/>
+      <c r="AE38" s="155"/>
+      <c r="AF38" s="155"/>
+      <c r="AG38" s="155"/>
+      <c r="AH38" s="155"/>
+      <c r="AI38" s="155"/>
+      <c r="AJ38" s="155"/>
+      <c r="AK38" s="155"/>
+      <c r="AL38" s="155"/>
+      <c r="AM38" s="155"/>
+      <c r="AN38" s="155"/>
+      <c r="AO38" s="155"/>
+      <c r="AP38" s="155"/>
+      <c r="AQ38" s="155"/>
+      <c r="AR38" s="155"/>
+      <c r="AS38" s="155"/>
+      <c r="AT38" s="155"/>
+      <c r="AU38" s="155"/>
+      <c r="AV38" s="155"/>
+      <c r="AW38" s="254"/>
+      <c r="AX38" s="255"/>
+      <c r="AY38" s="256"/>
+      <c r="AZ38" s="257"/>
+      <c r="BA38" s="256"/>
       <c r="BB38" s="10"/>
       <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
@@ -9751,33 +9711,33 @@
         <f>IF(_Area34_day_shift!X3="","",_Area34_day_shift!X3)</f>
         <v/>
       </c>
-      <c r="AA39" s="160"/>
-      <c r="AB39" s="161"/>
-      <c r="AC39" s="161"/>
-      <c r="AD39" s="161"/>
-      <c r="AE39" s="161"/>
-      <c r="AF39" s="161"/>
-      <c r="AG39" s="161"/>
-      <c r="AH39" s="161"/>
-      <c r="AI39" s="161"/>
-      <c r="AJ39" s="161"/>
-      <c r="AK39" s="161"/>
-      <c r="AL39" s="161"/>
-      <c r="AM39" s="161"/>
-      <c r="AN39" s="161"/>
-      <c r="AO39" s="161"/>
-      <c r="AP39" s="161"/>
-      <c r="AQ39" s="161"/>
-      <c r="AR39" s="161"/>
-      <c r="AS39" s="161"/>
-      <c r="AT39" s="161"/>
-      <c r="AU39" s="161"/>
-      <c r="AV39" s="161"/>
-      <c r="AW39" s="267"/>
-      <c r="AX39" s="268"/>
-      <c r="AY39" s="269"/>
-      <c r="AZ39" s="270"/>
-      <c r="BA39" s="269"/>
+      <c r="AA39" s="154"/>
+      <c r="AB39" s="155"/>
+      <c r="AC39" s="155"/>
+      <c r="AD39" s="155"/>
+      <c r="AE39" s="155"/>
+      <c r="AF39" s="155"/>
+      <c r="AG39" s="155"/>
+      <c r="AH39" s="155"/>
+      <c r="AI39" s="155"/>
+      <c r="AJ39" s="155"/>
+      <c r="AK39" s="155"/>
+      <c r="AL39" s="155"/>
+      <c r="AM39" s="155"/>
+      <c r="AN39" s="155"/>
+      <c r="AO39" s="155"/>
+      <c r="AP39" s="155"/>
+      <c r="AQ39" s="155"/>
+      <c r="AR39" s="155"/>
+      <c r="AS39" s="155"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="155"/>
+      <c r="AV39" s="155"/>
+      <c r="AW39" s="254"/>
+      <c r="AX39" s="255"/>
+      <c r="AY39" s="256"/>
+      <c r="AZ39" s="257"/>
+      <c r="BA39" s="256"/>
       <c r="BB39" s="10"/>
       <c r="BC39" s="10"/>
       <c r="BD39" s="10"/>
@@ -9885,33 +9845,33 @@
         <f>IF(_Area34_day_shift!X4="","",_Area34_day_shift!X4)</f>
         <v/>
       </c>
-      <c r="AA40" s="160"/>
-      <c r="AB40" s="161"/>
-      <c r="AC40" s="161"/>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="161"/>
-      <c r="AF40" s="161"/>
-      <c r="AG40" s="161"/>
-      <c r="AH40" s="161"/>
-      <c r="AI40" s="161"/>
-      <c r="AJ40" s="161"/>
-      <c r="AK40" s="161"/>
-      <c r="AL40" s="161"/>
-      <c r="AM40" s="161"/>
-      <c r="AN40" s="161"/>
-      <c r="AO40" s="161"/>
-      <c r="AP40" s="161"/>
-      <c r="AQ40" s="161"/>
-      <c r="AR40" s="161"/>
-      <c r="AS40" s="161"/>
-      <c r="AT40" s="161"/>
-      <c r="AU40" s="161"/>
-      <c r="AV40" s="161"/>
-      <c r="AW40" s="267"/>
-      <c r="AX40" s="268"/>
-      <c r="AY40" s="269"/>
-      <c r="AZ40" s="270"/>
-      <c r="BA40" s="269"/>
+      <c r="AA40" s="154"/>
+      <c r="AB40" s="155"/>
+      <c r="AC40" s="155"/>
+      <c r="AD40" s="155"/>
+      <c r="AE40" s="155"/>
+      <c r="AF40" s="155"/>
+      <c r="AG40" s="155"/>
+      <c r="AH40" s="155"/>
+      <c r="AI40" s="155"/>
+      <c r="AJ40" s="155"/>
+      <c r="AK40" s="155"/>
+      <c r="AL40" s="155"/>
+      <c r="AM40" s="155"/>
+      <c r="AN40" s="155"/>
+      <c r="AO40" s="155"/>
+      <c r="AP40" s="155"/>
+      <c r="AQ40" s="155"/>
+      <c r="AR40" s="155"/>
+      <c r="AS40" s="155"/>
+      <c r="AT40" s="155"/>
+      <c r="AU40" s="155"/>
+      <c r="AV40" s="155"/>
+      <c r="AW40" s="254"/>
+      <c r="AX40" s="255"/>
+      <c r="AY40" s="256"/>
+      <c r="AZ40" s="257"/>
+      <c r="BA40" s="256"/>
       <c r="BB40" s="10"/>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
@@ -10019,33 +9979,33 @@
         <f>IF(_Area34_day_shift!X5="","",_Area34_day_shift!X5)</f>
         <v/>
       </c>
-      <c r="AA41" s="162"/>
-      <c r="AB41" s="163"/>
-      <c r="AC41" s="163"/>
-      <c r="AD41" s="163"/>
-      <c r="AE41" s="163"/>
-      <c r="AF41" s="163"/>
-      <c r="AG41" s="163"/>
-      <c r="AH41" s="163"/>
-      <c r="AI41" s="163"/>
-      <c r="AJ41" s="163"/>
-      <c r="AK41" s="163"/>
-      <c r="AL41" s="163"/>
-      <c r="AM41" s="163"/>
-      <c r="AN41" s="163"/>
-      <c r="AO41" s="163"/>
-      <c r="AP41" s="163"/>
-      <c r="AQ41" s="163"/>
-      <c r="AR41" s="163"/>
-      <c r="AS41" s="163"/>
-      <c r="AT41" s="163"/>
-      <c r="AU41" s="163"/>
-      <c r="AV41" s="163"/>
-      <c r="AW41" s="271"/>
-      <c r="AX41" s="268"/>
-      <c r="AY41" s="269"/>
-      <c r="AZ41" s="270"/>
-      <c r="BA41" s="269"/>
+      <c r="AA41" s="156"/>
+      <c r="AB41" s="157"/>
+      <c r="AC41" s="157"/>
+      <c r="AD41" s="157"/>
+      <c r="AE41" s="157"/>
+      <c r="AF41" s="157"/>
+      <c r="AG41" s="157"/>
+      <c r="AH41" s="157"/>
+      <c r="AI41" s="157"/>
+      <c r="AJ41" s="157"/>
+      <c r="AK41" s="157"/>
+      <c r="AL41" s="157"/>
+      <c r="AM41" s="157"/>
+      <c r="AN41" s="157"/>
+      <c r="AO41" s="157"/>
+      <c r="AP41" s="157"/>
+      <c r="AQ41" s="157"/>
+      <c r="AR41" s="157"/>
+      <c r="AS41" s="157"/>
+      <c r="AT41" s="157"/>
+      <c r="AU41" s="157"/>
+      <c r="AV41" s="157"/>
+      <c r="AW41" s="258"/>
+      <c r="AX41" s="255"/>
+      <c r="AY41" s="256"/>
+      <c r="AZ41" s="257"/>
+      <c r="BA41" s="256"/>
       <c r="BB41" s="10"/>
       <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
@@ -10155,33 +10115,33 @@
         <f>IF(_Area34_day_shift!X6="","",_Area34_day_shift!X6)</f>
         <v/>
       </c>
-      <c r="AA42" s="160"/>
-      <c r="AB42" s="161"/>
-      <c r="AC42" s="161"/>
-      <c r="AD42" s="161"/>
-      <c r="AE42" s="161"/>
-      <c r="AF42" s="161"/>
-      <c r="AG42" s="161"/>
-      <c r="AH42" s="161"/>
-      <c r="AI42" s="161"/>
-      <c r="AJ42" s="161"/>
-      <c r="AK42" s="161"/>
-      <c r="AL42" s="161"/>
-      <c r="AM42" s="161"/>
-      <c r="AN42" s="161"/>
-      <c r="AO42" s="161"/>
-      <c r="AP42" s="161"/>
-      <c r="AQ42" s="161"/>
-      <c r="AR42" s="161"/>
-      <c r="AS42" s="161"/>
-      <c r="AT42" s="161"/>
-      <c r="AU42" s="161"/>
-      <c r="AV42" s="161"/>
-      <c r="AW42" s="267"/>
-      <c r="AX42" s="272"/>
-      <c r="AY42" s="273"/>
-      <c r="AZ42" s="274"/>
-      <c r="BA42" s="273"/>
+      <c r="AA42" s="154"/>
+      <c r="AB42" s="155"/>
+      <c r="AC42" s="155"/>
+      <c r="AD42" s="155"/>
+      <c r="AE42" s="155"/>
+      <c r="AF42" s="155"/>
+      <c r="AG42" s="155"/>
+      <c r="AH42" s="155"/>
+      <c r="AI42" s="155"/>
+      <c r="AJ42" s="155"/>
+      <c r="AK42" s="155"/>
+      <c r="AL42" s="155"/>
+      <c r="AM42" s="155"/>
+      <c r="AN42" s="155"/>
+      <c r="AO42" s="155"/>
+      <c r="AP42" s="155"/>
+      <c r="AQ42" s="155"/>
+      <c r="AR42" s="155"/>
+      <c r="AS42" s="155"/>
+      <c r="AT42" s="155"/>
+      <c r="AU42" s="155"/>
+      <c r="AV42" s="155"/>
+      <c r="AW42" s="254"/>
+      <c r="AX42" s="259"/>
+      <c r="AY42" s="260"/>
+      <c r="AZ42" s="261"/>
+      <c r="BA42" s="260"/>
       <c r="BB42" s="10"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
@@ -10289,35 +10249,35 @@
         <f>IF(_Area34_day_shift!X7="","",_Area34_day_shift!X7)</f>
         <v/>
       </c>
-      <c r="AA43" s="160"/>
-      <c r="AB43" s="161"/>
-      <c r="AC43" s="161"/>
-      <c r="AD43" s="161"/>
-      <c r="AE43" s="161"/>
-      <c r="AF43" s="161"/>
-      <c r="AG43" s="161"/>
-      <c r="AH43" s="161"/>
-      <c r="AI43" s="161"/>
-      <c r="AJ43" s="161"/>
-      <c r="AK43" s="161"/>
-      <c r="AL43" s="161"/>
-      <c r="AM43" s="161"/>
-      <c r="AN43" s="161"/>
-      <c r="AO43" s="161"/>
-      <c r="AP43" s="161"/>
-      <c r="AQ43" s="161"/>
-      <c r="AR43" s="161"/>
-      <c r="AS43" s="161"/>
-      <c r="AT43" s="161"/>
-      <c r="AU43" s="161"/>
-      <c r="AV43" s="161"/>
-      <c r="AW43" s="267"/>
-      <c r="AX43" s="275" t="s">
+      <c r="AA43" s="154"/>
+      <c r="AB43" s="155"/>
+      <c r="AC43" s="155"/>
+      <c r="AD43" s="155"/>
+      <c r="AE43" s="155"/>
+      <c r="AF43" s="155"/>
+      <c r="AG43" s="155"/>
+      <c r="AH43" s="155"/>
+      <c r="AI43" s="155"/>
+      <c r="AJ43" s="155"/>
+      <c r="AK43" s="155"/>
+      <c r="AL43" s="155"/>
+      <c r="AM43" s="155"/>
+      <c r="AN43" s="155"/>
+      <c r="AO43" s="155"/>
+      <c r="AP43" s="155"/>
+      <c r="AQ43" s="155"/>
+      <c r="AR43" s="155"/>
+      <c r="AS43" s="155"/>
+      <c r="AT43" s="155"/>
+      <c r="AU43" s="155"/>
+      <c r="AV43" s="155"/>
+      <c r="AW43" s="254"/>
+      <c r="AX43" s="262" t="s">
         <v>117</v>
       </c>
-      <c r="AY43" s="276"/>
-      <c r="AZ43" s="276"/>
-      <c r="BA43" s="277"/>
+      <c r="AY43" s="263"/>
+      <c r="AZ43" s="263"/>
+      <c r="BA43" s="264"/>
       <c r="BB43" s="10"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
@@ -10425,33 +10385,33 @@
         <f>IF(_Area34_day_shift!X8="","",_Area34_day_shift!X8)</f>
         <v/>
       </c>
-      <c r="AA44" s="160"/>
-      <c r="AB44" s="161"/>
-      <c r="AC44" s="161"/>
-      <c r="AD44" s="161"/>
-      <c r="AE44" s="161"/>
-      <c r="AF44" s="161"/>
-      <c r="AG44" s="161"/>
-      <c r="AH44" s="161"/>
-      <c r="AI44" s="161"/>
-      <c r="AJ44" s="161"/>
-      <c r="AK44" s="161"/>
-      <c r="AL44" s="161"/>
-      <c r="AM44" s="161"/>
-      <c r="AN44" s="161"/>
-      <c r="AO44" s="161"/>
-      <c r="AP44" s="161"/>
-      <c r="AQ44" s="161"/>
-      <c r="AR44" s="161"/>
-      <c r="AS44" s="161"/>
-      <c r="AT44" s="161"/>
-      <c r="AU44" s="161"/>
-      <c r="AV44" s="161"/>
-      <c r="AW44" s="267"/>
-      <c r="AX44" s="278"/>
-      <c r="AY44" s="279"/>
-      <c r="AZ44" s="279"/>
-      <c r="BA44" s="280"/>
+      <c r="AA44" s="154"/>
+      <c r="AB44" s="155"/>
+      <c r="AC44" s="155"/>
+      <c r="AD44" s="155"/>
+      <c r="AE44" s="155"/>
+      <c r="AF44" s="155"/>
+      <c r="AG44" s="155"/>
+      <c r="AH44" s="155"/>
+      <c r="AI44" s="155"/>
+      <c r="AJ44" s="155"/>
+      <c r="AK44" s="155"/>
+      <c r="AL44" s="155"/>
+      <c r="AM44" s="155"/>
+      <c r="AN44" s="155"/>
+      <c r="AO44" s="155"/>
+      <c r="AP44" s="155"/>
+      <c r="AQ44" s="155"/>
+      <c r="AR44" s="155"/>
+      <c r="AS44" s="155"/>
+      <c r="AT44" s="155"/>
+      <c r="AU44" s="155"/>
+      <c r="AV44" s="155"/>
+      <c r="AW44" s="254"/>
+      <c r="AX44" s="265"/>
+      <c r="AY44" s="266"/>
+      <c r="AZ44" s="266"/>
+      <c r="BA44" s="267"/>
       <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
@@ -10559,39 +10519,39 @@
         <f>IF(_Area34_day_shift!X9="","",_Area34_day_shift!X9)</f>
         <v/>
       </c>
-      <c r="AA45" s="160"/>
-      <c r="AB45" s="161"/>
-      <c r="AC45" s="161"/>
-      <c r="AD45" s="161"/>
-      <c r="AE45" s="161"/>
-      <c r="AF45" s="161"/>
-      <c r="AG45" s="161"/>
-      <c r="AH45" s="161"/>
-      <c r="AI45" s="161"/>
-      <c r="AJ45" s="161"/>
-      <c r="AK45" s="161"/>
-      <c r="AL45" s="161"/>
-      <c r="AM45" s="161"/>
-      <c r="AN45" s="161"/>
-      <c r="AO45" s="161"/>
-      <c r="AP45" s="161"/>
-      <c r="AQ45" s="161"/>
-      <c r="AR45" s="161"/>
-      <c r="AS45" s="161"/>
-      <c r="AT45" s="161"/>
-      <c r="AU45" s="161"/>
-      <c r="AV45" s="161"/>
-      <c r="AW45" s="267"/>
-      <c r="AX45" s="281" t="s">
+      <c r="AA45" s="154"/>
+      <c r="AB45" s="155"/>
+      <c r="AC45" s="155"/>
+      <c r="AD45" s="155"/>
+      <c r="AE45" s="155"/>
+      <c r="AF45" s="155"/>
+      <c r="AG45" s="155"/>
+      <c r="AH45" s="155"/>
+      <c r="AI45" s="155"/>
+      <c r="AJ45" s="155"/>
+      <c r="AK45" s="155"/>
+      <c r="AL45" s="155"/>
+      <c r="AM45" s="155"/>
+      <c r="AN45" s="155"/>
+      <c r="AO45" s="155"/>
+      <c r="AP45" s="155"/>
+      <c r="AQ45" s="155"/>
+      <c r="AR45" s="155"/>
+      <c r="AS45" s="155"/>
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="155"/>
+      <c r="AV45" s="155"/>
+      <c r="AW45" s="254"/>
+      <c r="AX45" s="268" t="s">
         <v>90</v>
       </c>
-      <c r="AY45" s="282">
+      <c r="AY45" s="269">
         <v>0</v>
       </c>
-      <c r="AZ45" s="281" t="s">
+      <c r="AZ45" s="268" t="s">
         <v>91</v>
       </c>
-      <c r="BA45" s="282">
+      <c r="BA45" s="269">
         <v>0</v>
       </c>
       <c r="BB45" s="10"/>
@@ -10703,32 +10663,32 @@
         <f>IF(_Area34_day_shift!X10="","",_Area34_day_shift!X10)</f>
         <v/>
       </c>
-      <c r="AA46" s="158"/>
-      <c r="AB46" s="159"/>
-      <c r="AC46" s="159"/>
-      <c r="AD46" s="159"/>
-      <c r="AE46" s="159"/>
-      <c r="AF46" s="159"/>
-      <c r="AG46" s="159"/>
-      <c r="AH46" s="159"/>
-      <c r="AI46" s="159"/>
-      <c r="AJ46" s="159"/>
-      <c r="AK46" s="159"/>
-      <c r="AL46" s="159"/>
-      <c r="AM46" s="159"/>
-      <c r="AN46" s="159"/>
-      <c r="AO46" s="159"/>
-      <c r="AP46" s="159"/>
-      <c r="AQ46" s="159"/>
-      <c r="AR46" s="159"/>
-      <c r="AS46" s="159"/>
-      <c r="AT46" s="159"/>
-      <c r="AU46" s="159"/>
-      <c r="AV46" s="159"/>
-      <c r="AW46" s="264"/>
-      <c r="AX46" s="283"/>
-      <c r="AY46" s="284"/>
-      <c r="AZ46" s="283"/>
+      <c r="AA46" s="152"/>
+      <c r="AB46" s="153"/>
+      <c r="AC46" s="153"/>
+      <c r="AD46" s="153"/>
+      <c r="AE46" s="153"/>
+      <c r="AF46" s="153"/>
+      <c r="AG46" s="153"/>
+      <c r="AH46" s="153"/>
+      <c r="AI46" s="153"/>
+      <c r="AJ46" s="153"/>
+      <c r="AK46" s="153"/>
+      <c r="AL46" s="153"/>
+      <c r="AM46" s="153"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="153"/>
+      <c r="AP46" s="153"/>
+      <c r="AQ46" s="153"/>
+      <c r="AR46" s="153"/>
+      <c r="AS46" s="153"/>
+      <c r="AT46" s="153"/>
+      <c r="AU46" s="153"/>
+      <c r="AV46" s="153"/>
+      <c r="AW46" s="251"/>
+      <c r="AX46" s="270"/>
+      <c r="AY46" s="271"/>
+      <c r="AZ46" s="270"/>
       <c r="BA46" s="82"/>
       <c r="BB46" s="10"/>
       <c r="BC46" s="10"/>
@@ -10837,32 +10797,32 @@
         <f>IF(_Area34_day_shift!X11="","",_Area34_day_shift!X11)</f>
         <v/>
       </c>
-      <c r="AA47" s="160"/>
-      <c r="AB47" s="161"/>
-      <c r="AC47" s="161"/>
-      <c r="AD47" s="161"/>
-      <c r="AE47" s="161"/>
-      <c r="AF47" s="161"/>
-      <c r="AG47" s="161"/>
-      <c r="AH47" s="161"/>
-      <c r="AI47" s="161"/>
-      <c r="AJ47" s="161"/>
-      <c r="AK47" s="161"/>
-      <c r="AL47" s="161"/>
-      <c r="AM47" s="161"/>
-      <c r="AN47" s="161"/>
-      <c r="AO47" s="161"/>
-      <c r="AP47" s="161"/>
-      <c r="AQ47" s="161"/>
-      <c r="AR47" s="161"/>
-      <c r="AS47" s="161"/>
-      <c r="AT47" s="161"/>
-      <c r="AU47" s="161"/>
-      <c r="AV47" s="161"/>
-      <c r="AW47" s="267"/>
-      <c r="AX47" s="283"/>
-      <c r="AY47" s="284"/>
-      <c r="AZ47" s="283"/>
+      <c r="AA47" s="154"/>
+      <c r="AB47" s="155"/>
+      <c r="AC47" s="155"/>
+      <c r="AD47" s="155"/>
+      <c r="AE47" s="155"/>
+      <c r="AF47" s="155"/>
+      <c r="AG47" s="155"/>
+      <c r="AH47" s="155"/>
+      <c r="AI47" s="155"/>
+      <c r="AJ47" s="155"/>
+      <c r="AK47" s="155"/>
+      <c r="AL47" s="155"/>
+      <c r="AM47" s="155"/>
+      <c r="AN47" s="155"/>
+      <c r="AO47" s="155"/>
+      <c r="AP47" s="155"/>
+      <c r="AQ47" s="155"/>
+      <c r="AR47" s="155"/>
+      <c r="AS47" s="155"/>
+      <c r="AT47" s="155"/>
+      <c r="AU47" s="155"/>
+      <c r="AV47" s="155"/>
+      <c r="AW47" s="254"/>
+      <c r="AX47" s="270"/>
+      <c r="AY47" s="271"/>
+      <c r="AZ47" s="270"/>
       <c r="BA47" s="82"/>
       <c r="BB47" s="10"/>
       <c r="BC47" s="10"/>
@@ -10971,32 +10931,32 @@
         <f>IF(_Area34_day_shift!X12="","",_Area34_day_shift!X12)</f>
         <v/>
       </c>
-      <c r="AA48" s="160"/>
-      <c r="AB48" s="161"/>
-      <c r="AC48" s="161"/>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="161"/>
-      <c r="AF48" s="161"/>
-      <c r="AG48" s="161"/>
-      <c r="AH48" s="161"/>
-      <c r="AI48" s="161"/>
-      <c r="AJ48" s="161"/>
-      <c r="AK48" s="161"/>
-      <c r="AL48" s="161"/>
-      <c r="AM48" s="161"/>
-      <c r="AN48" s="161"/>
-      <c r="AO48" s="161"/>
-      <c r="AP48" s="161"/>
-      <c r="AQ48" s="161"/>
-      <c r="AR48" s="161"/>
-      <c r="AS48" s="161"/>
-      <c r="AT48" s="161"/>
-      <c r="AU48" s="161"/>
-      <c r="AV48" s="161"/>
-      <c r="AW48" s="267"/>
-      <c r="AX48" s="283"/>
-      <c r="AY48" s="284"/>
-      <c r="AZ48" s="283"/>
+      <c r="AA48" s="154"/>
+      <c r="AB48" s="155"/>
+      <c r="AC48" s="155"/>
+      <c r="AD48" s="155"/>
+      <c r="AE48" s="155"/>
+      <c r="AF48" s="155"/>
+      <c r="AG48" s="155"/>
+      <c r="AH48" s="155"/>
+      <c r="AI48" s="155"/>
+      <c r="AJ48" s="155"/>
+      <c r="AK48" s="155"/>
+      <c r="AL48" s="155"/>
+      <c r="AM48" s="155"/>
+      <c r="AN48" s="155"/>
+      <c r="AO48" s="155"/>
+      <c r="AP48" s="155"/>
+      <c r="AQ48" s="155"/>
+      <c r="AR48" s="155"/>
+      <c r="AS48" s="155"/>
+      <c r="AT48" s="155"/>
+      <c r="AU48" s="155"/>
+      <c r="AV48" s="155"/>
+      <c r="AW48" s="254"/>
+      <c r="AX48" s="270"/>
+      <c r="AY48" s="271"/>
+      <c r="AZ48" s="270"/>
       <c r="BA48" s="82"/>
       <c r="BB48" s="10"/>
       <c r="BC48" s="10"/>
@@ -11033,35 +10993,35 @@
         <f>IF(_Area34_day_shift!F13="","",_Area34_day_shift!F13)</f>
         <v/>
       </c>
-      <c r="I49" s="80" t="str">
+      <c r="I49" s="105" t="str">
         <f>IF(_Area34_day_shift!G13="","",_Area34_day_shift!G13)</f>
         <v/>
       </c>
-      <c r="J49" s="80" t="str">
+      <c r="J49" s="105" t="str">
         <f>IF(_Area34_day_shift!H13="","",_Area34_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="K49" s="80" t="str">
+      <c r="K49" s="105" t="str">
         <f>IF(_Area34_day_shift!I13="","",_Area34_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="L49" s="80" t="str">
+      <c r="L49" s="105" t="str">
         <f>IF(_Area34_day_shift!J13="","",_Area34_day_shift!J13)</f>
         <v/>
       </c>
-      <c r="M49" s="80" t="str">
+      <c r="M49" s="105" t="str">
         <f>IF(_Area34_day_shift!K13="","",_Area34_day_shift!K13)</f>
         <v/>
       </c>
-      <c r="N49" s="80" t="str">
+      <c r="N49" s="105" t="str">
         <f>IF(_Area34_day_shift!L13="","",_Area34_day_shift!L13)</f>
         <v/>
       </c>
-      <c r="O49" s="80" t="str">
+      <c r="O49" s="105" t="str">
         <f>IF(_Area34_day_shift!M13="","",_Area34_day_shift!M13)</f>
         <v/>
       </c>
-      <c r="P49" s="80" t="str">
+      <c r="P49" s="105" t="str">
         <f>IF(_Area34_day_shift!N13="","",_Area34_day_shift!N13)</f>
         <v/>
       </c>
@@ -11105,37 +11065,37 @@
         <f>IF(_Area34_day_shift!X13="","",_Area34_day_shift!X13)</f>
         <v/>
       </c>
-      <c r="AA49" s="160"/>
-      <c r="AB49" s="161"/>
-      <c r="AC49" s="161"/>
-      <c r="AD49" s="161"/>
-      <c r="AE49" s="161"/>
-      <c r="AF49" s="161"/>
-      <c r="AG49" s="161"/>
-      <c r="AH49" s="161"/>
-      <c r="AI49" s="161"/>
-      <c r="AJ49" s="161"/>
-      <c r="AK49" s="161"/>
-      <c r="AL49" s="161"/>
-      <c r="AM49" s="161"/>
-      <c r="AN49" s="161"/>
-      <c r="AO49" s="161"/>
-      <c r="AP49" s="161"/>
-      <c r="AQ49" s="161"/>
-      <c r="AR49" s="161"/>
-      <c r="AS49" s="161"/>
-      <c r="AT49" s="161"/>
-      <c r="AU49" s="161"/>
-      <c r="AV49" s="161"/>
-      <c r="AW49" s="267"/>
-      <c r="AX49" s="283"/>
-      <c r="AY49" s="284"/>
-      <c r="AZ49" s="283"/>
+      <c r="AA49" s="154"/>
+      <c r="AB49" s="155"/>
+      <c r="AC49" s="155"/>
+      <c r="AD49" s="155"/>
+      <c r="AE49" s="155"/>
+      <c r="AF49" s="155"/>
+      <c r="AG49" s="155"/>
+      <c r="AH49" s="155"/>
+      <c r="AI49" s="155"/>
+      <c r="AJ49" s="155"/>
+      <c r="AK49" s="155"/>
+      <c r="AL49" s="155"/>
+      <c r="AM49" s="155"/>
+      <c r="AN49" s="155"/>
+      <c r="AO49" s="155"/>
+      <c r="AP49" s="155"/>
+      <c r="AQ49" s="155"/>
+      <c r="AR49" s="155"/>
+      <c r="AS49" s="155"/>
+      <c r="AT49" s="155"/>
+      <c r="AU49" s="155"/>
+      <c r="AV49" s="155"/>
+      <c r="AW49" s="254"/>
+      <c r="AX49" s="270"/>
+      <c r="AY49" s="271"/>
+      <c r="AZ49" s="270"/>
       <c r="BA49" s="82"/>
       <c r="BB49" s="10"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
-      <c r="BE49" s="287"/>
+      <c r="BE49" s="274"/>
     </row>
     <row r="50" ht="15" spans="1:56">
       <c r="A50" s="85" t="s">
@@ -11148,17 +11108,17 @@
       <c r="F50" s="86"/>
       <c r="G50" s="86"/>
       <c r="H50" s="87"/>
-      <c r="I50" s="105" t="s">
+      <c r="I50" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="107"/>
-      <c r="Q50" s="122" t="s">
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="107"/>
+      <c r="O50" s="107"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="123" t="s">
         <v>121</v>
       </c>
       <c r="R50" s="86"/>
@@ -11170,32 +11130,32 @@
       <c r="X50" s="86"/>
       <c r="Y50" s="86"/>
       <c r="Z50" s="87"/>
-      <c r="AA50" s="162"/>
-      <c r="AB50" s="163"/>
-      <c r="AC50" s="163"/>
-      <c r="AD50" s="163"/>
-      <c r="AE50" s="163"/>
-      <c r="AF50" s="163"/>
-      <c r="AG50" s="163"/>
-      <c r="AH50" s="163"/>
-      <c r="AI50" s="163"/>
-      <c r="AJ50" s="163"/>
-      <c r="AK50" s="163"/>
-      <c r="AL50" s="163"/>
-      <c r="AM50" s="163"/>
-      <c r="AN50" s="163"/>
-      <c r="AO50" s="163"/>
-      <c r="AP50" s="163"/>
-      <c r="AQ50" s="163"/>
-      <c r="AR50" s="163"/>
-      <c r="AS50" s="163"/>
-      <c r="AT50" s="163"/>
-      <c r="AU50" s="163"/>
-      <c r="AV50" s="163"/>
-      <c r="AW50" s="271"/>
-      <c r="AX50" s="285"/>
-      <c r="AY50" s="286"/>
-      <c r="AZ50" s="285"/>
+      <c r="AA50" s="156"/>
+      <c r="AB50" s="157"/>
+      <c r="AC50" s="157"/>
+      <c r="AD50" s="157"/>
+      <c r="AE50" s="157"/>
+      <c r="AF50" s="157"/>
+      <c r="AG50" s="157"/>
+      <c r="AH50" s="157"/>
+      <c r="AI50" s="157"/>
+      <c r="AJ50" s="157"/>
+      <c r="AK50" s="157"/>
+      <c r="AL50" s="157"/>
+      <c r="AM50" s="157"/>
+      <c r="AN50" s="157"/>
+      <c r="AO50" s="157"/>
+      <c r="AP50" s="157"/>
+      <c r="AQ50" s="157"/>
+      <c r="AR50" s="157"/>
+      <c r="AS50" s="157"/>
+      <c r="AT50" s="157"/>
+      <c r="AU50" s="157"/>
+      <c r="AV50" s="157"/>
+      <c r="AW50" s="258"/>
+      <c r="AX50" s="272"/>
+      <c r="AY50" s="273"/>
+      <c r="AZ50" s="272"/>
       <c r="BA50" s="83"/>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>

--- a/excel/finished/能介/三四柜区运行记录表.xlsx
+++ b/excel/finished/能介/三四柜区运行记录表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Area_Main" sheetId="1" r:id="rId1"/>
+    <sheet name="AreaMain" sheetId="1" r:id="rId1"/>
     <sheet name="_Area3_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_Area4_day_hour" sheetId="3" r:id="rId3"/>
     <sheet name="_Area34_day_shift" sheetId="4" r:id="rId4"/>
@@ -882,13 +882,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="28">
@@ -950,21 +950,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,11 +970,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,31 +984,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,32 +1015,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,9 +1054,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,13 +1142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,6 +1172,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1178,13 +1232,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,31 +1280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,61 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,25 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2214,8 +2214,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2238,8 +2253,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,35 +2276,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2314,10 +2314,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2326,39 +2326,39 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="75" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="76" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2367,112 +2367,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2529,10 +2529,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2622,7 +2622,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="26" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,7 +2634,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="27" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,7 +2643,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="29" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,7 +2655,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="4" borderId="30" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2736,7 +2736,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="47" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,7 +2807,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="27" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="27" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3368,15 +3368,15 @@
     <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 3 2 4" xfId="55"/>
-    <cellStyle name="常规 14" xfId="56"/>
+    <cellStyle name="常规 14" xfId="55"/>
+    <cellStyle name="常规 3 2 4" xfId="56"/>
     <cellStyle name="常规 2" xfId="57"/>
     <cellStyle name="常规 3" xfId="58"/>
     <cellStyle name="常规 3 2 3" xfId="59"/>
-    <cellStyle name="常规 3 5" xfId="60"/>
-    <cellStyle name="常规 3 3 2" xfId="61"/>
-    <cellStyle name="常规 3 6" xfId="62"/>
-    <cellStyle name="常规 3 3 3" xfId="63"/>
+    <cellStyle name="常规 3 3 2" xfId="60"/>
+    <cellStyle name="常规 3 5" xfId="61"/>
+    <cellStyle name="常规 3 3 3" xfId="62"/>
+    <cellStyle name="常规 3 6" xfId="63"/>
     <cellStyle name="常规 3 4 2" xfId="64"/>
     <cellStyle name="常规 4" xfId="65"/>
     <cellStyle name="常规 5" xfId="66"/>
@@ -3685,7 +3685,7 @@
   <dimension ref="A1:BF53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49:P49"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.45" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/三四柜区运行记录表.xlsx
+++ b/excel/finished/能介/三四柜区运行记录表.xlsx
@@ -550,7 +550,7 @@
     <t xml:space="preserve">交班:                      接班： </t>
   </si>
   <si>
-    <t>交班：                   接班：</t>
+    <t>交班：                       接班：</t>
   </si>
   <si>
     <t>交班：                        接班：</t>
@@ -831,15 +831,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,50 +890,25 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -948,7 +923,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,22 +938,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,7 +953,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,7 +984,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +992,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,6 +1040,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,7 +1113,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,97 +1233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,61 +1263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,8 +1279,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1646,6 +1650,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1654,30 +1671,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1692,9 +1685,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1774,16 +1765,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1831,15 +1822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1850,6 +1832,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1886,17 +1877,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1908,9 +1888,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1975,7 +1953,44 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1991,70 +2006,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2085,11 +2043,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2099,13 +2091,54 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2136,13 +2169,24 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2151,55 +2195,10 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -2238,30 +2237,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2290,16 +2265,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2318,16 +2284,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2336,192 +2335,192 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="78" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2542,10 +2541,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2662,575 +2661,634 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="7" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="7" borderId="40" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="41" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="44" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="45" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="46" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="49" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="50" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="51" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="52" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="41" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="52" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="43" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="7" borderId="43" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="45" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="7" borderId="54" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="46" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="47" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="48" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="51" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="52" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="56" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="21" fontId="3" fillId="7" borderId="22" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="42" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="54" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="21" fontId="3" fillId="7" borderId="55" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="57" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="43" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="56" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="13" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="13" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="59" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="59" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="60" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="56" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="61" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="13" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="13" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="65" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="61" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="62" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="63" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="58" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="60" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="59" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="64" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="65" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="66" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="64" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="40" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="68" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="69" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="66" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="64" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="49" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="44" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="66" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="52" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="54" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="70" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="70" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="61" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="71" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="72" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="72" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="66" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="71" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="44" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="54" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="61" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="49" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="66" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="68" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="70" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="51" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="39" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="71" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="72" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="73" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="62" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="71" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="70" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="72" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="51" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="73" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="68" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="74" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="62" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="43" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="52" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="52" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="70" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="70" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3239,77 +3297,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="62" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="71" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="71" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="70" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="70" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="71" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="71" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="62" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="52" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="48" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3686,15 +3738,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BJ52"/>
+  <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD57" sqref="AD57"/>
+      <selection activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.45" defaultRowHeight="13.5"/>
   <cols>
+    <col min="8" max="8" width="10.45" customWidth="1"/>
+    <col min="30" max="30" width="12.725" customWidth="1"/>
+    <col min="31" max="31" width="14.0916666666667" customWidth="1"/>
+    <col min="32" max="32" width="13.3666666666667" customWidth="1"/>
     <col min="39" max="42" width="10.5416666666667" customWidth="1"/>
+    <col min="49" max="49" width="12" customWidth="1"/>
+    <col min="50" max="50" width="17.725" customWidth="1"/>
+    <col min="51" max="51" width="12.5416666666667" customWidth="1"/>
     <col min="58" max="64" width="10.45" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3752,12 +3811,12 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="11"/>
-      <c r="AZ1" s="179"/>
-      <c r="BA1" s="179"/>
-      <c r="BB1" s="180"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="264"/>
+      <c r="AZ1" s="194"/>
+      <c r="BA1" s="194"/>
+      <c r="BB1" s="195"/>
+      <c r="BC1" s="196"/>
+      <c r="BD1" s="196"/>
+      <c r="BE1" s="278"/>
     </row>
     <row r="2" ht="15" spans="1:58">
       <c r="A2" s="12" t="str">
@@ -3814,12 +3873,12 @@
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
       <c r="AY2" s="13"/>
-      <c r="AZ2" s="182"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="183"/>
-      <c r="BC2" s="183"/>
-      <c r="BD2" s="183"/>
-      <c r="BE2" s="265"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
+      <c r="BC2" s="198"/>
+      <c r="BD2" s="198"/>
+      <c r="BE2" s="279"/>
       <c r="BF2" t="s">
         <v>1</v>
       </c>
@@ -3859,38 +3918,38 @@
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
-      <c r="AG3" s="159" t="s">
+      <c r="AG3" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="184" t="s">
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="175"/>
+      <c r="AM3" s="175"/>
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="175"/>
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="BA3" s="185"/>
-      <c r="BB3" s="186" t="s">
+      <c r="BA3" s="200"/>
+      <c r="BB3" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="BC3" s="187"/>
-      <c r="BD3" s="187"/>
-      <c r="BE3" s="266"/>
-      <c r="BF3" s="267" t="s">
+      <c r="BC3" s="202"/>
+      <c r="BD3" s="202"/>
+      <c r="BE3" s="280"/>
+      <c r="BF3" s="281" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3920,64 +3979,64 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
       <c r="U4" s="102"/>
-      <c r="V4" s="122" t="s">
+      <c r="V4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="134" t="s">
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="134" t="s">
+      <c r="AD4" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="161" t="s">
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="163" t="s">
+      <c r="AH4" s="177"/>
+      <c r="AI4" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="163" t="s">
+      <c r="AJ4" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="163" t="s">
+      <c r="AK4" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="122" t="s">
+      <c r="AL4" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="122" t="s">
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="138"/>
+      <c r="AW4" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="188"/>
-      <c r="AZ4" s="189" t="s">
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="203"/>
+      <c r="AZ4" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="190" t="s">
+      <c r="BA4" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="BB4" s="191"/>
-      <c r="BC4" s="192"/>
-      <c r="BD4" s="192"/>
-      <c r="BE4" s="268"/>
+      <c r="BB4" s="206"/>
+      <c r="BC4" s="207"/>
+      <c r="BD4" s="207"/>
+      <c r="BE4" s="282"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:58">
       <c r="A5" s="17"/>
@@ -4059,7 +4118,7 @@
       <c r="AA5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="136" t="s">
+      <c r="AB5" s="141" t="s">
         <v>31</v>
       </c>
       <c r="AC5" s="21" t="s">
@@ -4071,18 +4130,18 @@
       <c r="AE5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="137" t="s">
+      <c r="AF5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="164" t="s">
+      <c r="AG5" s="179" t="s">
         <v>32</v>
       </c>
       <c r="AH5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
       <c r="AL5" s="22" t="s">
         <v>20</v>
       </c>
@@ -4122,15 +4181,15 @@
       <c r="AX5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AY5" s="137" t="s">
+      <c r="AY5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="194"/>
-      <c r="BB5" s="191"/>
-      <c r="BC5" s="192"/>
-      <c r="BD5" s="192"/>
-      <c r="BE5" s="268"/>
+      <c r="AZ5" s="208"/>
+      <c r="BA5" s="209"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="207"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="282"/>
       <c r="BF5" t="s">
         <v>41</v>
       </c>
@@ -4163,12 +4222,12 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
-      <c r="AB6" s="138"/>
+      <c r="AB6" s="143"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
-      <c r="AF6" s="137"/>
-      <c r="AG6" s="166"/>
+      <c r="AF6" s="142"/>
+      <c r="AG6" s="181"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="23"/>
       <c r="AJ6" s="23"/>
@@ -4186,13 +4245,13 @@
       <c r="AV6" s="23"/>
       <c r="AW6" s="22"/>
       <c r="AX6" s="22"/>
-      <c r="AY6" s="137"/>
-      <c r="AZ6" s="193"/>
-      <c r="BA6" s="194"/>
-      <c r="BB6" s="195"/>
-      <c r="BC6" s="195"/>
-      <c r="BD6" s="195"/>
-      <c r="BE6" s="236"/>
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="208"/>
+      <c r="BA6" s="209"/>
+      <c r="BB6" s="210"/>
+      <c r="BC6" s="210"/>
+      <c r="BD6" s="210"/>
+      <c r="BE6" s="250"/>
       <c r="BF6" t="s">
         <v>42</v>
       </c>
@@ -4259,25 +4318,25 @@
       <c r="U7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="124" t="s">
+      <c r="V7" s="130" t="s">
         <v>43</v>
       </c>
       <c r="W7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="X7" s="124" t="s">
+      <c r="X7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" s="124" t="s">
+      <c r="Y7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="124" t="s">
+      <c r="Z7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="124" t="s">
+      <c r="AA7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="139" t="s">
+      <c r="AB7" s="144" t="s">
         <v>48</v>
       </c>
       <c r="AC7" s="26" t="s">
@@ -4289,80 +4348,80 @@
       <c r="AE7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" s="139" t="s">
+      <c r="AF7" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="167" t="s">
+      <c r="AG7" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="AH7" s="124" t="s">
+      <c r="AH7" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="AI7" s="124" t="s">
+      <c r="AI7" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="124" t="s">
+      <c r="AJ7" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="AK7" s="124" t="s">
+      <c r="AK7" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="AL7" s="124" t="s">
+      <c r="AL7" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="AM7" s="124" t="s">
+      <c r="AM7" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="AN7" s="124" t="s">
+      <c r="AN7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AO7" s="124" t="s">
+      <c r="AO7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AP7" s="124" t="s">
+      <c r="AP7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="124" t="s">
+      <c r="AQ7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AR7" s="136" t="s">
+      <c r="AR7" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" s="136" t="s">
+      <c r="AS7" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="AT7" s="136" t="s">
+      <c r="AT7" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="AU7" s="124" t="s">
+      <c r="AU7" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="173" t="s">
+      <c r="AV7" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="AW7" s="124" t="s">
+      <c r="AW7" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="AX7" s="124" t="s">
+      <c r="AX7" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="AY7" s="136" t="s">
+      <c r="AY7" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="AZ7" s="196" t="s">
+      <c r="AZ7" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="BA7" s="197" t="s">
+      <c r="BA7" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="BB7" s="198" t="s">
+      <c r="BB7" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="BC7" s="199"/>
-      <c r="BD7" s="200" t="s">
+      <c r="BC7" s="214"/>
+      <c r="BD7" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="BE7" s="227"/>
+      <c r="BE7" s="242"/>
       <c r="BF7" t="s">
         <v>56</v>
       </c>
@@ -4452,7 +4511,7 @@
         <v/>
       </c>
       <c r="V8" s="39" t="str">
-        <f>IF(_Area3_day_hour!U2="","",_Area3_day_hour!U2/10000)</f>
+        <f>IF(_Area3_day_hour!U2="","",_Area3_day_hour!U2)</f>
         <v/>
       </c>
       <c r="W8" s="29" t="str">
@@ -4479,7 +4538,7 @@
         <f>IF(_Area3_day_hour!Y2="","",_Area3_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AC8" s="140" t="str">
+      <c r="AC8" s="145" t="str">
         <f>IF(_Area3_day_hour!AE2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF2&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4491,11 +4550,11 @@
         <f>IF(_Area3_day_hour!AA2="","",_Area3_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AF8" s="141" t="str">
+      <c r="AF8" s="146" t="str">
         <f>IF(_Area3_day_hour!AB2="","",_Area3_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AG8" s="168" t="str">
+      <c r="AG8" s="183" t="str">
         <f>IF(_Area4_day_hour!I2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4503,15 +4562,15 @@
         <f>IF(_Area4_day_hour!A2="","",_Area4_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="AI8" s="169" t="str">
+      <c r="AI8" s="184" t="str">
         <f>IF(_Area4_day_hour!L2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ8" s="169" t="str">
+      <c r="AJ8" s="184" t="str">
         <f>IF(_Area4_day_hour!N2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK8" s="169" t="str">
+      <c r="AK8" s="184" t="str">
         <f>IF(_Area4_day_hour!P2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4520,7 +4579,7 @@
         <v/>
       </c>
       <c r="AM8" s="29" t="str">
-        <f>IF(_Area4_day_hour!C2="","",_Area4_day_hour!C2/1000)</f>
+        <f>IF(_Area4_day_hour!C2="","",_Area4_day_hour!C2)</f>
         <v/>
       </c>
       <c r="AN8" s="39" t="str">
@@ -4539,7 +4598,7 @@
         <f>IF(_Area4_day_hour!AU2="","",_Area4_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AR8" s="174" t="str">
+      <c r="AR8" s="189" t="str">
         <f>IF(_Area4_day_hour!T2&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4567,20 +4626,20 @@
         <f>IF(_Area4_day_hour!G2="","",_Area4_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="AY8" s="141" t="str">
+      <c r="AY8" s="146" t="str">
         <f>IF(_Area4_day_hour!H2="","",_Area4_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="201"/>
-      <c r="BA8" s="202"/>
-      <c r="BB8" s="203" t="s">
+      <c r="AZ8" s="216"/>
+      <c r="BA8" s="217"/>
+      <c r="BB8" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="BC8" s="204"/>
-      <c r="BD8" s="205" t="s">
+      <c r="BC8" s="219"/>
+      <c r="BD8" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="BE8" s="204"/>
+      <c r="BE8" s="219"/>
     </row>
     <row r="9" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A9" s="30">
@@ -4667,7 +4726,7 @@
         <v/>
       </c>
       <c r="V9" s="33" t="str">
-        <f>IF(_Area3_day_hour!U3="","",_Area3_day_hour!U3/10000)</f>
+        <f>IF(_Area3_day_hour!U3="","",_Area3_day_hour!U3)</f>
         <v/>
       </c>
       <c r="W9" s="32" t="str">
@@ -4694,7 +4753,7 @@
         <f>IF(_Area3_day_hour!Y3="","",_Area3_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AC9" s="142" t="str">
+      <c r="AC9" s="147" t="str">
         <f>IF(_Area3_day_hour!AE3&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF3&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4706,11 +4765,11 @@
         <f>IF(_Area3_day_hour!AA3="","",_Area3_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AF9" s="143" t="str">
+      <c r="AF9" s="148" t="str">
         <f>IF(_Area3_day_hour!AB3="","",_Area3_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AG9" s="170" t="str">
+      <c r="AG9" s="185" t="str">
         <f>IF(_Area4_day_hour!I3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4718,15 +4777,15 @@
         <f>IF(_Area4_day_hour!A3="","",_Area4_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="AI9" s="142" t="str">
+      <c r="AI9" s="147" t="str">
         <f>IF(_Area4_day_hour!L3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ9" s="142" t="str">
+      <c r="AJ9" s="147" t="str">
         <f>IF(_Area4_day_hour!N3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK9" s="142" t="str">
+      <c r="AK9" s="147" t="str">
         <f>IF(_Area4_day_hour!P3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4735,7 +4794,7 @@
         <v/>
       </c>
       <c r="AM9" s="32" t="str">
-        <f>IF(_Area4_day_hour!C3="","",_Area4_day_hour!C3/1000)</f>
+        <f>IF(_Area4_day_hour!C3="","",_Area4_day_hour!C3)</f>
         <v/>
       </c>
       <c r="AN9" s="33" t="str">
@@ -4754,7 +4813,7 @@
         <f>IF(_Area4_day_hour!AU3="","",_Area4_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AR9" s="175" t="str">
+      <c r="AR9" s="190" t="str">
         <f>IF(_Area4_day_hour!T3&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4782,16 +4841,16 @@
         <f>IF(_Area4_day_hour!G3="","",_Area4_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="AY9" s="143" t="str">
+      <c r="AY9" s="148" t="str">
         <f>IF(_Area4_day_hour!H3="","",_Area4_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="206"/>
-      <c r="BA9" s="207"/>
-      <c r="BB9" s="208"/>
-      <c r="BC9" s="209"/>
-      <c r="BD9" s="210"/>
-      <c r="BE9" s="209"/>
+      <c r="AZ9" s="221"/>
+      <c r="BA9" s="222"/>
+      <c r="BB9" s="223"/>
+      <c r="BC9" s="224"/>
+      <c r="BD9" s="225"/>
+      <c r="BE9" s="224"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A10" s="30">
@@ -4878,7 +4937,7 @@
         <v/>
       </c>
       <c r="V10" s="33" t="str">
-        <f>IF(_Area3_day_hour!U4="","",_Area3_day_hour!U4/10000)</f>
+        <f>IF(_Area3_day_hour!U4="","",_Area3_day_hour!U4)</f>
         <v/>
       </c>
       <c r="W10" s="32" t="str">
@@ -4905,7 +4964,7 @@
         <f>IF(_Area3_day_hour!Y4="","",_Area3_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AC10" s="142" t="str">
+      <c r="AC10" s="147" t="str">
         <f>IF(_Area3_day_hour!AE4&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF4&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4917,11 +4976,11 @@
         <f>IF(_Area3_day_hour!AA4="","",_Area3_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AF10" s="143" t="str">
+      <c r="AF10" s="148" t="str">
         <f>IF(_Area3_day_hour!AB4="","",_Area3_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AG10" s="170" t="str">
+      <c r="AG10" s="185" t="str">
         <f>IF(_Area4_day_hour!I4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4929,15 +4988,15 @@
         <f>IF(_Area4_day_hour!A4="","",_Area4_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="AI10" s="142" t="str">
+      <c r="AI10" s="147" t="str">
         <f>IF(_Area4_day_hour!L4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ10" s="142" t="str">
+      <c r="AJ10" s="147" t="str">
         <f>IF(_Area4_day_hour!N4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK10" s="142" t="str">
+      <c r="AK10" s="147" t="str">
         <f>IF(_Area4_day_hour!P4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4946,7 +5005,7 @@
         <v/>
       </c>
       <c r="AM10" s="32" t="str">
-        <f>IF(_Area4_day_hour!C4="","",_Area4_day_hour!C4/1000)</f>
+        <f>IF(_Area4_day_hour!C4="","",_Area4_day_hour!C4)</f>
         <v/>
       </c>
       <c r="AN10" s="33" t="str">
@@ -4965,7 +5024,7 @@
         <f>IF(_Area4_day_hour!AU4="","",_Area4_day_hour!AU4)</f>
         <v/>
       </c>
-      <c r="AR10" s="175" t="str">
+      <c r="AR10" s="190" t="str">
         <f>IF(_Area4_day_hour!T4&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4993,20 +5052,20 @@
         <f>IF(_Area4_day_hour!G4="","",_Area4_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="AY10" s="143" t="str">
+      <c r="AY10" s="148" t="str">
         <f>IF(_Area4_day_hour!H4="","",_Area4_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="206"/>
-      <c r="BA10" s="207"/>
-      <c r="BB10" s="203" t="s">
+      <c r="AZ10" s="221"/>
+      <c r="BA10" s="222"/>
+      <c r="BB10" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="BC10" s="204"/>
-      <c r="BD10" s="205" t="s">
+      <c r="BC10" s="219"/>
+      <c r="BD10" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="BE10" s="204"/>
+      <c r="BE10" s="219"/>
     </row>
     <row r="11" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A11" s="30">
@@ -5068,7 +5127,10 @@
         <f>IF(_Area3_day_hour!N5="","",_Area3_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="P11" s="33"/>
+      <c r="P11" s="33" t="str">
+        <f>IF(_Area3_day_hour!O5="","",_Area3_day_hour!O5)</f>
+        <v/>
+      </c>
       <c r="Q11" s="33" t="str">
         <f>IF(_Area3_day_hour!P5="","",_Area3_day_hour!P5)</f>
         <v/>
@@ -5090,7 +5152,7 @@
         <v/>
       </c>
       <c r="V11" s="33" t="str">
-        <f>IF(_Area3_day_hour!U5="","",_Area3_day_hour!U5/10000)</f>
+        <f>IF(_Area3_day_hour!U5="","",_Area3_day_hour!U5)</f>
         <v/>
       </c>
       <c r="W11" s="32" t="str">
@@ -5117,7 +5179,7 @@
         <f>IF(_Area3_day_hour!Y5="","",_Area3_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AC11" s="142" t="str">
+      <c r="AC11" s="147" t="str">
         <f>IF(_Area3_day_hour!AE5&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF5&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5129,11 +5191,11 @@
         <f>IF(_Area3_day_hour!AA5="","",_Area3_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AF11" s="143" t="str">
+      <c r="AF11" s="148" t="str">
         <f>IF(_Area3_day_hour!AB5="","",_Area3_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AG11" s="170" t="str">
+      <c r="AG11" s="185" t="str">
         <f>IF(_Area4_day_hour!I5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5141,15 +5203,15 @@
         <f>IF(_Area4_day_hour!A5="","",_Area4_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="AI11" s="142" t="str">
+      <c r="AI11" s="147" t="str">
         <f>IF(_Area4_day_hour!L5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ11" s="142" t="str">
+      <c r="AJ11" s="147" t="str">
         <f>IF(_Area4_day_hour!N5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK11" s="142" t="str">
+      <c r="AK11" s="147" t="str">
         <f>IF(_Area4_day_hour!P5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5158,7 +5220,7 @@
         <v/>
       </c>
       <c r="AM11" s="32" t="str">
-        <f>IF(_Area4_day_hour!C5="","",_Area4_day_hour!C5/1000)</f>
+        <f>IF(_Area4_day_hour!C5="","",_Area4_day_hour!C5)</f>
         <v/>
       </c>
       <c r="AN11" s="33" t="str">
@@ -5177,7 +5239,7 @@
         <f>IF(_Area4_day_hour!AU5="","",_Area4_day_hour!AU5)</f>
         <v/>
       </c>
-      <c r="AR11" s="175" t="str">
+      <c r="AR11" s="190" t="str">
         <f>IF(_Area4_day_hour!T5&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5205,16 +5267,16 @@
         <f>IF(_Area4_day_hour!G5="","",_Area4_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="AY11" s="143" t="str">
+      <c r="AY11" s="148" t="str">
         <f>IF(_Area4_day_hour!H5="","",_Area4_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="206"/>
-      <c r="BA11" s="207"/>
-      <c r="BB11" s="208"/>
-      <c r="BC11" s="209"/>
-      <c r="BD11" s="210"/>
-      <c r="BE11" s="209"/>
+      <c r="AZ11" s="221"/>
+      <c r="BA11" s="222"/>
+      <c r="BB11" s="223"/>
+      <c r="BC11" s="224"/>
+      <c r="BD11" s="225"/>
+      <c r="BE11" s="224"/>
     </row>
     <row r="12" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A12" s="30">
@@ -5301,7 +5363,7 @@
         <v/>
       </c>
       <c r="V12" s="33" t="str">
-        <f>IF(_Area3_day_hour!U6="","",_Area3_day_hour!U6/10000)</f>
+        <f>IF(_Area3_day_hour!U6="","",_Area3_day_hour!U6)</f>
         <v/>
       </c>
       <c r="W12" s="32" t="str">
@@ -5328,7 +5390,7 @@
         <f>IF(_Area3_day_hour!Y6="","",_Area3_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AC12" s="142" t="str">
+      <c r="AC12" s="147" t="str">
         <f>IF(_Area3_day_hour!AE6&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF6&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5340,11 +5402,11 @@
         <f>IF(_Area3_day_hour!AA6="","",_Area3_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AF12" s="143" t="str">
+      <c r="AF12" s="148" t="str">
         <f>IF(_Area3_day_hour!AB6="","",_Area3_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AG12" s="170" t="str">
+      <c r="AG12" s="185" t="str">
         <f>IF(_Area4_day_hour!I6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5352,15 +5414,15 @@
         <f>IF(_Area4_day_hour!A6="","",_Area4_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="AI12" s="142" t="str">
+      <c r="AI12" s="147" t="str">
         <f>IF(_Area4_day_hour!L6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ12" s="142" t="str">
+      <c r="AJ12" s="147" t="str">
         <f>IF(_Area4_day_hour!N6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK12" s="142" t="str">
+      <c r="AK12" s="147" t="str">
         <f>IF(_Area4_day_hour!P6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5369,7 +5431,7 @@
         <v/>
       </c>
       <c r="AM12" s="32" t="str">
-        <f>IF(_Area4_day_hour!C6="","",_Area4_day_hour!C6/1000)</f>
+        <f>IF(_Area4_day_hour!C6="","",_Area4_day_hour!C6)</f>
         <v/>
       </c>
       <c r="AN12" s="33" t="str">
@@ -5388,7 +5450,7 @@
         <f>IF(_Area4_day_hour!AU6="","",_Area4_day_hour!AU6)</f>
         <v/>
       </c>
-      <c r="AR12" s="175" t="str">
+      <c r="AR12" s="190" t="str">
         <f>IF(_Area4_day_hour!T6&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5416,18 +5478,18 @@
         <f>IF(_Area4_day_hour!G6="","",_Area4_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="AY12" s="143" t="str">
+      <c r="AY12" s="148" t="str">
         <f>IF(_Area4_day_hour!H6="","",_Area4_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="206"/>
-      <c r="BA12" s="207"/>
-      <c r="BB12" s="203" t="s">
+      <c r="AZ12" s="221"/>
+      <c r="BA12" s="222"/>
+      <c r="BB12" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="204"/>
-      <c r="BD12" s="205"/>
-      <c r="BE12" s="204"/>
+      <c r="BC12" s="219"/>
+      <c r="BD12" s="220"/>
+      <c r="BE12" s="219"/>
     </row>
     <row r="13" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A13" s="30">
@@ -5514,7 +5576,7 @@
         <v/>
       </c>
       <c r="V13" s="33" t="str">
-        <f>IF(_Area3_day_hour!U7="","",_Area3_day_hour!U7/10000)</f>
+        <f>IF(_Area3_day_hour!U7="","",_Area3_day_hour!U7)</f>
         <v/>
       </c>
       <c r="W13" s="32" t="str">
@@ -5541,7 +5603,7 @@
         <f>IF(_Area3_day_hour!Y7="","",_Area3_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AC13" s="142" t="str">
+      <c r="AC13" s="147" t="str">
         <f>IF(_Area3_day_hour!AE7&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF7&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5553,11 +5615,11 @@
         <f>IF(_Area3_day_hour!AA7="","",_Area3_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AF13" s="143" t="str">
+      <c r="AF13" s="148" t="str">
         <f>IF(_Area3_day_hour!AB7="","",_Area3_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AG13" s="170" t="str">
+      <c r="AG13" s="185" t="str">
         <f>IF(_Area4_day_hour!I7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5565,15 +5627,15 @@
         <f>IF(_Area4_day_hour!A7="","",_Area4_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="AI13" s="142" t="str">
+      <c r="AI13" s="147" t="str">
         <f>IF(_Area4_day_hour!L7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ13" s="142" t="str">
+      <c r="AJ13" s="147" t="str">
         <f>IF(_Area4_day_hour!N7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK13" s="142" t="str">
+      <c r="AK13" s="147" t="str">
         <f>IF(_Area4_day_hour!P7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5582,7 +5644,7 @@
         <v/>
       </c>
       <c r="AM13" s="32" t="str">
-        <f>IF(_Area4_day_hour!C7="","",_Area4_day_hour!C7/1000)</f>
+        <f>IF(_Area4_day_hour!C7="","",_Area4_day_hour!C7)</f>
         <v/>
       </c>
       <c r="AN13" s="33" t="str">
@@ -5601,7 +5663,7 @@
         <f>IF(_Area4_day_hour!AU7="","",_Area4_day_hour!AU7)</f>
         <v/>
       </c>
-      <c r="AR13" s="175" t="str">
+      <c r="AR13" s="190" t="str">
         <f>IF(_Area4_day_hour!T7&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5629,16 +5691,16 @@
         <f>IF(_Area4_day_hour!G7="","",_Area4_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="AY13" s="143" t="str">
+      <c r="AY13" s="148" t="str">
         <f>IF(_Area4_day_hour!H7="","",_Area4_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="206"/>
-      <c r="BA13" s="207"/>
-      <c r="BB13" s="208"/>
-      <c r="BC13" s="211"/>
-      <c r="BD13" s="210"/>
-      <c r="BE13" s="211"/>
+      <c r="AZ13" s="221"/>
+      <c r="BA13" s="222"/>
+      <c r="BB13" s="223"/>
+      <c r="BC13" s="226"/>
+      <c r="BD13" s="225"/>
+      <c r="BE13" s="226"/>
     </row>
     <row r="14" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A14" s="30">
@@ -5725,7 +5787,7 @@
         <v/>
       </c>
       <c r="V14" s="33" t="str">
-        <f>IF(_Area3_day_hour!U8="","",_Area3_day_hour!U8/10000)</f>
+        <f>IF(_Area3_day_hour!U8="","",_Area3_day_hour!U8)</f>
         <v/>
       </c>
       <c r="W14" s="32" t="str">
@@ -5752,7 +5814,7 @@
         <f>IF(_Area3_day_hour!Y8="","",_Area3_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AC14" s="142" t="str">
+      <c r="AC14" s="147" t="str">
         <f>IF(_Area3_day_hour!AE8&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF8&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5764,11 +5826,11 @@
         <f>IF(_Area3_day_hour!AA8="","",_Area3_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AF14" s="143" t="str">
+      <c r="AF14" s="148" t="str">
         <f>IF(_Area3_day_hour!AB8="","",_Area3_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AG14" s="170" t="str">
+      <c r="AG14" s="185" t="str">
         <f>IF(_Area4_day_hour!I8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5776,15 +5838,15 @@
         <f>IF(_Area4_day_hour!A8="","",_Area4_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="AI14" s="142" t="str">
+      <c r="AI14" s="147" t="str">
         <f>IF(_Area4_day_hour!L8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ14" s="142" t="str">
+      <c r="AJ14" s="147" t="str">
         <f>IF(_Area4_day_hour!N8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK14" s="142" t="str">
+      <c r="AK14" s="147" t="str">
         <f>IF(_Area4_day_hour!P8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5793,7 +5855,7 @@
         <v/>
       </c>
       <c r="AM14" s="32" t="str">
-        <f>IF(_Area4_day_hour!C8="","",_Area4_day_hour!C8/1000)</f>
+        <f>IF(_Area4_day_hour!C8="","",_Area4_day_hour!C8)</f>
         <v/>
       </c>
       <c r="AN14" s="33" t="str">
@@ -5812,7 +5874,7 @@
         <f>IF(_Area4_day_hour!AU8="","",_Area4_day_hour!AU8)</f>
         <v/>
       </c>
-      <c r="AR14" s="175" t="str">
+      <c r="AR14" s="190" t="str">
         <f>IF(_Area4_day_hour!T8&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5840,20 +5902,20 @@
         <f>IF(_Area4_day_hour!G8="","",_Area4_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="AY14" s="143" t="str">
+      <c r="AY14" s="148" t="str">
         <f>IF(_Area4_day_hour!H8="","",_Area4_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="206"/>
-      <c r="BA14" s="207"/>
-      <c r="BB14" s="212" t="s">
+      <c r="AZ14" s="221"/>
+      <c r="BA14" s="222"/>
+      <c r="BB14" s="227" t="s">
         <v>62</v>
       </c>
-      <c r="BC14" s="213"/>
-      <c r="BD14" s="214" t="s">
+      <c r="BC14" s="228"/>
+      <c r="BD14" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="BE14" s="213"/>
+      <c r="BE14" s="228"/>
     </row>
     <row r="15" s="9" customFormat="1" ht="18" spans="1:57">
       <c r="A15" s="34">
@@ -5940,7 +6002,7 @@
         <v/>
       </c>
       <c r="V15" s="38" t="str">
-        <f>IF(_Area3_day_hour!U9="","",_Area3_day_hour!U9/10000)</f>
+        <f>IF(_Area3_day_hour!U9="","",_Area3_day_hour!U9)</f>
         <v/>
       </c>
       <c r="W15" s="36" t="str">
@@ -5967,7 +6029,7 @@
         <f>IF(_Area3_day_hour!Y9="","",_Area3_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AC15" s="144" t="str">
+      <c r="AC15" s="149" t="str">
         <f>IF(_Area3_day_hour!AE9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF9&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5979,11 +6041,11 @@
         <f>IF(_Area3_day_hour!AA9="","",_Area3_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AF15" s="145" t="str">
+      <c r="AF15" s="150" t="str">
         <f>IF(_Area3_day_hour!AB9="","",_Area3_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AG15" s="171" t="str">
+      <c r="AG15" s="186" t="str">
         <f>IF(_Area4_day_hour!I9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5991,15 +6053,15 @@
         <f>IF(_Area4_day_hour!A9="","",_Area4_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="AI15" s="144" t="str">
+      <c r="AI15" s="149" t="str">
         <f>IF(_Area4_day_hour!L9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ15" s="144" t="str">
+      <c r="AJ15" s="149" t="str">
         <f>IF(_Area4_day_hour!N9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK15" s="144" t="str">
+      <c r="AK15" s="149" t="str">
         <f>IF(_Area4_day_hour!P9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6008,7 +6070,7 @@
         <v/>
       </c>
       <c r="AM15" s="36" t="str">
-        <f>IF(_Area4_day_hour!C9="","",_Area4_day_hour!C9/1000)</f>
+        <f>IF(_Area4_day_hour!C9="","",_Area4_day_hour!C9)</f>
         <v/>
       </c>
       <c r="AN15" s="38" t="str">
@@ -6027,7 +6089,7 @@
         <f>IF(_Area4_day_hour!AU9="","",_Area4_day_hour!AU9)</f>
         <v/>
       </c>
-      <c r="AR15" s="176" t="str">
+      <c r="AR15" s="191" t="str">
         <f>IF(_Area4_day_hour!T9&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6055,20 +6117,20 @@
         <f>IF(_Area4_day_hour!G9="","",_Area4_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="AY15" s="145" t="str">
+      <c r="AY15" s="150" t="str">
         <f>IF(_Area4_day_hour!H9="","",_Area4_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="215"/>
-      <c r="BA15" s="216"/>
-      <c r="BB15" s="217" t="s">
+      <c r="AZ15" s="230"/>
+      <c r="BA15" s="231"/>
+      <c r="BB15" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="BC15" s="213"/>
-      <c r="BD15" s="218" t="s">
+      <c r="BC15" s="228"/>
+      <c r="BD15" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="BE15" s="213"/>
+      <c r="BE15" s="228"/>
     </row>
     <row r="16" s="7" customFormat="1" ht="17.25" spans="1:57">
       <c r="A16" s="27">
@@ -6155,7 +6217,7 @@
         <v/>
       </c>
       <c r="V16" s="39" t="str">
-        <f>IF(_Area3_day_hour!U10="","",_Area3_day_hour!U10/10000)</f>
+        <f>IF(_Area3_day_hour!U10="","",_Area3_day_hour!U10)</f>
         <v/>
       </c>
       <c r="W16" s="29" t="str">
@@ -6182,7 +6244,7 @@
         <f>IF(_Area3_day_hour!Y10="","",_Area3_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AC16" s="140" t="str">
+      <c r="AC16" s="145" t="str">
         <f>IF(_Area3_day_hour!AE10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF10&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6194,11 +6256,11 @@
         <f>IF(_Area3_day_hour!AA10="","",_Area3_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AF16" s="146" t="str">
+      <c r="AF16" s="151" t="str">
         <f>IF(_Area3_day_hour!AB10="","",_Area3_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AG16" s="168" t="str">
+      <c r="AG16" s="183" t="str">
         <f>IF(_Area4_day_hour!I10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6206,15 +6268,15 @@
         <f>IF(_Area4_day_hour!A10="","",_Area4_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="AI16" s="140" t="str">
+      <c r="AI16" s="145" t="str">
         <f>IF(_Area4_day_hour!L10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ16" s="140" t="str">
+      <c r="AJ16" s="145" t="str">
         <f>IF(_Area4_day_hour!N10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK16" s="140" t="str">
+      <c r="AK16" s="145" t="str">
         <f>IF(_Area4_day_hour!P10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6223,7 +6285,7 @@
         <v/>
       </c>
       <c r="AM16" s="29" t="str">
-        <f>IF(_Area4_day_hour!C10="","",_Area4_day_hour!C10/1000)</f>
+        <f>IF(_Area4_day_hour!C10="","",_Area4_day_hour!C10)</f>
         <v/>
       </c>
       <c r="AN16" s="39" t="str">
@@ -6242,7 +6304,7 @@
         <f>IF(_Area4_day_hour!AU10="","",_Area4_day_hour!AU10)</f>
         <v/>
       </c>
-      <c r="AR16" s="177" t="str">
+      <c r="AR16" s="192" t="str">
         <f>IF(_Area4_day_hour!T10&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6270,20 +6332,20 @@
         <f>IF(_Area4_day_hour!G10="","",_Area4_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="AY16" s="146" t="str">
+      <c r="AY16" s="151" t="str">
         <f>IF(_Area4_day_hour!H10="","",_Area4_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="219"/>
-      <c r="BA16" s="220"/>
-      <c r="BB16" s="203" t="s">
+      <c r="AZ16" s="234"/>
+      <c r="BA16" s="235"/>
+      <c r="BB16" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="BC16" s="204"/>
-      <c r="BD16" s="205" t="s">
+      <c r="BC16" s="219"/>
+      <c r="BD16" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="BE16" s="204"/>
+      <c r="BE16" s="219"/>
     </row>
     <row r="17" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A17" s="30">
@@ -6370,7 +6432,7 @@
         <v/>
       </c>
       <c r="V17" s="33" t="str">
-        <f>IF(_Area3_day_hour!U11="","",_Area3_day_hour!U11/10000)</f>
+        <f>IF(_Area3_day_hour!U11="","",_Area3_day_hour!U11)</f>
         <v/>
       </c>
       <c r="W17" s="32" t="str">
@@ -6397,7 +6459,7 @@
         <f>IF(_Area3_day_hour!Y11="","",_Area3_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AC17" s="142" t="str">
+      <c r="AC17" s="147" t="str">
         <f>IF(_Area3_day_hour!AE11&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF11&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6409,11 +6471,11 @@
         <f>IF(_Area3_day_hour!AA11="","",_Area3_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AF17" s="147" t="str">
+      <c r="AF17" s="152" t="str">
         <f>IF(_Area3_day_hour!AB11="","",_Area3_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AG17" s="170" t="str">
+      <c r="AG17" s="185" t="str">
         <f>IF(_Area4_day_hour!I11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6421,15 +6483,15 @@
         <f>IF(_Area4_day_hour!A11="","",_Area4_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="AI17" s="142" t="str">
+      <c r="AI17" s="147" t="str">
         <f>IF(_Area4_day_hour!L11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ17" s="142" t="str">
+      <c r="AJ17" s="147" t="str">
         <f>IF(_Area4_day_hour!N11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK17" s="142" t="str">
+      <c r="AK17" s="147" t="str">
         <f>IF(_Area4_day_hour!P11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6438,7 +6500,7 @@
         <v/>
       </c>
       <c r="AM17" s="32" t="str">
-        <f>IF(_Area4_day_hour!C11="","",_Area4_day_hour!C11/1000)</f>
+        <f>IF(_Area4_day_hour!C11="","",_Area4_day_hour!C11)</f>
         <v/>
       </c>
       <c r="AN17" s="33" t="str">
@@ -6457,7 +6519,7 @@
         <f>IF(_Area4_day_hour!AU11="","",_Area4_day_hour!AU11)</f>
         <v/>
       </c>
-      <c r="AR17" s="175" t="str">
+      <c r="AR17" s="190" t="str">
         <f>IF(_Area4_day_hour!T11&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6485,16 +6547,16 @@
         <f>IF(_Area4_day_hour!G11="","",_Area4_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="AY17" s="147" t="str">
+      <c r="AY17" s="152" t="str">
         <f>IF(_Area4_day_hour!H11="","",_Area4_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="221"/>
-      <c r="BA17" s="222"/>
-      <c r="BB17" s="208"/>
-      <c r="BC17" s="209"/>
-      <c r="BD17" s="210"/>
-      <c r="BE17" s="209"/>
+      <c r="AZ17" s="236"/>
+      <c r="BA17" s="237"/>
+      <c r="BB17" s="223"/>
+      <c r="BC17" s="224"/>
+      <c r="BD17" s="225"/>
+      <c r="BE17" s="224"/>
     </row>
     <row r="18" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A18" s="40">
@@ -6581,7 +6643,7 @@
         <v/>
       </c>
       <c r="V18" s="33" t="str">
-        <f>IF(_Area3_day_hour!U12="","",_Area3_day_hour!U12/10000)</f>
+        <f>IF(_Area3_day_hour!U12="","",_Area3_day_hour!U12)</f>
         <v/>
       </c>
       <c r="W18" s="32" t="str">
@@ -6608,7 +6670,7 @@
         <f>IF(_Area3_day_hour!Y12="","",_Area3_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AC18" s="142" t="str">
+      <c r="AC18" s="147" t="str">
         <f>IF(_Area3_day_hour!AE12&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF12&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6620,11 +6682,11 @@
         <f>IF(_Area3_day_hour!AA12="","",_Area3_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AF18" s="147" t="str">
+      <c r="AF18" s="152" t="str">
         <f>IF(_Area3_day_hour!AB12="","",_Area3_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AG18" s="170" t="str">
+      <c r="AG18" s="185" t="str">
         <f>IF(_Area4_day_hour!I12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6632,15 +6694,15 @@
         <f>IF(_Area4_day_hour!A12="","",_Area4_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="AI18" s="142" t="str">
+      <c r="AI18" s="147" t="str">
         <f>IF(_Area4_day_hour!L12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ18" s="142" t="str">
+      <c r="AJ18" s="147" t="str">
         <f>IF(_Area4_day_hour!N12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK18" s="142" t="str">
+      <c r="AK18" s="147" t="str">
         <f>IF(_Area4_day_hour!P12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6649,7 +6711,7 @@
         <v/>
       </c>
       <c r="AM18" s="32" t="str">
-        <f>IF(_Area4_day_hour!C12="","",_Area4_day_hour!C12/1000)</f>
+        <f>IF(_Area4_day_hour!C12="","",_Area4_day_hour!C12)</f>
         <v/>
       </c>
       <c r="AN18" s="33" t="str">
@@ -6668,7 +6730,7 @@
         <f>IF(_Area4_day_hour!AU12="","",_Area4_day_hour!AU12)</f>
         <v/>
       </c>
-      <c r="AR18" s="175" t="str">
+      <c r="AR18" s="190" t="str">
         <f>IF(_Area4_day_hour!T12&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6696,20 +6758,20 @@
         <f>IF(_Area4_day_hour!G12="","",_Area4_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="AY18" s="147" t="str">
+      <c r="AY18" s="152" t="str">
         <f>IF(_Area4_day_hour!H12="","",_Area4_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="221"/>
-      <c r="BA18" s="222"/>
-      <c r="BB18" s="203" t="s">
+      <c r="AZ18" s="236"/>
+      <c r="BA18" s="237"/>
+      <c r="BB18" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="BC18" s="204"/>
-      <c r="BD18" s="205" t="s">
+      <c r="BC18" s="219"/>
+      <c r="BD18" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="BE18" s="204"/>
+      <c r="BE18" s="219"/>
     </row>
     <row r="19" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A19" s="40">
@@ -6796,7 +6858,7 @@
         <v/>
       </c>
       <c r="V19" s="33" t="str">
-        <f>IF(_Area3_day_hour!U13="","",_Area3_day_hour!U13/10000)</f>
+        <f>IF(_Area3_day_hour!U13="","",_Area3_day_hour!U13)</f>
         <v/>
       </c>
       <c r="W19" s="32" t="str">
@@ -6823,7 +6885,7 @@
         <f>IF(_Area3_day_hour!Y13="","",_Area3_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AC19" s="142" t="str">
+      <c r="AC19" s="147" t="str">
         <f>IF(_Area3_day_hour!AE13&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF13&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6835,11 +6897,11 @@
         <f>IF(_Area3_day_hour!AA13="","",_Area3_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AF19" s="147" t="str">
+      <c r="AF19" s="152" t="str">
         <f>IF(_Area3_day_hour!AB13="","",_Area3_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AG19" s="170" t="str">
+      <c r="AG19" s="185" t="str">
         <f>IF(_Area4_day_hour!I13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6847,15 +6909,15 @@
         <f>IF(_Area4_day_hour!A13="","",_Area4_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="AI19" s="142" t="str">
+      <c r="AI19" s="147" t="str">
         <f>IF(_Area4_day_hour!L13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ19" s="142" t="str">
+      <c r="AJ19" s="147" t="str">
         <f>IF(_Area4_day_hour!N13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK19" s="142" t="str">
+      <c r="AK19" s="147" t="str">
         <f>IF(_Area4_day_hour!P13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6864,7 +6926,7 @@
         <v/>
       </c>
       <c r="AM19" s="32" t="str">
-        <f>IF(_Area4_day_hour!C13="","",_Area4_day_hour!C13/1000)</f>
+        <f>IF(_Area4_day_hour!C13="","",_Area4_day_hour!C13)</f>
         <v/>
       </c>
       <c r="AN19" s="33" t="str">
@@ -6883,7 +6945,7 @@
         <f>IF(_Area4_day_hour!AU13="","",_Area4_day_hour!AU13)</f>
         <v/>
       </c>
-      <c r="AR19" s="175" t="str">
+      <c r="AR19" s="190" t="str">
         <f>IF(_Area4_day_hour!T13&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6911,16 +6973,16 @@
         <f>IF(_Area4_day_hour!G13="","",_Area4_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="AY19" s="147" t="str">
+      <c r="AY19" s="152" t="str">
         <f>IF(_Area4_day_hour!H13="","",_Area4_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="221"/>
-      <c r="BA19" s="222"/>
-      <c r="BB19" s="208"/>
-      <c r="BC19" s="209"/>
-      <c r="BD19" s="210"/>
-      <c r="BE19" s="209"/>
+      <c r="AZ19" s="236"/>
+      <c r="BA19" s="237"/>
+      <c r="BB19" s="223"/>
+      <c r="BC19" s="224"/>
+      <c r="BD19" s="225"/>
+      <c r="BE19" s="224"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A20" s="40">
@@ -7007,7 +7069,7 @@
         <v/>
       </c>
       <c r="V20" s="33" t="str">
-        <f>IF(_Area3_day_hour!U14="","",_Area3_day_hour!U14/10000)</f>
+        <f>IF(_Area3_day_hour!U14="","",_Area3_day_hour!U14)</f>
         <v/>
       </c>
       <c r="W20" s="32" t="str">
@@ -7034,7 +7096,7 @@
         <f>IF(_Area3_day_hour!Y14="","",_Area3_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AC20" s="142" t="str">
+      <c r="AC20" s="147" t="str">
         <f>IF(_Area3_day_hour!AE14&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF14&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7046,11 +7108,11 @@
         <f>IF(_Area3_day_hour!AA14="","",_Area3_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AF20" s="147" t="str">
+      <c r="AF20" s="152" t="str">
         <f>IF(_Area3_day_hour!AB14="","",_Area3_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AG20" s="170" t="str">
+      <c r="AG20" s="185" t="str">
         <f>IF(_Area4_day_hour!I14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7058,15 +7120,15 @@
         <f>IF(_Area4_day_hour!A14="","",_Area4_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="AI20" s="142" t="str">
+      <c r="AI20" s="147" t="str">
         <f>IF(_Area4_day_hour!L14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ20" s="142" t="str">
+      <c r="AJ20" s="147" t="str">
         <f>IF(_Area4_day_hour!N14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK20" s="142" t="str">
+      <c r="AK20" s="147" t="str">
         <f>IF(_Area4_day_hour!P14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7075,7 +7137,7 @@
         <v/>
       </c>
       <c r="AM20" s="32" t="str">
-        <f>IF(_Area4_day_hour!C14="","",_Area4_day_hour!C14/1000)</f>
+        <f>IF(_Area4_day_hour!C14="","",_Area4_day_hour!C14)</f>
         <v/>
       </c>
       <c r="AN20" s="33" t="str">
@@ -7094,7 +7156,7 @@
         <f>IF(_Area4_day_hour!AU14="","",_Area4_day_hour!AU14)</f>
         <v/>
       </c>
-      <c r="AR20" s="175" t="str">
+      <c r="AR20" s="190" t="str">
         <f>IF(_Area4_day_hour!T14&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7122,18 +7184,18 @@
         <f>IF(_Area4_day_hour!G14="","",_Area4_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="AY20" s="147" t="str">
+      <c r="AY20" s="152" t="str">
         <f>IF(_Area4_day_hour!H14="","",_Area4_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="221"/>
-      <c r="BA20" s="222"/>
-      <c r="BB20" s="203" t="s">
+      <c r="AZ20" s="236"/>
+      <c r="BA20" s="237"/>
+      <c r="BB20" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="BC20" s="204"/>
-      <c r="BD20" s="205"/>
-      <c r="BE20" s="204"/>
+      <c r="BC20" s="219"/>
+      <c r="BD20" s="220"/>
+      <c r="BE20" s="219"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A21" s="40">
@@ -7220,7 +7282,7 @@
         <v/>
       </c>
       <c r="V21" s="33" t="str">
-        <f>IF(_Area3_day_hour!U15="","",_Area3_day_hour!U15/10000)</f>
+        <f>IF(_Area3_day_hour!U15="","",_Area3_day_hour!U15)</f>
         <v/>
       </c>
       <c r="W21" s="32" t="str">
@@ -7247,7 +7309,7 @@
         <f>IF(_Area3_day_hour!Y15="","",_Area3_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AC21" s="142" t="str">
+      <c r="AC21" s="147" t="str">
         <f>IF(_Area3_day_hour!AE15&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF15&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7259,11 +7321,11 @@
         <f>IF(_Area3_day_hour!AA15="","",_Area3_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AF21" s="147" t="str">
+      <c r="AF21" s="152" t="str">
         <f>IF(_Area3_day_hour!AB15="","",_Area3_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AG21" s="170" t="str">
+      <c r="AG21" s="185" t="str">
         <f>IF(_Area4_day_hour!I15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7271,15 +7333,15 @@
         <f>IF(_Area4_day_hour!A15="","",_Area4_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="AI21" s="142" t="str">
+      <c r="AI21" s="147" t="str">
         <f>IF(_Area4_day_hour!L15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ21" s="142" t="str">
+      <c r="AJ21" s="147" t="str">
         <f>IF(_Area4_day_hour!N15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK21" s="142" t="str">
+      <c r="AK21" s="147" t="str">
         <f>IF(_Area4_day_hour!P15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7288,7 +7350,7 @@
         <v/>
       </c>
       <c r="AM21" s="32" t="str">
-        <f>IF(_Area4_day_hour!C15="","",_Area4_day_hour!C15/1000)</f>
+        <f>IF(_Area4_day_hour!C15="","",_Area4_day_hour!C15)</f>
         <v/>
       </c>
       <c r="AN21" s="33" t="str">
@@ -7307,7 +7369,7 @@
         <f>IF(_Area4_day_hour!AU15="","",_Area4_day_hour!AU15)</f>
         <v/>
       </c>
-      <c r="AR21" s="175" t="str">
+      <c r="AR21" s="190" t="str">
         <f>IF(_Area4_day_hour!T15&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7335,16 +7397,16 @@
         <f>IF(_Area4_day_hour!G15="","",_Area4_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="AY21" s="147" t="str">
+      <c r="AY21" s="152" t="str">
         <f>IF(_Area4_day_hour!H15="","",_Area4_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="221"/>
-      <c r="BA21" s="222"/>
-      <c r="BB21" s="208"/>
-      <c r="BC21" s="211"/>
-      <c r="BD21" s="210"/>
-      <c r="BE21" s="211"/>
+      <c r="AZ21" s="236"/>
+      <c r="BA21" s="237"/>
+      <c r="BB21" s="223"/>
+      <c r="BC21" s="226"/>
+      <c r="BD21" s="225"/>
+      <c r="BE21" s="226"/>
     </row>
     <row r="22" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A22" s="40">
@@ -7431,7 +7493,7 @@
         <v/>
       </c>
       <c r="V22" s="33" t="str">
-        <f>IF(_Area3_day_hour!U16="","",_Area3_day_hour!U16/10000)</f>
+        <f>IF(_Area3_day_hour!U16="","",_Area3_day_hour!U16)</f>
         <v/>
       </c>
       <c r="W22" s="32" t="str">
@@ -7458,7 +7520,7 @@
         <f>IF(_Area3_day_hour!Y16="","",_Area3_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AC22" s="142" t="str">
+      <c r="AC22" s="147" t="str">
         <f>IF(_Area3_day_hour!AE16&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF16&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7470,11 +7532,11 @@
         <f>IF(_Area3_day_hour!AA16="","",_Area3_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AF22" s="147" t="str">
+      <c r="AF22" s="152" t="str">
         <f>IF(_Area3_day_hour!AB16="","",_Area3_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AG22" s="170" t="str">
+      <c r="AG22" s="185" t="str">
         <f>IF(_Area4_day_hour!I16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7482,15 +7544,15 @@
         <f>IF(_Area4_day_hour!A16="","",_Area4_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="AI22" s="142" t="str">
+      <c r="AI22" s="147" t="str">
         <f>IF(_Area4_day_hour!L16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ22" s="142" t="str">
+      <c r="AJ22" s="147" t="str">
         <f>IF(_Area4_day_hour!N16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK22" s="142" t="str">
+      <c r="AK22" s="147" t="str">
         <f>IF(_Area4_day_hour!P16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7499,7 +7561,7 @@
         <v/>
       </c>
       <c r="AM22" s="32" t="str">
-        <f>IF(_Area4_day_hour!C16="","",_Area4_day_hour!C16/1000)</f>
+        <f>IF(_Area4_day_hour!C16="","",_Area4_day_hour!C16)</f>
         <v/>
       </c>
       <c r="AN22" s="33" t="str">
@@ -7518,7 +7580,7 @@
         <f>IF(_Area4_day_hour!AU16="","",_Area4_day_hour!AU16)</f>
         <v/>
       </c>
-      <c r="AR22" s="175" t="str">
+      <c r="AR22" s="190" t="str">
         <f>IF(_Area4_day_hour!T16&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7546,20 +7608,20 @@
         <f>IF(_Area4_day_hour!G16="","",_Area4_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="AY22" s="147" t="str">
+      <c r="AY22" s="152" t="str">
         <f>IF(_Area4_day_hour!H16="","",_Area4_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="221"/>
-      <c r="BA22" s="222"/>
-      <c r="BB22" s="212" t="s">
+      <c r="AZ22" s="236"/>
+      <c r="BA22" s="237"/>
+      <c r="BB22" s="227" t="s">
         <v>62</v>
       </c>
-      <c r="BC22" s="213"/>
-      <c r="BD22" s="214" t="s">
+      <c r="BC22" s="228"/>
+      <c r="BD22" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="BE22" s="213"/>
+      <c r="BE22" s="228"/>
     </row>
     <row r="23" s="9" customFormat="1" ht="18" spans="1:57">
       <c r="A23" s="43">
@@ -7646,7 +7708,7 @@
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f>IF(_Area3_day_hour!U17="","",_Area3_day_hour!U17/10000)</f>
+        <f>IF(_Area3_day_hour!U17="","",_Area3_day_hour!U17)</f>
         <v/>
       </c>
       <c r="W23" s="36" t="str">
@@ -7673,7 +7735,7 @@
         <f>IF(_Area3_day_hour!Y17="","",_Area3_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AC23" s="144" t="str">
+      <c r="AC23" s="149" t="str">
         <f>IF(_Area3_day_hour!AE17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF17&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7685,11 +7747,11 @@
         <f>IF(_Area3_day_hour!AA17="","",_Area3_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AF23" s="148" t="str">
+      <c r="AF23" s="153" t="str">
         <f>IF(_Area3_day_hour!AB17="","",_Area3_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AG23" s="171" t="str">
+      <c r="AG23" s="186" t="str">
         <f>IF(_Area4_day_hour!I17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7697,15 +7759,15 @@
         <f>IF(_Area4_day_hour!A17="","",_Area4_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="AI23" s="144" t="str">
+      <c r="AI23" s="149" t="str">
         <f>IF(_Area4_day_hour!L17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ23" s="144" t="str">
+      <c r="AJ23" s="149" t="str">
         <f>IF(_Area4_day_hour!N17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK23" s="144" t="str">
+      <c r="AK23" s="149" t="str">
         <f>IF(_Area4_day_hour!P17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7714,7 +7776,7 @@
         <v/>
       </c>
       <c r="AM23" s="36" t="str">
-        <f>IF(_Area4_day_hour!C17="","",_Area4_day_hour!C17/1000)</f>
+        <f>IF(_Area4_day_hour!C17="","",_Area4_day_hour!C17)</f>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
@@ -7733,7 +7795,7 @@
         <f>IF(_Area4_day_hour!AU17="","",_Area4_day_hour!AU17)</f>
         <v/>
       </c>
-      <c r="AR23" s="176" t="str">
+      <c r="AR23" s="191" t="str">
         <f>IF(_Area4_day_hour!T17&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7761,20 +7823,20 @@
         <f>IF(_Area4_day_hour!G17="","",_Area4_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="AY23" s="148" t="str">
+      <c r="AY23" s="153" t="str">
         <f>IF(_Area4_day_hour!H17="","",_Area4_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="223"/>
-      <c r="BA23" s="224"/>
-      <c r="BB23" s="217" t="s">
+      <c r="AZ23" s="238"/>
+      <c r="BA23" s="239"/>
+      <c r="BB23" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="BC23" s="213"/>
-      <c r="BD23" s="218" t="s">
+      <c r="BC23" s="228"/>
+      <c r="BD23" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="BE23" s="213"/>
+      <c r="BE23" s="228"/>
     </row>
     <row r="24" s="7" customFormat="1" ht="17.25" spans="1:57">
       <c r="A24" s="45">
@@ -7861,7 +7923,7 @@
         <v/>
       </c>
       <c r="V24" s="39" t="str">
-        <f>IF(_Area3_day_hour!U18="","",_Area3_day_hour!U18/10000)</f>
+        <f>IF(_Area3_day_hour!U18="","",_Area3_day_hour!U18)</f>
         <v/>
       </c>
       <c r="W24" s="29" t="str">
@@ -7888,7 +7950,7 @@
         <f>IF(_Area3_day_hour!Y18="","",_Area3_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AC24" s="140" t="str">
+      <c r="AC24" s="145" t="str">
         <f>IF(_Area3_day_hour!AE18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF18&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7900,11 +7962,11 @@
         <f>IF(_Area3_day_hour!AA18="","",_Area3_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AF24" s="146" t="str">
+      <c r="AF24" s="151" t="str">
         <f>IF(_Area3_day_hour!AB18="","",_Area3_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AG24" s="168" t="str">
+      <c r="AG24" s="183" t="str">
         <f>IF(_Area4_day_hour!I18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7912,15 +7974,15 @@
         <f>IF(_Area4_day_hour!A18="","",_Area4_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="AI24" s="140" t="str">
+      <c r="AI24" s="145" t="str">
         <f>IF(_Area4_day_hour!L18&gt;0,"1#","")&amp;IF(_Area4_day_hour!M18&gt;0,"2#","")&amp;IF(_Area4_day_hour!R18&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="140" t="str">
+      <c r="AJ24" s="145" t="str">
         <f>IF(_Area4_day_hour!N18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK24" s="140" t="str">
+      <c r="AK24" s="145" t="str">
         <f>IF(_Area4_day_hour!P18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7929,7 +7991,7 @@
         <v/>
       </c>
       <c r="AM24" s="29" t="str">
-        <f>IF(_Area4_day_hour!C18="","",_Area4_day_hour!C18/1000)</f>
+        <f>IF(_Area4_day_hour!C18="","",_Area4_day_hour!C18)</f>
         <v/>
       </c>
       <c r="AN24" s="39" t="str">
@@ -7948,7 +8010,7 @@
         <f>IF(_Area4_day_hour!AU18="","",_Area4_day_hour!AU18)</f>
         <v/>
       </c>
-      <c r="AR24" s="177" t="str">
+      <c r="AR24" s="192" t="str">
         <f>IF(_Area4_day_hour!T18&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7976,20 +8038,20 @@
         <f>IF(_Area4_day_hour!G18="","",_Area4_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="AY24" s="146" t="str">
+      <c r="AY24" s="151" t="str">
         <f>IF(_Area4_day_hour!H18="","",_Area4_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="225"/>
-      <c r="BA24" s="226"/>
-      <c r="BB24" s="203" t="s">
+      <c r="AZ24" s="240"/>
+      <c r="BA24" s="241"/>
+      <c r="BB24" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="BC24" s="204"/>
-      <c r="BD24" s="205" t="s">
+      <c r="BC24" s="219"/>
+      <c r="BD24" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="BE24" s="204"/>
+      <c r="BE24" s="219"/>
     </row>
     <row r="25" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A25" s="48">
@@ -8076,7 +8138,7 @@
         <v/>
       </c>
       <c r="V25" s="33" t="str">
-        <f>IF(_Area3_day_hour!U19="","",_Area3_day_hour!U19/10000)</f>
+        <f>IF(_Area3_day_hour!U19="","",_Area3_day_hour!U19)</f>
         <v/>
       </c>
       <c r="W25" s="32" t="str">
@@ -8103,7 +8165,7 @@
         <f>IF(_Area3_day_hour!Y19="","",_Area3_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AC25" s="142" t="str">
+      <c r="AC25" s="147" t="str">
         <f>IF(_Area3_day_hour!AE19&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF19&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8115,11 +8177,11 @@
         <f>IF(_Area3_day_hour!AA19="","",_Area3_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AF25" s="147" t="str">
+      <c r="AF25" s="152" t="str">
         <f>IF(_Area3_day_hour!AB19="","",_Area3_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AG25" s="170" t="str">
+      <c r="AG25" s="185" t="str">
         <f>IF(_Area4_day_hour!I19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8127,15 +8189,15 @@
         <f>IF(_Area4_day_hour!A19="","",_Area4_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="AI25" s="142" t="str">
+      <c r="AI25" s="147" t="str">
         <f>IF(_Area4_day_hour!L19&gt;0,"1#","")&amp;IF(_Area4_day_hour!M19&gt;0,"2#","")&amp;IF(_Area4_day_hour!R19&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ25" s="142" t="str">
+      <c r="AJ25" s="147" t="str">
         <f>IF(_Area4_day_hour!N19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK25" s="142" t="str">
+      <c r="AK25" s="147" t="str">
         <f>IF(_Area4_day_hour!P19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8144,7 +8206,7 @@
         <v/>
       </c>
       <c r="AM25" s="32" t="str">
-        <f>IF(_Area4_day_hour!C19="","",_Area4_day_hour!C19/1000)</f>
+        <f>IF(_Area4_day_hour!C19="","",_Area4_day_hour!C19)</f>
         <v/>
       </c>
       <c r="AN25" s="33" t="str">
@@ -8163,7 +8225,7 @@
         <f>IF(_Area4_day_hour!AU19="","",_Area4_day_hour!AU19)</f>
         <v/>
       </c>
-      <c r="AR25" s="175" t="str">
+      <c r="AR25" s="190" t="str">
         <f>IF(_Area4_day_hour!T19&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8191,16 +8253,16 @@
         <f>IF(_Area4_day_hour!G19="","",_Area4_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="AY25" s="147" t="str">
+      <c r="AY25" s="152" t="str">
         <f>IF(_Area4_day_hour!H19="","",_Area4_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="221"/>
-      <c r="BA25" s="222"/>
-      <c r="BB25" s="208"/>
-      <c r="BC25" s="209"/>
-      <c r="BD25" s="210"/>
-      <c r="BE25" s="209"/>
+      <c r="AZ25" s="236"/>
+      <c r="BA25" s="237"/>
+      <c r="BB25" s="223"/>
+      <c r="BC25" s="224"/>
+      <c r="BD25" s="225"/>
+      <c r="BE25" s="224"/>
     </row>
     <row r="26" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A26" s="49">
@@ -8287,7 +8349,7 @@
         <v/>
       </c>
       <c r="V26" s="33" t="str">
-        <f>IF(_Area3_day_hour!U20="","",_Area3_day_hour!U20/10000)</f>
+        <f>IF(_Area3_day_hour!U20="","",_Area3_day_hour!U20)</f>
         <v/>
       </c>
       <c r="W26" s="32" t="str">
@@ -8314,7 +8376,7 @@
         <f>IF(_Area3_day_hour!Y20="","",_Area3_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AC26" s="142" t="str">
+      <c r="AC26" s="147" t="str">
         <f>IF(_Area3_day_hour!AE20&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF20&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8326,11 +8388,11 @@
         <f>IF(_Area3_day_hour!AA20="","",_Area3_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AF26" s="147" t="str">
+      <c r="AF26" s="152" t="str">
         <f>IF(_Area3_day_hour!AB20="","",_Area3_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AG26" s="170" t="str">
+      <c r="AG26" s="185" t="str">
         <f>IF(_Area4_day_hour!I20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8338,15 +8400,15 @@
         <f>IF(_Area4_day_hour!A20="","",_Area4_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="AI26" s="142" t="str">
+      <c r="AI26" s="147" t="str">
         <f>IF(_Area4_day_hour!L20&gt;0,"1#","")&amp;IF(_Area4_day_hour!M20&gt;0,"2#","")&amp;IF(_Area4_day_hour!R20&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ26" s="142" t="str">
+      <c r="AJ26" s="147" t="str">
         <f>IF(_Area4_day_hour!N20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK26" s="142" t="str">
+      <c r="AK26" s="147" t="str">
         <f>IF(_Area4_day_hour!P20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8355,7 +8417,7 @@
         <v/>
       </c>
       <c r="AM26" s="32" t="str">
-        <f>IF(_Area4_day_hour!C20="","",_Area4_day_hour!C20/1000)</f>
+        <f>IF(_Area4_day_hour!C20="","",_Area4_day_hour!C20)</f>
         <v/>
       </c>
       <c r="AN26" s="33" t="str">
@@ -8374,7 +8436,7 @@
         <f>IF(_Area4_day_hour!AU20="","",_Area4_day_hour!AU20)</f>
         <v/>
       </c>
-      <c r="AR26" s="175" t="str">
+      <c r="AR26" s="190" t="str">
         <f>IF(_Area4_day_hour!T20&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8402,20 +8464,20 @@
         <f>IF(_Area4_day_hour!G20="","",_Area4_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="AY26" s="147" t="str">
+      <c r="AY26" s="152" t="str">
         <f>IF(_Area4_day_hour!H20="","",_Area4_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="221"/>
-      <c r="BA26" s="222"/>
-      <c r="BB26" s="203" t="s">
+      <c r="AZ26" s="236"/>
+      <c r="BA26" s="237"/>
+      <c r="BB26" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="BC26" s="204"/>
-      <c r="BD26" s="205" t="s">
+      <c r="BC26" s="219"/>
+      <c r="BD26" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="BE26" s="204"/>
+      <c r="BE26" s="219"/>
     </row>
     <row r="27" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A27" s="49">
@@ -8502,7 +8564,7 @@
         <v/>
       </c>
       <c r="V27" s="33" t="str">
-        <f>IF(_Area3_day_hour!U21="","",_Area3_day_hour!U21/10000)</f>
+        <f>IF(_Area3_day_hour!U21="","",_Area3_day_hour!U21)</f>
         <v/>
       </c>
       <c r="W27" s="32" t="str">
@@ -8529,7 +8591,7 @@
         <f>IF(_Area3_day_hour!Y21="","",_Area3_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AC27" s="142" t="str">
+      <c r="AC27" s="147" t="str">
         <f>IF(_Area3_day_hour!AE21&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF21&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8541,11 +8603,11 @@
         <f>IF(_Area3_day_hour!AA21="","",_Area3_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AF27" s="147" t="str">
+      <c r="AF27" s="152" t="str">
         <f>IF(_Area3_day_hour!AB21="","",_Area3_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AG27" s="170" t="str">
+      <c r="AG27" s="185" t="str">
         <f>IF(_Area4_day_hour!I21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8553,15 +8615,15 @@
         <f>IF(_Area4_day_hour!A21="","",_Area4_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="AI27" s="142" t="str">
+      <c r="AI27" s="147" t="str">
         <f>IF(_Area4_day_hour!L21&gt;0,"1#","")&amp;IF(_Area4_day_hour!M21&gt;0,"2#","")&amp;IF(_Area4_day_hour!R21&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ27" s="142" t="str">
+      <c r="AJ27" s="147" t="str">
         <f>IF(_Area4_day_hour!N21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK27" s="142" t="str">
+      <c r="AK27" s="147" t="str">
         <f>IF(_Area4_day_hour!P21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8570,7 +8632,7 @@
         <v/>
       </c>
       <c r="AM27" s="32" t="str">
-        <f>IF(_Area4_day_hour!C21="","",_Area4_day_hour!C21/1000)</f>
+        <f>IF(_Area4_day_hour!C21="","",_Area4_day_hour!C21)</f>
         <v/>
       </c>
       <c r="AN27" s="33" t="str">
@@ -8589,7 +8651,7 @@
         <f>IF(_Area4_day_hour!AU21="","",_Area4_day_hour!AU21)</f>
         <v/>
       </c>
-      <c r="AR27" s="175" t="str">
+      <c r="AR27" s="190" t="str">
         <f>IF(_Area4_day_hour!T21&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8617,16 +8679,16 @@
         <f>IF(_Area4_day_hour!G21="","",_Area4_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="AY27" s="147" t="str">
+      <c r="AY27" s="152" t="str">
         <f>IF(_Area4_day_hour!H21="","",_Area4_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="221"/>
-      <c r="BA27" s="222"/>
-      <c r="BB27" s="208"/>
-      <c r="BC27" s="209"/>
-      <c r="BD27" s="210"/>
-      <c r="BE27" s="209"/>
+      <c r="AZ27" s="236"/>
+      <c r="BA27" s="237"/>
+      <c r="BB27" s="223"/>
+      <c r="BC27" s="224"/>
+      <c r="BD27" s="225"/>
+      <c r="BE27" s="224"/>
     </row>
     <row r="28" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A28" s="49">
@@ -8713,7 +8775,7 @@
         <v/>
       </c>
       <c r="V28" s="33" t="str">
-        <f>IF(_Area3_day_hour!U22="","",_Area3_day_hour!U22/10000)</f>
+        <f>IF(_Area3_day_hour!U22="","",_Area3_day_hour!U22)</f>
         <v/>
       </c>
       <c r="W28" s="32" t="str">
@@ -8740,7 +8802,7 @@
         <f>IF(_Area3_day_hour!Y22="","",_Area3_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AC28" s="142" t="str">
+      <c r="AC28" s="147" t="str">
         <f>IF(_Area3_day_hour!AE22&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF22&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8752,11 +8814,11 @@
         <f>IF(_Area3_day_hour!AA22="","",_Area3_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AF28" s="147" t="str">
+      <c r="AF28" s="152" t="str">
         <f>IF(_Area3_day_hour!AB22="","",_Area3_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AG28" s="170" t="str">
+      <c r="AG28" s="185" t="str">
         <f>IF(_Area4_day_hour!I22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8764,15 +8826,15 @@
         <f>IF(_Area4_day_hour!A22="","",_Area4_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="AI28" s="142" t="str">
+      <c r="AI28" s="147" t="str">
         <f>IF(_Area4_day_hour!L22&gt;0,"1#","")&amp;IF(_Area4_day_hour!M22&gt;0,"2#","")&amp;IF(_Area4_day_hour!R22&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ28" s="142" t="str">
+      <c r="AJ28" s="147" t="str">
         <f>IF(_Area4_day_hour!N22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK28" s="142" t="str">
+      <c r="AK28" s="147" t="str">
         <f>IF(_Area4_day_hour!P22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8781,7 +8843,7 @@
         <v/>
       </c>
       <c r="AM28" s="32" t="str">
-        <f>IF(_Area4_day_hour!C22="","",_Area4_day_hour!C22/1000)</f>
+        <f>IF(_Area4_day_hour!C22="","",_Area4_day_hour!C22)</f>
         <v/>
       </c>
       <c r="AN28" s="33" t="str">
@@ -8800,7 +8862,7 @@
         <f>IF(_Area4_day_hour!AU22="","",_Area4_day_hour!AU22)</f>
         <v/>
       </c>
-      <c r="AR28" s="175" t="str">
+      <c r="AR28" s="190" t="str">
         <f>IF(_Area4_day_hour!T22&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8828,18 +8890,18 @@
         <f>IF(_Area4_day_hour!G22="","",_Area4_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="AY28" s="147" t="str">
+      <c r="AY28" s="152" t="str">
         <f>IF(_Area4_day_hour!H22="","",_Area4_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="221"/>
-      <c r="BA28" s="222"/>
-      <c r="BB28" s="203" t="s">
+      <c r="AZ28" s="236"/>
+      <c r="BA28" s="237"/>
+      <c r="BB28" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="BC28" s="204"/>
-      <c r="BD28" s="205"/>
-      <c r="BE28" s="204"/>
+      <c r="BC28" s="219"/>
+      <c r="BD28" s="220"/>
+      <c r="BE28" s="219"/>
     </row>
     <row r="29" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A29" s="49">
@@ -8926,7 +8988,7 @@
         <v/>
       </c>
       <c r="V29" s="33" t="str">
-        <f>IF(_Area3_day_hour!U23="","",_Area3_day_hour!U23/10000)</f>
+        <f>IF(_Area3_day_hour!U23="","",_Area3_day_hour!U23)</f>
         <v/>
       </c>
       <c r="W29" s="32" t="str">
@@ -8953,7 +9015,7 @@
         <f>IF(_Area3_day_hour!Y23="","",_Area3_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AC29" s="142" t="str">
+      <c r="AC29" s="147" t="str">
         <f>IF(_Area3_day_hour!AE23&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF23&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8965,11 +9027,11 @@
         <f>IF(_Area3_day_hour!AA23="","",_Area3_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AF29" s="147" t="str">
+      <c r="AF29" s="152" t="str">
         <f>IF(_Area3_day_hour!AB23="","",_Area3_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AG29" s="170" t="str">
+      <c r="AG29" s="185" t="str">
         <f>IF(_Area4_day_hour!I23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8977,15 +9039,15 @@
         <f>IF(_Area4_day_hour!A23="","",_Area4_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="AI29" s="142" t="str">
+      <c r="AI29" s="147" t="str">
         <f>IF(_Area4_day_hour!L23&gt;0,"1#","")&amp;IF(_Area4_day_hour!M23&gt;0,"2#","")&amp;IF(_Area4_day_hour!R23&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ29" s="142" t="str">
+      <c r="AJ29" s="147" t="str">
         <f>IF(_Area4_day_hour!N23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK29" s="142" t="str">
+      <c r="AK29" s="147" t="str">
         <f>IF(_Area4_day_hour!P23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8994,7 +9056,7 @@
         <v/>
       </c>
       <c r="AM29" s="32" t="str">
-        <f>IF(_Area4_day_hour!C23="","",_Area4_day_hour!C23/1000)</f>
+        <f>IF(_Area4_day_hour!C23="","",_Area4_day_hour!C23)</f>
         <v/>
       </c>
       <c r="AN29" s="33" t="str">
@@ -9013,7 +9075,7 @@
         <f>IF(_Area4_day_hour!AU23="","",_Area4_day_hour!AU23)</f>
         <v/>
       </c>
-      <c r="AR29" s="175" t="str">
+      <c r="AR29" s="190" t="str">
         <f>IF(_Area4_day_hour!T23&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9041,16 +9103,16 @@
         <f>IF(_Area4_day_hour!G23="","",_Area4_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="AY29" s="147" t="str">
+      <c r="AY29" s="152" t="str">
         <f>IF(_Area4_day_hour!H23="","",_Area4_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="221"/>
-      <c r="BA29" s="222"/>
-      <c r="BB29" s="208"/>
-      <c r="BC29" s="211"/>
-      <c r="BD29" s="210"/>
-      <c r="BE29" s="211"/>
+      <c r="AZ29" s="236"/>
+      <c r="BA29" s="237"/>
+      <c r="BB29" s="223"/>
+      <c r="BC29" s="226"/>
+      <c r="BD29" s="225"/>
+      <c r="BE29" s="226"/>
     </row>
     <row r="30" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A30" s="49">
@@ -9137,7 +9199,7 @@
         <v/>
       </c>
       <c r="V30" s="33" t="str">
-        <f>IF(_Area3_day_hour!U24="","",_Area3_day_hour!U24/10000)</f>
+        <f>IF(_Area3_day_hour!U24="","",_Area3_day_hour!U24)</f>
         <v/>
       </c>
       <c r="W30" s="32" t="str">
@@ -9164,7 +9226,7 @@
         <f>IF(_Area3_day_hour!Y24="","",_Area3_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AC30" s="142" t="str">
+      <c r="AC30" s="147" t="str">
         <f>IF(_Area3_day_hour!AE24&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF24&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9176,11 +9238,11 @@
         <f>IF(_Area3_day_hour!AA24="","",_Area3_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AF30" s="147" t="str">
+      <c r="AF30" s="152" t="str">
         <f>IF(_Area3_day_hour!AB24="","",_Area3_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AG30" s="170" t="str">
+      <c r="AG30" s="185" t="str">
         <f>IF(_Area4_day_hour!I24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9188,15 +9250,15 @@
         <f>IF(_Area4_day_hour!A24="","",_Area4_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="AI30" s="142" t="str">
+      <c r="AI30" s="147" t="str">
         <f>IF(_Area4_day_hour!L24&gt;0,"1#","")&amp;IF(_Area4_day_hour!M24&gt;0,"2#","")&amp;IF(_Area4_day_hour!R24&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ30" s="142" t="str">
+      <c r="AJ30" s="147" t="str">
         <f>IF(_Area4_day_hour!N24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK30" s="142" t="str">
+      <c r="AK30" s="147" t="str">
         <f>IF(_Area4_day_hour!P24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9205,7 +9267,7 @@
         <v/>
       </c>
       <c r="AM30" s="32" t="str">
-        <f>IF(_Area4_day_hour!C24="","",_Area4_day_hour!C24/1000)</f>
+        <f>IF(_Area4_day_hour!C24="","",_Area4_day_hour!C24)</f>
         <v/>
       </c>
       <c r="AN30" s="33" t="str">
@@ -9224,7 +9286,7 @@
         <f>IF(_Area4_day_hour!AU24="","",_Area4_day_hour!AU24)</f>
         <v/>
       </c>
-      <c r="AR30" s="175" t="str">
+      <c r="AR30" s="190" t="str">
         <f>IF(_Area4_day_hour!T24&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9252,20 +9314,20 @@
         <f>IF(_Area4_day_hour!G24="","",_Area4_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="AY30" s="147" t="str">
+      <c r="AY30" s="152" t="str">
         <f>IF(_Area4_day_hour!H24="","",_Area4_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="221"/>
-      <c r="BA30" s="222"/>
-      <c r="BB30" s="227" t="s">
+      <c r="AZ30" s="236"/>
+      <c r="BA30" s="237"/>
+      <c r="BB30" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="BC30" s="204"/>
-      <c r="BD30" s="228" t="s">
+      <c r="BC30" s="219"/>
+      <c r="BD30" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="BE30" s="204"/>
+      <c r="BE30" s="219"/>
     </row>
     <row r="31" s="9" customFormat="1" ht="18" spans="1:57">
       <c r="A31" s="50">
@@ -9352,7 +9414,7 @@
         <v/>
       </c>
       <c r="V31" s="38" t="str">
-        <f>IF(_Area3_day_hour!U25="","",_Area3_day_hour!U25/10000)</f>
+        <f>IF(_Area3_day_hour!U25="","",_Area3_day_hour!U25)</f>
         <v/>
       </c>
       <c r="W31" s="36" t="str">
@@ -9379,7 +9441,7 @@
         <f>IF(_Area3_day_hour!Y25="","",_Area3_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AC31" s="144" t="str">
+      <c r="AC31" s="149" t="str">
         <f>IF(_Area3_day_hour!AE25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF25&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9391,11 +9453,11 @@
         <f>IF(_Area3_day_hour!AA25="","",_Area3_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AF31" s="148" t="str">
+      <c r="AF31" s="153" t="str">
         <f>IF(_Area3_day_hour!AB25="","",_Area3_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AG31" s="171" t="str">
+      <c r="AG31" s="186" t="str">
         <f>IF(_Area4_day_hour!I25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9403,15 +9465,15 @@
         <f>IF(_Area4_day_hour!A25="","",_Area4_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="AI31" s="144" t="str">
+      <c r="AI31" s="149" t="str">
         <f>IF(_Area4_day_hour!L25&gt;0,"1#","")&amp;IF(_Area4_day_hour!M25&gt;0,"2#","")&amp;IF(_Area4_day_hour!R25&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ31" s="144" t="str">
+      <c r="AJ31" s="149" t="str">
         <f>IF(_Area4_day_hour!N25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK31" s="144" t="str">
+      <c r="AK31" s="149" t="str">
         <f>IF(_Area4_day_hour!P25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9420,7 +9482,7 @@
         <v/>
       </c>
       <c r="AM31" s="36" t="str">
-        <f>IF(_Area4_day_hour!C25="","",_Area4_day_hour!C25/1000)</f>
+        <f>IF(_Area4_day_hour!C25="","",_Area4_day_hour!C25)</f>
         <v/>
       </c>
       <c r="AN31" s="38" t="str">
@@ -9439,7 +9501,7 @@
         <f>IF(_Area4_day_hour!AU25="","",_Area4_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AR31" s="178" t="str">
+      <c r="AR31" s="193" t="str">
         <f>IF(_Area4_day_hour!T25&gt;0,"1#","")&amp;IF(_Area4_day_hour!U25&gt;0,"2#","")&amp;IF(_Area4_day_hour!V25&gt;0,"3#","")</f>
         <v/>
       </c>
@@ -9467,16 +9529,16 @@
         <f>IF(_Area4_day_hour!G25="","",_Area4_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="AY31" s="148" t="str">
+      <c r="AY31" s="153" t="str">
         <f>IF(_Area4_day_hour!H25="","",_Area4_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="223"/>
-      <c r="BA31" s="224"/>
-      <c r="BB31" s="229"/>
-      <c r="BC31" s="209"/>
-      <c r="BD31" s="230"/>
-      <c r="BE31" s="237"/>
+      <c r="AZ31" s="238"/>
+      <c r="BA31" s="239"/>
+      <c r="BB31" s="244"/>
+      <c r="BC31" s="224"/>
+      <c r="BD31" s="245"/>
+      <c r="BE31" s="251"/>
     </row>
     <row r="32" ht="15" spans="1:57">
       <c r="A32" s="51"/>
@@ -9489,63 +9551,63 @@
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106" t="s">
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
       <c r="N32" s="107"/>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
       <c r="Q32" s="107"/>
       <c r="R32" s="107"/>
       <c r="S32" s="107"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="126" t="s">
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="172"/>
-      <c r="AH32" s="172"/>
-      <c r="AI32" s="172"/>
-      <c r="AJ32" s="172"/>
-      <c r="AK32" s="172"/>
-      <c r="AL32" s="172"/>
-      <c r="AM32" s="172"/>
-      <c r="AN32" s="172"/>
-      <c r="AO32" s="172"/>
-      <c r="AP32" s="172"/>
-      <c r="AQ32" s="172"/>
-      <c r="AR32" s="172"/>
-      <c r="AS32" s="172"/>
-      <c r="AT32" s="172"/>
-      <c r="AU32" s="172"/>
-      <c r="AV32" s="172"/>
-      <c r="AW32" s="172"/>
-      <c r="AX32" s="172"/>
-      <c r="AY32" s="172"/>
-      <c r="AZ32" s="172"/>
-      <c r="BA32" s="231"/>
-      <c r="BB32" s="232" t="s">
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="107"/>
+      <c r="AF32" s="154"/>
+      <c r="AG32" s="187"/>
+      <c r="AH32" s="187"/>
+      <c r="AI32" s="187"/>
+      <c r="AJ32" s="187"/>
+      <c r="AK32" s="187"/>
+      <c r="AL32" s="187"/>
+      <c r="AM32" s="187"/>
+      <c r="AN32" s="187"/>
+      <c r="AO32" s="187"/>
+      <c r="AP32" s="187"/>
+      <c r="AQ32" s="187"/>
+      <c r="AR32" s="187"/>
+      <c r="AS32" s="187"/>
+      <c r="AT32" s="187"/>
+      <c r="AU32" s="187"/>
+      <c r="AV32" s="187"/>
+      <c r="AW32" s="187"/>
+      <c r="AX32" s="187"/>
+      <c r="AY32" s="187"/>
+      <c r="AZ32" s="187"/>
+      <c r="BA32" s="246"/>
+      <c r="BB32" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="BC32" s="233"/>
-      <c r="BD32" s="234" t="s">
+      <c r="BC32" s="248"/>
+      <c r="BD32" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="BE32" s="233"/>
+      <c r="BE32" s="248"/>
     </row>
     <row r="33" ht="44" customHeight="1" spans="1:57">
       <c r="A33" s="54" t="s">
@@ -9558,57 +9620,57 @@
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="109"/>
       <c r="N33" s="110"/>
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
       <c r="Q33" s="110"/>
       <c r="R33" s="110"/>
       <c r="S33" s="110"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="130"/>
-      <c r="AH33" s="130"/>
-      <c r="AI33" s="130"/>
-      <c r="AJ33" s="130"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="130"/>
-      <c r="AM33" s="130"/>
-      <c r="AN33" s="130"/>
-      <c r="AO33" s="130"/>
-      <c r="AP33" s="130"/>
-      <c r="AQ33" s="130"/>
-      <c r="AR33" s="130"/>
-      <c r="AS33" s="130"/>
-      <c r="AT33" s="130"/>
-      <c r="AU33" s="130"/>
-      <c r="AV33" s="130"/>
-      <c r="AW33" s="130"/>
-      <c r="AX33" s="130"/>
-      <c r="AY33" s="130"/>
-      <c r="AZ33" s="130"/>
-      <c r="BA33" s="235"/>
-      <c r="BB33" s="236"/>
-      <c r="BC33" s="237"/>
-      <c r="BD33" s="237"/>
-      <c r="BE33" s="237"/>
-    </row>
-    <row r="34" ht="21" customHeight="1" spans="1:61">
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="110"/>
+      <c r="AJ33" s="110"/>
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="110"/>
+      <c r="AN33" s="110"/>
+      <c r="AO33" s="110"/>
+      <c r="AP33" s="110"/>
+      <c r="AQ33" s="110"/>
+      <c r="AR33" s="110"/>
+      <c r="AS33" s="110"/>
+      <c r="AT33" s="110"/>
+      <c r="AU33" s="110"/>
+      <c r="AV33" s="110"/>
+      <c r="AW33" s="110"/>
+      <c r="AX33" s="110"/>
+      <c r="AY33" s="110"/>
+      <c r="AZ33" s="110"/>
+      <c r="BA33" s="131"/>
+      <c r="BB33" s="250"/>
+      <c r="BC33" s="251"/>
+      <c r="BD33" s="251"/>
+      <c r="BE33" s="251"/>
+    </row>
+    <row r="34" ht="21" customHeight="1" spans="1:64">
       <c r="A34" s="57" t="s">
         <v>68</v>
       </c>
@@ -9618,267 +9680,278 @@
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
       <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="111" t="s">
+      <c r="H34" s="58"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="149" t="s">
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="AC34" s="150"/>
-      <c r="AD34" s="150"/>
-      <c r="AE34" s="150"/>
-      <c r="AF34" s="150"/>
-      <c r="AG34" s="150"/>
-      <c r="AH34" s="150"/>
-      <c r="AI34" s="150"/>
-      <c r="AJ34" s="150"/>
-      <c r="AK34" s="150"/>
-      <c r="AL34" s="150"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="150"/>
-      <c r="AO34" s="150"/>
-      <c r="AP34" s="150"/>
-      <c r="AQ34" s="150"/>
-      <c r="AR34" s="150"/>
-      <c r="AS34" s="150"/>
-      <c r="AT34" s="150"/>
-      <c r="AU34" s="150"/>
-      <c r="AV34" s="150"/>
-      <c r="AW34" s="150"/>
-      <c r="AX34" s="150"/>
-      <c r="AY34" s="150"/>
-      <c r="AZ34" s="150"/>
-      <c r="BA34" s="238"/>
-      <c r="BB34" s="239" t="s">
+      <c r="AC34" s="157"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="157"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="157"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="157"/>
+      <c r="AK34" s="157"/>
+      <c r="AL34" s="157"/>
+      <c r="AM34" s="157"/>
+      <c r="AN34" s="157"/>
+      <c r="AO34" s="157"/>
+      <c r="AP34" s="157"/>
+      <c r="AQ34" s="157"/>
+      <c r="AR34" s="157"/>
+      <c r="AS34" s="157"/>
+      <c r="AT34" s="157"/>
+      <c r="AU34" s="157"/>
+      <c r="AV34" s="157"/>
+      <c r="AW34" s="157"/>
+      <c r="AX34" s="157"/>
+      <c r="AY34" s="157"/>
+      <c r="AZ34" s="157"/>
+      <c r="BA34" s="252"/>
+      <c r="BB34" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="BC34" s="187"/>
-      <c r="BD34" s="187"/>
-      <c r="BE34" s="266"/>
-      <c r="BF34" s="269"/>
-      <c r="BG34" s="269"/>
-      <c r="BH34" s="269"/>
-      <c r="BI34" s="269"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:62">
-      <c r="A35" s="60" t="s">
+      <c r="BC34" s="254"/>
+      <c r="BD34" s="254"/>
+      <c r="BE34" s="283"/>
+      <c r="BF34" s="284"/>
+      <c r="BG34" s="284"/>
+      <c r="BH34" s="284"/>
+      <c r="BI34" s="284"/>
+      <c r="BJ34" s="284"/>
+      <c r="BK34" s="284"/>
+      <c r="BL34" s="284"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:64">
+      <c r="A35" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="64"/>
+      <c r="H35" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="112" t="s">
+      <c r="I35" s="64"/>
+      <c r="J35" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="113"/>
-      <c r="K35" s="114" t="s">
+      <c r="K35" s="114"/>
+      <c r="L35" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="112"/>
-      <c r="M35" s="114" t="s">
+      <c r="M35" s="113"/>
+      <c r="N35" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="115"/>
-      <c r="O35" s="114" t="s">
+      <c r="O35" s="116"/>
+      <c r="P35" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="114" t="s">
+      <c r="Q35" s="116"/>
+      <c r="R35" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="R35" s="115"/>
-      <c r="S35" s="114" t="s">
+      <c r="S35" s="116"/>
+      <c r="T35" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="T35" s="115"/>
-      <c r="U35" s="114" t="s">
+      <c r="U35" s="116"/>
+      <c r="V35" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="V35" s="115"/>
-      <c r="W35" s="114" t="s">
+      <c r="W35" s="116"/>
+      <c r="X35" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="112" t="s">
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="151"/>
-      <c r="AC35" s="152"/>
-      <c r="AD35" s="152"/>
-      <c r="AE35" s="152"/>
-      <c r="AF35" s="152"/>
-      <c r="AG35" s="152"/>
-      <c r="AH35" s="152"/>
-      <c r="AI35" s="152"/>
-      <c r="AJ35" s="152"/>
-      <c r="AK35" s="152"/>
-      <c r="AL35" s="152"/>
-      <c r="AM35" s="152"/>
-      <c r="AN35" s="152"/>
-      <c r="AO35" s="152"/>
-      <c r="AP35" s="152"/>
-      <c r="AQ35" s="152"/>
-      <c r="AR35" s="152"/>
-      <c r="AS35" s="152"/>
-      <c r="AT35" s="152"/>
-      <c r="AU35" s="152"/>
-      <c r="AV35" s="152"/>
-      <c r="AW35" s="152"/>
-      <c r="AX35" s="152"/>
-      <c r="AY35" s="152"/>
-      <c r="AZ35" s="152"/>
-      <c r="BA35" s="240"/>
-      <c r="BB35" s="195"/>
-      <c r="BC35" s="195"/>
-      <c r="BD35" s="195"/>
-      <c r="BE35" s="236"/>
-      <c r="BF35" s="11"/>
-      <c r="BG35" s="11"/>
-      <c r="BH35" s="11"/>
-      <c r="BI35" s="11"/>
-      <c r="BJ35" s="11"/>
-    </row>
-    <row r="36" ht="15" spans="1:62">
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="159"/>
+      <c r="AD35" s="159"/>
+      <c r="AE35" s="159"/>
+      <c r="AF35" s="159"/>
+      <c r="AG35" s="159"/>
+      <c r="AH35" s="159"/>
+      <c r="AI35" s="159"/>
+      <c r="AJ35" s="159"/>
+      <c r="AK35" s="159"/>
+      <c r="AL35" s="159"/>
+      <c r="AM35" s="159"/>
+      <c r="AN35" s="159"/>
+      <c r="AO35" s="159"/>
+      <c r="AP35" s="159"/>
+      <c r="AQ35" s="159"/>
+      <c r="AR35" s="159"/>
+      <c r="AS35" s="159"/>
+      <c r="AT35" s="159"/>
+      <c r="AU35" s="159"/>
+      <c r="AV35" s="159"/>
+      <c r="AW35" s="159"/>
+      <c r="AX35" s="159"/>
+      <c r="AY35" s="159"/>
+      <c r="AZ35" s="159"/>
+      <c r="BA35" s="255"/>
+      <c r="BB35" s="256"/>
+      <c r="BC35" s="257"/>
+      <c r="BD35" s="257"/>
+      <c r="BE35" s="285"/>
+      <c r="BF35" s="284"/>
+      <c r="BG35" s="284"/>
+      <c r="BH35" s="284"/>
+      <c r="BI35" s="284"/>
+      <c r="BJ35" s="284"/>
+      <c r="BK35" s="284"/>
+      <c r="BL35" s="284"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:62">
       <c r="A36" s="66"/>
       <c r="B36" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="E36" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="F36" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="G36" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="71" t="s">
+      <c r="H36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="72" t="s">
+      <c r="I36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="I36" s="71" t="s">
+      <c r="J36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="116" t="s">
+      <c r="K36" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="117" t="s">
+      <c r="L36" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="L36" s="118" t="s">
+      <c r="M36" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="M36" s="71" t="s">
+      <c r="N36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="O36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="O36" s="71" t="s">
+      <c r="P36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="72" t="s">
+      <c r="Q36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="Q36" s="71" t="s">
+      <c r="R36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="R36" s="72" t="s">
+      <c r="S36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="S36" s="71" t="s">
+      <c r="T36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="T36" s="72" t="s">
+      <c r="U36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="U36" s="71" t="s">
+      <c r="V36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="V36" s="72" t="s">
+      <c r="W36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="W36" s="71" t="s">
+      <c r="X36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="X36" s="131"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="131"/>
-      <c r="AA36" s="131"/>
-      <c r="AB36" s="153"/>
-      <c r="AC36" s="154"/>
-      <c r="AD36" s="154"/>
-      <c r="AE36" s="154"/>
-      <c r="AF36" s="154"/>
-      <c r="AG36" s="154"/>
-      <c r="AH36" s="154"/>
-      <c r="AI36" s="154"/>
-      <c r="AJ36" s="154"/>
-      <c r="AK36" s="154"/>
-      <c r="AL36" s="154"/>
-      <c r="AM36" s="154"/>
-      <c r="AN36" s="154"/>
-      <c r="AO36" s="154"/>
-      <c r="AP36" s="154"/>
-      <c r="AQ36" s="154"/>
-      <c r="AR36" s="154"/>
-      <c r="AS36" s="154"/>
-      <c r="AT36" s="154"/>
-      <c r="AU36" s="154"/>
-      <c r="AV36" s="154"/>
-      <c r="AW36" s="154"/>
-      <c r="AX36" s="154"/>
-      <c r="AY36" s="154"/>
-      <c r="AZ36" s="154"/>
-      <c r="BA36" s="241"/>
-      <c r="BB36" s="242" t="s">
+      <c r="Y36" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z36" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA36" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB36" s="163"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="164"/>
+      <c r="AE36" s="164"/>
+      <c r="AF36" s="164"/>
+      <c r="AG36" s="164"/>
+      <c r="AH36" s="164"/>
+      <c r="AI36" s="164"/>
+      <c r="AJ36" s="164"/>
+      <c r="AK36" s="164"/>
+      <c r="AL36" s="164"/>
+      <c r="AM36" s="164"/>
+      <c r="AN36" s="164"/>
+      <c r="AO36" s="164"/>
+      <c r="AP36" s="164"/>
+      <c r="AQ36" s="164"/>
+      <c r="AR36" s="164"/>
+      <c r="AS36" s="164"/>
+      <c r="AT36" s="164"/>
+      <c r="AU36" s="164"/>
+      <c r="AV36" s="164"/>
+      <c r="AW36" s="164"/>
+      <c r="AX36" s="164"/>
+      <c r="AY36" s="164"/>
+      <c r="AZ36" s="164"/>
+      <c r="BA36" s="258"/>
+      <c r="BB36" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="BC36" s="243">
+      <c r="BC36" s="260">
         <v>0</v>
       </c>
-      <c r="BD36" s="244" t="s">
+      <c r="BD36" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="BE36" s="243">
+      <c r="BE36" s="260">
         <v>0</v>
       </c>
       <c r="BF36" s="11"/>
@@ -9894,124 +9967,133 @@
       <c r="B37" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="75" t="str">
+      <c r="C37" s="75"/>
+      <c r="D37" s="76" t="str">
         <f>IF(_Area34_day_shift!A2="","",_Area34_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D37" s="76" t="str">
+      <c r="E37" s="77" t="str">
         <f>IF(_Area34_day_shift!B2="","",_Area34_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E37" s="75" t="str">
+      <c r="F37" s="76" t="str">
         <f>IF(_Area34_day_shift!C2="","",_Area34_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="F37" s="77" t="str">
+      <c r="G37" s="78" t="str">
         <f>IF(_Area34_day_shift!D2="","",_Area34_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="G37" s="75" t="str">
+      <c r="H37" s="76" t="str">
         <f>IF(_Area34_day_shift!E2="","",_Area34_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="H37" s="78" t="str">
+      <c r="I37" s="121" t="str">
         <f>IF(_Area34_day_shift!F2="","",_Area34_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="I37" s="75" t="str">
+      <c r="J37" s="76" t="str">
         <f>IF(_Area34_day_shift!G2="","",_Area34_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="J37" s="78" t="str">
+      <c r="K37" s="121" t="str">
         <f>IF(_Area34_day_shift!H2="","",_Area34_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="K37" s="75" t="str">
+      <c r="L37" s="76" t="str">
         <f>IF(_Area34_day_shift!I2="","",_Area34_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="L37" s="76" t="str">
+      <c r="M37" s="77" t="str">
         <f>IF(_Area34_day_shift!J2="","",_Area34_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="M37" s="75" t="str">
+      <c r="N37" s="76" t="str">
         <f>IF(_Area34_day_shift!K2="","",_Area34_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="N37" s="77" t="str">
+      <c r="O37" s="78" t="str">
         <f>IF(_Area34_day_shift!L2="","",_Area34_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="O37" s="75" t="str">
+      <c r="P37" s="76" t="str">
         <f>IF(_Area34_day_shift!M2="","",_Area34_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="P37" s="77" t="str">
+      <c r="Q37" s="78" t="str">
         <f>IF(_Area34_day_shift!N2="","",_Area34_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="Q37" s="75" t="str">
+      <c r="R37" s="76" t="str">
         <f>IF(_Area34_day_shift!O2="","",_Area34_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R37" s="77" t="str">
+      <c r="S37" s="78" t="str">
         <f>IF(_Area34_day_shift!P2="","",_Area34_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="S37" s="75" t="str">
+      <c r="T37" s="76" t="str">
         <f>IF(_Area34_day_shift!Q2="","",_Area34_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="T37" s="77" t="str">
+      <c r="U37" s="78" t="str">
         <f>IF(_Area34_day_shift!R2="","",_Area34_day_shift!R2)</f>
         <v/>
       </c>
-      <c r="U37" s="75" t="str">
+      <c r="V37" s="76" t="str">
         <f>IF(_Area34_day_shift!S2="","",_Area34_day_shift!S2)</f>
         <v/>
       </c>
-      <c r="V37" s="77" t="str">
+      <c r="W37" s="132" t="str">
         <f>IF(_Area34_day_shift!T2="","",_Area34_day_shift!T2)</f>
         <v/>
       </c>
-      <c r="W37" s="75" t="str">
+      <c r="X37" s="133" t="str">
         <f>IF(_Area34_day_shift!U2="","",_Area34_day_shift!U2)</f>
         <v/>
       </c>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="155"/>
-      <c r="AC37" s="156"/>
-      <c r="AD37" s="156"/>
-      <c r="AE37" s="156"/>
-      <c r="AF37" s="156"/>
-      <c r="AG37" s="156"/>
-      <c r="AH37" s="156"/>
-      <c r="AI37" s="156"/>
-      <c r="AJ37" s="156"/>
-      <c r="AK37" s="156"/>
-      <c r="AL37" s="156"/>
-      <c r="AM37" s="156"/>
-      <c r="AN37" s="156"/>
-      <c r="AO37" s="156"/>
-      <c r="AP37" s="156"/>
-      <c r="AQ37" s="156"/>
-      <c r="AR37" s="156"/>
-      <c r="AS37" s="156"/>
-      <c r="AT37" s="156"/>
-      <c r="AU37" s="156"/>
-      <c r="AV37" s="156"/>
-      <c r="AW37" s="156"/>
-      <c r="AX37" s="156"/>
-      <c r="AY37" s="156"/>
-      <c r="AZ37" s="156"/>
-      <c r="BA37" s="245"/>
-      <c r="BB37" s="246"/>
-      <c r="BC37" s="247"/>
-      <c r="BD37" s="248"/>
-      <c r="BE37" s="247"/>
+      <c r="Y37" s="165" t="str">
+        <f>IF(_Area34_day_shift!V2="","",_Area34_day_shift!V2)</f>
+        <v/>
+      </c>
+      <c r="Z37" s="76" t="str">
+        <f>IF(_Area34_day_shift!W2="","",_Area34_day_shift!W2)</f>
+        <v/>
+      </c>
+      <c r="AA37" s="78" t="str">
+        <f>IF(_Area34_day_shift!X2="","",_Area34_day_shift!X2)</f>
+        <v/>
+      </c>
+      <c r="AB37" s="166"/>
+      <c r="AC37" s="167"/>
+      <c r="AD37" s="167"/>
+      <c r="AE37" s="167"/>
+      <c r="AF37" s="167"/>
+      <c r="AG37" s="167"/>
+      <c r="AH37" s="167"/>
+      <c r="AI37" s="167"/>
+      <c r="AJ37" s="167"/>
+      <c r="AK37" s="167"/>
+      <c r="AL37" s="167"/>
+      <c r="AM37" s="167"/>
+      <c r="AN37" s="167"/>
+      <c r="AO37" s="167"/>
+      <c r="AP37" s="167"/>
+      <c r="AQ37" s="167"/>
+      <c r="AR37" s="167"/>
+      <c r="AS37" s="167"/>
+      <c r="AT37" s="167"/>
+      <c r="AU37" s="167"/>
+      <c r="AV37" s="167"/>
+      <c r="AW37" s="167"/>
+      <c r="AX37" s="167"/>
+      <c r="AY37" s="167"/>
+      <c r="AZ37" s="167"/>
+      <c r="BA37" s="262"/>
+      <c r="BB37" s="263"/>
+      <c r="BC37" s="264"/>
+      <c r="BD37" s="265"/>
+      <c r="BE37" s="264"/>
       <c r="BF37" s="11"/>
       <c r="BG37" s="11"/>
       <c r="BH37" s="11"/>
@@ -10022,125 +10104,134 @@
       <c r="A38" s="79">
         <v>2</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="75" t="str">
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76" t="str">
         <f>IF(_Area34_day_shift!A3="","",_Area34_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="D38" s="76" t="str">
+      <c r="E38" s="77" t="str">
         <f>IF(_Area34_day_shift!B3="","",_Area34_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="E38" s="75" t="str">
+      <c r="F38" s="76" t="str">
         <f>IF(_Area34_day_shift!C3="","",_Area34_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="F38" s="77" t="str">
+      <c r="G38" s="78" t="str">
         <f>IF(_Area34_day_shift!D3="","",_Area34_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="G38" s="75" t="str">
+      <c r="H38" s="76" t="str">
         <f>IF(_Area34_day_shift!E3="","",_Area34_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="H38" s="78" t="str">
+      <c r="I38" s="121" t="str">
         <f>IF(_Area34_day_shift!F3="","",_Area34_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="I38" s="75" t="str">
+      <c r="J38" s="76" t="str">
         <f>IF(_Area34_day_shift!G3="","",_Area34_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="J38" s="78" t="str">
+      <c r="K38" s="121" t="str">
         <f>IF(_Area34_day_shift!H3="","",_Area34_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="K38" s="75" t="str">
+      <c r="L38" s="76" t="str">
         <f>IF(_Area34_day_shift!I3="","",_Area34_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="L38" s="76" t="str">
+      <c r="M38" s="77" t="str">
         <f>IF(_Area34_day_shift!J3="","",_Area34_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="M38" s="75" t="str">
+      <c r="N38" s="76" t="str">
         <f>IF(_Area34_day_shift!K3="","",_Area34_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="N38" s="77" t="str">
+      <c r="O38" s="78" t="str">
         <f>IF(_Area34_day_shift!L3="","",_Area34_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="O38" s="75" t="str">
+      <c r="P38" s="76" t="str">
         <f>IF(_Area34_day_shift!M3="","",_Area34_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="P38" s="77" t="str">
+      <c r="Q38" s="78" t="str">
         <f>IF(_Area34_day_shift!N3="","",_Area34_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="Q38" s="75" t="str">
+      <c r="R38" s="76" t="str">
         <f>IF(_Area34_day_shift!O3="","",_Area34_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="R38" s="77" t="str">
+      <c r="S38" s="78" t="str">
         <f>IF(_Area34_day_shift!P3="","",_Area34_day_shift!P3)</f>
         <v/>
       </c>
-      <c r="S38" s="75" t="str">
+      <c r="T38" s="76" t="str">
         <f>IF(_Area34_day_shift!Q3="","",_Area34_day_shift!Q3)</f>
         <v/>
       </c>
-      <c r="T38" s="77" t="str">
+      <c r="U38" s="78" t="str">
         <f>IF(_Area34_day_shift!R3="","",_Area34_day_shift!R3)</f>
         <v/>
       </c>
-      <c r="U38" s="75" t="str">
+      <c r="V38" s="76" t="str">
         <f>IF(_Area34_day_shift!S3="","",_Area34_day_shift!S3)</f>
         <v/>
       </c>
-      <c r="V38" s="77" t="str">
+      <c r="W38" s="78" t="str">
         <f>IF(_Area34_day_shift!T3="","",_Area34_day_shift!T3)</f>
         <v/>
       </c>
-      <c r="W38" s="75" t="str">
+      <c r="X38" s="133" t="str">
         <f>IF(_Area34_day_shift!U3="","",_Area34_day_shift!U3)</f>
         <v/>
       </c>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="155"/>
-      <c r="AC38" s="156"/>
-      <c r="AD38" s="156"/>
-      <c r="AE38" s="156"/>
-      <c r="AF38" s="156"/>
-      <c r="AG38" s="156"/>
-      <c r="AH38" s="156"/>
-      <c r="AI38" s="156"/>
-      <c r="AJ38" s="156"/>
-      <c r="AK38" s="156"/>
-      <c r="AL38" s="156"/>
-      <c r="AM38" s="156"/>
-      <c r="AN38" s="156"/>
-      <c r="AO38" s="156"/>
-      <c r="AP38" s="156"/>
-      <c r="AQ38" s="156"/>
-      <c r="AR38" s="156"/>
-      <c r="AS38" s="156"/>
-      <c r="AT38" s="156"/>
-      <c r="AU38" s="156"/>
-      <c r="AV38" s="156"/>
-      <c r="AW38" s="156"/>
-      <c r="AX38" s="156"/>
-      <c r="AY38" s="156"/>
-      <c r="AZ38" s="156"/>
-      <c r="BA38" s="245"/>
-      <c r="BB38" s="246"/>
-      <c r="BC38" s="247"/>
-      <c r="BD38" s="248"/>
-      <c r="BE38" s="247"/>
+      <c r="Y38" s="165" t="str">
+        <f>IF(_Area34_day_shift!V3="","",_Area34_day_shift!V3)</f>
+        <v/>
+      </c>
+      <c r="Z38" s="76" t="str">
+        <f>IF(_Area34_day_shift!W3="","",_Area34_day_shift!W3)</f>
+        <v/>
+      </c>
+      <c r="AA38" s="78" t="str">
+        <f>IF(_Area34_day_shift!X3="","",_Area34_day_shift!X3)</f>
+        <v/>
+      </c>
+      <c r="AB38" s="166"/>
+      <c r="AC38" s="167"/>
+      <c r="AD38" s="167"/>
+      <c r="AE38" s="167"/>
+      <c r="AF38" s="167"/>
+      <c r="AG38" s="167"/>
+      <c r="AH38" s="167"/>
+      <c r="AI38" s="167"/>
+      <c r="AJ38" s="167"/>
+      <c r="AK38" s="167"/>
+      <c r="AL38" s="167"/>
+      <c r="AM38" s="167"/>
+      <c r="AN38" s="167"/>
+      <c r="AO38" s="167"/>
+      <c r="AP38" s="167"/>
+      <c r="AQ38" s="167"/>
+      <c r="AR38" s="167"/>
+      <c r="AS38" s="167"/>
+      <c r="AT38" s="167"/>
+      <c r="AU38" s="167"/>
+      <c r="AV38" s="167"/>
+      <c r="AW38" s="167"/>
+      <c r="AX38" s="167"/>
+      <c r="AY38" s="167"/>
+      <c r="AZ38" s="167"/>
+      <c r="BA38" s="262"/>
+      <c r="BB38" s="263"/>
+      <c r="BC38" s="264"/>
+      <c r="BD38" s="265"/>
+      <c r="BE38" s="264"/>
       <c r="BF38" s="11"/>
       <c r="BG38" s="11"/>
       <c r="BH38" s="11"/>
@@ -10151,125 +10242,134 @@
       <c r="A39" s="73">
         <v>3</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="75" t="str">
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="76" t="str">
         <f>IF(_Area34_day_shift!A4="","",_Area34_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D39" s="76" t="str">
+      <c r="E39" s="77" t="str">
         <f>IF(_Area34_day_shift!B4="","",_Area34_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E39" s="75" t="str">
+      <c r="F39" s="76" t="str">
         <f>IF(_Area34_day_shift!C4="","",_Area34_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="F39" s="77" t="str">
+      <c r="G39" s="78" t="str">
         <f>IF(_Area34_day_shift!D4="","",_Area34_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="G39" s="75" t="str">
+      <c r="H39" s="76" t="str">
         <f>IF(_Area34_day_shift!E4="","",_Area34_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="H39" s="78" t="str">
+      <c r="I39" s="121" t="str">
         <f>IF(_Area34_day_shift!F4="","",_Area34_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="I39" s="75" t="str">
+      <c r="J39" s="76" t="str">
         <f>IF(_Area34_day_shift!G4="","",_Area34_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="J39" s="78" t="str">
+      <c r="K39" s="121" t="str">
         <f>IF(_Area34_day_shift!H4="","",_Area34_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="K39" s="75" t="str">
+      <c r="L39" s="76" t="str">
         <f>IF(_Area34_day_shift!I4="","",_Area34_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="L39" s="76" t="str">
+      <c r="M39" s="77" t="str">
         <f>IF(_Area34_day_shift!J4="","",_Area34_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="M39" s="75" t="str">
+      <c r="N39" s="76" t="str">
         <f>IF(_Area34_day_shift!K4="","",_Area34_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="N39" s="77" t="str">
+      <c r="O39" s="78" t="str">
         <f>IF(_Area34_day_shift!L4="","",_Area34_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="O39" s="75" t="str">
+      <c r="P39" s="76" t="str">
         <f>IF(_Area34_day_shift!M4="","",_Area34_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="P39" s="77" t="str">
+      <c r="Q39" s="78" t="str">
         <f>IF(_Area34_day_shift!N4="","",_Area34_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="Q39" s="75" t="str">
+      <c r="R39" s="76" t="str">
         <f>IF(_Area34_day_shift!O4="","",_Area34_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="R39" s="77" t="str">
+      <c r="S39" s="78" t="str">
         <f>IF(_Area34_day_shift!P4="","",_Area34_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="S39" s="75" t="str">
+      <c r="T39" s="76" t="str">
         <f>IF(_Area34_day_shift!Q4="","",_Area34_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="T39" s="77" t="str">
+      <c r="U39" s="78" t="str">
         <f>IF(_Area34_day_shift!R4="","",_Area34_day_shift!R4)</f>
         <v/>
       </c>
-      <c r="U39" s="75" t="str">
+      <c r="V39" s="76" t="str">
         <f>IF(_Area34_day_shift!S4="","",_Area34_day_shift!S4)</f>
         <v/>
       </c>
-      <c r="V39" s="77" t="str">
+      <c r="W39" s="78" t="str">
         <f>IF(_Area34_day_shift!T4="","",_Area34_day_shift!T4)</f>
         <v/>
       </c>
-      <c r="W39" s="75" t="str">
+      <c r="X39" s="133" t="str">
         <f>IF(_Area34_day_shift!U4="","",_Area34_day_shift!U4)</f>
         <v/>
       </c>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="156"/>
-      <c r="AD39" s="156"/>
-      <c r="AE39" s="156"/>
-      <c r="AF39" s="156"/>
-      <c r="AG39" s="156"/>
-      <c r="AH39" s="156"/>
-      <c r="AI39" s="156"/>
-      <c r="AJ39" s="156"/>
-      <c r="AK39" s="156"/>
-      <c r="AL39" s="156"/>
-      <c r="AM39" s="156"/>
-      <c r="AN39" s="156"/>
-      <c r="AO39" s="156"/>
-      <c r="AP39" s="156"/>
-      <c r="AQ39" s="156"/>
-      <c r="AR39" s="156"/>
-      <c r="AS39" s="156"/>
-      <c r="AT39" s="156"/>
-      <c r="AU39" s="156"/>
-      <c r="AV39" s="156"/>
-      <c r="AW39" s="156"/>
-      <c r="AX39" s="156"/>
-      <c r="AY39" s="156"/>
-      <c r="AZ39" s="156"/>
-      <c r="BA39" s="245"/>
-      <c r="BB39" s="246"/>
-      <c r="BC39" s="247"/>
-      <c r="BD39" s="248"/>
-      <c r="BE39" s="247"/>
+      <c r="Y39" s="165" t="str">
+        <f>IF(_Area34_day_shift!V4="","",_Area34_day_shift!V4)</f>
+        <v/>
+      </c>
+      <c r="Z39" s="76" t="str">
+        <f>IF(_Area34_day_shift!W4="","",_Area34_day_shift!W4)</f>
+        <v/>
+      </c>
+      <c r="AA39" s="78" t="str">
+        <f>IF(_Area34_day_shift!X4="","",_Area34_day_shift!X4)</f>
+        <v/>
+      </c>
+      <c r="AB39" s="166"/>
+      <c r="AC39" s="167"/>
+      <c r="AD39" s="167"/>
+      <c r="AE39" s="167"/>
+      <c r="AF39" s="167"/>
+      <c r="AG39" s="167"/>
+      <c r="AH39" s="167"/>
+      <c r="AI39" s="167"/>
+      <c r="AJ39" s="167"/>
+      <c r="AK39" s="167"/>
+      <c r="AL39" s="167"/>
+      <c r="AM39" s="167"/>
+      <c r="AN39" s="167"/>
+      <c r="AO39" s="167"/>
+      <c r="AP39" s="167"/>
+      <c r="AQ39" s="167"/>
+      <c r="AR39" s="167"/>
+      <c r="AS39" s="167"/>
+      <c r="AT39" s="167"/>
+      <c r="AU39" s="167"/>
+      <c r="AV39" s="167"/>
+      <c r="AW39" s="167"/>
+      <c r="AX39" s="167"/>
+      <c r="AY39" s="167"/>
+      <c r="AZ39" s="167"/>
+      <c r="BA39" s="262"/>
+      <c r="BB39" s="263"/>
+      <c r="BC39" s="264"/>
+      <c r="BD39" s="265"/>
+      <c r="BE39" s="264"/>
       <c r="BF39" s="11"/>
       <c r="BG39" s="11"/>
       <c r="BH39" s="11"/>
@@ -10280,125 +10380,134 @@
       <c r="A40" s="73">
         <v>4</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82" t="str">
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82" t="str">
         <f>IF(_Area34_day_shift!A5="","",_Area34_day_shift!A5)</f>
         <v/>
       </c>
-      <c r="D40" s="83" t="str">
+      <c r="E40" s="83" t="str">
         <f>IF(_Area34_day_shift!B5="","",_Area34_day_shift!B5)</f>
         <v/>
       </c>
-      <c r="E40" s="82" t="str">
+      <c r="F40" s="82" t="str">
         <f>IF(_Area34_day_shift!C5="","",_Area34_day_shift!C5)</f>
         <v/>
       </c>
-      <c r="F40" s="84" t="str">
+      <c r="G40" s="84" t="str">
         <f>IF(_Area34_day_shift!D5="","",_Area34_day_shift!D5)</f>
         <v/>
       </c>
-      <c r="G40" s="82" t="str">
+      <c r="H40" s="82" t="str">
         <f>IF(_Area34_day_shift!E5="","",_Area34_day_shift!E5)</f>
         <v/>
       </c>
-      <c r="H40" s="85" t="str">
+      <c r="I40" s="122" t="str">
         <f>IF(_Area34_day_shift!F5="","",_Area34_day_shift!F5)</f>
         <v/>
       </c>
-      <c r="I40" s="82" t="str">
+      <c r="J40" s="82" t="str">
         <f>IF(_Area34_day_shift!G5="","",_Area34_day_shift!G5)</f>
         <v/>
       </c>
-      <c r="J40" s="85" t="str">
+      <c r="K40" s="122" t="str">
         <f>IF(_Area34_day_shift!H5="","",_Area34_day_shift!H5)</f>
         <v/>
       </c>
-      <c r="K40" s="82" t="str">
+      <c r="L40" s="82" t="str">
         <f>IF(_Area34_day_shift!I5="","",_Area34_day_shift!I5)</f>
         <v/>
       </c>
-      <c r="L40" s="83" t="str">
+      <c r="M40" s="83" t="str">
         <f>IF(_Area34_day_shift!J5="","",_Area34_day_shift!J5)</f>
         <v/>
       </c>
-      <c r="M40" s="82" t="str">
+      <c r="N40" s="82" t="str">
         <f>IF(_Area34_day_shift!K5="","",_Area34_day_shift!K5)</f>
         <v/>
       </c>
-      <c r="N40" s="84" t="str">
+      <c r="O40" s="84" t="str">
         <f>IF(_Area34_day_shift!L5="","",_Area34_day_shift!L5)</f>
         <v/>
       </c>
-      <c r="O40" s="82" t="str">
+      <c r="P40" s="82" t="str">
         <f>IF(_Area34_day_shift!M5="","",_Area34_day_shift!M5)</f>
         <v/>
       </c>
-      <c r="P40" s="84" t="str">
+      <c r="Q40" s="84" t="str">
         <f>IF(_Area34_day_shift!N5="","",_Area34_day_shift!N5)</f>
         <v/>
       </c>
-      <c r="Q40" s="82" t="str">
+      <c r="R40" s="82" t="str">
         <f>IF(_Area34_day_shift!O5="","",_Area34_day_shift!O5)</f>
         <v/>
       </c>
-      <c r="R40" s="84" t="str">
+      <c r="S40" s="84" t="str">
         <f>IF(_Area34_day_shift!P5="","",_Area34_day_shift!P5)</f>
         <v/>
       </c>
-      <c r="S40" s="82" t="str">
+      <c r="T40" s="82" t="str">
         <f>IF(_Area34_day_shift!Q5="","",_Area34_day_shift!Q5)</f>
         <v/>
       </c>
-      <c r="T40" s="84" t="str">
+      <c r="U40" s="84" t="str">
         <f>IF(_Area34_day_shift!R5="","",_Area34_day_shift!R5)</f>
         <v/>
       </c>
-      <c r="U40" s="82" t="str">
+      <c r="V40" s="82" t="str">
         <f>IF(_Area34_day_shift!S5="","",_Area34_day_shift!S5)</f>
         <v/>
       </c>
-      <c r="V40" s="84" t="str">
+      <c r="W40" s="84" t="str">
         <f>IF(_Area34_day_shift!T5="","",_Area34_day_shift!T5)</f>
         <v/>
       </c>
-      <c r="W40" s="82" t="str">
+      <c r="X40" s="82" t="str">
         <f>IF(_Area34_day_shift!U5="","",_Area34_day_shift!U5)</f>
         <v/>
       </c>
-      <c r="X40" s="83"/>
-      <c r="Y40" s="83"/>
-      <c r="Z40" s="83"/>
-      <c r="AA40" s="83"/>
-      <c r="AB40" s="157"/>
-      <c r="AC40" s="158"/>
-      <c r="AD40" s="158"/>
-      <c r="AE40" s="158"/>
-      <c r="AF40" s="158"/>
-      <c r="AG40" s="158"/>
-      <c r="AH40" s="158"/>
-      <c r="AI40" s="158"/>
-      <c r="AJ40" s="158"/>
-      <c r="AK40" s="158"/>
-      <c r="AL40" s="158"/>
-      <c r="AM40" s="158"/>
-      <c r="AN40" s="158"/>
-      <c r="AO40" s="158"/>
-      <c r="AP40" s="158"/>
-      <c r="AQ40" s="158"/>
-      <c r="AR40" s="158"/>
-      <c r="AS40" s="158"/>
-      <c r="AT40" s="158"/>
-      <c r="AU40" s="158"/>
-      <c r="AV40" s="158"/>
-      <c r="AW40" s="158"/>
-      <c r="AX40" s="158"/>
-      <c r="AY40" s="158"/>
-      <c r="AZ40" s="158"/>
-      <c r="BA40" s="249"/>
-      <c r="BB40" s="246"/>
-      <c r="BC40" s="247"/>
-      <c r="BD40" s="248"/>
-      <c r="BE40" s="247"/>
+      <c r="Y40" s="168" t="str">
+        <f>IF(_Area34_day_shift!V5="","",_Area34_day_shift!V5)</f>
+        <v/>
+      </c>
+      <c r="Z40" s="82" t="str">
+        <f>IF(_Area34_day_shift!W5="","",_Area34_day_shift!W5)</f>
+        <v/>
+      </c>
+      <c r="AA40" s="84" t="str">
+        <f>IF(_Area34_day_shift!X5="","",_Area34_day_shift!X5)</f>
+        <v/>
+      </c>
+      <c r="AB40" s="169"/>
+      <c r="AC40" s="170"/>
+      <c r="AD40" s="170"/>
+      <c r="AE40" s="170"/>
+      <c r="AF40" s="170"/>
+      <c r="AG40" s="170"/>
+      <c r="AH40" s="170"/>
+      <c r="AI40" s="170"/>
+      <c r="AJ40" s="170"/>
+      <c r="AK40" s="170"/>
+      <c r="AL40" s="170"/>
+      <c r="AM40" s="170"/>
+      <c r="AN40" s="170"/>
+      <c r="AO40" s="170"/>
+      <c r="AP40" s="170"/>
+      <c r="AQ40" s="170"/>
+      <c r="AR40" s="170"/>
+      <c r="AS40" s="170"/>
+      <c r="AT40" s="170"/>
+      <c r="AU40" s="170"/>
+      <c r="AV40" s="170"/>
+      <c r="AW40" s="170"/>
+      <c r="AX40" s="170"/>
+      <c r="AY40" s="170"/>
+      <c r="AZ40" s="170"/>
+      <c r="BA40" s="266"/>
+      <c r="BB40" s="263"/>
+      <c r="BC40" s="264"/>
+      <c r="BD40" s="265"/>
+      <c r="BE40" s="264"/>
       <c r="BF40" s="11"/>
       <c r="BG40" s="11"/>
       <c r="BH40" s="11"/>
@@ -10409,127 +10518,136 @@
       <c r="A41" s="79">
         <v>5</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="87" t="str">
+      <c r="C41" s="86"/>
+      <c r="D41" s="87" t="str">
         <f>IF(_Area34_day_shift!A6="","",_Area34_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="D41" s="88" t="str">
+      <c r="E41" s="88" t="str">
         <f>IF(_Area34_day_shift!B6="","",_Area34_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="E41" s="87" t="str">
+      <c r="F41" s="87" t="str">
         <f>IF(_Area34_day_shift!C6="","",_Area34_day_shift!C6)</f>
         <v/>
       </c>
-      <c r="F41" s="89" t="str">
+      <c r="G41" s="89" t="str">
         <f>IF(_Area34_day_shift!D6="","",_Area34_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="G41" s="87" t="str">
+      <c r="H41" s="87" t="str">
         <f>IF(_Area34_day_shift!E6="","",_Area34_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="H41" s="90" t="str">
+      <c r="I41" s="123" t="str">
         <f>IF(_Area34_day_shift!F6="","",_Area34_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="I41" s="87" t="str">
+      <c r="J41" s="87" t="str">
         <f>IF(_Area34_day_shift!G6="","",_Area34_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="J41" s="90" t="str">
+      <c r="K41" s="123" t="str">
         <f>IF(_Area34_day_shift!H6="","",_Area34_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="K41" s="87" t="str">
+      <c r="L41" s="87" t="str">
         <f>IF(_Area34_day_shift!I6="","",_Area34_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="L41" s="88" t="str">
+      <c r="M41" s="88" t="str">
         <f>IF(_Area34_day_shift!J6="","",_Area34_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="M41" s="87" t="str">
+      <c r="N41" s="87" t="str">
         <f>IF(_Area34_day_shift!K6="","",_Area34_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="N41" s="89" t="str">
+      <c r="O41" s="89" t="str">
         <f>IF(_Area34_day_shift!L6="","",_Area34_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="O41" s="87" t="str">
+      <c r="P41" s="87" t="str">
         <f>IF(_Area34_day_shift!M6="","",_Area34_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="P41" s="89" t="str">
+      <c r="Q41" s="89" t="str">
         <f>IF(_Area34_day_shift!N6="","",_Area34_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="Q41" s="87" t="str">
+      <c r="R41" s="87" t="str">
         <f>IF(_Area34_day_shift!O6="","",_Area34_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="R41" s="89" t="str">
+      <c r="S41" s="89" t="str">
         <f>IF(_Area34_day_shift!P6="","",_Area34_day_shift!P6)</f>
         <v/>
       </c>
-      <c r="S41" s="87" t="str">
+      <c r="T41" s="87" t="str">
         <f>IF(_Area34_day_shift!Q6="","",_Area34_day_shift!Q6)</f>
         <v/>
       </c>
-      <c r="T41" s="89" t="str">
+      <c r="U41" s="89" t="str">
         <f>IF(_Area34_day_shift!R6="","",_Area34_day_shift!R6)</f>
         <v/>
       </c>
-      <c r="U41" s="87" t="str">
+      <c r="V41" s="87" t="str">
         <f>IF(_Area34_day_shift!S6="","",_Area34_day_shift!S6)</f>
         <v/>
       </c>
-      <c r="V41" s="89" t="str">
+      <c r="W41" s="89" t="str">
         <f>IF(_Area34_day_shift!T6="","",_Area34_day_shift!T6)</f>
         <v/>
       </c>
-      <c r="W41" s="87" t="str">
+      <c r="X41" s="134" t="str">
         <f>IF(_Area34_day_shift!U6="","",_Area34_day_shift!U6)</f>
         <v/>
       </c>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="155"/>
-      <c r="AC41" s="156"/>
-      <c r="AD41" s="156"/>
-      <c r="AE41" s="156"/>
-      <c r="AF41" s="156"/>
-      <c r="AG41" s="156"/>
-      <c r="AH41" s="156"/>
-      <c r="AI41" s="156"/>
-      <c r="AJ41" s="156"/>
-      <c r="AK41" s="156"/>
-      <c r="AL41" s="156"/>
-      <c r="AM41" s="156"/>
-      <c r="AN41" s="156"/>
-      <c r="AO41" s="156"/>
-      <c r="AP41" s="156"/>
-      <c r="AQ41" s="156"/>
-      <c r="AR41" s="156"/>
-      <c r="AS41" s="156"/>
-      <c r="AT41" s="156"/>
-      <c r="AU41" s="156"/>
-      <c r="AV41" s="156"/>
-      <c r="AW41" s="156"/>
-      <c r="AX41" s="156"/>
-      <c r="AY41" s="156"/>
-      <c r="AZ41" s="156"/>
-      <c r="BA41" s="245"/>
-      <c r="BB41" s="229"/>
-      <c r="BC41" s="250"/>
-      <c r="BD41" s="251"/>
-      <c r="BE41" s="250"/>
+      <c r="Y41" s="171" t="str">
+        <f>IF(_Area34_day_shift!V6="","",_Area34_day_shift!V6)</f>
+        <v/>
+      </c>
+      <c r="Z41" s="87" t="str">
+        <f>IF(_Area34_day_shift!W6="","",_Area34_day_shift!W6)</f>
+        <v/>
+      </c>
+      <c r="AA41" s="89" t="str">
+        <f>IF(_Area34_day_shift!X6="","",_Area34_day_shift!X6)</f>
+        <v/>
+      </c>
+      <c r="AB41" s="166"/>
+      <c r="AC41" s="167"/>
+      <c r="AD41" s="167"/>
+      <c r="AE41" s="167"/>
+      <c r="AF41" s="167"/>
+      <c r="AG41" s="167"/>
+      <c r="AH41" s="167"/>
+      <c r="AI41" s="167"/>
+      <c r="AJ41" s="167"/>
+      <c r="AK41" s="167"/>
+      <c r="AL41" s="167"/>
+      <c r="AM41" s="167"/>
+      <c r="AN41" s="167"/>
+      <c r="AO41" s="167"/>
+      <c r="AP41" s="167"/>
+      <c r="AQ41" s="167"/>
+      <c r="AR41" s="167"/>
+      <c r="AS41" s="167"/>
+      <c r="AT41" s="167"/>
+      <c r="AU41" s="167"/>
+      <c r="AV41" s="167"/>
+      <c r="AW41" s="167"/>
+      <c r="AX41" s="167"/>
+      <c r="AY41" s="167"/>
+      <c r="AZ41" s="167"/>
+      <c r="BA41" s="262"/>
+      <c r="BB41" s="244"/>
+      <c r="BC41" s="267"/>
+      <c r="BD41" s="268"/>
+      <c r="BE41" s="267"/>
       <c r="BF41" s="11"/>
       <c r="BG41" s="11"/>
       <c r="BH41" s="11"/>
@@ -10540,127 +10658,136 @@
       <c r="A42" s="73">
         <v>6</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="75" t="str">
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="76" t="str">
         <f>IF(_Area34_day_shift!A7="","",_Area34_day_shift!A7)</f>
         <v/>
       </c>
-      <c r="D42" s="76" t="str">
+      <c r="E42" s="77" t="str">
         <f>IF(_Area34_day_shift!B7="","",_Area34_day_shift!B7)</f>
         <v/>
       </c>
-      <c r="E42" s="75" t="str">
+      <c r="F42" s="76" t="str">
         <f>IF(_Area34_day_shift!C7="","",_Area34_day_shift!C7)</f>
         <v/>
       </c>
-      <c r="F42" s="77" t="str">
+      <c r="G42" s="78" t="str">
         <f>IF(_Area34_day_shift!D7="","",_Area34_day_shift!D7)</f>
         <v/>
       </c>
-      <c r="G42" s="75" t="str">
+      <c r="H42" s="76" t="str">
         <f>IF(_Area34_day_shift!E7="","",_Area34_day_shift!E7)</f>
         <v/>
       </c>
-      <c r="H42" s="78" t="str">
+      <c r="I42" s="121" t="str">
         <f>IF(_Area34_day_shift!F7="","",_Area34_day_shift!F7)</f>
         <v/>
       </c>
-      <c r="I42" s="75" t="str">
+      <c r="J42" s="76" t="str">
         <f>IF(_Area34_day_shift!G7="","",_Area34_day_shift!G7)</f>
         <v/>
       </c>
-      <c r="J42" s="78" t="str">
+      <c r="K42" s="121" t="str">
         <f>IF(_Area34_day_shift!H7="","",_Area34_day_shift!H7)</f>
         <v/>
       </c>
-      <c r="K42" s="75" t="str">
+      <c r="L42" s="76" t="str">
         <f>IF(_Area34_day_shift!I7="","",_Area34_day_shift!I7)</f>
         <v/>
       </c>
-      <c r="L42" s="76" t="str">
+      <c r="M42" s="77" t="str">
         <f>IF(_Area34_day_shift!J7="","",_Area34_day_shift!J7)</f>
         <v/>
       </c>
-      <c r="M42" s="75" t="str">
+      <c r="N42" s="76" t="str">
         <f>IF(_Area34_day_shift!K7="","",_Area34_day_shift!K7)</f>
         <v/>
       </c>
-      <c r="N42" s="77" t="str">
+      <c r="O42" s="78" t="str">
         <f>IF(_Area34_day_shift!L7="","",_Area34_day_shift!L7)</f>
         <v/>
       </c>
-      <c r="O42" s="75" t="str">
+      <c r="P42" s="76" t="str">
         <f>IF(_Area34_day_shift!M7="","",_Area34_day_shift!M7)</f>
         <v/>
       </c>
-      <c r="P42" s="77" t="str">
+      <c r="Q42" s="78" t="str">
         <f>IF(_Area34_day_shift!N7="","",_Area34_day_shift!N7)</f>
         <v/>
       </c>
-      <c r="Q42" s="75" t="str">
+      <c r="R42" s="76" t="str">
         <f>IF(_Area34_day_shift!O7="","",_Area34_day_shift!O7)</f>
         <v/>
       </c>
-      <c r="R42" s="77" t="str">
+      <c r="S42" s="78" t="str">
         <f>IF(_Area34_day_shift!P7="","",_Area34_day_shift!P7)</f>
         <v/>
       </c>
-      <c r="S42" s="75" t="str">
+      <c r="T42" s="76" t="str">
         <f>IF(_Area34_day_shift!Q7="","",_Area34_day_shift!Q7)</f>
         <v/>
       </c>
-      <c r="T42" s="77" t="str">
+      <c r="U42" s="78" t="str">
         <f>IF(_Area34_day_shift!R7="","",_Area34_day_shift!R7)</f>
         <v/>
       </c>
-      <c r="U42" s="75" t="str">
+      <c r="V42" s="76" t="str">
         <f>IF(_Area34_day_shift!S7="","",_Area34_day_shift!S7)</f>
         <v/>
       </c>
-      <c r="V42" s="77" t="str">
+      <c r="W42" s="78" t="str">
         <f>IF(_Area34_day_shift!T7="","",_Area34_day_shift!T7)</f>
         <v/>
       </c>
-      <c r="W42" s="75" t="str">
+      <c r="X42" s="133" t="str">
         <f>IF(_Area34_day_shift!U7="","",_Area34_day_shift!U7)</f>
         <v/>
       </c>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="76"/>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="155"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="156"/>
-      <c r="AE42" s="156"/>
-      <c r="AF42" s="156"/>
-      <c r="AG42" s="156"/>
-      <c r="AH42" s="156"/>
-      <c r="AI42" s="156"/>
-      <c r="AJ42" s="156"/>
-      <c r="AK42" s="156"/>
-      <c r="AL42" s="156"/>
-      <c r="AM42" s="156"/>
-      <c r="AN42" s="156"/>
-      <c r="AO42" s="156"/>
-      <c r="AP42" s="156"/>
-      <c r="AQ42" s="156"/>
-      <c r="AR42" s="156"/>
-      <c r="AS42" s="156"/>
-      <c r="AT42" s="156"/>
-      <c r="AU42" s="156"/>
-      <c r="AV42" s="156"/>
-      <c r="AW42" s="156"/>
-      <c r="AX42" s="156"/>
-      <c r="AY42" s="156"/>
-      <c r="AZ42" s="156"/>
-      <c r="BA42" s="245"/>
-      <c r="BB42" s="186" t="s">
+      <c r="Y42" s="165" t="str">
+        <f>IF(_Area34_day_shift!V7="","",_Area34_day_shift!V7)</f>
+        <v/>
+      </c>
+      <c r="Z42" s="76" t="str">
+        <f>IF(_Area34_day_shift!W7="","",_Area34_day_shift!W7)</f>
+        <v/>
+      </c>
+      <c r="AA42" s="78" t="str">
+        <f>IF(_Area34_day_shift!X7="","",_Area34_day_shift!X7)</f>
+        <v/>
+      </c>
+      <c r="AB42" s="166"/>
+      <c r="AC42" s="167"/>
+      <c r="AD42" s="167"/>
+      <c r="AE42" s="167"/>
+      <c r="AF42" s="167"/>
+      <c r="AG42" s="167"/>
+      <c r="AH42" s="167"/>
+      <c r="AI42" s="167"/>
+      <c r="AJ42" s="167"/>
+      <c r="AK42" s="167"/>
+      <c r="AL42" s="167"/>
+      <c r="AM42" s="167"/>
+      <c r="AN42" s="167"/>
+      <c r="AO42" s="167"/>
+      <c r="AP42" s="167"/>
+      <c r="AQ42" s="167"/>
+      <c r="AR42" s="167"/>
+      <c r="AS42" s="167"/>
+      <c r="AT42" s="167"/>
+      <c r="AU42" s="167"/>
+      <c r="AV42" s="167"/>
+      <c r="AW42" s="167"/>
+      <c r="AX42" s="167"/>
+      <c r="AY42" s="167"/>
+      <c r="AZ42" s="167"/>
+      <c r="BA42" s="262"/>
+      <c r="BB42" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="BC42" s="252"/>
-      <c r="BD42" s="252"/>
-      <c r="BE42" s="270"/>
+      <c r="BC42" s="201"/>
+      <c r="BD42" s="201"/>
+      <c r="BE42" s="218"/>
       <c r="BF42" s="11"/>
       <c r="BG42" s="11"/>
       <c r="BH42" s="11"/>
@@ -10671,125 +10798,134 @@
       <c r="A43" s="73">
         <v>7</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="75" t="str">
+      <c r="B43" s="90"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="76" t="str">
         <f>IF(_Area34_day_shift!A8="","",_Area34_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="D43" s="76" t="str">
+      <c r="E43" s="77" t="str">
         <f>IF(_Area34_day_shift!B8="","",_Area34_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="E43" s="75" t="str">
+      <c r="F43" s="76" t="str">
         <f>IF(_Area34_day_shift!C8="","",_Area34_day_shift!C8)</f>
         <v/>
       </c>
-      <c r="F43" s="77" t="str">
+      <c r="G43" s="78" t="str">
         <f>IF(_Area34_day_shift!D8="","",_Area34_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="G43" s="75" t="str">
+      <c r="H43" s="76" t="str">
         <f>IF(_Area34_day_shift!E8="","",_Area34_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="H43" s="78" t="str">
+      <c r="I43" s="121" t="str">
         <f>IF(_Area34_day_shift!F8="","",_Area34_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="I43" s="75" t="str">
+      <c r="J43" s="76" t="str">
         <f>IF(_Area34_day_shift!G8="","",_Area34_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="J43" s="78" t="str">
+      <c r="K43" s="121" t="str">
         <f>IF(_Area34_day_shift!H8="","",_Area34_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="K43" s="75" t="str">
+      <c r="L43" s="76" t="str">
         <f>IF(_Area34_day_shift!I8="","",_Area34_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="L43" s="76" t="str">
+      <c r="M43" s="77" t="str">
         <f>IF(_Area34_day_shift!J8="","",_Area34_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="M43" s="75" t="str">
+      <c r="N43" s="76" t="str">
         <f>IF(_Area34_day_shift!K8="","",_Area34_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="N43" s="77" t="str">
+      <c r="O43" s="78" t="str">
         <f>IF(_Area34_day_shift!L8="","",_Area34_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="O43" s="75" t="str">
+      <c r="P43" s="76" t="str">
         <f>IF(_Area34_day_shift!M8="","",_Area34_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="P43" s="77" t="str">
+      <c r="Q43" s="78" t="str">
         <f>IF(_Area34_day_shift!N8="","",_Area34_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="Q43" s="75" t="str">
+      <c r="R43" s="76" t="str">
         <f>IF(_Area34_day_shift!O8="","",_Area34_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="R43" s="77" t="str">
+      <c r="S43" s="78" t="str">
         <f>IF(_Area34_day_shift!P8="","",_Area34_day_shift!P8)</f>
         <v/>
       </c>
-      <c r="S43" s="75" t="str">
+      <c r="T43" s="76" t="str">
         <f>IF(_Area34_day_shift!Q8="","",_Area34_day_shift!Q8)</f>
         <v/>
       </c>
-      <c r="T43" s="77" t="str">
+      <c r="U43" s="78" t="str">
         <f>IF(_Area34_day_shift!R8="","",_Area34_day_shift!R8)</f>
         <v/>
       </c>
-      <c r="U43" s="75" t="str">
+      <c r="V43" s="76" t="str">
         <f>IF(_Area34_day_shift!S8="","",_Area34_day_shift!S8)</f>
         <v/>
       </c>
-      <c r="V43" s="77" t="str">
+      <c r="W43" s="78" t="str">
         <f>IF(_Area34_day_shift!T8="","",_Area34_day_shift!T8)</f>
         <v/>
       </c>
-      <c r="W43" s="75" t="str">
+      <c r="X43" s="133" t="str">
         <f>IF(_Area34_day_shift!U8="","",_Area34_day_shift!U8)</f>
         <v/>
       </c>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="76"/>
-      <c r="AA43" s="76"/>
-      <c r="AB43" s="155"/>
-      <c r="AC43" s="156"/>
-      <c r="AD43" s="156"/>
-      <c r="AE43" s="156"/>
-      <c r="AF43" s="156"/>
-      <c r="AG43" s="156"/>
-      <c r="AH43" s="156"/>
-      <c r="AI43" s="156"/>
-      <c r="AJ43" s="156"/>
-      <c r="AK43" s="156"/>
-      <c r="AL43" s="156"/>
-      <c r="AM43" s="156"/>
-      <c r="AN43" s="156"/>
-      <c r="AO43" s="156"/>
-      <c r="AP43" s="156"/>
-      <c r="AQ43" s="156"/>
-      <c r="AR43" s="156"/>
-      <c r="AS43" s="156"/>
-      <c r="AT43" s="156"/>
-      <c r="AU43" s="156"/>
-      <c r="AV43" s="156"/>
-      <c r="AW43" s="156"/>
-      <c r="AX43" s="156"/>
-      <c r="AY43" s="156"/>
-      <c r="AZ43" s="156"/>
-      <c r="BA43" s="245"/>
-      <c r="BB43" s="253"/>
-      <c r="BC43" s="254"/>
-      <c r="BD43" s="254"/>
-      <c r="BE43" s="271"/>
+      <c r="Y43" s="165" t="str">
+        <f>IF(_Area34_day_shift!V8="","",_Area34_day_shift!V8)</f>
+        <v/>
+      </c>
+      <c r="Z43" s="76" t="str">
+        <f>IF(_Area34_day_shift!W8="","",_Area34_day_shift!W8)</f>
+        <v/>
+      </c>
+      <c r="AA43" s="78" t="str">
+        <f>IF(_Area34_day_shift!X8="","",_Area34_day_shift!X8)</f>
+        <v/>
+      </c>
+      <c r="AB43" s="166"/>
+      <c r="AC43" s="167"/>
+      <c r="AD43" s="167"/>
+      <c r="AE43" s="167"/>
+      <c r="AF43" s="167"/>
+      <c r="AG43" s="167"/>
+      <c r="AH43" s="167"/>
+      <c r="AI43" s="167"/>
+      <c r="AJ43" s="167"/>
+      <c r="AK43" s="167"/>
+      <c r="AL43" s="167"/>
+      <c r="AM43" s="167"/>
+      <c r="AN43" s="167"/>
+      <c r="AO43" s="167"/>
+      <c r="AP43" s="167"/>
+      <c r="AQ43" s="167"/>
+      <c r="AR43" s="167"/>
+      <c r="AS43" s="167"/>
+      <c r="AT43" s="167"/>
+      <c r="AU43" s="167"/>
+      <c r="AV43" s="167"/>
+      <c r="AW43" s="167"/>
+      <c r="AX43" s="167"/>
+      <c r="AY43" s="167"/>
+      <c r="AZ43" s="167"/>
+      <c r="BA43" s="262"/>
+      <c r="BB43" s="270"/>
+      <c r="BC43" s="271"/>
+      <c r="BD43" s="271"/>
+      <c r="BE43" s="286"/>
       <c r="BF43" s="11"/>
       <c r="BG43" s="11"/>
       <c r="BH43" s="11"/>
@@ -10800,131 +10936,140 @@
       <c r="A44" s="79">
         <v>8</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82" t="str">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="82" t="str">
         <f>IF(_Area34_day_shift!A9="","",_Area34_day_shift!A9)</f>
         <v/>
       </c>
-      <c r="D44" s="83" t="str">
+      <c r="E44" s="83" t="str">
         <f>IF(_Area34_day_shift!B9="","",_Area34_day_shift!B9)</f>
         <v/>
       </c>
-      <c r="E44" s="82" t="str">
+      <c r="F44" s="82" t="str">
         <f>IF(_Area34_day_shift!C9="","",_Area34_day_shift!C9)</f>
         <v/>
       </c>
-      <c r="F44" s="84" t="str">
+      <c r="G44" s="84" t="str">
         <f>IF(_Area34_day_shift!D9="","",_Area34_day_shift!D9)</f>
         <v/>
       </c>
-      <c r="G44" s="82" t="str">
+      <c r="H44" s="82" t="str">
         <f>IF(_Area34_day_shift!E9="","",_Area34_day_shift!E9)</f>
         <v/>
       </c>
-      <c r="H44" s="85" t="str">
+      <c r="I44" s="122" t="str">
         <f>IF(_Area34_day_shift!F9="","",_Area34_day_shift!F9)</f>
         <v/>
       </c>
-      <c r="I44" s="82" t="str">
+      <c r="J44" s="82" t="str">
         <f>IF(_Area34_day_shift!G9="","",_Area34_day_shift!G9)</f>
         <v/>
       </c>
-      <c r="J44" s="85" t="str">
+      <c r="K44" s="122" t="str">
         <f>IF(_Area34_day_shift!H9="","",_Area34_day_shift!H9)</f>
         <v/>
       </c>
-      <c r="K44" s="82" t="str">
+      <c r="L44" s="82" t="str">
         <f>IF(_Area34_day_shift!I9="","",_Area34_day_shift!I9)</f>
         <v/>
       </c>
-      <c r="L44" s="83" t="str">
+      <c r="M44" s="83" t="str">
         <f>IF(_Area34_day_shift!J9="","",_Area34_day_shift!J9)</f>
         <v/>
       </c>
-      <c r="M44" s="82" t="str">
+      <c r="N44" s="82" t="str">
         <f>IF(_Area34_day_shift!K9="","",_Area34_day_shift!K9)</f>
         <v/>
       </c>
-      <c r="N44" s="84" t="str">
+      <c r="O44" s="84" t="str">
         <f>IF(_Area34_day_shift!L9="","",_Area34_day_shift!L9)</f>
         <v/>
       </c>
-      <c r="O44" s="82" t="str">
+      <c r="P44" s="82" t="str">
         <f>IF(_Area34_day_shift!M9="","",_Area34_day_shift!M9)</f>
         <v/>
       </c>
-      <c r="P44" s="84" t="str">
+      <c r="Q44" s="84" t="str">
         <f>IF(_Area34_day_shift!N9="","",_Area34_day_shift!N9)</f>
         <v/>
       </c>
-      <c r="Q44" s="82" t="str">
+      <c r="R44" s="82" t="str">
         <f>IF(_Area34_day_shift!O9="","",_Area34_day_shift!O9)</f>
         <v/>
       </c>
-      <c r="R44" s="84" t="str">
+      <c r="S44" s="84" t="str">
         <f>IF(_Area34_day_shift!P9="","",_Area34_day_shift!P9)</f>
         <v/>
       </c>
-      <c r="S44" s="82" t="str">
+      <c r="T44" s="82" t="str">
         <f>IF(_Area34_day_shift!Q9="","",_Area34_day_shift!Q9)</f>
         <v/>
       </c>
-      <c r="T44" s="84" t="str">
+      <c r="U44" s="84" t="str">
         <f>IF(_Area34_day_shift!R9="","",_Area34_day_shift!R9)</f>
         <v/>
       </c>
-      <c r="U44" s="82" t="str">
+      <c r="V44" s="82" t="str">
         <f>IF(_Area34_day_shift!S9="","",_Area34_day_shift!S9)</f>
         <v/>
       </c>
-      <c r="V44" s="84" t="str">
+      <c r="W44" s="84" t="str">
         <f>IF(_Area34_day_shift!T9="","",_Area34_day_shift!T9)</f>
         <v/>
       </c>
-      <c r="W44" s="82" t="str">
+      <c r="X44" s="82" t="str">
         <f>IF(_Area34_day_shift!U9="","",_Area34_day_shift!U9)</f>
         <v/>
       </c>
-      <c r="X44" s="83"/>
-      <c r="Y44" s="83"/>
-      <c r="Z44" s="83"/>
-      <c r="AA44" s="83"/>
-      <c r="AB44" s="155"/>
-      <c r="AC44" s="156"/>
-      <c r="AD44" s="156"/>
-      <c r="AE44" s="156"/>
-      <c r="AF44" s="156"/>
-      <c r="AG44" s="156"/>
-      <c r="AH44" s="156"/>
-      <c r="AI44" s="156"/>
-      <c r="AJ44" s="156"/>
-      <c r="AK44" s="156"/>
-      <c r="AL44" s="156"/>
-      <c r="AM44" s="156"/>
-      <c r="AN44" s="156"/>
-      <c r="AO44" s="156"/>
-      <c r="AP44" s="156"/>
-      <c r="AQ44" s="156"/>
-      <c r="AR44" s="156"/>
-      <c r="AS44" s="156"/>
-      <c r="AT44" s="156"/>
-      <c r="AU44" s="156"/>
-      <c r="AV44" s="156"/>
-      <c r="AW44" s="156"/>
-      <c r="AX44" s="156"/>
-      <c r="AY44" s="156"/>
-      <c r="AZ44" s="156"/>
-      <c r="BA44" s="245"/>
-      <c r="BB44" s="255" t="s">
+      <c r="Y44" s="168" t="str">
+        <f>IF(_Area34_day_shift!V9="","",_Area34_day_shift!V9)</f>
+        <v/>
+      </c>
+      <c r="Z44" s="82" t="str">
+        <f>IF(_Area34_day_shift!W9="","",_Area34_day_shift!W9)</f>
+        <v/>
+      </c>
+      <c r="AA44" s="84" t="str">
+        <f>IF(_Area34_day_shift!X9="","",_Area34_day_shift!X9)</f>
+        <v/>
+      </c>
+      <c r="AB44" s="166"/>
+      <c r="AC44" s="167"/>
+      <c r="AD44" s="167"/>
+      <c r="AE44" s="167"/>
+      <c r="AF44" s="167"/>
+      <c r="AG44" s="167"/>
+      <c r="AH44" s="167"/>
+      <c r="AI44" s="167"/>
+      <c r="AJ44" s="167"/>
+      <c r="AK44" s="167"/>
+      <c r="AL44" s="167"/>
+      <c r="AM44" s="167"/>
+      <c r="AN44" s="167"/>
+      <c r="AO44" s="167"/>
+      <c r="AP44" s="167"/>
+      <c r="AQ44" s="167"/>
+      <c r="AR44" s="167"/>
+      <c r="AS44" s="167"/>
+      <c r="AT44" s="167"/>
+      <c r="AU44" s="167"/>
+      <c r="AV44" s="167"/>
+      <c r="AW44" s="167"/>
+      <c r="AX44" s="167"/>
+      <c r="AY44" s="167"/>
+      <c r="AZ44" s="167"/>
+      <c r="BA44" s="262"/>
+      <c r="BB44" s="272" t="s">
         <v>62</v>
       </c>
-      <c r="BC44" s="256">
+      <c r="BC44" s="273">
         <v>0</v>
       </c>
-      <c r="BD44" s="257" t="s">
+      <c r="BD44" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="BE44" s="256">
+      <c r="BE44" s="273">
         <v>0</v>
       </c>
       <c r="BF44" s="11"/>
@@ -10937,127 +11082,136 @@
       <c r="A45" s="73">
         <v>9</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="92" t="str">
+      <c r="C45" s="86"/>
+      <c r="D45" s="94" t="str">
         <f>IF(_Area34_day_shift!A10="","",_Area34_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="D45" s="93" t="str">
+      <c r="E45" s="95" t="str">
         <f>IF(_Area34_day_shift!B10="","",_Area34_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="E45" s="92" t="str">
+      <c r="F45" s="94" t="str">
         <f>IF(_Area34_day_shift!C10="","",_Area34_day_shift!C10)</f>
         <v/>
       </c>
-      <c r="F45" s="94" t="str">
+      <c r="G45" s="96" t="str">
         <f>IF(_Area34_day_shift!D10="","",_Area34_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="G45" s="92" t="str">
+      <c r="H45" s="94" t="str">
         <f>IF(_Area34_day_shift!E10="","",_Area34_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="H45" s="95" t="str">
+      <c r="I45" s="124" t="str">
         <f>IF(_Area34_day_shift!F10="","",_Area34_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="I45" s="92" t="str">
+      <c r="J45" s="94" t="str">
         <f>IF(_Area34_day_shift!G10="","",_Area34_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="J45" s="95" t="str">
+      <c r="K45" s="124" t="str">
         <f>IF(_Area34_day_shift!H10="","",_Area34_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="K45" s="92" t="str">
+      <c r="L45" s="94" t="str">
         <f>IF(_Area34_day_shift!I10="","",_Area34_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="L45" s="93" t="str">
+      <c r="M45" s="95" t="str">
         <f>IF(_Area34_day_shift!J10="","",_Area34_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="M45" s="92" t="str">
+      <c r="N45" s="94" t="str">
         <f>IF(_Area34_day_shift!K10="","",_Area34_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="N45" s="94" t="str">
+      <c r="O45" s="96" t="str">
         <f>IF(_Area34_day_shift!L10="","",_Area34_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="O45" s="92" t="str">
+      <c r="P45" s="94" t="str">
         <f>IF(_Area34_day_shift!M10="","",_Area34_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="P45" s="94" t="str">
+      <c r="Q45" s="96" t="str">
         <f>IF(_Area34_day_shift!N10="","",_Area34_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="Q45" s="92" t="str">
+      <c r="R45" s="94" t="str">
         <f>IF(_Area34_day_shift!O10="","",_Area34_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="R45" s="94" t="str">
+      <c r="S45" s="96" t="str">
         <f>IF(_Area34_day_shift!P10="","",_Area34_day_shift!P10)</f>
         <v/>
       </c>
-      <c r="S45" s="92" t="str">
+      <c r="T45" s="94" t="str">
         <f>IF(_Area34_day_shift!Q10="","",_Area34_day_shift!Q10)</f>
         <v/>
       </c>
-      <c r="T45" s="94" t="str">
+      <c r="U45" s="96" t="str">
         <f>IF(_Area34_day_shift!R10="","",_Area34_day_shift!R10)</f>
         <v/>
       </c>
-      <c r="U45" s="92" t="str">
+      <c r="V45" s="94" t="str">
         <f>IF(_Area34_day_shift!S10="","",_Area34_day_shift!S10)</f>
         <v/>
       </c>
-      <c r="V45" s="94" t="str">
+      <c r="W45" s="96" t="str">
         <f>IF(_Area34_day_shift!T10="","",_Area34_day_shift!T10)</f>
         <v/>
       </c>
-      <c r="W45" s="92" t="str">
+      <c r="X45" s="135" t="str">
         <f>IF(_Area34_day_shift!U10="","",_Area34_day_shift!U10)</f>
         <v/>
       </c>
-      <c r="X45" s="93"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="153"/>
-      <c r="AC45" s="154"/>
-      <c r="AD45" s="154"/>
-      <c r="AE45" s="154"/>
-      <c r="AF45" s="154"/>
-      <c r="AG45" s="154"/>
-      <c r="AH45" s="154"/>
-      <c r="AI45" s="154"/>
-      <c r="AJ45" s="154"/>
-      <c r="AK45" s="154"/>
-      <c r="AL45" s="154"/>
-      <c r="AM45" s="154"/>
-      <c r="AN45" s="154"/>
-      <c r="AO45" s="154"/>
-      <c r="AP45" s="154"/>
-      <c r="AQ45" s="154"/>
-      <c r="AR45" s="154"/>
-      <c r="AS45" s="154"/>
-      <c r="AT45" s="154"/>
-      <c r="AU45" s="154"/>
-      <c r="AV45" s="154"/>
-      <c r="AW45" s="154"/>
-      <c r="AX45" s="154"/>
-      <c r="AY45" s="154"/>
-      <c r="AZ45" s="154"/>
-      <c r="BA45" s="241"/>
-      <c r="BB45" s="258"/>
-      <c r="BC45" s="259"/>
-      <c r="BD45" s="260"/>
-      <c r="BE45" s="80"/>
+      <c r="Y45" s="172" t="str">
+        <f>IF(_Area34_day_shift!V10="","",_Area34_day_shift!V10)</f>
+        <v/>
+      </c>
+      <c r="Z45" s="94" t="str">
+        <f>IF(_Area34_day_shift!W10="","",_Area34_day_shift!W10)</f>
+        <v/>
+      </c>
+      <c r="AA45" s="124" t="str">
+        <f>IF(_Area34_day_shift!X10="","",_Area34_day_shift!X10)</f>
+        <v/>
+      </c>
+      <c r="AB45" s="163"/>
+      <c r="AC45" s="164"/>
+      <c r="AD45" s="164"/>
+      <c r="AE45" s="164"/>
+      <c r="AF45" s="164"/>
+      <c r="AG45" s="164"/>
+      <c r="AH45" s="164"/>
+      <c r="AI45" s="164"/>
+      <c r="AJ45" s="164"/>
+      <c r="AK45" s="164"/>
+      <c r="AL45" s="164"/>
+      <c r="AM45" s="164"/>
+      <c r="AN45" s="164"/>
+      <c r="AO45" s="164"/>
+      <c r="AP45" s="164"/>
+      <c r="AQ45" s="164"/>
+      <c r="AR45" s="164"/>
+      <c r="AS45" s="164"/>
+      <c r="AT45" s="164"/>
+      <c r="AU45" s="164"/>
+      <c r="AV45" s="164"/>
+      <c r="AW45" s="164"/>
+      <c r="AX45" s="164"/>
+      <c r="AY45" s="164"/>
+      <c r="AZ45" s="164"/>
+      <c r="BA45" s="258"/>
+      <c r="BB45" s="274"/>
+      <c r="BC45" s="275"/>
+      <c r="BD45" s="274"/>
+      <c r="BE45" s="275"/>
       <c r="BF45" s="11"/>
       <c r="BG45" s="11"/>
       <c r="BH45" s="11"/>
@@ -11068,125 +11222,134 @@
       <c r="A46" s="73">
         <v>10</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="75" t="str">
+      <c r="B46" s="90"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="76" t="str">
         <f>IF(_Area34_day_shift!A11="","",_Area34_day_shift!A11)</f>
         <v/>
       </c>
-      <c r="D46" s="76" t="str">
+      <c r="E46" s="77" t="str">
         <f>IF(_Area34_day_shift!B11="","",_Area34_day_shift!B11)</f>
         <v/>
       </c>
-      <c r="E46" s="75" t="str">
+      <c r="F46" s="76" t="str">
         <f>IF(_Area34_day_shift!C11="","",_Area34_day_shift!C11)</f>
         <v/>
       </c>
-      <c r="F46" s="77" t="str">
+      <c r="G46" s="78" t="str">
         <f>IF(_Area34_day_shift!D11="","",_Area34_day_shift!D11)</f>
         <v/>
       </c>
-      <c r="G46" s="75" t="str">
+      <c r="H46" s="76" t="str">
         <f>IF(_Area34_day_shift!E11="","",_Area34_day_shift!E11)</f>
         <v/>
       </c>
-      <c r="H46" s="78" t="str">
+      <c r="I46" s="121" t="str">
         <f>IF(_Area34_day_shift!F11="","",_Area34_day_shift!F11)</f>
         <v/>
       </c>
-      <c r="I46" s="75" t="str">
+      <c r="J46" s="76" t="str">
         <f>IF(_Area34_day_shift!G11="","",_Area34_day_shift!G11)</f>
         <v/>
       </c>
-      <c r="J46" s="78" t="str">
+      <c r="K46" s="121" t="str">
         <f>IF(_Area34_day_shift!H11="","",_Area34_day_shift!H11)</f>
         <v/>
       </c>
-      <c r="K46" s="75" t="str">
+      <c r="L46" s="76" t="str">
         <f>IF(_Area34_day_shift!I11="","",_Area34_day_shift!I11)</f>
         <v/>
       </c>
-      <c r="L46" s="76" t="str">
+      <c r="M46" s="77" t="str">
         <f>IF(_Area34_day_shift!J11="","",_Area34_day_shift!J11)</f>
         <v/>
       </c>
-      <c r="M46" s="75" t="str">
+      <c r="N46" s="76" t="str">
         <f>IF(_Area34_day_shift!K11="","",_Area34_day_shift!K11)</f>
         <v/>
       </c>
-      <c r="N46" s="77" t="str">
+      <c r="O46" s="78" t="str">
         <f>IF(_Area34_day_shift!L11="","",_Area34_day_shift!L11)</f>
         <v/>
       </c>
-      <c r="O46" s="75" t="str">
+      <c r="P46" s="76" t="str">
         <f>IF(_Area34_day_shift!M11="","",_Area34_day_shift!M11)</f>
         <v/>
       </c>
-      <c r="P46" s="77" t="str">
+      <c r="Q46" s="78" t="str">
         <f>IF(_Area34_day_shift!N11="","",_Area34_day_shift!N11)</f>
         <v/>
       </c>
-      <c r="Q46" s="75" t="str">
+      <c r="R46" s="76" t="str">
         <f>IF(_Area34_day_shift!O11="","",_Area34_day_shift!O11)</f>
         <v/>
       </c>
-      <c r="R46" s="77" t="str">
+      <c r="S46" s="78" t="str">
         <f>IF(_Area34_day_shift!P11="","",_Area34_day_shift!P11)</f>
         <v/>
       </c>
-      <c r="S46" s="75" t="str">
+      <c r="T46" s="76" t="str">
         <f>IF(_Area34_day_shift!Q11="","",_Area34_day_shift!Q11)</f>
         <v/>
       </c>
-      <c r="T46" s="77" t="str">
+      <c r="U46" s="78" t="str">
         <f>IF(_Area34_day_shift!R11="","",_Area34_day_shift!R11)</f>
         <v/>
       </c>
-      <c r="U46" s="75" t="str">
+      <c r="V46" s="76" t="str">
         <f>IF(_Area34_day_shift!S11="","",_Area34_day_shift!S11)</f>
         <v/>
       </c>
-      <c r="V46" s="77" t="str">
+      <c r="W46" s="78" t="str">
         <f>IF(_Area34_day_shift!T11="","",_Area34_day_shift!T11)</f>
         <v/>
       </c>
-      <c r="W46" s="75" t="str">
+      <c r="X46" s="136" t="str">
         <f>IF(_Area34_day_shift!U11="","",_Area34_day_shift!U11)</f>
         <v/>
       </c>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="155"/>
-      <c r="AC46" s="156"/>
-      <c r="AD46" s="156"/>
-      <c r="AE46" s="156"/>
-      <c r="AF46" s="156"/>
-      <c r="AG46" s="156"/>
-      <c r="AH46" s="156"/>
-      <c r="AI46" s="156"/>
-      <c r="AJ46" s="156"/>
-      <c r="AK46" s="156"/>
-      <c r="AL46" s="156"/>
-      <c r="AM46" s="156"/>
-      <c r="AN46" s="156"/>
-      <c r="AO46" s="156"/>
-      <c r="AP46" s="156"/>
-      <c r="AQ46" s="156"/>
-      <c r="AR46" s="156"/>
-      <c r="AS46" s="156"/>
-      <c r="AT46" s="156"/>
-      <c r="AU46" s="156"/>
-      <c r="AV46" s="156"/>
-      <c r="AW46" s="156"/>
-      <c r="AX46" s="156"/>
-      <c r="AY46" s="156"/>
-      <c r="AZ46" s="156"/>
-      <c r="BA46" s="245"/>
-      <c r="BB46" s="258"/>
-      <c r="BC46" s="259"/>
-      <c r="BD46" s="260"/>
-      <c r="BE46" s="80"/>
+      <c r="Y46" s="165" t="str">
+        <f>IF(_Area34_day_shift!V11="","",_Area34_day_shift!V11)</f>
+        <v/>
+      </c>
+      <c r="Z46" s="76" t="str">
+        <f>IF(_Area34_day_shift!W11="","",_Area34_day_shift!W11)</f>
+        <v/>
+      </c>
+      <c r="AA46" s="121" t="str">
+        <f>IF(_Area34_day_shift!X11="","",_Area34_day_shift!X11)</f>
+        <v/>
+      </c>
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="167"/>
+      <c r="AD46" s="167"/>
+      <c r="AE46" s="167"/>
+      <c r="AF46" s="167"/>
+      <c r="AG46" s="167"/>
+      <c r="AH46" s="167"/>
+      <c r="AI46" s="167"/>
+      <c r="AJ46" s="167"/>
+      <c r="AK46" s="167"/>
+      <c r="AL46" s="167"/>
+      <c r="AM46" s="167"/>
+      <c r="AN46" s="167"/>
+      <c r="AO46" s="167"/>
+      <c r="AP46" s="167"/>
+      <c r="AQ46" s="167"/>
+      <c r="AR46" s="167"/>
+      <c r="AS46" s="167"/>
+      <c r="AT46" s="167"/>
+      <c r="AU46" s="167"/>
+      <c r="AV46" s="167"/>
+      <c r="AW46" s="167"/>
+      <c r="AX46" s="167"/>
+      <c r="AY46" s="167"/>
+      <c r="AZ46" s="167"/>
+      <c r="BA46" s="262"/>
+      <c r="BB46" s="274"/>
+      <c r="BC46" s="275"/>
+      <c r="BD46" s="274"/>
+      <c r="BE46" s="275"/>
       <c r="BF46" s="11"/>
       <c r="BG46" s="11"/>
       <c r="BH46" s="11"/>
@@ -11197,125 +11360,134 @@
       <c r="A47" s="79">
         <v>11</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="75" t="str">
+      <c r="B47" s="90"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="76" t="str">
         <f>IF(_Area34_day_shift!A12="","",_Area34_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="D47" s="76" t="str">
+      <c r="E47" s="77" t="str">
         <f>IF(_Area34_day_shift!B12="","",_Area34_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="E47" s="75" t="str">
+      <c r="F47" s="76" t="str">
         <f>IF(_Area34_day_shift!C12="","",_Area34_day_shift!C12)</f>
         <v/>
       </c>
-      <c r="F47" s="77" t="str">
+      <c r="G47" s="78" t="str">
         <f>IF(_Area34_day_shift!D12="","",_Area34_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="G47" s="75" t="str">
+      <c r="H47" s="76" t="str">
         <f>IF(_Area34_day_shift!E12="","",_Area34_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="H47" s="78" t="str">
+      <c r="I47" s="121" t="str">
         <f>IF(_Area34_day_shift!F12="","",_Area34_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="I47" s="75" t="str">
+      <c r="J47" s="76" t="str">
         <f>IF(_Area34_day_shift!G12="","",_Area34_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="J47" s="78" t="str">
+      <c r="K47" s="121" t="str">
         <f>IF(_Area34_day_shift!H12="","",_Area34_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="K47" s="75" t="str">
+      <c r="L47" s="76" t="str">
         <f>IF(_Area34_day_shift!I12="","",_Area34_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="L47" s="76" t="str">
+      <c r="M47" s="77" t="str">
         <f>IF(_Area34_day_shift!J12="","",_Area34_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="M47" s="75" t="str">
+      <c r="N47" s="76" t="str">
         <f>IF(_Area34_day_shift!K12="","",_Area34_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="N47" s="77" t="str">
+      <c r="O47" s="78" t="str">
         <f>IF(_Area34_day_shift!L12="","",_Area34_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="O47" s="75" t="str">
+      <c r="P47" s="76" t="str">
         <f>IF(_Area34_day_shift!M12="","",_Area34_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="P47" s="77" t="str">
+      <c r="Q47" s="78" t="str">
         <f>IF(_Area34_day_shift!N12="","",_Area34_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="Q47" s="75" t="str">
+      <c r="R47" s="76" t="str">
         <f>IF(_Area34_day_shift!O12="","",_Area34_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="R47" s="77" t="str">
+      <c r="S47" s="78" t="str">
         <f>IF(_Area34_day_shift!P12="","",_Area34_day_shift!P12)</f>
         <v/>
       </c>
-      <c r="S47" s="75" t="str">
+      <c r="T47" s="76" t="str">
         <f>IF(_Area34_day_shift!Q12="","",_Area34_day_shift!Q12)</f>
         <v/>
       </c>
-      <c r="T47" s="77" t="str">
+      <c r="U47" s="78" t="str">
         <f>IF(_Area34_day_shift!R12="","",_Area34_day_shift!R12)</f>
         <v/>
       </c>
-      <c r="U47" s="75" t="str">
+      <c r="V47" s="76" t="str">
         <f>IF(_Area34_day_shift!S12="","",_Area34_day_shift!S12)</f>
         <v/>
       </c>
-      <c r="V47" s="77" t="str">
+      <c r="W47" s="78" t="str">
         <f>IF(_Area34_day_shift!T12="","",_Area34_day_shift!T12)</f>
         <v/>
       </c>
-      <c r="W47" s="75" t="str">
+      <c r="X47" s="136" t="str">
         <f>IF(_Area34_day_shift!U12="","",_Area34_day_shift!U12)</f>
         <v/>
       </c>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="155"/>
-      <c r="AC47" s="156"/>
-      <c r="AD47" s="156"/>
-      <c r="AE47" s="156"/>
-      <c r="AF47" s="156"/>
-      <c r="AG47" s="156"/>
-      <c r="AH47" s="156"/>
-      <c r="AI47" s="156"/>
-      <c r="AJ47" s="156"/>
-      <c r="AK47" s="156"/>
-      <c r="AL47" s="156"/>
-      <c r="AM47" s="156"/>
-      <c r="AN47" s="156"/>
-      <c r="AO47" s="156"/>
-      <c r="AP47" s="156"/>
-      <c r="AQ47" s="156"/>
-      <c r="AR47" s="156"/>
-      <c r="AS47" s="156"/>
-      <c r="AT47" s="156"/>
-      <c r="AU47" s="156"/>
-      <c r="AV47" s="156"/>
-      <c r="AW47" s="156"/>
-      <c r="AX47" s="156"/>
-      <c r="AY47" s="156"/>
-      <c r="AZ47" s="156"/>
-      <c r="BA47" s="245"/>
-      <c r="BB47" s="258"/>
-      <c r="BC47" s="259"/>
-      <c r="BD47" s="260"/>
-      <c r="BE47" s="80"/>
+      <c r="Y47" s="165" t="str">
+        <f>IF(_Area34_day_shift!V12="","",_Area34_day_shift!V12)</f>
+        <v/>
+      </c>
+      <c r="Z47" s="76" t="str">
+        <f>IF(_Area34_day_shift!W12="","",_Area34_day_shift!W12)</f>
+        <v/>
+      </c>
+      <c r="AA47" s="121" t="str">
+        <f>IF(_Area34_day_shift!X12="","",_Area34_day_shift!X12)</f>
+        <v/>
+      </c>
+      <c r="AB47" s="166"/>
+      <c r="AC47" s="167"/>
+      <c r="AD47" s="167"/>
+      <c r="AE47" s="167"/>
+      <c r="AF47" s="167"/>
+      <c r="AG47" s="167"/>
+      <c r="AH47" s="167"/>
+      <c r="AI47" s="167"/>
+      <c r="AJ47" s="167"/>
+      <c r="AK47" s="167"/>
+      <c r="AL47" s="167"/>
+      <c r="AM47" s="167"/>
+      <c r="AN47" s="167"/>
+      <c r="AO47" s="167"/>
+      <c r="AP47" s="167"/>
+      <c r="AQ47" s="167"/>
+      <c r="AR47" s="167"/>
+      <c r="AS47" s="167"/>
+      <c r="AT47" s="167"/>
+      <c r="AU47" s="167"/>
+      <c r="AV47" s="167"/>
+      <c r="AW47" s="167"/>
+      <c r="AX47" s="167"/>
+      <c r="AY47" s="167"/>
+      <c r="AZ47" s="167"/>
+      <c r="BA47" s="262"/>
+      <c r="BB47" s="274"/>
+      <c r="BC47" s="275"/>
+      <c r="BD47" s="274"/>
+      <c r="BE47" s="275"/>
       <c r="BF47" s="11"/>
       <c r="BG47" s="11"/>
       <c r="BH47" s="11"/>
@@ -11326,194 +11498,203 @@
       <c r="A48" s="73">
         <v>12</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82" t="str">
+      <c r="B48" s="92"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="82" t="str">
         <f>IF(_Area34_day_shift!A13="","",_Area34_day_shift!A13)</f>
         <v/>
       </c>
-      <c r="D48" s="76" t="str">
+      <c r="E48" s="77" t="str">
         <f>IF(_Area34_day_shift!B13="","",_Area34_day_shift!B13)</f>
         <v/>
       </c>
-      <c r="E48" s="82" t="str">
+      <c r="F48" s="82" t="str">
         <f>IF(_Area34_day_shift!C13="","",_Area34_day_shift!C13)</f>
         <v/>
       </c>
-      <c r="F48" s="84" t="str">
+      <c r="G48" s="84" t="str">
         <f>IF(_Area34_day_shift!D13="","",_Area34_day_shift!D13)</f>
         <v/>
       </c>
-      <c r="G48" s="82" t="str">
+      <c r="H48" s="82" t="str">
         <f>IF(_Area34_day_shift!E13="","",_Area34_day_shift!E13)</f>
         <v/>
       </c>
-      <c r="H48" s="78" t="str">
+      <c r="I48" s="125" t="str">
         <f>IF(_Area34_day_shift!F13="","",_Area34_day_shift!F13)</f>
         <v/>
       </c>
-      <c r="I48" s="82" t="str">
+      <c r="J48" s="82" t="str">
         <f>IF(_Area34_day_shift!G13="","",_Area34_day_shift!G13)</f>
         <v/>
       </c>
-      <c r="J48" s="85" t="str">
+      <c r="K48" s="122" t="str">
         <f>IF(_Area34_day_shift!H13="","",_Area34_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="K48" s="82" t="str">
+      <c r="L48" s="82" t="str">
         <f>IF(_Area34_day_shift!I13="","",_Area34_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="L48" s="83" t="str">
+      <c r="M48" s="83" t="str">
         <f>IF(_Area34_day_shift!J13="","",_Area34_day_shift!J13)</f>
         <v/>
       </c>
-      <c r="M48" s="82" t="str">
+      <c r="N48" s="82" t="str">
         <f>IF(_Area34_day_shift!K13="","",_Area34_day_shift!K13)</f>
         <v/>
       </c>
-      <c r="N48" s="84" t="str">
+      <c r="O48" s="84" t="str">
         <f>IF(_Area34_day_shift!L13="","",_Area34_day_shift!L13)</f>
         <v/>
       </c>
-      <c r="O48" s="82" t="str">
+      <c r="P48" s="82" t="str">
         <f>IF(_Area34_day_shift!M13="","",_Area34_day_shift!M13)</f>
         <v/>
       </c>
-      <c r="P48" s="84" t="str">
+      <c r="Q48" s="84" t="str">
         <f>IF(_Area34_day_shift!N13="","",_Area34_day_shift!N13)</f>
         <v/>
       </c>
-      <c r="Q48" s="82" t="str">
+      <c r="R48" s="82" t="str">
         <f>IF(_Area34_day_shift!O13="","",_Area34_day_shift!O13)</f>
         <v/>
       </c>
-      <c r="R48" s="84" t="str">
+      <c r="S48" s="84" t="str">
         <f>IF(_Area34_day_shift!P13="","",_Area34_day_shift!P13)</f>
         <v/>
       </c>
-      <c r="S48" s="82" t="str">
+      <c r="T48" s="82" t="str">
         <f>IF(_Area34_day_shift!Q13="","",_Area34_day_shift!Q13)</f>
         <v/>
       </c>
-      <c r="T48" s="84" t="str">
+      <c r="U48" s="84" t="str">
         <f>IF(_Area34_day_shift!R13="","",_Area34_day_shift!R13)</f>
         <v/>
       </c>
-      <c r="U48" s="82" t="str">
+      <c r="V48" s="82" t="str">
         <f>IF(_Area34_day_shift!S13="","",_Area34_day_shift!S13)</f>
         <v/>
       </c>
-      <c r="V48" s="84" t="str">
+      <c r="W48" s="84" t="str">
         <f>IF(_Area34_day_shift!T13="","",_Area34_day_shift!T13)</f>
         <v/>
       </c>
-      <c r="W48" s="82" t="str">
+      <c r="X48" s="136" t="str">
         <f>IF(_Area34_day_shift!U13="","",_Area34_day_shift!U13)</f>
         <v/>
       </c>
-      <c r="X48" s="83"/>
-      <c r="Y48" s="83"/>
-      <c r="Z48" s="83"/>
-      <c r="AA48" s="83"/>
-      <c r="AB48" s="155"/>
-      <c r="AC48" s="156"/>
-      <c r="AD48" s="156"/>
-      <c r="AE48" s="156"/>
-      <c r="AF48" s="156"/>
-      <c r="AG48" s="156"/>
-      <c r="AH48" s="156"/>
-      <c r="AI48" s="156"/>
-      <c r="AJ48" s="156"/>
-      <c r="AK48" s="156"/>
-      <c r="AL48" s="156"/>
-      <c r="AM48" s="156"/>
-      <c r="AN48" s="156"/>
-      <c r="AO48" s="156"/>
-      <c r="AP48" s="156"/>
-      <c r="AQ48" s="156"/>
-      <c r="AR48" s="156"/>
-      <c r="AS48" s="156"/>
-      <c r="AT48" s="156"/>
-      <c r="AU48" s="156"/>
-      <c r="AV48" s="156"/>
-      <c r="AW48" s="156"/>
-      <c r="AX48" s="156"/>
-      <c r="AY48" s="156"/>
-      <c r="AZ48" s="156"/>
-      <c r="BA48" s="245"/>
-      <c r="BB48" s="258"/>
-      <c r="BC48" s="259"/>
-      <c r="BD48" s="260"/>
-      <c r="BE48" s="80"/>
+      <c r="Y48" s="168" t="str">
+        <f>IF(_Area34_day_shift!V13="","",_Area34_day_shift!V13)</f>
+        <v/>
+      </c>
+      <c r="Z48" s="82" t="str">
+        <f>IF(_Area34_day_shift!W13="","",_Area34_day_shift!W13)</f>
+        <v/>
+      </c>
+      <c r="AA48" s="121" t="str">
+        <f>IF(_Area34_day_shift!X13="","",_Area34_day_shift!X13)</f>
+        <v/>
+      </c>
+      <c r="AB48" s="166"/>
+      <c r="AC48" s="167"/>
+      <c r="AD48" s="167"/>
+      <c r="AE48" s="167"/>
+      <c r="AF48" s="167"/>
+      <c r="AG48" s="167"/>
+      <c r="AH48" s="167"/>
+      <c r="AI48" s="167"/>
+      <c r="AJ48" s="167"/>
+      <c r="AK48" s="167"/>
+      <c r="AL48" s="167"/>
+      <c r="AM48" s="167"/>
+      <c r="AN48" s="167"/>
+      <c r="AO48" s="167"/>
+      <c r="AP48" s="167"/>
+      <c r="AQ48" s="167"/>
+      <c r="AR48" s="167"/>
+      <c r="AS48" s="167"/>
+      <c r="AT48" s="167"/>
+      <c r="AU48" s="167"/>
+      <c r="AV48" s="167"/>
+      <c r="AW48" s="167"/>
+      <c r="AX48" s="167"/>
+      <c r="AY48" s="167"/>
+      <c r="AZ48" s="167"/>
+      <c r="BA48" s="262"/>
+      <c r="BB48" s="274"/>
+      <c r="BC48" s="275"/>
+      <c r="BD48" s="274"/>
+      <c r="BE48" s="275"/>
       <c r="BF48" s="11"/>
       <c r="BG48" s="11"/>
       <c r="BH48" s="11"/>
-      <c r="BI48" s="272"/>
+      <c r="BI48" s="287"/>
     </row>
     <row r="49" ht="15" spans="1:60">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
       <c r="H49" s="98"/>
-      <c r="I49" s="119" t="s">
+      <c r="I49" s="126"/>
+      <c r="J49" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="120"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="132" t="s">
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
+      <c r="N49" s="127"/>
+      <c r="O49" s="127"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="127"/>
+      <c r="R49" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="R49" s="97"/>
-      <c r="S49" s="97"/>
-      <c r="T49" s="97"/>
-      <c r="U49" s="97"/>
-      <c r="V49" s="97"/>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="98"/>
-      <c r="AB49" s="157"/>
-      <c r="AC49" s="158"/>
-      <c r="AD49" s="158"/>
-      <c r="AE49" s="158"/>
-      <c r="AF49" s="158"/>
-      <c r="AG49" s="158"/>
-      <c r="AH49" s="158"/>
-      <c r="AI49" s="158"/>
-      <c r="AJ49" s="158"/>
-      <c r="AK49" s="158"/>
-      <c r="AL49" s="158"/>
-      <c r="AM49" s="158"/>
-      <c r="AN49" s="158"/>
-      <c r="AO49" s="158"/>
-      <c r="AP49" s="158"/>
-      <c r="AQ49" s="158"/>
-      <c r="AR49" s="158"/>
-      <c r="AS49" s="158"/>
-      <c r="AT49" s="158"/>
-      <c r="AU49" s="158"/>
-      <c r="AV49" s="158"/>
-      <c r="AW49" s="158"/>
-      <c r="AX49" s="158"/>
-      <c r="AY49" s="158"/>
-      <c r="AZ49" s="158"/>
-      <c r="BA49" s="249"/>
-      <c r="BB49" s="261"/>
-      <c r="BC49" s="262"/>
-      <c r="BD49" s="263"/>
-      <c r="BE49" s="81"/>
+      <c r="S49" s="127"/>
+      <c r="T49" s="127"/>
+      <c r="U49" s="127"/>
+      <c r="V49" s="127"/>
+      <c r="W49" s="127"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="127"/>
+      <c r="AA49" s="173"/>
+      <c r="AB49" s="169"/>
+      <c r="AC49" s="170"/>
+      <c r="AD49" s="170"/>
+      <c r="AE49" s="170"/>
+      <c r="AF49" s="170"/>
+      <c r="AG49" s="170"/>
+      <c r="AH49" s="170"/>
+      <c r="AI49" s="170"/>
+      <c r="AJ49" s="170"/>
+      <c r="AK49" s="170"/>
+      <c r="AL49" s="170"/>
+      <c r="AM49" s="170"/>
+      <c r="AN49" s="170"/>
+      <c r="AO49" s="170"/>
+      <c r="AP49" s="170"/>
+      <c r="AQ49" s="170"/>
+      <c r="AR49" s="170"/>
+      <c r="AS49" s="170"/>
+      <c r="AT49" s="170"/>
+      <c r="AU49" s="170"/>
+      <c r="AV49" s="170"/>
+      <c r="AW49" s="170"/>
+      <c r="AX49" s="170"/>
+      <c r="AY49" s="170"/>
+      <c r="AZ49" s="170"/>
+      <c r="BA49" s="266"/>
+      <c r="BB49" s="276"/>
+      <c r="BC49" s="277"/>
+      <c r="BD49" s="276"/>
+      <c r="BE49" s="277"/>
       <c r="BF49" s="11"/>
       <c r="BG49" s="11"/>
       <c r="BH49" s="11"/>
@@ -11583,7 +11764,7 @@
     </row>
     <row r="52" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="151">
+  <mergeCells count="152">
     <mergeCell ref="A1:AY1"/>
     <mergeCell ref="A2:AY2"/>
     <mergeCell ref="B3:AF3"/>
@@ -11598,33 +11779,36 @@
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="BB7:BC7"/>
     <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="U32:AF32"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="I34:AA34"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:V32"/>
+    <mergeCell ref="W32:AF32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="M33:V33"/>
+    <mergeCell ref="W33:AF33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="J34:AA34"/>
     <mergeCell ref="AB34:BA34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
     <mergeCell ref="Z35:AA35"/>
     <mergeCell ref="AB35:BA35"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="I49:P49"/>
-    <mergeCell ref="Q49:AA49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:AA49"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -11688,7 +11872,6 @@
     <mergeCell ref="BB30:BB31"/>
     <mergeCell ref="BB32:BB33"/>
     <mergeCell ref="BB36:BB41"/>
-    <mergeCell ref="BB44:BB49"/>
     <mergeCell ref="BC8:BC9"/>
     <mergeCell ref="BC10:BC11"/>
     <mergeCell ref="BC12:BC13"/>
@@ -11701,7 +11884,6 @@
     <mergeCell ref="BC30:BC31"/>
     <mergeCell ref="BC32:BC33"/>
     <mergeCell ref="BC36:BC41"/>
-    <mergeCell ref="BC44:BC49"/>
     <mergeCell ref="BD8:BD9"/>
     <mergeCell ref="BD10:BD11"/>
     <mergeCell ref="BD12:BD13"/>
@@ -11714,7 +11896,6 @@
     <mergeCell ref="BD30:BD31"/>
     <mergeCell ref="BD32:BD33"/>
     <mergeCell ref="BD36:BD41"/>
-    <mergeCell ref="BD44:BD49"/>
     <mergeCell ref="BE8:BE9"/>
     <mergeCell ref="BE10:BE11"/>
     <mergeCell ref="BE12:BE13"/>
@@ -11727,14 +11908,15 @@
     <mergeCell ref="BE30:BE31"/>
     <mergeCell ref="BE32:BE33"/>
     <mergeCell ref="BE36:BE41"/>
-    <mergeCell ref="BE44:BE49"/>
-    <mergeCell ref="AB41:BA44"/>
-    <mergeCell ref="AB36:BA40"/>
     <mergeCell ref="BB34:BE35"/>
     <mergeCell ref="BB42:BE43"/>
     <mergeCell ref="BB1:BE2"/>
-    <mergeCell ref="AB45:BA49"/>
     <mergeCell ref="BB3:BE6"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="B41:C44"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="AB41:BA44"/>
+    <mergeCell ref="AB36:BA40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BF3" r:id="rId1" display="http://localhost:8080/swagger-ui.html#/ "/>
@@ -12097,11 +12279,14 @@
   <sheetPr/>
   <dimension ref="A1:X357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="24" max="24" width="41.6333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">

--- a/excel/finished/能介/三四柜区运行记录表.xlsx
+++ b/excel/finished/能介/三四柜区运行记录表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="188">
   <si>
     <t>煤  气  柜  作  业  区  三  四  柜  区  运  行  记  录  表</t>
   </si>
@@ -544,7 +544,19 @@
     <t>当天拒收拒送总炉数</t>
   </si>
   <si>
+    <t>三钢拒收炉数</t>
+  </si>
+  <si>
+    <t>新一钢拒收炉数</t>
+  </si>
+  <si>
     <t>中班</t>
+  </si>
+  <si>
+    <t>三钢拒送炉数</t>
+  </si>
+  <si>
+    <t>新一钢拒送炉数</t>
   </si>
   <si>
     <t xml:space="preserve">交班:                      接班： </t>
@@ -830,16 +842,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,19 +903,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -915,13 +917,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -930,7 +925,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,15 +940,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,6 +978,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -992,28 +1031,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1022,21 +1039,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1113,31 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,43 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,31 +1169,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,25 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,6 +1235,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1293,7 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,6 +2222,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2237,10 +2259,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2299,34 +2319,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2335,147 +2337,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="78" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="80" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2520,7 +2522,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2589,64 +2591,64 @@
     <xf numFmtId="20" fontId="5" fillId="5" borderId="16" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="17" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="17" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="5" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="10" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="10" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="5" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="14" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="14" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="5" borderId="19" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="20" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="5" borderId="21" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="5" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="5" borderId="25" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2796,10 +2798,10 @@
     <xf numFmtId="21" fontId="3" fillId="7" borderId="43" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2817,16 +2819,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="12" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,7 +2840,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,10 +2882,10 @@
     <xf numFmtId="21" fontId="3" fillId="7" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="59" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2916,7 +2915,7 @@
     <xf numFmtId="21" fontId="3" fillId="7" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2943,34 +2942,31 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="60" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="60" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="59" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="59" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="42" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="58" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2985,13 +2981,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="64" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="64" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3024,7 +3017,7 @@
     <xf numFmtId="21" fontId="3" fillId="7" borderId="40" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3072,19 +3065,19 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="18" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="15" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,10 +3146,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="54" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="54" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3168,10 +3161,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="70" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="61" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="61" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3195,10 +3188,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="72" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="21" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="66" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="66" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3207,28 +3200,28 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="71" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="63" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="54" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="54" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="62" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="61" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="61" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="49" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="49" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="66" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="66" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="69" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="73" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="73" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3264,19 +3257,19 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="52" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="52" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3333,6 +3326,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="72" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="72" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="71" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3348,17 +3347,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="52" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="48" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3741,7 +3740,7 @@
   <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM32" sqref="AM32"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.45" defaultRowHeight="13.5"/>
@@ -3811,12 +3810,12 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="11"/>
-      <c r="AZ1" s="194"/>
-      <c r="BA1" s="194"/>
-      <c r="BB1" s="195"/>
-      <c r="BC1" s="196"/>
-      <c r="BD1" s="196"/>
-      <c r="BE1" s="278"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="192"/>
+      <c r="BC1" s="193"/>
+      <c r="BD1" s="193"/>
+      <c r="BE1" s="277"/>
     </row>
     <row r="2" ht="15" spans="1:58">
       <c r="A2" s="12" t="str">
@@ -3873,12 +3872,12 @@
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
       <c r="AY2" s="13"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
-      <c r="BC2" s="198"/>
-      <c r="BD2" s="198"/>
-      <c r="BE2" s="279"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="278"/>
       <c r="BF2" t="s">
         <v>1</v>
       </c>
@@ -3918,38 +3917,38 @@
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
-      <c r="AG3" s="174" t="s">
+      <c r="AG3" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="199" t="s">
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="BA3" s="200"/>
-      <c r="BB3" s="201" t="s">
+      <c r="BA3" s="197"/>
+      <c r="BB3" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="BC3" s="202"/>
-      <c r="BD3" s="202"/>
-      <c r="BE3" s="280"/>
-      <c r="BF3" s="281" t="s">
+      <c r="BC3" s="199"/>
+      <c r="BD3" s="199"/>
+      <c r="BE3" s="279"/>
+      <c r="BF3" s="280" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3979,64 +3978,64 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
       <c r="U4" s="102"/>
-      <c r="V4" s="128" t="s">
+      <c r="V4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="139" t="s">
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="139" t="s">
+      <c r="AD4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="176" t="s">
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="178" t="s">
+      <c r="AH4" s="174"/>
+      <c r="AI4" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="178" t="s">
+      <c r="AJ4" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="178" t="s">
+      <c r="AK4" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="128" t="s">
+      <c r="AL4" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="138"/>
-      <c r="AW4" s="128" t="s">
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="203"/>
-      <c r="AZ4" s="204" t="s">
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="200"/>
+      <c r="AZ4" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="205" t="s">
+      <c r="BA4" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="BB4" s="206"/>
-      <c r="BC4" s="207"/>
-      <c r="BD4" s="207"/>
-      <c r="BE4" s="282"/>
+      <c r="BB4" s="203"/>
+      <c r="BC4" s="204"/>
+      <c r="BD4" s="204"/>
+      <c r="BE4" s="281"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:58">
       <c r="A5" s="17"/>
@@ -4118,7 +4117,7 @@
       <c r="AA5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="141" t="s">
+      <c r="AB5" s="140" t="s">
         <v>31</v>
       </c>
       <c r="AC5" s="21" t="s">
@@ -4130,18 +4129,18 @@
       <c r="AE5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="142" t="s">
+      <c r="AF5" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="179" t="s">
+      <c r="AG5" s="176" t="s">
         <v>32</v>
       </c>
       <c r="AH5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="180"/>
-      <c r="AJ5" s="180"/>
-      <c r="AK5" s="180"/>
+      <c r="AI5" s="177"/>
+      <c r="AJ5" s="177"/>
+      <c r="AK5" s="177"/>
       <c r="AL5" s="22" t="s">
         <v>20</v>
       </c>
@@ -4181,15 +4180,15 @@
       <c r="AX5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AY5" s="142" t="s">
+      <c r="AY5" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AZ5" s="208"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="206"/>
-      <c r="BC5" s="207"/>
-      <c r="BD5" s="207"/>
-      <c r="BE5" s="282"/>
+      <c r="AZ5" s="205"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="203"/>
+      <c r="BC5" s="204"/>
+      <c r="BD5" s="204"/>
+      <c r="BE5" s="281"/>
       <c r="BF5" t="s">
         <v>41</v>
       </c>
@@ -4222,12 +4221,12 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
-      <c r="AB6" s="143"/>
+      <c r="AB6" s="142"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="181"/>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="178"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="23"/>
       <c r="AJ6" s="23"/>
@@ -4245,13 +4244,13 @@
       <c r="AV6" s="23"/>
       <c r="AW6" s="22"/>
       <c r="AX6" s="22"/>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="208"/>
-      <c r="BA6" s="209"/>
-      <c r="BB6" s="210"/>
-      <c r="BC6" s="210"/>
-      <c r="BD6" s="210"/>
-      <c r="BE6" s="250"/>
+      <c r="AY6" s="141"/>
+      <c r="AZ6" s="205"/>
+      <c r="BA6" s="206"/>
+      <c r="BB6" s="207"/>
+      <c r="BC6" s="207"/>
+      <c r="BD6" s="207"/>
+      <c r="BE6" s="247"/>
       <c r="BF6" t="s">
         <v>42</v>
       </c>
@@ -4318,25 +4317,25 @@
       <c r="U7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="130" t="s">
+      <c r="V7" s="129" t="s">
         <v>43</v>
       </c>
       <c r="W7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="X7" s="130" t="s">
+      <c r="X7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" s="130" t="s">
+      <c r="Y7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="130" t="s">
+      <c r="Z7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="130" t="s">
+      <c r="AA7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="144" t="s">
+      <c r="AB7" s="143" t="s">
         <v>48</v>
       </c>
       <c r="AC7" s="26" t="s">
@@ -4348,80 +4347,80 @@
       <c r="AE7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" s="144" t="s">
+      <c r="AF7" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="182" t="s">
+      <c r="AG7" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="AH7" s="130" t="s">
+      <c r="AH7" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AI7" s="130" t="s">
+      <c r="AI7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="130" t="s">
+      <c r="AJ7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="AK7" s="130" t="s">
+      <c r="AK7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="AL7" s="130" t="s">
+      <c r="AL7" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="AM7" s="130" t="s">
+      <c r="AM7" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="AN7" s="130" t="s">
+      <c r="AN7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AO7" s="130" t="s">
+      <c r="AO7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AP7" s="130" t="s">
+      <c r="AP7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="130" t="s">
+      <c r="AQ7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="AR7" s="141" t="s">
+      <c r="AR7" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" s="141" t="s">
+      <c r="AS7" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="AT7" s="141" t="s">
+      <c r="AT7" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="AU7" s="130" t="s">
+      <c r="AU7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="188" t="s">
+      <c r="AV7" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="AW7" s="130" t="s">
+      <c r="AW7" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="AX7" s="130" t="s">
+      <c r="AX7" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="AY7" s="141" t="s">
+      <c r="AY7" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="AZ7" s="211" t="s">
+      <c r="AZ7" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="BA7" s="212" t="s">
+      <c r="BA7" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="BB7" s="213" t="s">
+      <c r="BB7" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="BC7" s="214"/>
-      <c r="BD7" s="215" t="s">
+      <c r="BC7" s="211"/>
+      <c r="BD7" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="BE7" s="242"/>
+      <c r="BE7" s="239"/>
       <c r="BF7" t="s">
         <v>56</v>
       </c>
@@ -4538,7 +4537,7 @@
         <f>IF(_Area3_day_hour!Y2="","",_Area3_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AC8" s="145" t="str">
+      <c r="AC8" s="144" t="str">
         <f>IF(_Area3_day_hour!AE2&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF2&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4550,11 +4549,11 @@
         <f>IF(_Area3_day_hour!AA2="","",_Area3_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AF8" s="146" t="str">
+      <c r="AF8" s="145" t="str">
         <f>IF(_Area3_day_hour!AB2="","",_Area3_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AG8" s="183" t="str">
+      <c r="AG8" s="180" t="str">
         <f>IF(_Area4_day_hour!I2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4562,15 +4561,15 @@
         <f>IF(_Area4_day_hour!A2="","",_Area4_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="AI8" s="184" t="str">
+      <c r="AI8" s="181" t="str">
         <f>IF(_Area4_day_hour!L2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ8" s="184" t="str">
+      <c r="AJ8" s="181" t="str">
         <f>IF(_Area4_day_hour!N2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S2&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK8" s="184" t="str">
+      <c r="AK8" s="181" t="str">
         <f>IF(_Area4_day_hour!P2&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4598,7 +4597,7 @@
         <f>IF(_Area4_day_hour!AU2="","",_Area4_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AR8" s="189" t="str">
+      <c r="AR8" s="186" t="str">
         <f>IF(_Area4_day_hour!T2&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U2&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V2&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4626,20 +4625,20 @@
         <f>IF(_Area4_day_hour!G2="","",_Area4_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="AY8" s="146" t="str">
+      <c r="AY8" s="145" t="str">
         <f>IF(_Area4_day_hour!H2="","",_Area4_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="216"/>
-      <c r="BA8" s="217"/>
-      <c r="BB8" s="218" t="s">
+      <c r="AZ8" s="213"/>
+      <c r="BA8" s="214"/>
+      <c r="BB8" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="BC8" s="219"/>
-      <c r="BD8" s="220" t="s">
+      <c r="BC8" s="216"/>
+      <c r="BD8" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="BE8" s="219"/>
+      <c r="BE8" s="216"/>
     </row>
     <row r="9" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A9" s="30">
@@ -4753,7 +4752,7 @@
         <f>IF(_Area3_day_hour!Y3="","",_Area3_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AC9" s="147" t="str">
+      <c r="AC9" s="146" t="str">
         <f>IF(_Area3_day_hour!AE3&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF3&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4765,11 +4764,11 @@
         <f>IF(_Area3_day_hour!AA3="","",_Area3_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AF9" s="148" t="str">
+      <c r="AF9" s="147" t="str">
         <f>IF(_Area3_day_hour!AB3="","",_Area3_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AG9" s="185" t="str">
+      <c r="AG9" s="182" t="str">
         <f>IF(_Area4_day_hour!I3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4777,15 +4776,15 @@
         <f>IF(_Area4_day_hour!A3="","",_Area4_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="AI9" s="147" t="str">
+      <c r="AI9" s="146" t="str">
         <f>IF(_Area4_day_hour!L3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ9" s="147" t="str">
+      <c r="AJ9" s="146" t="str">
         <f>IF(_Area4_day_hour!N3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S3&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK9" s="147" t="str">
+      <c r="AK9" s="146" t="str">
         <f>IF(_Area4_day_hour!P3&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4813,7 +4812,7 @@
         <f>IF(_Area4_day_hour!AU3="","",_Area4_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AR9" s="190" t="str">
+      <c r="AR9" s="187" t="str">
         <f>IF(_Area4_day_hour!T3&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U3&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V3&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4841,16 +4840,16 @@
         <f>IF(_Area4_day_hour!G3="","",_Area4_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="AY9" s="148" t="str">
+      <c r="AY9" s="147" t="str">
         <f>IF(_Area4_day_hour!H3="","",_Area4_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="221"/>
-      <c r="BA9" s="222"/>
-      <c r="BB9" s="223"/>
-      <c r="BC9" s="224"/>
-      <c r="BD9" s="225"/>
-      <c r="BE9" s="224"/>
+      <c r="AZ9" s="218"/>
+      <c r="BA9" s="219"/>
+      <c r="BB9" s="220"/>
+      <c r="BC9" s="221"/>
+      <c r="BD9" s="222"/>
+      <c r="BE9" s="221"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A10" s="30">
@@ -4964,7 +4963,7 @@
         <f>IF(_Area3_day_hour!Y4="","",_Area3_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AC10" s="147" t="str">
+      <c r="AC10" s="146" t="str">
         <f>IF(_Area3_day_hour!AE4&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF4&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4976,11 +4975,11 @@
         <f>IF(_Area3_day_hour!AA4="","",_Area3_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AF10" s="148" t="str">
+      <c r="AF10" s="147" t="str">
         <f>IF(_Area3_day_hour!AB4="","",_Area3_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AG10" s="185" t="str">
+      <c r="AG10" s="182" t="str">
         <f>IF(_Area4_day_hour!I4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -4988,15 +4987,15 @@
         <f>IF(_Area4_day_hour!A4="","",_Area4_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="AI10" s="147" t="str">
+      <c r="AI10" s="146" t="str">
         <f>IF(_Area4_day_hour!L4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ10" s="147" t="str">
+      <c r="AJ10" s="146" t="str">
         <f>IF(_Area4_day_hour!N4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S4&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK10" s="147" t="str">
+      <c r="AK10" s="146" t="str">
         <f>IF(_Area4_day_hour!P4&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5024,7 +5023,7 @@
         <f>IF(_Area4_day_hour!AU4="","",_Area4_day_hour!AU4)</f>
         <v/>
       </c>
-      <c r="AR10" s="190" t="str">
+      <c r="AR10" s="187" t="str">
         <f>IF(_Area4_day_hour!T4&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U4&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V4&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5052,20 +5051,20 @@
         <f>IF(_Area4_day_hour!G4="","",_Area4_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="AY10" s="148" t="str">
+      <c r="AY10" s="147" t="str">
         <f>IF(_Area4_day_hour!H4="","",_Area4_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="221"/>
-      <c r="BA10" s="222"/>
-      <c r="BB10" s="218" t="s">
+      <c r="AZ10" s="218"/>
+      <c r="BA10" s="219"/>
+      <c r="BB10" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="BC10" s="219"/>
-      <c r="BD10" s="220" t="s">
+      <c r="BC10" s="216"/>
+      <c r="BD10" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="BE10" s="219"/>
+      <c r="BE10" s="216"/>
     </row>
     <row r="11" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A11" s="30">
@@ -5179,7 +5178,7 @@
         <f>IF(_Area3_day_hour!Y5="","",_Area3_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AC11" s="147" t="str">
+      <c r="AC11" s="146" t="str">
         <f>IF(_Area3_day_hour!AE5&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF5&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5191,11 +5190,11 @@
         <f>IF(_Area3_day_hour!AA5="","",_Area3_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AF11" s="148" t="str">
+      <c r="AF11" s="147" t="str">
         <f>IF(_Area3_day_hour!AB5="","",_Area3_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AG11" s="185" t="str">
+      <c r="AG11" s="182" t="str">
         <f>IF(_Area4_day_hour!I5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5203,15 +5202,15 @@
         <f>IF(_Area4_day_hour!A5="","",_Area4_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="AI11" s="147" t="str">
+      <c r="AI11" s="146" t="str">
         <f>IF(_Area4_day_hour!L5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ11" s="147" t="str">
+      <c r="AJ11" s="146" t="str">
         <f>IF(_Area4_day_hour!N5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S5&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK11" s="147" t="str">
+      <c r="AK11" s="146" t="str">
         <f>IF(_Area4_day_hour!P5&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5239,7 +5238,7 @@
         <f>IF(_Area4_day_hour!AU5="","",_Area4_day_hour!AU5)</f>
         <v/>
       </c>
-      <c r="AR11" s="190" t="str">
+      <c r="AR11" s="187" t="str">
         <f>IF(_Area4_day_hour!T5&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U5&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V5&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5267,16 +5266,16 @@
         <f>IF(_Area4_day_hour!G5="","",_Area4_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="AY11" s="148" t="str">
+      <c r="AY11" s="147" t="str">
         <f>IF(_Area4_day_hour!H5="","",_Area4_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="221"/>
-      <c r="BA11" s="222"/>
-      <c r="BB11" s="223"/>
-      <c r="BC11" s="224"/>
-      <c r="BD11" s="225"/>
-      <c r="BE11" s="224"/>
+      <c r="AZ11" s="218"/>
+      <c r="BA11" s="219"/>
+      <c r="BB11" s="220"/>
+      <c r="BC11" s="221"/>
+      <c r="BD11" s="222"/>
+      <c r="BE11" s="221"/>
     </row>
     <row r="12" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A12" s="30">
@@ -5390,7 +5389,7 @@
         <f>IF(_Area3_day_hour!Y6="","",_Area3_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AC12" s="147" t="str">
+      <c r="AC12" s="146" t="str">
         <f>IF(_Area3_day_hour!AE6&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF6&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5402,11 +5401,11 @@
         <f>IF(_Area3_day_hour!AA6="","",_Area3_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AF12" s="148" t="str">
+      <c r="AF12" s="147" t="str">
         <f>IF(_Area3_day_hour!AB6="","",_Area3_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AG12" s="185" t="str">
+      <c r="AG12" s="182" t="str">
         <f>IF(_Area4_day_hour!I6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5414,15 +5413,15 @@
         <f>IF(_Area4_day_hour!A6="","",_Area4_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="AI12" s="147" t="str">
+      <c r="AI12" s="146" t="str">
         <f>IF(_Area4_day_hour!L6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ12" s="147" t="str">
+      <c r="AJ12" s="146" t="str">
         <f>IF(_Area4_day_hour!N6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S6&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK12" s="147" t="str">
+      <c r="AK12" s="146" t="str">
         <f>IF(_Area4_day_hour!P6&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5450,7 +5449,7 @@
         <f>IF(_Area4_day_hour!AU6="","",_Area4_day_hour!AU6)</f>
         <v/>
       </c>
-      <c r="AR12" s="190" t="str">
+      <c r="AR12" s="187" t="str">
         <f>IF(_Area4_day_hour!T6&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U6&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V6&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5478,18 +5477,18 @@
         <f>IF(_Area4_day_hour!G6="","",_Area4_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="AY12" s="148" t="str">
+      <c r="AY12" s="147" t="str">
         <f>IF(_Area4_day_hour!H6="","",_Area4_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="221"/>
-      <c r="BA12" s="222"/>
-      <c r="BB12" s="218" t="s">
+      <c r="AZ12" s="218"/>
+      <c r="BA12" s="219"/>
+      <c r="BB12" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="219"/>
-      <c r="BD12" s="220"/>
-      <c r="BE12" s="219"/>
+      <c r="BC12" s="216"/>
+      <c r="BD12" s="217"/>
+      <c r="BE12" s="216"/>
     </row>
     <row r="13" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A13" s="30">
@@ -5603,7 +5602,7 @@
         <f>IF(_Area3_day_hour!Y7="","",_Area3_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AC13" s="147" t="str">
+      <c r="AC13" s="146" t="str">
         <f>IF(_Area3_day_hour!AE7&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF7&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5615,11 +5614,11 @@
         <f>IF(_Area3_day_hour!AA7="","",_Area3_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AF13" s="148" t="str">
+      <c r="AF13" s="147" t="str">
         <f>IF(_Area3_day_hour!AB7="","",_Area3_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AG13" s="185" t="str">
+      <c r="AG13" s="182" t="str">
         <f>IF(_Area4_day_hour!I7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5627,15 +5626,15 @@
         <f>IF(_Area4_day_hour!A7="","",_Area4_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="AI13" s="147" t="str">
+      <c r="AI13" s="146" t="str">
         <f>IF(_Area4_day_hour!L7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ13" s="147" t="str">
+      <c r="AJ13" s="146" t="str">
         <f>IF(_Area4_day_hour!N7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S7&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK13" s="147" t="str">
+      <c r="AK13" s="146" t="str">
         <f>IF(_Area4_day_hour!P7&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5663,7 +5662,7 @@
         <f>IF(_Area4_day_hour!AU7="","",_Area4_day_hour!AU7)</f>
         <v/>
       </c>
-      <c r="AR13" s="190" t="str">
+      <c r="AR13" s="187" t="str">
         <f>IF(_Area4_day_hour!T7&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U7&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V7&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5691,16 +5690,16 @@
         <f>IF(_Area4_day_hour!G7="","",_Area4_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="AY13" s="148" t="str">
+      <c r="AY13" s="147" t="str">
         <f>IF(_Area4_day_hour!H7="","",_Area4_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="221"/>
-      <c r="BA13" s="222"/>
-      <c r="BB13" s="223"/>
-      <c r="BC13" s="226"/>
-      <c r="BD13" s="225"/>
-      <c r="BE13" s="226"/>
+      <c r="AZ13" s="218"/>
+      <c r="BA13" s="219"/>
+      <c r="BB13" s="220"/>
+      <c r="BC13" s="223"/>
+      <c r="BD13" s="222"/>
+      <c r="BE13" s="223"/>
     </row>
     <row r="14" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A14" s="30">
@@ -5814,7 +5813,7 @@
         <f>IF(_Area3_day_hour!Y8="","",_Area3_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AC14" s="147" t="str">
+      <c r="AC14" s="146" t="str">
         <f>IF(_Area3_day_hour!AE8&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF8&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5826,11 +5825,11 @@
         <f>IF(_Area3_day_hour!AA8="","",_Area3_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AF14" s="148" t="str">
+      <c r="AF14" s="147" t="str">
         <f>IF(_Area3_day_hour!AB8="","",_Area3_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AG14" s="185" t="str">
+      <c r="AG14" s="182" t="str">
         <f>IF(_Area4_day_hour!I8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5838,15 +5837,15 @@
         <f>IF(_Area4_day_hour!A8="","",_Area4_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="AI14" s="147" t="str">
+      <c r="AI14" s="146" t="str">
         <f>IF(_Area4_day_hour!L8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ14" s="147" t="str">
+      <c r="AJ14" s="146" t="str">
         <f>IF(_Area4_day_hour!N8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S8&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK14" s="147" t="str">
+      <c r="AK14" s="146" t="str">
         <f>IF(_Area4_day_hour!P8&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5874,7 +5873,7 @@
         <f>IF(_Area4_day_hour!AU8="","",_Area4_day_hour!AU8)</f>
         <v/>
       </c>
-      <c r="AR14" s="190" t="str">
+      <c r="AR14" s="187" t="str">
         <f>IF(_Area4_day_hour!T8&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U8&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V8&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -5902,20 +5901,20 @@
         <f>IF(_Area4_day_hour!G8="","",_Area4_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="AY14" s="148" t="str">
+      <c r="AY14" s="147" t="str">
         <f>IF(_Area4_day_hour!H8="","",_Area4_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="221"/>
-      <c r="BA14" s="222"/>
-      <c r="BB14" s="227" t="s">
+      <c r="AZ14" s="218"/>
+      <c r="BA14" s="219"/>
+      <c r="BB14" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="BC14" s="228"/>
-      <c r="BD14" s="229" t="s">
+      <c r="BC14" s="225"/>
+      <c r="BD14" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="BE14" s="228"/>
+      <c r="BE14" s="225"/>
     </row>
     <row r="15" s="9" customFormat="1" ht="18" spans="1:57">
       <c r="A15" s="34">
@@ -6029,7 +6028,7 @@
         <f>IF(_Area3_day_hour!Y9="","",_Area3_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AC15" s="149" t="str">
+      <c r="AC15" s="148" t="str">
         <f>IF(_Area3_day_hour!AE9&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF9&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6041,11 +6040,11 @@
         <f>IF(_Area3_day_hour!AA9="","",_Area3_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AF15" s="150" t="str">
+      <c r="AF15" s="149" t="str">
         <f>IF(_Area3_day_hour!AB9="","",_Area3_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AG15" s="186" t="str">
+      <c r="AG15" s="183" t="str">
         <f>IF(_Area4_day_hour!I9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6053,15 +6052,15 @@
         <f>IF(_Area4_day_hour!A9="","",_Area4_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="AI15" s="149" t="str">
+      <c r="AI15" s="148" t="str">
         <f>IF(_Area4_day_hour!L9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ15" s="149" t="str">
+      <c r="AJ15" s="148" t="str">
         <f>IF(_Area4_day_hour!N9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S9&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK15" s="149" t="str">
+      <c r="AK15" s="148" t="str">
         <f>IF(_Area4_day_hour!P9&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6089,7 +6088,7 @@
         <f>IF(_Area4_day_hour!AU9="","",_Area4_day_hour!AU9)</f>
         <v/>
       </c>
-      <c r="AR15" s="191" t="str">
+      <c r="AR15" s="188" t="str">
         <f>IF(_Area4_day_hour!T9&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U9&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V9&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6117,20 +6116,20 @@
         <f>IF(_Area4_day_hour!G9="","",_Area4_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="AY15" s="150" t="str">
+      <c r="AY15" s="149" t="str">
         <f>IF(_Area4_day_hour!H9="","",_Area4_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="230"/>
-      <c r="BA15" s="231"/>
-      <c r="BB15" s="232" t="s">
+      <c r="AZ15" s="227"/>
+      <c r="BA15" s="228"/>
+      <c r="BB15" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="BC15" s="228"/>
-      <c r="BD15" s="233" t="s">
+      <c r="BC15" s="225"/>
+      <c r="BD15" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="BE15" s="228"/>
+      <c r="BE15" s="225"/>
     </row>
     <row r="16" s="7" customFormat="1" ht="17.25" spans="1:57">
       <c r="A16" s="27">
@@ -6244,7 +6243,7 @@
         <f>IF(_Area3_day_hour!Y10="","",_Area3_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AC16" s="145" t="str">
+      <c r="AC16" s="144" t="str">
         <f>IF(_Area3_day_hour!AE10&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF10&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6256,11 +6255,11 @@
         <f>IF(_Area3_day_hour!AA10="","",_Area3_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AF16" s="151" t="str">
+      <c r="AF16" s="150" t="str">
         <f>IF(_Area3_day_hour!AB10="","",_Area3_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AG16" s="183" t="str">
+      <c r="AG16" s="180" t="str">
         <f>IF(_Area4_day_hour!I10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6268,15 +6267,15 @@
         <f>IF(_Area4_day_hour!A10="","",_Area4_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="AI16" s="145" t="str">
+      <c r="AI16" s="144" t="str">
         <f>IF(_Area4_day_hour!L10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ16" s="145" t="str">
+      <c r="AJ16" s="144" t="str">
         <f>IF(_Area4_day_hour!N10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S10&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK16" s="145" t="str">
+      <c r="AK16" s="144" t="str">
         <f>IF(_Area4_day_hour!P10&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6304,7 +6303,7 @@
         <f>IF(_Area4_day_hour!AU10="","",_Area4_day_hour!AU10)</f>
         <v/>
       </c>
-      <c r="AR16" s="192" t="str">
+      <c r="AR16" s="189" t="str">
         <f>IF(_Area4_day_hour!T10&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U10&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V10&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6332,20 +6331,20 @@
         <f>IF(_Area4_day_hour!G10="","",_Area4_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="AY16" s="151" t="str">
+      <c r="AY16" s="150" t="str">
         <f>IF(_Area4_day_hour!H10="","",_Area4_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="234"/>
-      <c r="BA16" s="235"/>
-      <c r="BB16" s="218" t="s">
+      <c r="AZ16" s="231"/>
+      <c r="BA16" s="232"/>
+      <c r="BB16" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="BC16" s="219"/>
-      <c r="BD16" s="220" t="s">
+      <c r="BC16" s="216"/>
+      <c r="BD16" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="BE16" s="219"/>
+      <c r="BE16" s="216"/>
     </row>
     <row r="17" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A17" s="30">
@@ -6459,7 +6458,7 @@
         <f>IF(_Area3_day_hour!Y11="","",_Area3_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AC17" s="147" t="str">
+      <c r="AC17" s="146" t="str">
         <f>IF(_Area3_day_hour!AE11&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF11&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6471,11 +6470,11 @@
         <f>IF(_Area3_day_hour!AA11="","",_Area3_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AF17" s="152" t="str">
+      <c r="AF17" s="151" t="str">
         <f>IF(_Area3_day_hour!AB11="","",_Area3_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AG17" s="185" t="str">
+      <c r="AG17" s="182" t="str">
         <f>IF(_Area4_day_hour!I11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6483,15 +6482,15 @@
         <f>IF(_Area4_day_hour!A11="","",_Area4_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="AI17" s="147" t="str">
+      <c r="AI17" s="146" t="str">
         <f>IF(_Area4_day_hour!L11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ17" s="147" t="str">
+      <c r="AJ17" s="146" t="str">
         <f>IF(_Area4_day_hour!N11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S11&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK17" s="147" t="str">
+      <c r="AK17" s="146" t="str">
         <f>IF(_Area4_day_hour!P11&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6519,7 +6518,7 @@
         <f>IF(_Area4_day_hour!AU11="","",_Area4_day_hour!AU11)</f>
         <v/>
       </c>
-      <c r="AR17" s="190" t="str">
+      <c r="AR17" s="187" t="str">
         <f>IF(_Area4_day_hour!T11&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U11&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V11&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6547,16 +6546,16 @@
         <f>IF(_Area4_day_hour!G11="","",_Area4_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="AY17" s="152" t="str">
+      <c r="AY17" s="151" t="str">
         <f>IF(_Area4_day_hour!H11="","",_Area4_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="236"/>
-      <c r="BA17" s="237"/>
-      <c r="BB17" s="223"/>
-      <c r="BC17" s="224"/>
-      <c r="BD17" s="225"/>
-      <c r="BE17" s="224"/>
+      <c r="AZ17" s="233"/>
+      <c r="BA17" s="234"/>
+      <c r="BB17" s="220"/>
+      <c r="BC17" s="221"/>
+      <c r="BD17" s="222"/>
+      <c r="BE17" s="221"/>
     </row>
     <row r="18" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A18" s="40">
@@ -6670,7 +6669,7 @@
         <f>IF(_Area3_day_hour!Y12="","",_Area3_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AC18" s="147" t="str">
+      <c r="AC18" s="146" t="str">
         <f>IF(_Area3_day_hour!AE12&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF12&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6682,11 +6681,11 @@
         <f>IF(_Area3_day_hour!AA12="","",_Area3_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AF18" s="152" t="str">
+      <c r="AF18" s="151" t="str">
         <f>IF(_Area3_day_hour!AB12="","",_Area3_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AG18" s="185" t="str">
+      <c r="AG18" s="182" t="str">
         <f>IF(_Area4_day_hour!I12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6694,15 +6693,15 @@
         <f>IF(_Area4_day_hour!A12="","",_Area4_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="AI18" s="147" t="str">
+      <c r="AI18" s="146" t="str">
         <f>IF(_Area4_day_hour!L12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ18" s="147" t="str">
+      <c r="AJ18" s="146" t="str">
         <f>IF(_Area4_day_hour!N12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S12&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK18" s="147" t="str">
+      <c r="AK18" s="146" t="str">
         <f>IF(_Area4_day_hour!P12&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6730,7 +6729,7 @@
         <f>IF(_Area4_day_hour!AU12="","",_Area4_day_hour!AU12)</f>
         <v/>
       </c>
-      <c r="AR18" s="190" t="str">
+      <c r="AR18" s="187" t="str">
         <f>IF(_Area4_day_hour!T12&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U12&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V12&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6758,20 +6757,20 @@
         <f>IF(_Area4_day_hour!G12="","",_Area4_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="AY18" s="152" t="str">
+      <c r="AY18" s="151" t="str">
         <f>IF(_Area4_day_hour!H12="","",_Area4_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="236"/>
-      <c r="BA18" s="237"/>
-      <c r="BB18" s="218" t="s">
+      <c r="AZ18" s="233"/>
+      <c r="BA18" s="234"/>
+      <c r="BB18" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="BC18" s="219"/>
-      <c r="BD18" s="220" t="s">
+      <c r="BC18" s="216"/>
+      <c r="BD18" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="BE18" s="219"/>
+      <c r="BE18" s="216"/>
     </row>
     <row r="19" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A19" s="40">
@@ -6885,7 +6884,7 @@
         <f>IF(_Area3_day_hour!Y13="","",_Area3_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AC19" s="147" t="str">
+      <c r="AC19" s="146" t="str">
         <f>IF(_Area3_day_hour!AE13&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF13&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6897,11 +6896,11 @@
         <f>IF(_Area3_day_hour!AA13="","",_Area3_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AF19" s="152" t="str">
+      <c r="AF19" s="151" t="str">
         <f>IF(_Area3_day_hour!AB13="","",_Area3_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AG19" s="185" t="str">
+      <c r="AG19" s="182" t="str">
         <f>IF(_Area4_day_hour!I13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6909,15 +6908,15 @@
         <f>IF(_Area4_day_hour!A13="","",_Area4_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="AI19" s="147" t="str">
+      <c r="AI19" s="146" t="str">
         <f>IF(_Area4_day_hour!L13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ19" s="147" t="str">
+      <c r="AJ19" s="146" t="str">
         <f>IF(_Area4_day_hour!N13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S13&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK19" s="147" t="str">
+      <c r="AK19" s="146" t="str">
         <f>IF(_Area4_day_hour!P13&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6945,7 +6944,7 @@
         <f>IF(_Area4_day_hour!AU13="","",_Area4_day_hour!AU13)</f>
         <v/>
       </c>
-      <c r="AR19" s="190" t="str">
+      <c r="AR19" s="187" t="str">
         <f>IF(_Area4_day_hour!T13&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U13&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V13&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -6973,16 +6972,16 @@
         <f>IF(_Area4_day_hour!G13="","",_Area4_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="AY19" s="152" t="str">
+      <c r="AY19" s="151" t="str">
         <f>IF(_Area4_day_hour!H13="","",_Area4_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="236"/>
-      <c r="BA19" s="237"/>
-      <c r="BB19" s="223"/>
-      <c r="BC19" s="224"/>
-      <c r="BD19" s="225"/>
-      <c r="BE19" s="224"/>
+      <c r="AZ19" s="233"/>
+      <c r="BA19" s="234"/>
+      <c r="BB19" s="220"/>
+      <c r="BC19" s="221"/>
+      <c r="BD19" s="222"/>
+      <c r="BE19" s="221"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A20" s="40">
@@ -7096,7 +7095,7 @@
         <f>IF(_Area3_day_hour!Y14="","",_Area3_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AC20" s="147" t="str">
+      <c r="AC20" s="146" t="str">
         <f>IF(_Area3_day_hour!AE14&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF14&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7108,11 +7107,11 @@
         <f>IF(_Area3_day_hour!AA14="","",_Area3_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AF20" s="152" t="str">
+      <c r="AF20" s="151" t="str">
         <f>IF(_Area3_day_hour!AB14="","",_Area3_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AG20" s="185" t="str">
+      <c r="AG20" s="182" t="str">
         <f>IF(_Area4_day_hour!I14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7120,15 +7119,15 @@
         <f>IF(_Area4_day_hour!A14="","",_Area4_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="AI20" s="147" t="str">
+      <c r="AI20" s="146" t="str">
         <f>IF(_Area4_day_hour!L14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ20" s="147" t="str">
+      <c r="AJ20" s="146" t="str">
         <f>IF(_Area4_day_hour!N14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S14&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK20" s="147" t="str">
+      <c r="AK20" s="146" t="str">
         <f>IF(_Area4_day_hour!P14&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7156,7 +7155,7 @@
         <f>IF(_Area4_day_hour!AU14="","",_Area4_day_hour!AU14)</f>
         <v/>
       </c>
-      <c r="AR20" s="190" t="str">
+      <c r="AR20" s="187" t="str">
         <f>IF(_Area4_day_hour!T14&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U14&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V14&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7184,18 +7183,18 @@
         <f>IF(_Area4_day_hour!G14="","",_Area4_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="AY20" s="152" t="str">
+      <c r="AY20" s="151" t="str">
         <f>IF(_Area4_day_hour!H14="","",_Area4_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="236"/>
-      <c r="BA20" s="237"/>
-      <c r="BB20" s="218" t="s">
+      <c r="AZ20" s="233"/>
+      <c r="BA20" s="234"/>
+      <c r="BB20" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="BC20" s="219"/>
-      <c r="BD20" s="220"/>
-      <c r="BE20" s="219"/>
+      <c r="BC20" s="216"/>
+      <c r="BD20" s="217"/>
+      <c r="BE20" s="216"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A21" s="40">
@@ -7309,7 +7308,7 @@
         <f>IF(_Area3_day_hour!Y15="","",_Area3_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AC21" s="147" t="str">
+      <c r="AC21" s="146" t="str">
         <f>IF(_Area3_day_hour!AE15&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF15&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7321,11 +7320,11 @@
         <f>IF(_Area3_day_hour!AA15="","",_Area3_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AF21" s="152" t="str">
+      <c r="AF21" s="151" t="str">
         <f>IF(_Area3_day_hour!AB15="","",_Area3_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AG21" s="185" t="str">
+      <c r="AG21" s="182" t="str">
         <f>IF(_Area4_day_hour!I15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7333,15 +7332,15 @@
         <f>IF(_Area4_day_hour!A15="","",_Area4_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="AI21" s="147" t="str">
+      <c r="AI21" s="146" t="str">
         <f>IF(_Area4_day_hour!L15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ21" s="147" t="str">
+      <c r="AJ21" s="146" t="str">
         <f>IF(_Area4_day_hour!N15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S15&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK21" s="147" t="str">
+      <c r="AK21" s="146" t="str">
         <f>IF(_Area4_day_hour!P15&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7369,7 +7368,7 @@
         <f>IF(_Area4_day_hour!AU15="","",_Area4_day_hour!AU15)</f>
         <v/>
       </c>
-      <c r="AR21" s="190" t="str">
+      <c r="AR21" s="187" t="str">
         <f>IF(_Area4_day_hour!T15&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U15&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V15&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7397,16 +7396,16 @@
         <f>IF(_Area4_day_hour!G15="","",_Area4_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="AY21" s="152" t="str">
+      <c r="AY21" s="151" t="str">
         <f>IF(_Area4_day_hour!H15="","",_Area4_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="236"/>
-      <c r="BA21" s="237"/>
-      <c r="BB21" s="223"/>
-      <c r="BC21" s="226"/>
-      <c r="BD21" s="225"/>
-      <c r="BE21" s="226"/>
+      <c r="AZ21" s="233"/>
+      <c r="BA21" s="234"/>
+      <c r="BB21" s="220"/>
+      <c r="BC21" s="223"/>
+      <c r="BD21" s="222"/>
+      <c r="BE21" s="223"/>
     </row>
     <row r="22" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A22" s="40">
@@ -7520,7 +7519,7 @@
         <f>IF(_Area3_day_hour!Y16="","",_Area3_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AC22" s="147" t="str">
+      <c r="AC22" s="146" t="str">
         <f>IF(_Area3_day_hour!AE16&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF16&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7532,11 +7531,11 @@
         <f>IF(_Area3_day_hour!AA16="","",_Area3_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AF22" s="152" t="str">
+      <c r="AF22" s="151" t="str">
         <f>IF(_Area3_day_hour!AB16="","",_Area3_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AG22" s="185" t="str">
+      <c r="AG22" s="182" t="str">
         <f>IF(_Area4_day_hour!I16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7544,15 +7543,15 @@
         <f>IF(_Area4_day_hour!A16="","",_Area4_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="AI22" s="147" t="str">
+      <c r="AI22" s="146" t="str">
         <f>IF(_Area4_day_hour!L16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ22" s="147" t="str">
+      <c r="AJ22" s="146" t="str">
         <f>IF(_Area4_day_hour!N16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S16&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK22" s="147" t="str">
+      <c r="AK22" s="146" t="str">
         <f>IF(_Area4_day_hour!P16&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7580,7 +7579,7 @@
         <f>IF(_Area4_day_hour!AU16="","",_Area4_day_hour!AU16)</f>
         <v/>
       </c>
-      <c r="AR22" s="190" t="str">
+      <c r="AR22" s="187" t="str">
         <f>IF(_Area4_day_hour!T16&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U16&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V16&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7608,20 +7607,20 @@
         <f>IF(_Area4_day_hour!G16="","",_Area4_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="AY22" s="152" t="str">
+      <c r="AY22" s="151" t="str">
         <f>IF(_Area4_day_hour!H16="","",_Area4_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="236"/>
-      <c r="BA22" s="237"/>
-      <c r="BB22" s="227" t="s">
+      <c r="AZ22" s="233"/>
+      <c r="BA22" s="234"/>
+      <c r="BB22" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="BC22" s="228"/>
-      <c r="BD22" s="229" t="s">
+      <c r="BC22" s="225"/>
+      <c r="BD22" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="BE22" s="228"/>
+      <c r="BE22" s="225"/>
     </row>
     <row r="23" s="9" customFormat="1" ht="18" spans="1:57">
       <c r="A23" s="43">
@@ -7735,7 +7734,7 @@
         <f>IF(_Area3_day_hour!Y17="","",_Area3_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AC23" s="149" t="str">
+      <c r="AC23" s="148" t="str">
         <f>IF(_Area3_day_hour!AE17&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF17&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7747,11 +7746,11 @@
         <f>IF(_Area3_day_hour!AA17="","",_Area3_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AF23" s="153" t="str">
+      <c r="AF23" s="152" t="str">
         <f>IF(_Area3_day_hour!AB17="","",_Area3_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AG23" s="186" t="str">
+      <c r="AG23" s="183" t="str">
         <f>IF(_Area4_day_hour!I17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7759,15 +7758,15 @@
         <f>IF(_Area4_day_hour!A17="","",_Area4_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="AI23" s="149" t="str">
+      <c r="AI23" s="148" t="str">
         <f>IF(_Area4_day_hour!L17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!M17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!R17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AJ23" s="149" t="str">
+      <c r="AJ23" s="148" t="str">
         <f>IF(_Area4_day_hour!N17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S17&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK23" s="149" t="str">
+      <c r="AK23" s="148" t="str">
         <f>IF(_Area4_day_hour!P17&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7795,7 +7794,7 @@
         <f>IF(_Area4_day_hour!AU17="","",_Area4_day_hour!AU17)</f>
         <v/>
       </c>
-      <c r="AR23" s="191" t="str">
+      <c r="AR23" s="188" t="str">
         <f>IF(_Area4_day_hour!T17&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U17&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V17&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7823,20 +7822,20 @@
         <f>IF(_Area4_day_hour!G17="","",_Area4_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="AY23" s="153" t="str">
+      <c r="AY23" s="152" t="str">
         <f>IF(_Area4_day_hour!H17="","",_Area4_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="238"/>
-      <c r="BA23" s="239"/>
-      <c r="BB23" s="232" t="s">
+      <c r="AZ23" s="235"/>
+      <c r="BA23" s="236"/>
+      <c r="BB23" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="BC23" s="228"/>
-      <c r="BD23" s="233" t="s">
+      <c r="BC23" s="225"/>
+      <c r="BD23" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="BE23" s="228"/>
+      <c r="BE23" s="225"/>
     </row>
     <row r="24" s="7" customFormat="1" ht="17.25" spans="1:57">
       <c r="A24" s="45">
@@ -7950,7 +7949,7 @@
         <f>IF(_Area3_day_hour!Y18="","",_Area3_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AC24" s="145" t="str">
+      <c r="AC24" s="144" t="str">
         <f>IF(_Area3_day_hour!AE18&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF18&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7962,11 +7961,11 @@
         <f>IF(_Area3_day_hour!AA18="","",_Area3_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AF24" s="151" t="str">
+      <c r="AF24" s="150" t="str">
         <f>IF(_Area3_day_hour!AB18="","",_Area3_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AG24" s="183" t="str">
+      <c r="AG24" s="180" t="str">
         <f>IF(_Area4_day_hour!I18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -7974,15 +7973,15 @@
         <f>IF(_Area4_day_hour!A18="","",_Area4_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="AI24" s="145" t="str">
+      <c r="AI24" s="144" t="str">
         <f>IF(_Area4_day_hour!L18&gt;0,"1#","")&amp;IF(_Area4_day_hour!M18&gt;0,"2#","")&amp;IF(_Area4_day_hour!R18&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="145" t="str">
+      <c r="AJ24" s="144" t="str">
         <f>IF(_Area4_day_hour!N18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S18&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK24" s="145" t="str">
+      <c r="AK24" s="144" t="str">
         <f>IF(_Area4_day_hour!P18&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8010,7 +8009,7 @@
         <f>IF(_Area4_day_hour!AU18="","",_Area4_day_hour!AU18)</f>
         <v/>
       </c>
-      <c r="AR24" s="192" t="str">
+      <c r="AR24" s="189" t="str">
         <f>IF(_Area4_day_hour!T18&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U18&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V18&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8038,20 +8037,20 @@
         <f>IF(_Area4_day_hour!G18="","",_Area4_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="AY24" s="151" t="str">
+      <c r="AY24" s="150" t="str">
         <f>IF(_Area4_day_hour!H18="","",_Area4_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="240"/>
-      <c r="BA24" s="241"/>
-      <c r="BB24" s="218" t="s">
+      <c r="AZ24" s="237"/>
+      <c r="BA24" s="238"/>
+      <c r="BB24" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="BC24" s="219"/>
-      <c r="BD24" s="220" t="s">
+      <c r="BC24" s="216"/>
+      <c r="BD24" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="BE24" s="219"/>
+      <c r="BE24" s="216"/>
     </row>
     <row r="25" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A25" s="48">
@@ -8165,7 +8164,7 @@
         <f>IF(_Area3_day_hour!Y19="","",_Area3_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AC25" s="147" t="str">
+      <c r="AC25" s="146" t="str">
         <f>IF(_Area3_day_hour!AE19&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF19&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8177,11 +8176,11 @@
         <f>IF(_Area3_day_hour!AA19="","",_Area3_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AF25" s="152" t="str">
+      <c r="AF25" s="151" t="str">
         <f>IF(_Area3_day_hour!AB19="","",_Area3_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AG25" s="185" t="str">
+      <c r="AG25" s="182" t="str">
         <f>IF(_Area4_day_hour!I19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8189,15 +8188,15 @@
         <f>IF(_Area4_day_hour!A19="","",_Area4_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="AI25" s="147" t="str">
+      <c r="AI25" s="146" t="str">
         <f>IF(_Area4_day_hour!L19&gt;0,"1#","")&amp;IF(_Area4_day_hour!M19&gt;0,"2#","")&amp;IF(_Area4_day_hour!R19&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ25" s="147" t="str">
+      <c r="AJ25" s="146" t="str">
         <f>IF(_Area4_day_hour!N19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S19&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK25" s="147" t="str">
+      <c r="AK25" s="146" t="str">
         <f>IF(_Area4_day_hour!P19&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8225,7 +8224,7 @@
         <f>IF(_Area4_day_hour!AU19="","",_Area4_day_hour!AU19)</f>
         <v/>
       </c>
-      <c r="AR25" s="190" t="str">
+      <c r="AR25" s="187" t="str">
         <f>IF(_Area4_day_hour!T19&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U19&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V19&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8253,16 +8252,16 @@
         <f>IF(_Area4_day_hour!G19="","",_Area4_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="AY25" s="152" t="str">
+      <c r="AY25" s="151" t="str">
         <f>IF(_Area4_day_hour!H19="","",_Area4_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="236"/>
-      <c r="BA25" s="237"/>
-      <c r="BB25" s="223"/>
-      <c r="BC25" s="224"/>
-      <c r="BD25" s="225"/>
-      <c r="BE25" s="224"/>
+      <c r="AZ25" s="233"/>
+      <c r="BA25" s="234"/>
+      <c r="BB25" s="220"/>
+      <c r="BC25" s="221"/>
+      <c r="BD25" s="222"/>
+      <c r="BE25" s="221"/>
     </row>
     <row r="26" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A26" s="49">
@@ -8376,7 +8375,7 @@
         <f>IF(_Area3_day_hour!Y20="","",_Area3_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AC26" s="147" t="str">
+      <c r="AC26" s="146" t="str">
         <f>IF(_Area3_day_hour!AE20&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF20&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8388,11 +8387,11 @@
         <f>IF(_Area3_day_hour!AA20="","",_Area3_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AF26" s="152" t="str">
+      <c r="AF26" s="151" t="str">
         <f>IF(_Area3_day_hour!AB20="","",_Area3_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AG26" s="185" t="str">
+      <c r="AG26" s="182" t="str">
         <f>IF(_Area4_day_hour!I20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8400,15 +8399,15 @@
         <f>IF(_Area4_day_hour!A20="","",_Area4_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="AI26" s="147" t="str">
+      <c r="AI26" s="146" t="str">
         <f>IF(_Area4_day_hour!L20&gt;0,"1#","")&amp;IF(_Area4_day_hour!M20&gt;0,"2#","")&amp;IF(_Area4_day_hour!R20&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ26" s="147" t="str">
+      <c r="AJ26" s="146" t="str">
         <f>IF(_Area4_day_hour!N20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S20&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK26" s="147" t="str">
+      <c r="AK26" s="146" t="str">
         <f>IF(_Area4_day_hour!P20&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8436,7 +8435,7 @@
         <f>IF(_Area4_day_hour!AU20="","",_Area4_day_hour!AU20)</f>
         <v/>
       </c>
-      <c r="AR26" s="190" t="str">
+      <c r="AR26" s="187" t="str">
         <f>IF(_Area4_day_hour!T20&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U20&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V20&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8464,20 +8463,20 @@
         <f>IF(_Area4_day_hour!G20="","",_Area4_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="AY26" s="152" t="str">
+      <c r="AY26" s="151" t="str">
         <f>IF(_Area4_day_hour!H20="","",_Area4_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="236"/>
-      <c r="BA26" s="237"/>
-      <c r="BB26" s="218" t="s">
+      <c r="AZ26" s="233"/>
+      <c r="BA26" s="234"/>
+      <c r="BB26" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="BC26" s="219"/>
-      <c r="BD26" s="220" t="s">
+      <c r="BC26" s="216"/>
+      <c r="BD26" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="BE26" s="219"/>
+      <c r="BE26" s="216"/>
     </row>
     <row r="27" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A27" s="49">
@@ -8591,7 +8590,7 @@
         <f>IF(_Area3_day_hour!Y21="","",_Area3_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AC27" s="147" t="str">
+      <c r="AC27" s="146" t="str">
         <f>IF(_Area3_day_hour!AE21&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF21&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8603,11 +8602,11 @@
         <f>IF(_Area3_day_hour!AA21="","",_Area3_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AF27" s="152" t="str">
+      <c r="AF27" s="151" t="str">
         <f>IF(_Area3_day_hour!AB21="","",_Area3_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AG27" s="185" t="str">
+      <c r="AG27" s="182" t="str">
         <f>IF(_Area4_day_hour!I21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8615,15 +8614,15 @@
         <f>IF(_Area4_day_hour!A21="","",_Area4_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="AI27" s="147" t="str">
+      <c r="AI27" s="146" t="str">
         <f>IF(_Area4_day_hour!L21&gt;0,"1#","")&amp;IF(_Area4_day_hour!M21&gt;0,"2#","")&amp;IF(_Area4_day_hour!R21&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ27" s="147" t="str">
+      <c r="AJ27" s="146" t="str">
         <f>IF(_Area4_day_hour!N21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S21&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK27" s="147" t="str">
+      <c r="AK27" s="146" t="str">
         <f>IF(_Area4_day_hour!P21&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8651,7 +8650,7 @@
         <f>IF(_Area4_day_hour!AU21="","",_Area4_day_hour!AU21)</f>
         <v/>
       </c>
-      <c r="AR27" s="190" t="str">
+      <c r="AR27" s="187" t="str">
         <f>IF(_Area4_day_hour!T21&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U21&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V21&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8679,16 +8678,16 @@
         <f>IF(_Area4_day_hour!G21="","",_Area4_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="AY27" s="152" t="str">
+      <c r="AY27" s="151" t="str">
         <f>IF(_Area4_day_hour!H21="","",_Area4_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="236"/>
-      <c r="BA27" s="237"/>
-      <c r="BB27" s="223"/>
-      <c r="BC27" s="224"/>
-      <c r="BD27" s="225"/>
-      <c r="BE27" s="224"/>
+      <c r="AZ27" s="233"/>
+      <c r="BA27" s="234"/>
+      <c r="BB27" s="220"/>
+      <c r="BC27" s="221"/>
+      <c r="BD27" s="222"/>
+      <c r="BE27" s="221"/>
     </row>
     <row r="28" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A28" s="49">
@@ -8802,7 +8801,7 @@
         <f>IF(_Area3_day_hour!Y22="","",_Area3_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AC28" s="147" t="str">
+      <c r="AC28" s="146" t="str">
         <f>IF(_Area3_day_hour!AE22&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF22&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8814,11 +8813,11 @@
         <f>IF(_Area3_day_hour!AA22="","",_Area3_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AF28" s="152" t="str">
+      <c r="AF28" s="151" t="str">
         <f>IF(_Area3_day_hour!AB22="","",_Area3_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AG28" s="185" t="str">
+      <c r="AG28" s="182" t="str">
         <f>IF(_Area4_day_hour!I22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8826,15 +8825,15 @@
         <f>IF(_Area4_day_hour!A22="","",_Area4_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="AI28" s="147" t="str">
+      <c r="AI28" s="146" t="str">
         <f>IF(_Area4_day_hour!L22&gt;0,"1#","")&amp;IF(_Area4_day_hour!M22&gt;0,"2#","")&amp;IF(_Area4_day_hour!R22&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ28" s="147" t="str">
+      <c r="AJ28" s="146" t="str">
         <f>IF(_Area4_day_hour!N22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S22&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK28" s="147" t="str">
+      <c r="AK28" s="146" t="str">
         <f>IF(_Area4_day_hour!P22&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8862,7 +8861,7 @@
         <f>IF(_Area4_day_hour!AU22="","",_Area4_day_hour!AU22)</f>
         <v/>
       </c>
-      <c r="AR28" s="190" t="str">
+      <c r="AR28" s="187" t="str">
         <f>IF(_Area4_day_hour!T22&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U22&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V22&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -8890,18 +8889,18 @@
         <f>IF(_Area4_day_hour!G22="","",_Area4_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="AY28" s="152" t="str">
+      <c r="AY28" s="151" t="str">
         <f>IF(_Area4_day_hour!H22="","",_Area4_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="236"/>
-      <c r="BA28" s="237"/>
-      <c r="BB28" s="218" t="s">
+      <c r="AZ28" s="233"/>
+      <c r="BA28" s="234"/>
+      <c r="BB28" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="BC28" s="219"/>
-      <c r="BD28" s="220"/>
-      <c r="BE28" s="219"/>
+      <c r="BC28" s="216"/>
+      <c r="BD28" s="217"/>
+      <c r="BE28" s="216"/>
     </row>
     <row r="29" s="8" customFormat="1" ht="18" spans="1:57">
       <c r="A29" s="49">
@@ -9015,7 +9014,7 @@
         <f>IF(_Area3_day_hour!Y23="","",_Area3_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AC29" s="147" t="str">
+      <c r="AC29" s="146" t="str">
         <f>IF(_Area3_day_hour!AE23&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF23&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9027,11 +9026,11 @@
         <f>IF(_Area3_day_hour!AA23="","",_Area3_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AF29" s="152" t="str">
+      <c r="AF29" s="151" t="str">
         <f>IF(_Area3_day_hour!AB23="","",_Area3_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AG29" s="185" t="str">
+      <c r="AG29" s="182" t="str">
         <f>IF(_Area4_day_hour!I23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9039,15 +9038,15 @@
         <f>IF(_Area4_day_hour!A23="","",_Area4_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="AI29" s="147" t="str">
+      <c r="AI29" s="146" t="str">
         <f>IF(_Area4_day_hour!L23&gt;0,"1#","")&amp;IF(_Area4_day_hour!M23&gt;0,"2#","")&amp;IF(_Area4_day_hour!R23&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ29" s="147" t="str">
+      <c r="AJ29" s="146" t="str">
         <f>IF(_Area4_day_hour!N23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S23&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK29" s="147" t="str">
+      <c r="AK29" s="146" t="str">
         <f>IF(_Area4_day_hour!P23&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9075,7 +9074,7 @@
         <f>IF(_Area4_day_hour!AU23="","",_Area4_day_hour!AU23)</f>
         <v/>
       </c>
-      <c r="AR29" s="190" t="str">
+      <c r="AR29" s="187" t="str">
         <f>IF(_Area4_day_hour!T23&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U23&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V23&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9103,16 +9102,16 @@
         <f>IF(_Area4_day_hour!G23="","",_Area4_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="AY29" s="152" t="str">
+      <c r="AY29" s="151" t="str">
         <f>IF(_Area4_day_hour!H23="","",_Area4_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="236"/>
-      <c r="BA29" s="237"/>
-      <c r="BB29" s="223"/>
-      <c r="BC29" s="226"/>
-      <c r="BD29" s="225"/>
-      <c r="BE29" s="226"/>
+      <c r="AZ29" s="233"/>
+      <c r="BA29" s="234"/>
+      <c r="BB29" s="220"/>
+      <c r="BC29" s="223"/>
+      <c r="BD29" s="222"/>
+      <c r="BE29" s="223"/>
     </row>
     <row r="30" s="8" customFormat="1" ht="17.25" spans="1:57">
       <c r="A30" s="49">
@@ -9226,7 +9225,7 @@
         <f>IF(_Area3_day_hour!Y24="","",_Area3_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AC30" s="147" t="str">
+      <c r="AC30" s="146" t="str">
         <f>IF(_Area3_day_hour!AE24&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF24&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9238,11 +9237,11 @@
         <f>IF(_Area3_day_hour!AA24="","",_Area3_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AF30" s="152" t="str">
+      <c r="AF30" s="151" t="str">
         <f>IF(_Area3_day_hour!AB24="","",_Area3_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AG30" s="185" t="str">
+      <c r="AG30" s="182" t="str">
         <f>IF(_Area4_day_hour!I24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9250,15 +9249,15 @@
         <f>IF(_Area4_day_hour!A24="","",_Area4_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="AI30" s="147" t="str">
+      <c r="AI30" s="146" t="str">
         <f>IF(_Area4_day_hour!L24&gt;0,"1#","")&amp;IF(_Area4_day_hour!M24&gt;0,"2#","")&amp;IF(_Area4_day_hour!R24&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ30" s="147" t="str">
+      <c r="AJ30" s="146" t="str">
         <f>IF(_Area4_day_hour!N24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S24&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK30" s="147" t="str">
+      <c r="AK30" s="146" t="str">
         <f>IF(_Area4_day_hour!P24&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9286,7 +9285,7 @@
         <f>IF(_Area4_day_hour!AU24="","",_Area4_day_hour!AU24)</f>
         <v/>
       </c>
-      <c r="AR30" s="190" t="str">
+      <c r="AR30" s="187" t="str">
         <f>IF(_Area4_day_hour!T24&gt;0,"1 ","")&amp;IF(_Area4_day_hour!U24&gt;0," 2 ","")&amp;IF(_Area4_day_hour!V24&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9314,20 +9313,20 @@
         <f>IF(_Area4_day_hour!G24="","",_Area4_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="AY30" s="152" t="str">
+      <c r="AY30" s="151" t="str">
         <f>IF(_Area4_day_hour!H24="","",_Area4_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="236"/>
-      <c r="BA30" s="237"/>
-      <c r="BB30" s="242" t="s">
+      <c r="AZ30" s="233"/>
+      <c r="BA30" s="234"/>
+      <c r="BB30" s="239" t="s">
         <v>62</v>
       </c>
-      <c r="BC30" s="219"/>
-      <c r="BD30" s="243" t="s">
+      <c r="BC30" s="216"/>
+      <c r="BD30" s="240" t="s">
         <v>62</v>
       </c>
-      <c r="BE30" s="219"/>
+      <c r="BE30" s="216"/>
     </row>
     <row r="31" s="9" customFormat="1" ht="18" spans="1:57">
       <c r="A31" s="50">
@@ -9441,7 +9440,7 @@
         <f>IF(_Area3_day_hour!Y25="","",_Area3_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AC31" s="149" t="str">
+      <c r="AC31" s="148" t="str">
         <f>IF(_Area3_day_hour!AE25&gt;0," 1 ","")&amp;IF(_Area3_day_hour!AF25&gt;0," 2 ","")&amp;IF(_Area3_day_hour!AG25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9453,11 +9452,11 @@
         <f>IF(_Area3_day_hour!AA25="","",_Area3_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AF31" s="153" t="str">
+      <c r="AF31" s="152" t="str">
         <f>IF(_Area3_day_hour!AB25="","",_Area3_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AG31" s="186" t="str">
+      <c r="AG31" s="183" t="str">
         <f>IF(_Area4_day_hour!I25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!J25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!K25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9465,15 +9464,15 @@
         <f>IF(_Area4_day_hour!A25="","",_Area4_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="AI31" s="149" t="str">
+      <c r="AI31" s="148" t="str">
         <f>IF(_Area4_day_hour!L25&gt;0,"1#","")&amp;IF(_Area4_day_hour!M25&gt;0,"2#","")&amp;IF(_Area4_day_hour!R25&gt;0,"3#","")</f>
         <v/>
       </c>
-      <c r="AJ31" s="149" t="str">
+      <c r="AJ31" s="148" t="str">
         <f>IF(_Area4_day_hour!N25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!O25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!S25&gt;0," 3 ","")</f>
         <v/>
       </c>
-      <c r="AK31" s="149" t="str">
+      <c r="AK31" s="148" t="str">
         <f>IF(_Area4_day_hour!P25&gt;0," 1 ","")&amp;IF(_Area4_day_hour!Q25&gt;0," 2 ","")&amp;IF(_Area4_day_hour!W25&gt;0," 3 ","")</f>
         <v/>
       </c>
@@ -9501,7 +9500,7 @@
         <f>IF(_Area4_day_hour!AU25="","",_Area4_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AR31" s="193" t="str">
+      <c r="AR31" s="190" t="str">
         <f>IF(_Area4_day_hour!T25&gt;0,"1#","")&amp;IF(_Area4_day_hour!U25&gt;0,"2#","")&amp;IF(_Area4_day_hour!V25&gt;0,"3#","")</f>
         <v/>
       </c>
@@ -9529,16 +9528,16 @@
         <f>IF(_Area4_day_hour!G25="","",_Area4_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="AY31" s="153" t="str">
+      <c r="AY31" s="152" t="str">
         <f>IF(_Area4_day_hour!H25="","",_Area4_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="238"/>
-      <c r="BA31" s="239"/>
-      <c r="BB31" s="244"/>
-      <c r="BC31" s="224"/>
-      <c r="BD31" s="245"/>
-      <c r="BE31" s="251"/>
+      <c r="AZ31" s="235"/>
+      <c r="BA31" s="236"/>
+      <c r="BB31" s="241"/>
+      <c r="BC31" s="221"/>
+      <c r="BD31" s="242"/>
+      <c r="BE31" s="248"/>
     </row>
     <row r="32" ht="15" spans="1:57">
       <c r="A32" s="51"/>
@@ -9558,56 +9557,56 @@
       <c r="M32" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
       <c r="W32" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="154"/>
-      <c r="AG32" s="187"/>
-      <c r="AH32" s="187"/>
-      <c r="AI32" s="187"/>
-      <c r="AJ32" s="187"/>
-      <c r="AK32" s="187"/>
-      <c r="AL32" s="187"/>
-      <c r="AM32" s="187"/>
-      <c r="AN32" s="187"/>
-      <c r="AO32" s="187"/>
-      <c r="AP32" s="187"/>
-      <c r="AQ32" s="187"/>
-      <c r="AR32" s="187"/>
-      <c r="AS32" s="187"/>
-      <c r="AT32" s="187"/>
-      <c r="AU32" s="187"/>
-      <c r="AV32" s="187"/>
-      <c r="AW32" s="187"/>
-      <c r="AX32" s="187"/>
-      <c r="AY32" s="187"/>
-      <c r="AZ32" s="187"/>
-      <c r="BA32" s="246"/>
-      <c r="BB32" s="247" t="s">
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="184"/>
+      <c r="AH32" s="184"/>
+      <c r="AI32" s="184"/>
+      <c r="AJ32" s="184"/>
+      <c r="AK32" s="184"/>
+      <c r="AL32" s="184"/>
+      <c r="AM32" s="184"/>
+      <c r="AN32" s="184"/>
+      <c r="AO32" s="184"/>
+      <c r="AP32" s="184"/>
+      <c r="AQ32" s="184"/>
+      <c r="AR32" s="184"/>
+      <c r="AS32" s="184"/>
+      <c r="AT32" s="184"/>
+      <c r="AU32" s="184"/>
+      <c r="AV32" s="184"/>
+      <c r="AW32" s="184"/>
+      <c r="AX32" s="184"/>
+      <c r="AY32" s="184"/>
+      <c r="AZ32" s="184"/>
+      <c r="BA32" s="243"/>
+      <c r="BB32" s="244" t="s">
         <v>63</v>
       </c>
-      <c r="BC32" s="248"/>
-      <c r="BD32" s="249" t="s">
+      <c r="BC32" s="245"/>
+      <c r="BD32" s="246" t="s">
         <v>63</v>
       </c>
-      <c r="BE32" s="248"/>
+      <c r="BE32" s="245"/>
     </row>
     <row r="33" ht="44" customHeight="1" spans="1:57">
       <c r="A33" s="54" t="s">
@@ -9623,52 +9622,52 @@
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
       <c r="K33" s="56"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="110"/>
-      <c r="AO33" s="110"/>
-      <c r="AP33" s="110"/>
-      <c r="AQ33" s="110"/>
-      <c r="AR33" s="110"/>
-      <c r="AS33" s="110"/>
-      <c r="AT33" s="110"/>
-      <c r="AU33" s="110"/>
-      <c r="AV33" s="110"/>
-      <c r="AW33" s="110"/>
-      <c r="AX33" s="110"/>
-      <c r="AY33" s="110"/>
-      <c r="AZ33" s="110"/>
-      <c r="BA33" s="131"/>
-      <c r="BB33" s="250"/>
-      <c r="BC33" s="251"/>
-      <c r="BD33" s="251"/>
-      <c r="BE33" s="251"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="109"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="109"/>
+      <c r="AJ33" s="109"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="109"/>
+      <c r="AM33" s="109"/>
+      <c r="AN33" s="109"/>
+      <c r="AO33" s="109"/>
+      <c r="AP33" s="109"/>
+      <c r="AQ33" s="109"/>
+      <c r="AR33" s="109"/>
+      <c r="AS33" s="109"/>
+      <c r="AT33" s="109"/>
+      <c r="AU33" s="109"/>
+      <c r="AV33" s="109"/>
+      <c r="AW33" s="109"/>
+      <c r="AX33" s="109"/>
+      <c r="AY33" s="109"/>
+      <c r="AZ33" s="109"/>
+      <c r="BA33" s="130"/>
+      <c r="BB33" s="247"/>
+      <c r="BC33" s="248"/>
+      <c r="BD33" s="248"/>
+      <c r="BE33" s="248"/>
     </row>
     <row r="34" ht="21" customHeight="1" spans="1:64">
       <c r="A34" s="57" t="s">
@@ -9681,68 +9680,68 @@
       <c r="F34" s="58"/>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112" t="s">
+      <c r="I34" s="110"/>
+      <c r="J34" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="155"/>
-      <c r="AB34" s="156" t="s">
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="153"/>
+      <c r="AB34" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="157"/>
-      <c r="AF34" s="157"/>
-      <c r="AG34" s="157"/>
-      <c r="AH34" s="157"/>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="157"/>
-      <c r="AM34" s="157"/>
-      <c r="AN34" s="157"/>
-      <c r="AO34" s="157"/>
-      <c r="AP34" s="157"/>
-      <c r="AQ34" s="157"/>
-      <c r="AR34" s="157"/>
-      <c r="AS34" s="157"/>
-      <c r="AT34" s="157"/>
-      <c r="AU34" s="157"/>
-      <c r="AV34" s="157"/>
-      <c r="AW34" s="157"/>
-      <c r="AX34" s="157"/>
-      <c r="AY34" s="157"/>
-      <c r="AZ34" s="157"/>
-      <c r="BA34" s="252"/>
-      <c r="BB34" s="253" t="s">
+      <c r="AC34" s="155"/>
+      <c r="AD34" s="155"/>
+      <c r="AE34" s="155"/>
+      <c r="AF34" s="155"/>
+      <c r="AG34" s="155"/>
+      <c r="AH34" s="155"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="155"/>
+      <c r="AN34" s="155"/>
+      <c r="AO34" s="155"/>
+      <c r="AP34" s="155"/>
+      <c r="AQ34" s="155"/>
+      <c r="AR34" s="155"/>
+      <c r="AS34" s="155"/>
+      <c r="AT34" s="155"/>
+      <c r="AU34" s="155"/>
+      <c r="AV34" s="155"/>
+      <c r="AW34" s="155"/>
+      <c r="AX34" s="155"/>
+      <c r="AY34" s="155"/>
+      <c r="AZ34" s="155"/>
+      <c r="BA34" s="249"/>
+      <c r="BB34" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="BC34" s="254"/>
-      <c r="BD34" s="254"/>
-      <c r="BE34" s="283"/>
-      <c r="BF34" s="284"/>
-      <c r="BG34" s="284"/>
-      <c r="BH34" s="284"/>
-      <c r="BI34" s="284"/>
-      <c r="BJ34" s="284"/>
-      <c r="BK34" s="284"/>
-      <c r="BL34" s="284"/>
+      <c r="BC34" s="251"/>
+      <c r="BD34" s="251"/>
+      <c r="BE34" s="282"/>
+      <c r="BF34" s="283"/>
+      <c r="BG34" s="283"/>
+      <c r="BH34" s="283"/>
+      <c r="BI34" s="283"/>
+      <c r="BJ34" s="283"/>
+      <c r="BK34" s="283"/>
+      <c r="BL34" s="283"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:64">
       <c r="A35" s="59" t="s">
@@ -9764,79 +9763,79 @@
         <v>76</v>
       </c>
       <c r="I35" s="64"/>
-      <c r="J35" s="113" t="s">
+      <c r="J35" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115" t="s">
+      <c r="K35" s="113"/>
+      <c r="L35" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="115" t="s">
+      <c r="M35" s="112"/>
+      <c r="N35" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="116"/>
-      <c r="P35" s="115" t="s">
+      <c r="O35" s="115"/>
+      <c r="P35" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="115" t="s">
+      <c r="Q35" s="115"/>
+      <c r="R35" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="S35" s="116"/>
-      <c r="T35" s="115" t="s">
+      <c r="S35" s="115"/>
+      <c r="T35" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="U35" s="116"/>
-      <c r="V35" s="115" t="s">
+      <c r="U35" s="115"/>
+      <c r="V35" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="W35" s="116"/>
-      <c r="X35" s="115" t="s">
+      <c r="W35" s="115"/>
+      <c r="X35" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="113" t="s">
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="159"/>
-      <c r="AD35" s="159"/>
-      <c r="AE35" s="159"/>
-      <c r="AF35" s="159"/>
-      <c r="AG35" s="159"/>
-      <c r="AH35" s="159"/>
-      <c r="AI35" s="159"/>
-      <c r="AJ35" s="159"/>
-      <c r="AK35" s="159"/>
-      <c r="AL35" s="159"/>
-      <c r="AM35" s="159"/>
-      <c r="AN35" s="159"/>
-      <c r="AO35" s="159"/>
-      <c r="AP35" s="159"/>
-      <c r="AQ35" s="159"/>
-      <c r="AR35" s="159"/>
-      <c r="AS35" s="159"/>
-      <c r="AT35" s="159"/>
-      <c r="AU35" s="159"/>
-      <c r="AV35" s="159"/>
-      <c r="AW35" s="159"/>
-      <c r="AX35" s="159"/>
-      <c r="AY35" s="159"/>
-      <c r="AZ35" s="159"/>
-      <c r="BA35" s="255"/>
-      <c r="BB35" s="256"/>
-      <c r="BC35" s="257"/>
-      <c r="BD35" s="257"/>
-      <c r="BE35" s="285"/>
-      <c r="BF35" s="284"/>
-      <c r="BG35" s="284"/>
-      <c r="BH35" s="284"/>
-      <c r="BI35" s="284"/>
-      <c r="BJ35" s="284"/>
-      <c r="BK35" s="284"/>
-      <c r="BL35" s="284"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="156"/>
+      <c r="AC35" s="157"/>
+      <c r="AD35" s="157"/>
+      <c r="AE35" s="157"/>
+      <c r="AF35" s="157"/>
+      <c r="AG35" s="157"/>
+      <c r="AH35" s="157"/>
+      <c r="AI35" s="157"/>
+      <c r="AJ35" s="157"/>
+      <c r="AK35" s="157"/>
+      <c r="AL35" s="157"/>
+      <c r="AM35" s="157"/>
+      <c r="AN35" s="157"/>
+      <c r="AO35" s="157"/>
+      <c r="AP35" s="157"/>
+      <c r="AQ35" s="157"/>
+      <c r="AR35" s="157"/>
+      <c r="AS35" s="157"/>
+      <c r="AT35" s="157"/>
+      <c r="AU35" s="157"/>
+      <c r="AV35" s="157"/>
+      <c r="AW35" s="157"/>
+      <c r="AX35" s="157"/>
+      <c r="AY35" s="157"/>
+      <c r="AZ35" s="157"/>
+      <c r="BA35" s="252"/>
+      <c r="BB35" s="253"/>
+      <c r="BC35" s="254"/>
+      <c r="BD35" s="254"/>
+      <c r="BE35" s="284"/>
+      <c r="BF35" s="283"/>
+      <c r="BG35" s="283"/>
+      <c r="BH35" s="283"/>
+      <c r="BI35" s="283"/>
+      <c r="BJ35" s="283"/>
+      <c r="BK35" s="283"/>
+      <c r="BL35" s="283"/>
     </row>
     <row r="36" ht="14.25" spans="1:62">
       <c r="A36" s="66"/>
@@ -9859,99 +9858,101 @@
       <c r="H36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="117" t="s">
+      <c r="I36" s="116" t="s">
         <v>85</v>
       </c>
       <c r="J36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="118" t="s">
+      <c r="K36" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="L36" s="119" t="s">
+      <c r="L36" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M36" s="120" t="s">
+      <c r="M36" s="119" t="s">
         <v>85</v>
       </c>
       <c r="N36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="O36" s="117" t="s">
+      <c r="O36" s="116" t="s">
         <v>85</v>
       </c>
       <c r="P36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="Q36" s="117" t="s">
+      <c r="Q36" s="116" t="s">
         <v>85</v>
       </c>
       <c r="R36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="S36" s="117" t="s">
+      <c r="S36" s="116" t="s">
         <v>85</v>
       </c>
       <c r="T36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="U36" s="117" t="s">
+      <c r="U36" s="116" t="s">
         <v>85</v>
       </c>
       <c r="V36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="W36" s="117" t="s">
+      <c r="W36" s="116" t="s">
         <v>85</v>
       </c>
       <c r="X36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="Y36" s="160" t="s">
+      <c r="Y36" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="Z36" s="161" t="s">
+      <c r="Z36" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="AA36" s="162" t="s">
+      <c r="AA36" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="AB36" s="163"/>
-      <c r="AC36" s="164"/>
-      <c r="AD36" s="164"/>
-      <c r="AE36" s="164"/>
-      <c r="AF36" s="164"/>
-      <c r="AG36" s="164"/>
-      <c r="AH36" s="164"/>
-      <c r="AI36" s="164"/>
-      <c r="AJ36" s="164"/>
-      <c r="AK36" s="164"/>
-      <c r="AL36" s="164"/>
-      <c r="AM36" s="164"/>
-      <c r="AN36" s="164"/>
-      <c r="AO36" s="164"/>
-      <c r="AP36" s="164"/>
-      <c r="AQ36" s="164"/>
-      <c r="AR36" s="164"/>
-      <c r="AS36" s="164"/>
-      <c r="AT36" s="164"/>
-      <c r="AU36" s="164"/>
-      <c r="AV36" s="164"/>
-      <c r="AW36" s="164"/>
-      <c r="AX36" s="164"/>
-      <c r="AY36" s="164"/>
-      <c r="AZ36" s="164"/>
-      <c r="BA36" s="258"/>
-      <c r="BB36" s="259" t="s">
+      <c r="AB36" s="160"/>
+      <c r="AC36" s="161"/>
+      <c r="AD36" s="161"/>
+      <c r="AE36" s="161"/>
+      <c r="AF36" s="161"/>
+      <c r="AG36" s="161"/>
+      <c r="AH36" s="161"/>
+      <c r="AI36" s="161"/>
+      <c r="AJ36" s="161"/>
+      <c r="AK36" s="161"/>
+      <c r="AL36" s="161"/>
+      <c r="AM36" s="161"/>
+      <c r="AN36" s="161"/>
+      <c r="AO36" s="161"/>
+      <c r="AP36" s="161"/>
+      <c r="AQ36" s="161"/>
+      <c r="AR36" s="161"/>
+      <c r="AS36" s="161"/>
+      <c r="AT36" s="161"/>
+      <c r="AU36" s="161"/>
+      <c r="AV36" s="161"/>
+      <c r="AW36" s="161"/>
+      <c r="AX36" s="161"/>
+      <c r="AY36" s="161"/>
+      <c r="AZ36" s="161"/>
+      <c r="BA36" s="255"/>
+      <c r="BB36" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="BC36" s="260">
+      <c r="BC36" s="257">
+        <f>SUM(BC8:BC13,BC16:BC21,BC24:BC29)</f>
         <v>0</v>
       </c>
-      <c r="BD36" s="261" t="s">
+      <c r="BD36" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="BE36" s="260">
+      <c r="BE36" s="257">
+        <f>SUM(BE8:BE11,BE16:BE19,BE24:BE27)</f>
         <v>0</v>
       </c>
       <c r="BF36" s="11"/>
@@ -9988,7 +9989,7 @@
         <f>IF(_Area34_day_shift!E2="","",_Area34_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="I37" s="121" t="str">
+      <c r="I37" s="120" t="str">
         <f>IF(_Area34_day_shift!F2="","",_Area34_day_shift!F2)</f>
         <v/>
       </c>
@@ -9996,7 +9997,7 @@
         <f>IF(_Area34_day_shift!G2="","",_Area34_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="K37" s="121" t="str">
+      <c r="K37" s="120" t="str">
         <f>IF(_Area34_day_shift!H2="","",_Area34_day_shift!H2)</f>
         <v/>
       </c>
@@ -10044,15 +10045,15 @@
         <f>IF(_Area34_day_shift!S2="","",_Area34_day_shift!S2)</f>
         <v/>
       </c>
-      <c r="W37" s="132" t="str">
+      <c r="W37" s="131" t="str">
         <f>IF(_Area34_day_shift!T2="","",_Area34_day_shift!T2)</f>
         <v/>
       </c>
-      <c r="X37" s="133" t="str">
+      <c r="X37" s="132" t="str">
         <f>IF(_Area34_day_shift!U2="","",_Area34_day_shift!U2)</f>
         <v/>
       </c>
-      <c r="Y37" s="165" t="str">
+      <c r="Y37" s="162" t="str">
         <f>IF(_Area34_day_shift!V2="","",_Area34_day_shift!V2)</f>
         <v/>
       </c>
@@ -10064,36 +10065,36 @@
         <f>IF(_Area34_day_shift!X2="","",_Area34_day_shift!X2)</f>
         <v/>
       </c>
-      <c r="AB37" s="166"/>
-      <c r="AC37" s="167"/>
-      <c r="AD37" s="167"/>
-      <c r="AE37" s="167"/>
-      <c r="AF37" s="167"/>
-      <c r="AG37" s="167"/>
-      <c r="AH37" s="167"/>
-      <c r="AI37" s="167"/>
-      <c r="AJ37" s="167"/>
-      <c r="AK37" s="167"/>
-      <c r="AL37" s="167"/>
-      <c r="AM37" s="167"/>
-      <c r="AN37" s="167"/>
-      <c r="AO37" s="167"/>
-      <c r="AP37" s="167"/>
-      <c r="AQ37" s="167"/>
-      <c r="AR37" s="167"/>
-      <c r="AS37" s="167"/>
-      <c r="AT37" s="167"/>
-      <c r="AU37" s="167"/>
-      <c r="AV37" s="167"/>
-      <c r="AW37" s="167"/>
-      <c r="AX37" s="167"/>
-      <c r="AY37" s="167"/>
-      <c r="AZ37" s="167"/>
-      <c r="BA37" s="262"/>
-      <c r="BB37" s="263"/>
-      <c r="BC37" s="264"/>
-      <c r="BD37" s="265"/>
-      <c r="BE37" s="264"/>
+      <c r="AB37" s="163"/>
+      <c r="AC37" s="164"/>
+      <c r="AD37" s="164"/>
+      <c r="AE37" s="164"/>
+      <c r="AF37" s="164"/>
+      <c r="AG37" s="164"/>
+      <c r="AH37" s="164"/>
+      <c r="AI37" s="164"/>
+      <c r="AJ37" s="164"/>
+      <c r="AK37" s="164"/>
+      <c r="AL37" s="164"/>
+      <c r="AM37" s="164"/>
+      <c r="AN37" s="164"/>
+      <c r="AO37" s="164"/>
+      <c r="AP37" s="164"/>
+      <c r="AQ37" s="164"/>
+      <c r="AR37" s="164"/>
+      <c r="AS37" s="164"/>
+      <c r="AT37" s="164"/>
+      <c r="AU37" s="164"/>
+      <c r="AV37" s="164"/>
+      <c r="AW37" s="164"/>
+      <c r="AX37" s="164"/>
+      <c r="AY37" s="164"/>
+      <c r="AZ37" s="164"/>
+      <c r="BA37" s="259"/>
+      <c r="BB37" s="260"/>
+      <c r="BC37" s="261"/>
+      <c r="BD37" s="262"/>
+      <c r="BE37" s="261"/>
       <c r="BF37" s="11"/>
       <c r="BG37" s="11"/>
       <c r="BH37" s="11"/>
@@ -10126,7 +10127,7 @@
         <f>IF(_Area34_day_shift!E3="","",_Area34_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="I38" s="121" t="str">
+      <c r="I38" s="120" t="str">
         <f>IF(_Area34_day_shift!F3="","",_Area34_day_shift!F3)</f>
         <v/>
       </c>
@@ -10134,7 +10135,7 @@
         <f>IF(_Area34_day_shift!G3="","",_Area34_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="K38" s="121" t="str">
+      <c r="K38" s="120" t="str">
         <f>IF(_Area34_day_shift!H3="","",_Area34_day_shift!H3)</f>
         <v/>
       </c>
@@ -10186,11 +10187,11 @@
         <f>IF(_Area34_day_shift!T3="","",_Area34_day_shift!T3)</f>
         <v/>
       </c>
-      <c r="X38" s="133" t="str">
+      <c r="X38" s="132" t="str">
         <f>IF(_Area34_day_shift!U3="","",_Area34_day_shift!U3)</f>
         <v/>
       </c>
-      <c r="Y38" s="165" t="str">
+      <c r="Y38" s="162" t="str">
         <f>IF(_Area34_day_shift!V3="","",_Area34_day_shift!V3)</f>
         <v/>
       </c>
@@ -10202,36 +10203,36 @@
         <f>IF(_Area34_day_shift!X3="","",_Area34_day_shift!X3)</f>
         <v/>
       </c>
-      <c r="AB38" s="166"/>
-      <c r="AC38" s="167"/>
-      <c r="AD38" s="167"/>
-      <c r="AE38" s="167"/>
-      <c r="AF38" s="167"/>
-      <c r="AG38" s="167"/>
-      <c r="AH38" s="167"/>
-      <c r="AI38" s="167"/>
-      <c r="AJ38" s="167"/>
-      <c r="AK38" s="167"/>
-      <c r="AL38" s="167"/>
-      <c r="AM38" s="167"/>
-      <c r="AN38" s="167"/>
-      <c r="AO38" s="167"/>
-      <c r="AP38" s="167"/>
-      <c r="AQ38" s="167"/>
-      <c r="AR38" s="167"/>
-      <c r="AS38" s="167"/>
-      <c r="AT38" s="167"/>
-      <c r="AU38" s="167"/>
-      <c r="AV38" s="167"/>
-      <c r="AW38" s="167"/>
-      <c r="AX38" s="167"/>
-      <c r="AY38" s="167"/>
-      <c r="AZ38" s="167"/>
-      <c r="BA38" s="262"/>
-      <c r="BB38" s="263"/>
-      <c r="BC38" s="264"/>
-      <c r="BD38" s="265"/>
-      <c r="BE38" s="264"/>
+      <c r="AB38" s="163"/>
+      <c r="AC38" s="164"/>
+      <c r="AD38" s="164"/>
+      <c r="AE38" s="164"/>
+      <c r="AF38" s="164"/>
+      <c r="AG38" s="164"/>
+      <c r="AH38" s="164"/>
+      <c r="AI38" s="164"/>
+      <c r="AJ38" s="164"/>
+      <c r="AK38" s="164"/>
+      <c r="AL38" s="164"/>
+      <c r="AM38" s="164"/>
+      <c r="AN38" s="164"/>
+      <c r="AO38" s="164"/>
+      <c r="AP38" s="164"/>
+      <c r="AQ38" s="164"/>
+      <c r="AR38" s="164"/>
+      <c r="AS38" s="164"/>
+      <c r="AT38" s="164"/>
+      <c r="AU38" s="164"/>
+      <c r="AV38" s="164"/>
+      <c r="AW38" s="164"/>
+      <c r="AX38" s="164"/>
+      <c r="AY38" s="164"/>
+      <c r="AZ38" s="164"/>
+      <c r="BA38" s="259"/>
+      <c r="BB38" s="260"/>
+      <c r="BC38" s="261"/>
+      <c r="BD38" s="262"/>
+      <c r="BE38" s="261"/>
       <c r="BF38" s="11"/>
       <c r="BG38" s="11"/>
       <c r="BH38" s="11"/>
@@ -10264,7 +10265,7 @@
         <f>IF(_Area34_day_shift!E4="","",_Area34_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="I39" s="121" t="str">
+      <c r="I39" s="120" t="str">
         <f>IF(_Area34_day_shift!F4="","",_Area34_day_shift!F4)</f>
         <v/>
       </c>
@@ -10272,7 +10273,7 @@
         <f>IF(_Area34_day_shift!G4="","",_Area34_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="K39" s="121" t="str">
+      <c r="K39" s="120" t="str">
         <f>IF(_Area34_day_shift!H4="","",_Area34_day_shift!H4)</f>
         <v/>
       </c>
@@ -10324,11 +10325,11 @@
         <f>IF(_Area34_day_shift!T4="","",_Area34_day_shift!T4)</f>
         <v/>
       </c>
-      <c r="X39" s="133" t="str">
+      <c r="X39" s="132" t="str">
         <f>IF(_Area34_day_shift!U4="","",_Area34_day_shift!U4)</f>
         <v/>
       </c>
-      <c r="Y39" s="165" t="str">
+      <c r="Y39" s="162" t="str">
         <f>IF(_Area34_day_shift!V4="","",_Area34_day_shift!V4)</f>
         <v/>
       </c>
@@ -10340,36 +10341,36 @@
         <f>IF(_Area34_day_shift!X4="","",_Area34_day_shift!X4)</f>
         <v/>
       </c>
-      <c r="AB39" s="166"/>
-      <c r="AC39" s="167"/>
-      <c r="AD39" s="167"/>
-      <c r="AE39" s="167"/>
-      <c r="AF39" s="167"/>
-      <c r="AG39" s="167"/>
-      <c r="AH39" s="167"/>
-      <c r="AI39" s="167"/>
-      <c r="AJ39" s="167"/>
-      <c r="AK39" s="167"/>
-      <c r="AL39" s="167"/>
-      <c r="AM39" s="167"/>
-      <c r="AN39" s="167"/>
-      <c r="AO39" s="167"/>
-      <c r="AP39" s="167"/>
-      <c r="AQ39" s="167"/>
-      <c r="AR39" s="167"/>
-      <c r="AS39" s="167"/>
-      <c r="AT39" s="167"/>
-      <c r="AU39" s="167"/>
-      <c r="AV39" s="167"/>
-      <c r="AW39" s="167"/>
-      <c r="AX39" s="167"/>
-      <c r="AY39" s="167"/>
-      <c r="AZ39" s="167"/>
-      <c r="BA39" s="262"/>
-      <c r="BB39" s="263"/>
-      <c r="BC39" s="264"/>
-      <c r="BD39" s="265"/>
-      <c r="BE39" s="264"/>
+      <c r="AB39" s="163"/>
+      <c r="AC39" s="164"/>
+      <c r="AD39" s="164"/>
+      <c r="AE39" s="164"/>
+      <c r="AF39" s="164"/>
+      <c r="AG39" s="164"/>
+      <c r="AH39" s="164"/>
+      <c r="AI39" s="164"/>
+      <c r="AJ39" s="164"/>
+      <c r="AK39" s="164"/>
+      <c r="AL39" s="164"/>
+      <c r="AM39" s="164"/>
+      <c r="AN39" s="164"/>
+      <c r="AO39" s="164"/>
+      <c r="AP39" s="164"/>
+      <c r="AQ39" s="164"/>
+      <c r="AR39" s="164"/>
+      <c r="AS39" s="164"/>
+      <c r="AT39" s="164"/>
+      <c r="AU39" s="164"/>
+      <c r="AV39" s="164"/>
+      <c r="AW39" s="164"/>
+      <c r="AX39" s="164"/>
+      <c r="AY39" s="164"/>
+      <c r="AZ39" s="164"/>
+      <c r="BA39" s="259"/>
+      <c r="BB39" s="260"/>
+      <c r="BC39" s="261"/>
+      <c r="BD39" s="262"/>
+      <c r="BE39" s="261"/>
       <c r="BF39" s="11"/>
       <c r="BG39" s="11"/>
       <c r="BH39" s="11"/>
@@ -10402,7 +10403,7 @@
         <f>IF(_Area34_day_shift!E5="","",_Area34_day_shift!E5)</f>
         <v/>
       </c>
-      <c r="I40" s="122" t="str">
+      <c r="I40" s="121" t="str">
         <f>IF(_Area34_day_shift!F5="","",_Area34_day_shift!F5)</f>
         <v/>
       </c>
@@ -10410,7 +10411,7 @@
         <f>IF(_Area34_day_shift!G5="","",_Area34_day_shift!G5)</f>
         <v/>
       </c>
-      <c r="K40" s="122" t="str">
+      <c r="K40" s="121" t="str">
         <f>IF(_Area34_day_shift!H5="","",_Area34_day_shift!H5)</f>
         <v/>
       </c>
@@ -10466,7 +10467,7 @@
         <f>IF(_Area34_day_shift!U5="","",_Area34_day_shift!U5)</f>
         <v/>
       </c>
-      <c r="Y40" s="168" t="str">
+      <c r="Y40" s="165" t="str">
         <f>IF(_Area34_day_shift!V5="","",_Area34_day_shift!V5)</f>
         <v/>
       </c>
@@ -10478,36 +10479,36 @@
         <f>IF(_Area34_day_shift!X5="","",_Area34_day_shift!X5)</f>
         <v/>
       </c>
-      <c r="AB40" s="169"/>
-      <c r="AC40" s="170"/>
-      <c r="AD40" s="170"/>
-      <c r="AE40" s="170"/>
-      <c r="AF40" s="170"/>
-      <c r="AG40" s="170"/>
-      <c r="AH40" s="170"/>
-      <c r="AI40" s="170"/>
-      <c r="AJ40" s="170"/>
-      <c r="AK40" s="170"/>
-      <c r="AL40" s="170"/>
-      <c r="AM40" s="170"/>
-      <c r="AN40" s="170"/>
-      <c r="AO40" s="170"/>
-      <c r="AP40" s="170"/>
-      <c r="AQ40" s="170"/>
-      <c r="AR40" s="170"/>
-      <c r="AS40" s="170"/>
-      <c r="AT40" s="170"/>
-      <c r="AU40" s="170"/>
-      <c r="AV40" s="170"/>
-      <c r="AW40" s="170"/>
-      <c r="AX40" s="170"/>
-      <c r="AY40" s="170"/>
-      <c r="AZ40" s="170"/>
-      <c r="BA40" s="266"/>
-      <c r="BB40" s="263"/>
-      <c r="BC40" s="264"/>
-      <c r="BD40" s="265"/>
-      <c r="BE40" s="264"/>
+      <c r="AB40" s="166"/>
+      <c r="AC40" s="167"/>
+      <c r="AD40" s="167"/>
+      <c r="AE40" s="167"/>
+      <c r="AF40" s="167"/>
+      <c r="AG40" s="167"/>
+      <c r="AH40" s="167"/>
+      <c r="AI40" s="167"/>
+      <c r="AJ40" s="167"/>
+      <c r="AK40" s="167"/>
+      <c r="AL40" s="167"/>
+      <c r="AM40" s="167"/>
+      <c r="AN40" s="167"/>
+      <c r="AO40" s="167"/>
+      <c r="AP40" s="167"/>
+      <c r="AQ40" s="167"/>
+      <c r="AR40" s="167"/>
+      <c r="AS40" s="167"/>
+      <c r="AT40" s="167"/>
+      <c r="AU40" s="167"/>
+      <c r="AV40" s="167"/>
+      <c r="AW40" s="167"/>
+      <c r="AX40" s="167"/>
+      <c r="AY40" s="167"/>
+      <c r="AZ40" s="167"/>
+      <c r="BA40" s="263"/>
+      <c r="BB40" s="260"/>
+      <c r="BC40" s="261"/>
+      <c r="BD40" s="262"/>
+      <c r="BE40" s="261"/>
       <c r="BF40" s="11"/>
       <c r="BG40" s="11"/>
       <c r="BH40" s="11"/>
@@ -10542,7 +10543,7 @@
         <f>IF(_Area34_day_shift!E6="","",_Area34_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="I41" s="123" t="str">
+      <c r="I41" s="122" t="str">
         <f>IF(_Area34_day_shift!F6="","",_Area34_day_shift!F6)</f>
         <v/>
       </c>
@@ -10550,7 +10551,7 @@
         <f>IF(_Area34_day_shift!G6="","",_Area34_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="K41" s="123" t="str">
+      <c r="K41" s="122" t="str">
         <f>IF(_Area34_day_shift!H6="","",_Area34_day_shift!H6)</f>
         <v/>
       </c>
@@ -10602,11 +10603,11 @@
         <f>IF(_Area34_day_shift!T6="","",_Area34_day_shift!T6)</f>
         <v/>
       </c>
-      <c r="X41" s="134" t="str">
+      <c r="X41" s="133" t="str">
         <f>IF(_Area34_day_shift!U6="","",_Area34_day_shift!U6)</f>
         <v/>
       </c>
-      <c r="Y41" s="171" t="str">
+      <c r="Y41" s="168" t="str">
         <f>IF(_Area34_day_shift!V6="","",_Area34_day_shift!V6)</f>
         <v/>
       </c>
@@ -10618,36 +10619,36 @@
         <f>IF(_Area34_day_shift!X6="","",_Area34_day_shift!X6)</f>
         <v/>
       </c>
-      <c r="AB41" s="166"/>
-      <c r="AC41" s="167"/>
-      <c r="AD41" s="167"/>
-      <c r="AE41" s="167"/>
-      <c r="AF41" s="167"/>
-      <c r="AG41" s="167"/>
-      <c r="AH41" s="167"/>
-      <c r="AI41" s="167"/>
-      <c r="AJ41" s="167"/>
-      <c r="AK41" s="167"/>
-      <c r="AL41" s="167"/>
-      <c r="AM41" s="167"/>
-      <c r="AN41" s="167"/>
-      <c r="AO41" s="167"/>
-      <c r="AP41" s="167"/>
-      <c r="AQ41" s="167"/>
-      <c r="AR41" s="167"/>
-      <c r="AS41" s="167"/>
-      <c r="AT41" s="167"/>
-      <c r="AU41" s="167"/>
-      <c r="AV41" s="167"/>
-      <c r="AW41" s="167"/>
-      <c r="AX41" s="167"/>
-      <c r="AY41" s="167"/>
-      <c r="AZ41" s="167"/>
-      <c r="BA41" s="262"/>
-      <c r="BB41" s="244"/>
-      <c r="BC41" s="267"/>
-      <c r="BD41" s="268"/>
-      <c r="BE41" s="267"/>
+      <c r="AB41" s="163"/>
+      <c r="AC41" s="164"/>
+      <c r="AD41" s="164"/>
+      <c r="AE41" s="164"/>
+      <c r="AF41" s="164"/>
+      <c r="AG41" s="164"/>
+      <c r="AH41" s="164"/>
+      <c r="AI41" s="164"/>
+      <c r="AJ41" s="164"/>
+      <c r="AK41" s="164"/>
+      <c r="AL41" s="164"/>
+      <c r="AM41" s="164"/>
+      <c r="AN41" s="164"/>
+      <c r="AO41" s="164"/>
+      <c r="AP41" s="164"/>
+      <c r="AQ41" s="164"/>
+      <c r="AR41" s="164"/>
+      <c r="AS41" s="164"/>
+      <c r="AT41" s="164"/>
+      <c r="AU41" s="164"/>
+      <c r="AV41" s="164"/>
+      <c r="AW41" s="164"/>
+      <c r="AX41" s="164"/>
+      <c r="AY41" s="164"/>
+      <c r="AZ41" s="164"/>
+      <c r="BA41" s="259"/>
+      <c r="BB41" s="241"/>
+      <c r="BC41" s="264"/>
+      <c r="BD41" s="265"/>
+      <c r="BE41" s="264"/>
       <c r="BF41" s="11"/>
       <c r="BG41" s="11"/>
       <c r="BH41" s="11"/>
@@ -10680,7 +10681,7 @@
         <f>IF(_Area34_day_shift!E7="","",_Area34_day_shift!E7)</f>
         <v/>
       </c>
-      <c r="I42" s="121" t="str">
+      <c r="I42" s="120" t="str">
         <f>IF(_Area34_day_shift!F7="","",_Area34_day_shift!F7)</f>
         <v/>
       </c>
@@ -10688,7 +10689,7 @@
         <f>IF(_Area34_day_shift!G7="","",_Area34_day_shift!G7)</f>
         <v/>
       </c>
-      <c r="K42" s="121" t="str">
+      <c r="K42" s="120" t="str">
         <f>IF(_Area34_day_shift!H7="","",_Area34_day_shift!H7)</f>
         <v/>
       </c>
@@ -10740,11 +10741,11 @@
         <f>IF(_Area34_day_shift!T7="","",_Area34_day_shift!T7)</f>
         <v/>
       </c>
-      <c r="X42" s="133" t="str">
+      <c r="X42" s="132" t="str">
         <f>IF(_Area34_day_shift!U7="","",_Area34_day_shift!U7)</f>
         <v/>
       </c>
-      <c r="Y42" s="165" t="str">
+      <c r="Y42" s="162" t="str">
         <f>IF(_Area34_day_shift!V7="","",_Area34_day_shift!V7)</f>
         <v/>
       </c>
@@ -10756,38 +10757,38 @@
         <f>IF(_Area34_day_shift!X7="","",_Area34_day_shift!X7)</f>
         <v/>
       </c>
-      <c r="AB42" s="166"/>
-      <c r="AC42" s="167"/>
-      <c r="AD42" s="167"/>
-      <c r="AE42" s="167"/>
-      <c r="AF42" s="167"/>
-      <c r="AG42" s="167"/>
-      <c r="AH42" s="167"/>
-      <c r="AI42" s="167"/>
-      <c r="AJ42" s="167"/>
-      <c r="AK42" s="167"/>
-      <c r="AL42" s="167"/>
-      <c r="AM42" s="167"/>
-      <c r="AN42" s="167"/>
-      <c r="AO42" s="167"/>
-      <c r="AP42" s="167"/>
-      <c r="AQ42" s="167"/>
-      <c r="AR42" s="167"/>
-      <c r="AS42" s="167"/>
-      <c r="AT42" s="167"/>
-      <c r="AU42" s="167"/>
-      <c r="AV42" s="167"/>
-      <c r="AW42" s="167"/>
-      <c r="AX42" s="167"/>
-      <c r="AY42" s="167"/>
-      <c r="AZ42" s="167"/>
-      <c r="BA42" s="262"/>
-      <c r="BB42" s="269" t="s">
+      <c r="AB42" s="163"/>
+      <c r="AC42" s="164"/>
+      <c r="AD42" s="164"/>
+      <c r="AE42" s="164"/>
+      <c r="AF42" s="164"/>
+      <c r="AG42" s="164"/>
+      <c r="AH42" s="164"/>
+      <c r="AI42" s="164"/>
+      <c r="AJ42" s="164"/>
+      <c r="AK42" s="164"/>
+      <c r="AL42" s="164"/>
+      <c r="AM42" s="164"/>
+      <c r="AN42" s="164"/>
+      <c r="AO42" s="164"/>
+      <c r="AP42" s="164"/>
+      <c r="AQ42" s="164"/>
+      <c r="AR42" s="164"/>
+      <c r="AS42" s="164"/>
+      <c r="AT42" s="164"/>
+      <c r="AU42" s="164"/>
+      <c r="AV42" s="164"/>
+      <c r="AW42" s="164"/>
+      <c r="AX42" s="164"/>
+      <c r="AY42" s="164"/>
+      <c r="AZ42" s="164"/>
+      <c r="BA42" s="259"/>
+      <c r="BB42" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="BC42" s="201"/>
-      <c r="BD42" s="201"/>
-      <c r="BE42" s="218"/>
+      <c r="BC42" s="198"/>
+      <c r="BD42" s="198"/>
+      <c r="BE42" s="215"/>
       <c r="BF42" s="11"/>
       <c r="BG42" s="11"/>
       <c r="BH42" s="11"/>
@@ -10820,7 +10821,7 @@
         <f>IF(_Area34_day_shift!E8="","",_Area34_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="I43" s="121" t="str">
+      <c r="I43" s="120" t="str">
         <f>IF(_Area34_day_shift!F8="","",_Area34_day_shift!F8)</f>
         <v/>
       </c>
@@ -10828,7 +10829,7 @@
         <f>IF(_Area34_day_shift!G8="","",_Area34_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="K43" s="121" t="str">
+      <c r="K43" s="120" t="str">
         <f>IF(_Area34_day_shift!H8="","",_Area34_day_shift!H8)</f>
         <v/>
       </c>
@@ -10880,11 +10881,11 @@
         <f>IF(_Area34_day_shift!T8="","",_Area34_day_shift!T8)</f>
         <v/>
       </c>
-      <c r="X43" s="133" t="str">
+      <c r="X43" s="132" t="str">
         <f>IF(_Area34_day_shift!U8="","",_Area34_day_shift!U8)</f>
         <v/>
       </c>
-      <c r="Y43" s="165" t="str">
+      <c r="Y43" s="162" t="str">
         <f>IF(_Area34_day_shift!V8="","",_Area34_day_shift!V8)</f>
         <v/>
       </c>
@@ -10896,43 +10897,43 @@
         <f>IF(_Area34_day_shift!X8="","",_Area34_day_shift!X8)</f>
         <v/>
       </c>
-      <c r="AB43" s="166"/>
-      <c r="AC43" s="167"/>
-      <c r="AD43" s="167"/>
-      <c r="AE43" s="167"/>
-      <c r="AF43" s="167"/>
-      <c r="AG43" s="167"/>
-      <c r="AH43" s="167"/>
-      <c r="AI43" s="167"/>
-      <c r="AJ43" s="167"/>
-      <c r="AK43" s="167"/>
-      <c r="AL43" s="167"/>
-      <c r="AM43" s="167"/>
-      <c r="AN43" s="167"/>
-      <c r="AO43" s="167"/>
-      <c r="AP43" s="167"/>
-      <c r="AQ43" s="167"/>
-      <c r="AR43" s="167"/>
-      <c r="AS43" s="167"/>
-      <c r="AT43" s="167"/>
-      <c r="AU43" s="167"/>
-      <c r="AV43" s="167"/>
-      <c r="AW43" s="167"/>
-      <c r="AX43" s="167"/>
-      <c r="AY43" s="167"/>
-      <c r="AZ43" s="167"/>
-      <c r="BA43" s="262"/>
-      <c r="BB43" s="270"/>
-      <c r="BC43" s="271"/>
-      <c r="BD43" s="271"/>
-      <c r="BE43" s="286"/>
+      <c r="AB43" s="163"/>
+      <c r="AC43" s="164"/>
+      <c r="AD43" s="164"/>
+      <c r="AE43" s="164"/>
+      <c r="AF43" s="164"/>
+      <c r="AG43" s="164"/>
+      <c r="AH43" s="164"/>
+      <c r="AI43" s="164"/>
+      <c r="AJ43" s="164"/>
+      <c r="AK43" s="164"/>
+      <c r="AL43" s="164"/>
+      <c r="AM43" s="164"/>
+      <c r="AN43" s="164"/>
+      <c r="AO43" s="164"/>
+      <c r="AP43" s="164"/>
+      <c r="AQ43" s="164"/>
+      <c r="AR43" s="164"/>
+      <c r="AS43" s="164"/>
+      <c r="AT43" s="164"/>
+      <c r="AU43" s="164"/>
+      <c r="AV43" s="164"/>
+      <c r="AW43" s="164"/>
+      <c r="AX43" s="164"/>
+      <c r="AY43" s="164"/>
+      <c r="AZ43" s="164"/>
+      <c r="BA43" s="259"/>
+      <c r="BB43" s="267"/>
+      <c r="BC43" s="268"/>
+      <c r="BD43" s="268"/>
+      <c r="BE43" s="285"/>
       <c r="BF43" s="11"/>
       <c r="BG43" s="11"/>
       <c r="BH43" s="11"/>
       <c r="BI43" s="11"/>
       <c r="BJ43" s="11"/>
     </row>
-    <row r="44" ht="15" spans="1:62">
+    <row r="44" ht="29.25" spans="1:62">
       <c r="A44" s="79">
         <v>8</v>
       </c>
@@ -10958,7 +10959,7 @@
         <f>IF(_Area34_day_shift!E9="","",_Area34_day_shift!E9)</f>
         <v/>
       </c>
-      <c r="I44" s="122" t="str">
+      <c r="I44" s="121" t="str">
         <f>IF(_Area34_day_shift!F9="","",_Area34_day_shift!F9)</f>
         <v/>
       </c>
@@ -10966,7 +10967,7 @@
         <f>IF(_Area34_day_shift!G9="","",_Area34_day_shift!G9)</f>
         <v/>
       </c>
-      <c r="K44" s="122" t="str">
+      <c r="K44" s="121" t="str">
         <f>IF(_Area34_day_shift!H9="","",_Area34_day_shift!H9)</f>
         <v/>
       </c>
@@ -11022,7 +11023,7 @@
         <f>IF(_Area34_day_shift!U9="","",_Area34_day_shift!U9)</f>
         <v/>
       </c>
-      <c r="Y44" s="168" t="str">
+      <c r="Y44" s="165" t="str">
         <f>IF(_Area34_day_shift!V9="","",_Area34_day_shift!V9)</f>
         <v/>
       </c>
@@ -11034,42 +11035,44 @@
         <f>IF(_Area34_day_shift!X9="","",_Area34_day_shift!X9)</f>
         <v/>
       </c>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="167"/>
-      <c r="AD44" s="167"/>
-      <c r="AE44" s="167"/>
-      <c r="AF44" s="167"/>
-      <c r="AG44" s="167"/>
-      <c r="AH44" s="167"/>
-      <c r="AI44" s="167"/>
-      <c r="AJ44" s="167"/>
-      <c r="AK44" s="167"/>
-      <c r="AL44" s="167"/>
-      <c r="AM44" s="167"/>
-      <c r="AN44" s="167"/>
-      <c r="AO44" s="167"/>
-      <c r="AP44" s="167"/>
-      <c r="AQ44" s="167"/>
-      <c r="AR44" s="167"/>
-      <c r="AS44" s="167"/>
-      <c r="AT44" s="167"/>
-      <c r="AU44" s="167"/>
-      <c r="AV44" s="167"/>
-      <c r="AW44" s="167"/>
-      <c r="AX44" s="167"/>
-      <c r="AY44" s="167"/>
-      <c r="AZ44" s="167"/>
-      <c r="BA44" s="262"/>
-      <c r="BB44" s="272" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC44" s="273">
+      <c r="AB44" s="163"/>
+      <c r="AC44" s="164"/>
+      <c r="AD44" s="164"/>
+      <c r="AE44" s="164"/>
+      <c r="AF44" s="164"/>
+      <c r="AG44" s="164"/>
+      <c r="AH44" s="164"/>
+      <c r="AI44" s="164"/>
+      <c r="AJ44" s="164"/>
+      <c r="AK44" s="164"/>
+      <c r="AL44" s="164"/>
+      <c r="AM44" s="164"/>
+      <c r="AN44" s="164"/>
+      <c r="AO44" s="164"/>
+      <c r="AP44" s="164"/>
+      <c r="AQ44" s="164"/>
+      <c r="AR44" s="164"/>
+      <c r="AS44" s="164"/>
+      <c r="AT44" s="164"/>
+      <c r="AU44" s="164"/>
+      <c r="AV44" s="164"/>
+      <c r="AW44" s="164"/>
+      <c r="AX44" s="164"/>
+      <c r="AY44" s="164"/>
+      <c r="AZ44" s="164"/>
+      <c r="BA44" s="259"/>
+      <c r="BB44" s="269" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC44" s="270">
+        <f>SUM(BC14,BC22,BC30)</f>
         <v>0</v>
       </c>
-      <c r="BD44" s="272" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE44" s="273">
+      <c r="BD44" s="269" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE44" s="270">
+        <f>SUM(BE14,BE22,BE30)</f>
         <v>0</v>
       </c>
       <c r="BF44" s="11"/>
@@ -11078,12 +11081,12 @@
       <c r="BI44" s="11"/>
       <c r="BJ44" s="11"/>
     </row>
-    <row r="45" ht="14.25" spans="1:62">
+    <row r="45" ht="15" spans="1:62">
       <c r="A45" s="73">
         <v>9</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="86"/>
       <c r="D45" s="94" t="str">
@@ -11106,7 +11109,7 @@
         <f>IF(_Area34_day_shift!E10="","",_Area34_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="I45" s="124" t="str">
+      <c r="I45" s="123" t="str">
         <f>IF(_Area34_day_shift!F10="","",_Area34_day_shift!F10)</f>
         <v/>
       </c>
@@ -11114,7 +11117,7 @@
         <f>IF(_Area34_day_shift!G10="","",_Area34_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="K45" s="124" t="str">
+      <c r="K45" s="123" t="str">
         <f>IF(_Area34_day_shift!H10="","",_Area34_day_shift!H10)</f>
         <v/>
       </c>
@@ -11166,11 +11169,11 @@
         <f>IF(_Area34_day_shift!T10="","",_Area34_day_shift!T10)</f>
         <v/>
       </c>
-      <c r="X45" s="135" t="str">
+      <c r="X45" s="134" t="str">
         <f>IF(_Area34_day_shift!U10="","",_Area34_day_shift!U10)</f>
         <v/>
       </c>
-      <c r="Y45" s="172" t="str">
+      <c r="Y45" s="169" t="str">
         <f>IF(_Area34_day_shift!V10="","",_Area34_day_shift!V10)</f>
         <v/>
       </c>
@@ -11178,47 +11181,47 @@
         <f>IF(_Area34_day_shift!W10="","",_Area34_day_shift!W10)</f>
         <v/>
       </c>
-      <c r="AA45" s="124" t="str">
+      <c r="AA45" s="123" t="str">
         <f>IF(_Area34_day_shift!X10="","",_Area34_day_shift!X10)</f>
         <v/>
       </c>
-      <c r="AB45" s="163"/>
-      <c r="AC45" s="164"/>
-      <c r="AD45" s="164"/>
-      <c r="AE45" s="164"/>
-      <c r="AF45" s="164"/>
-      <c r="AG45" s="164"/>
-      <c r="AH45" s="164"/>
-      <c r="AI45" s="164"/>
-      <c r="AJ45" s="164"/>
-      <c r="AK45" s="164"/>
-      <c r="AL45" s="164"/>
-      <c r="AM45" s="164"/>
-      <c r="AN45" s="164"/>
-      <c r="AO45" s="164"/>
-      <c r="AP45" s="164"/>
-      <c r="AQ45" s="164"/>
-      <c r="AR45" s="164"/>
-      <c r="AS45" s="164"/>
-      <c r="AT45" s="164"/>
-      <c r="AU45" s="164"/>
-      <c r="AV45" s="164"/>
-      <c r="AW45" s="164"/>
-      <c r="AX45" s="164"/>
-      <c r="AY45" s="164"/>
-      <c r="AZ45" s="164"/>
-      <c r="BA45" s="258"/>
-      <c r="BB45" s="274"/>
-      <c r="BC45" s="275"/>
-      <c r="BD45" s="274"/>
-      <c r="BE45" s="275"/>
+      <c r="AB45" s="160"/>
+      <c r="AC45" s="161"/>
+      <c r="AD45" s="161"/>
+      <c r="AE45" s="161"/>
+      <c r="AF45" s="161"/>
+      <c r="AG45" s="161"/>
+      <c r="AH45" s="161"/>
+      <c r="AI45" s="161"/>
+      <c r="AJ45" s="161"/>
+      <c r="AK45" s="161"/>
+      <c r="AL45" s="161"/>
+      <c r="AM45" s="161"/>
+      <c r="AN45" s="161"/>
+      <c r="AO45" s="161"/>
+      <c r="AP45" s="161"/>
+      <c r="AQ45" s="161"/>
+      <c r="AR45" s="161"/>
+      <c r="AS45" s="161"/>
+      <c r="AT45" s="161"/>
+      <c r="AU45" s="161"/>
+      <c r="AV45" s="161"/>
+      <c r="AW45" s="161"/>
+      <c r="AX45" s="161"/>
+      <c r="AY45" s="161"/>
+      <c r="AZ45" s="161"/>
+      <c r="BA45" s="255"/>
+      <c r="BB45" s="271"/>
+      <c r="BC45" s="272"/>
+      <c r="BD45" s="271"/>
+      <c r="BE45" s="272"/>
       <c r="BF45" s="11"/>
       <c r="BG45" s="11"/>
       <c r="BH45" s="11"/>
       <c r="BI45" s="11"/>
       <c r="BJ45" s="11"/>
     </row>
-    <row r="46" ht="14.25" spans="1:62">
+    <row r="46" ht="29.25" spans="1:62">
       <c r="A46" s="73">
         <v>10</v>
       </c>
@@ -11244,7 +11247,7 @@
         <f>IF(_Area34_day_shift!E11="","",_Area34_day_shift!E11)</f>
         <v/>
       </c>
-      <c r="I46" s="121" t="str">
+      <c r="I46" s="120" t="str">
         <f>IF(_Area34_day_shift!F11="","",_Area34_day_shift!F11)</f>
         <v/>
       </c>
@@ -11252,7 +11255,7 @@
         <f>IF(_Area34_day_shift!G11="","",_Area34_day_shift!G11)</f>
         <v/>
       </c>
-      <c r="K46" s="121" t="str">
+      <c r="K46" s="120" t="str">
         <f>IF(_Area34_day_shift!H11="","",_Area34_day_shift!H11)</f>
         <v/>
       </c>
@@ -11304,11 +11307,11 @@
         <f>IF(_Area34_day_shift!T11="","",_Area34_day_shift!T11)</f>
         <v/>
       </c>
-      <c r="X46" s="136" t="str">
+      <c r="X46" s="135" t="str">
         <f>IF(_Area34_day_shift!U11="","",_Area34_day_shift!U11)</f>
         <v/>
       </c>
-      <c r="Y46" s="165" t="str">
+      <c r="Y46" s="162" t="str">
         <f>IF(_Area34_day_shift!V11="","",_Area34_day_shift!V11)</f>
         <v/>
       </c>
@@ -11316,40 +11319,50 @@
         <f>IF(_Area34_day_shift!W11="","",_Area34_day_shift!W11)</f>
         <v/>
       </c>
-      <c r="AA46" s="121" t="str">
+      <c r="AA46" s="120" t="str">
         <f>IF(_Area34_day_shift!X11="","",_Area34_day_shift!X11)</f>
         <v/>
       </c>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="167"/>
-      <c r="AD46" s="167"/>
-      <c r="AE46" s="167"/>
-      <c r="AF46" s="167"/>
-      <c r="AG46" s="167"/>
-      <c r="AH46" s="167"/>
-      <c r="AI46" s="167"/>
-      <c r="AJ46" s="167"/>
-      <c r="AK46" s="167"/>
-      <c r="AL46" s="167"/>
-      <c r="AM46" s="167"/>
-      <c r="AN46" s="167"/>
-      <c r="AO46" s="167"/>
-      <c r="AP46" s="167"/>
-      <c r="AQ46" s="167"/>
-      <c r="AR46" s="167"/>
-      <c r="AS46" s="167"/>
-      <c r="AT46" s="167"/>
-      <c r="AU46" s="167"/>
-      <c r="AV46" s="167"/>
-      <c r="AW46" s="167"/>
-      <c r="AX46" s="167"/>
-      <c r="AY46" s="167"/>
-      <c r="AZ46" s="167"/>
-      <c r="BA46" s="262"/>
-      <c r="BB46" s="274"/>
-      <c r="BC46" s="275"/>
-      <c r="BD46" s="274"/>
-      <c r="BE46" s="275"/>
+      <c r="AB46" s="163"/>
+      <c r="AC46" s="164"/>
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="164"/>
+      <c r="AF46" s="164"/>
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="164"/>
+      <c r="AI46" s="164"/>
+      <c r="AJ46" s="164"/>
+      <c r="AK46" s="164"/>
+      <c r="AL46" s="164"/>
+      <c r="AM46" s="164"/>
+      <c r="AN46" s="164"/>
+      <c r="AO46" s="164"/>
+      <c r="AP46" s="164"/>
+      <c r="AQ46" s="164"/>
+      <c r="AR46" s="164"/>
+      <c r="AS46" s="164"/>
+      <c r="AT46" s="164"/>
+      <c r="AU46" s="164"/>
+      <c r="AV46" s="164"/>
+      <c r="AW46" s="164"/>
+      <c r="AX46" s="164"/>
+      <c r="AY46" s="164"/>
+      <c r="AZ46" s="164"/>
+      <c r="BA46" s="259"/>
+      <c r="BB46" s="273" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC46" s="274">
+        <f>SUM(BC15,BC23,BC32)</f>
+        <v>0</v>
+      </c>
+      <c r="BD46" s="273" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE46" s="274">
+        <f>SUM(BE15,BE23,BE32)</f>
+        <v>0</v>
+      </c>
       <c r="BF46" s="11"/>
       <c r="BG46" s="11"/>
       <c r="BH46" s="11"/>
@@ -11382,7 +11395,7 @@
         <f>IF(_Area34_day_shift!E12="","",_Area34_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="I47" s="121" t="str">
+      <c r="I47" s="120" t="str">
         <f>IF(_Area34_day_shift!F12="","",_Area34_day_shift!F12)</f>
         <v/>
       </c>
@@ -11390,7 +11403,7 @@
         <f>IF(_Area34_day_shift!G12="","",_Area34_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="K47" s="121" t="str">
+      <c r="K47" s="120" t="str">
         <f>IF(_Area34_day_shift!H12="","",_Area34_day_shift!H12)</f>
         <v/>
       </c>
@@ -11442,11 +11455,11 @@
         <f>IF(_Area34_day_shift!T12="","",_Area34_day_shift!T12)</f>
         <v/>
       </c>
-      <c r="X47" s="136" t="str">
+      <c r="X47" s="135" t="str">
         <f>IF(_Area34_day_shift!U12="","",_Area34_day_shift!U12)</f>
         <v/>
       </c>
-      <c r="Y47" s="165" t="str">
+      <c r="Y47" s="162" t="str">
         <f>IF(_Area34_day_shift!V12="","",_Area34_day_shift!V12)</f>
         <v/>
       </c>
@@ -11454,40 +11467,40 @@
         <f>IF(_Area34_day_shift!W12="","",_Area34_day_shift!W12)</f>
         <v/>
       </c>
-      <c r="AA47" s="121" t="str">
+      <c r="AA47" s="120" t="str">
         <f>IF(_Area34_day_shift!X12="","",_Area34_day_shift!X12)</f>
         <v/>
       </c>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="167"/>
-      <c r="AD47" s="167"/>
-      <c r="AE47" s="167"/>
-      <c r="AF47" s="167"/>
-      <c r="AG47" s="167"/>
-      <c r="AH47" s="167"/>
-      <c r="AI47" s="167"/>
-      <c r="AJ47" s="167"/>
-      <c r="AK47" s="167"/>
-      <c r="AL47" s="167"/>
-      <c r="AM47" s="167"/>
-      <c r="AN47" s="167"/>
-      <c r="AO47" s="167"/>
-      <c r="AP47" s="167"/>
-      <c r="AQ47" s="167"/>
-      <c r="AR47" s="167"/>
-      <c r="AS47" s="167"/>
-      <c r="AT47" s="167"/>
-      <c r="AU47" s="167"/>
-      <c r="AV47" s="167"/>
-      <c r="AW47" s="167"/>
-      <c r="AX47" s="167"/>
-      <c r="AY47" s="167"/>
-      <c r="AZ47" s="167"/>
-      <c r="BA47" s="262"/>
-      <c r="BB47" s="274"/>
-      <c r="BC47" s="275"/>
-      <c r="BD47" s="274"/>
-      <c r="BE47" s="275"/>
+      <c r="AB47" s="163"/>
+      <c r="AC47" s="164"/>
+      <c r="AD47" s="164"/>
+      <c r="AE47" s="164"/>
+      <c r="AF47" s="164"/>
+      <c r="AG47" s="164"/>
+      <c r="AH47" s="164"/>
+      <c r="AI47" s="164"/>
+      <c r="AJ47" s="164"/>
+      <c r="AK47" s="164"/>
+      <c r="AL47" s="164"/>
+      <c r="AM47" s="164"/>
+      <c r="AN47" s="164"/>
+      <c r="AO47" s="164"/>
+      <c r="AP47" s="164"/>
+      <c r="AQ47" s="164"/>
+      <c r="AR47" s="164"/>
+      <c r="AS47" s="164"/>
+      <c r="AT47" s="164"/>
+      <c r="AU47" s="164"/>
+      <c r="AV47" s="164"/>
+      <c r="AW47" s="164"/>
+      <c r="AX47" s="164"/>
+      <c r="AY47" s="164"/>
+      <c r="AZ47" s="164"/>
+      <c r="BA47" s="259"/>
+      <c r="BB47" s="271"/>
+      <c r="BC47" s="272"/>
+      <c r="BD47" s="271"/>
+      <c r="BE47" s="272"/>
       <c r="BF47" s="11"/>
       <c r="BG47" s="11"/>
       <c r="BH47" s="11"/>
@@ -11520,7 +11533,7 @@
         <f>IF(_Area34_day_shift!E13="","",_Area34_day_shift!E13)</f>
         <v/>
       </c>
-      <c r="I48" s="125" t="str">
+      <c r="I48" s="124" t="str">
         <f>IF(_Area34_day_shift!F13="","",_Area34_day_shift!F13)</f>
         <v/>
       </c>
@@ -11528,7 +11541,7 @@
         <f>IF(_Area34_day_shift!G13="","",_Area34_day_shift!G13)</f>
         <v/>
       </c>
-      <c r="K48" s="122" t="str">
+      <c r="K48" s="121" t="str">
         <f>IF(_Area34_day_shift!H13="","",_Area34_day_shift!H13)</f>
         <v/>
       </c>
@@ -11580,11 +11593,11 @@
         <f>IF(_Area34_day_shift!T13="","",_Area34_day_shift!T13)</f>
         <v/>
       </c>
-      <c r="X48" s="136" t="str">
+      <c r="X48" s="135" t="str">
         <f>IF(_Area34_day_shift!U13="","",_Area34_day_shift!U13)</f>
         <v/>
       </c>
-      <c r="Y48" s="168" t="str">
+      <c r="Y48" s="165" t="str">
         <f>IF(_Area34_day_shift!V13="","",_Area34_day_shift!V13)</f>
         <v/>
       </c>
@@ -11592,48 +11605,48 @@
         <f>IF(_Area34_day_shift!W13="","",_Area34_day_shift!W13)</f>
         <v/>
       </c>
-      <c r="AA48" s="121" t="str">
+      <c r="AA48" s="120" t="str">
         <f>IF(_Area34_day_shift!X13="","",_Area34_day_shift!X13)</f>
         <v/>
       </c>
-      <c r="AB48" s="166"/>
-      <c r="AC48" s="167"/>
-      <c r="AD48" s="167"/>
-      <c r="AE48" s="167"/>
-      <c r="AF48" s="167"/>
-      <c r="AG48" s="167"/>
-      <c r="AH48" s="167"/>
-      <c r="AI48" s="167"/>
-      <c r="AJ48" s="167"/>
-      <c r="AK48" s="167"/>
-      <c r="AL48" s="167"/>
-      <c r="AM48" s="167"/>
-      <c r="AN48" s="167"/>
-      <c r="AO48" s="167"/>
-      <c r="AP48" s="167"/>
-      <c r="AQ48" s="167"/>
-      <c r="AR48" s="167"/>
-      <c r="AS48" s="167"/>
-      <c r="AT48" s="167"/>
-      <c r="AU48" s="167"/>
-      <c r="AV48" s="167"/>
-      <c r="AW48" s="167"/>
-      <c r="AX48" s="167"/>
-      <c r="AY48" s="167"/>
-      <c r="AZ48" s="167"/>
-      <c r="BA48" s="262"/>
-      <c r="BB48" s="274"/>
-      <c r="BC48" s="275"/>
-      <c r="BD48" s="274"/>
-      <c r="BE48" s="275"/>
+      <c r="AB48" s="163"/>
+      <c r="AC48" s="164"/>
+      <c r="AD48" s="164"/>
+      <c r="AE48" s="164"/>
+      <c r="AF48" s="164"/>
+      <c r="AG48" s="164"/>
+      <c r="AH48" s="164"/>
+      <c r="AI48" s="164"/>
+      <c r="AJ48" s="164"/>
+      <c r="AK48" s="164"/>
+      <c r="AL48" s="164"/>
+      <c r="AM48" s="164"/>
+      <c r="AN48" s="164"/>
+      <c r="AO48" s="164"/>
+      <c r="AP48" s="164"/>
+      <c r="AQ48" s="164"/>
+      <c r="AR48" s="164"/>
+      <c r="AS48" s="164"/>
+      <c r="AT48" s="164"/>
+      <c r="AU48" s="164"/>
+      <c r="AV48" s="164"/>
+      <c r="AW48" s="164"/>
+      <c r="AX48" s="164"/>
+      <c r="AY48" s="164"/>
+      <c r="AZ48" s="164"/>
+      <c r="BA48" s="259"/>
+      <c r="BB48" s="271"/>
+      <c r="BC48" s="272"/>
+      <c r="BD48" s="271"/>
+      <c r="BE48" s="272"/>
       <c r="BF48" s="11"/>
       <c r="BG48" s="11"/>
       <c r="BH48" s="11"/>
-      <c r="BI48" s="287"/>
+      <c r="BI48" s="286"/>
     </row>
     <row r="49" ht="15" spans="1:60">
       <c r="A49" s="97" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="98"/>
       <c r="C49" s="98"/>
@@ -11642,59 +11655,59 @@
       <c r="F49" s="98"/>
       <c r="G49" s="98"/>
       <c r="H49" s="98"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-      <c r="N49" s="127"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="127"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
-      <c r="U49" s="127"/>
-      <c r="V49" s="127"/>
-      <c r="W49" s="127"/>
-      <c r="X49" s="127"/>
-      <c r="Y49" s="127"/>
-      <c r="Z49" s="127"/>
-      <c r="AA49" s="173"/>
-      <c r="AB49" s="169"/>
-      <c r="AC49" s="170"/>
-      <c r="AD49" s="170"/>
-      <c r="AE49" s="170"/>
-      <c r="AF49" s="170"/>
-      <c r="AG49" s="170"/>
-      <c r="AH49" s="170"/>
-      <c r="AI49" s="170"/>
-      <c r="AJ49" s="170"/>
-      <c r="AK49" s="170"/>
-      <c r="AL49" s="170"/>
-      <c r="AM49" s="170"/>
-      <c r="AN49" s="170"/>
-      <c r="AO49" s="170"/>
-      <c r="AP49" s="170"/>
-      <c r="AQ49" s="170"/>
-      <c r="AR49" s="170"/>
-      <c r="AS49" s="170"/>
-      <c r="AT49" s="170"/>
-      <c r="AU49" s="170"/>
-      <c r="AV49" s="170"/>
-      <c r="AW49" s="170"/>
-      <c r="AX49" s="170"/>
-      <c r="AY49" s="170"/>
-      <c r="AZ49" s="170"/>
-      <c r="BA49" s="266"/>
-      <c r="BB49" s="276"/>
-      <c r="BC49" s="277"/>
-      <c r="BD49" s="276"/>
-      <c r="BE49" s="277"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="S49" s="126"/>
+      <c r="T49" s="126"/>
+      <c r="U49" s="126"/>
+      <c r="V49" s="126"/>
+      <c r="W49" s="126"/>
+      <c r="X49" s="126"/>
+      <c r="Y49" s="126"/>
+      <c r="Z49" s="126"/>
+      <c r="AA49" s="170"/>
+      <c r="AB49" s="166"/>
+      <c r="AC49" s="167"/>
+      <c r="AD49" s="167"/>
+      <c r="AE49" s="167"/>
+      <c r="AF49" s="167"/>
+      <c r="AG49" s="167"/>
+      <c r="AH49" s="167"/>
+      <c r="AI49" s="167"/>
+      <c r="AJ49" s="167"/>
+      <c r="AK49" s="167"/>
+      <c r="AL49" s="167"/>
+      <c r="AM49" s="167"/>
+      <c r="AN49" s="167"/>
+      <c r="AO49" s="167"/>
+      <c r="AP49" s="167"/>
+      <c r="AQ49" s="167"/>
+      <c r="AR49" s="167"/>
+      <c r="AS49" s="167"/>
+      <c r="AT49" s="167"/>
+      <c r="AU49" s="167"/>
+      <c r="AV49" s="167"/>
+      <c r="AW49" s="167"/>
+      <c r="AX49" s="167"/>
+      <c r="AY49" s="167"/>
+      <c r="AZ49" s="167"/>
+      <c r="BA49" s="263"/>
+      <c r="BB49" s="275"/>
+      <c r="BC49" s="276"/>
+      <c r="BD49" s="275"/>
+      <c r="BE49" s="276"/>
       <c r="BF49" s="11"/>
       <c r="BG49" s="11"/>
       <c r="BH49" s="11"/>
@@ -11908,7 +11921,6 @@
     <mergeCell ref="BE30:BE31"/>
     <mergeCell ref="BE32:BE33"/>
     <mergeCell ref="BE36:BE41"/>
-    <mergeCell ref="BB34:BE35"/>
     <mergeCell ref="BB42:BE43"/>
     <mergeCell ref="BB1:BE2"/>
     <mergeCell ref="BB3:BE6"/>
@@ -11917,6 +11929,7 @@
     <mergeCell ref="B45:C48"/>
     <mergeCell ref="AB41:BA44"/>
     <mergeCell ref="AB36:BA40"/>
+    <mergeCell ref="BB34:BE35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BF3" r:id="rId1" display="http://localhost:8080/swagger-ui.html#/ "/>
@@ -11960,133 +11973,133 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AP1" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -12123,145 +12136,145 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:47">
       <c r="A1" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AS1" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -12290,76 +12303,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:24">
